--- a/Tester2.xlsx
+++ b/Tester2.xlsx
@@ -24,7 +24,7 @@
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="23" r:id="rId5"/>
+    <pivotCache cacheId="16" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -662,11 +662,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1360188448"/>
-        <c:axId val="1360185184"/>
+        <c:axId val="-761442208"/>
+        <c:axId val="-761441120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1360188448"/>
+        <c:axId val="-761442208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360185184"/>
+        <c:crossAx val="-761441120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -717,7 +717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1360185184"/>
+        <c:axId val="-761441120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360188448"/>
+        <c:crossAx val="-761442208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -940,6 +940,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
@@ -985,6 +1026,47 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1020,29 +1102,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Run!$A$5:$A$7</c:f>
+              <c:f>Run!$A$5:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>133384</c:v>
+                  <c:v>133520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51192</c:v>
+                  <c:v>134976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137856</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$B$5:$B$7</c:f>
+              <c:f>Run!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1.6516156762295561E-2</c:v>
-                </c:pt>
+                <c:ptCount val="6"/>
                 <c:pt idx="1">
-                  <c:v>1.5990172705072376E-2</c:v>
+                  <c:v>3.3141288456666952E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.515897625147895E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0300426752955627E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,39 +1179,49 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Run!$A$5:$A$7</c:f>
+              <c:f>Run!$A$5:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>133384</c:v>
+                  <c:v>133520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51192</c:v>
+                  <c:v>134976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137856</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$C$5:$C$7</c:f>
+              <c:f>Run!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>3.3760086724508448E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.3842097415652382E-2</c:v>
+                <c:ptCount val="6"/>
+                <c:pt idx="2">
+                  <c:v>3.883773612943462E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3955207038106339E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7888838628288173E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B19-40FC-8792-B72E388B5F83}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1144,29 +1251,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Run!$A$5:$A$7</c:f>
+              <c:f>Run!$A$5:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>133384</c:v>
+                  <c:v>133520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51192</c:v>
+                  <c:v>134976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137856</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$D$5:$D$7</c:f>
+              <c:f>Run!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1026730620363974E-2</c:v>
+                  <c:v>3.9946007234232909E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1092828457186701E-2</c:v>
+                  <c:v>4.5915680880554852E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5688435739856405E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1201,29 +1323,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Run!$A$5:$A$7</c:f>
+              <c:f>Run!$A$5:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>133384</c:v>
+                  <c:v>133520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51192</c:v>
+                  <c:v>134976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136960</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>137856</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$E$5:$E$7</c:f>
+              <c:f>Run!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.9405127104566277E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9329665659002991E-2</c:v>
+                  <c:v>4.2206446785065861E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2783293378874911E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2798512137999838E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,11 +1376,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1360174848"/>
-        <c:axId val="1360185728"/>
+        <c:axId val="-761439488"/>
+        <c:axId val="-761438944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1360174848"/>
+        <c:axId val="-761439488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1423,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360185728"/>
+        <c:crossAx val="-761438944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1294,7 +1431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1360185728"/>
+        <c:axId val="-761438944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1360174848"/>
+        <c:crossAx val="-761439488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3517,151 +3654,177 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43156.486464583337" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="2386586">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43156.582428125002" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="71280">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="14">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="134820" count="136">
-        <n v="204"/>
-        <n v="1372"/>
-        <n v="1540"/>
-        <n v="1932"/>
-        <n v="2792"/>
-        <n v="2800"/>
-        <n v="5692"/>
-        <n v="6648"/>
-        <n v="7100"/>
-        <n v="11232"/>
-        <n v="13364"/>
-        <n v="15080"/>
-        <n v="15344"/>
-        <n v="18280"/>
-        <n v="20184"/>
-        <n v="21748"/>
-        <n v="22992"/>
-        <n v="24204"/>
-        <n v="24348"/>
-        <n v="24416"/>
-        <n v="25652"/>
-        <n v="25896"/>
-        <n v="26432"/>
-        <n v="28712"/>
-        <n v="30920"/>
-        <n v="31956"/>
-        <n v="32516"/>
-        <n v="32652"/>
-        <n v="33304"/>
-        <n v="35652"/>
-        <n v="35660"/>
-        <n v="36028"/>
-        <n v="36100"/>
-        <n v="39232"/>
-        <n v="39408"/>
-        <n v="39864"/>
-        <n v="40760"/>
-        <n v="41964"/>
-        <n v="42156"/>
-        <n v="42856"/>
-        <n v="43124"/>
-        <n v="43192"/>
-        <n v="43512"/>
-        <n v="43552"/>
-        <n v="44444"/>
-        <n v="44892"/>
-        <n v="45140"/>
-        <n v="45516"/>
-        <n v="46436"/>
-        <n v="46736"/>
-        <n v="47272"/>
-        <n v="47364"/>
-        <n v="47540"/>
-        <n v="47620"/>
-        <n v="47720"/>
-        <n v="48080"/>
-        <n v="48108"/>
-        <n v="48148"/>
-        <n v="48340"/>
-        <n v="48408"/>
-        <n v="48420"/>
-        <n v="49400"/>
-        <n v="50480"/>
-        <n v="50516"/>
-        <n v="51192"/>
-        <n v="52916"/>
-        <n v="53196"/>
-        <n v="54012"/>
-        <n v="54912"/>
-        <n v="56864"/>
-        <n v="57572"/>
-        <n v="58820"/>
-        <n v="58908"/>
-        <n v="59188"/>
-        <n v="59232"/>
-        <n v="59520"/>
-        <n v="60516"/>
-        <n v="61520"/>
-        <n v="62200"/>
-        <n v="62252"/>
-        <n v="65600"/>
-        <n v="66576"/>
-        <n v="68172"/>
-        <n v="68332"/>
-        <n v="69212"/>
-        <n v="69736"/>
-        <n v="69744"/>
-        <n v="71240"/>
-        <n v="73656"/>
-        <n v="75272"/>
-        <n v="75860"/>
-        <n v="76352"/>
-        <n v="76784"/>
-        <n v="77892"/>
-        <n v="78280"/>
-        <n v="78540"/>
-        <n v="79928"/>
-        <n v="80584"/>
-        <n v="80640"/>
-        <n v="80664"/>
-        <n v="81520"/>
-        <n v="81684"/>
-        <n v="82796"/>
-        <n v="83400"/>
-        <n v="84052"/>
-        <n v="84076"/>
-        <n v="84436"/>
-        <n v="87852"/>
-        <n v="89780"/>
-        <n v="92856"/>
-        <n v="93268"/>
-        <n v="94568"/>
-        <n v="94576"/>
-        <n v="96972"/>
-        <n v="123572"/>
-        <n v="133312"/>
-        <n v="133384"/>
-        <n v="134664"/>
-        <n v="134708"/>
-        <n v="134752"/>
-        <n v="134820"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="138212" count="155">
+        <n v="133520"/>
+        <n v="134976"/>
+        <n v="136024"/>
+        <n v="136960"/>
+        <n v="137196"/>
+        <n v="137856"/>
+        <n v="82796" u="1"/>
+        <n v="57572" u="1"/>
+        <n v="1932" u="1"/>
+        <n v="7100" u="1"/>
+        <n v="36028" u="1"/>
+        <n v="84052" u="1"/>
+        <n v="92856" u="1"/>
+        <n v="24204" u="1"/>
+        <n v="44892" u="1"/>
+        <n v="39232" u="1"/>
+        <n v="133912" u="1"/>
+        <n v="43512" u="1"/>
+        <n v="48340" u="1"/>
+        <n v="83400" u="1"/>
+        <n v="15344" u="1"/>
+        <n v="18280" u="1"/>
+        <n v="43552" u="1"/>
+        <n v="54912" u="1"/>
+        <n v="80640" u="1"/>
+        <n v="58908" u="1"/>
+        <n v="44444" u="1"/>
+        <n v="48420" u="1"/>
+        <n v="137152" u="1"/>
+        <n v="24416" u="1"/>
+        <n v="32652" u="1"/>
+        <n v="35660" u="1"/>
+        <n v="46736" u="1"/>
+        <n v="59232" u="1"/>
+        <n v="76784" u="1"/>
+        <n v="15080" u="1"/>
+        <n v="2792" u="1"/>
+        <n v="21748" u="1"/>
+        <n v="47364" u="1"/>
+        <n v="204" u="1"/>
+        <n v="43124" u="1"/>
         <n v="6288" u="1"/>
+        <n v="25896" u="1"/>
+        <n v="73656" u="1"/>
+        <n v="6648" u="1"/>
+        <n v="5692" u="1"/>
+        <n v="62252" u="1"/>
+        <n v="78280" u="1"/>
+        <n v="25652" u="1"/>
+        <n v="33304" u="1"/>
+        <n v="45516" u="1"/>
+        <n v="59188" u="1"/>
+        <n v="133648" u="1"/>
+        <n v="136204" u="1"/>
+        <n v="87852" u="1"/>
+        <n v="1540" u="1"/>
+        <n v="61520" u="1"/>
+        <n v="134172" u="1"/>
+        <n v="134740" u="1"/>
+        <n v="1372" u="1"/>
         <n v="17192" u="1"/>
+        <n v="81684" u="1"/>
+        <n v="134820" u="1"/>
+        <n v="20184" u="1"/>
+        <n v="26432" u="1"/>
+        <n v="39408" u="1"/>
+        <n v="41964" u="1"/>
+        <n v="42856" u="1"/>
+        <n v="68172" u="1"/>
+        <n v="75272" u="1"/>
+        <n v="81520" u="1"/>
+        <n v="84076" u="1"/>
         <n v="2192" u="1"/>
         <n v="22628" u="1"/>
         <n v="78152" u="1"/>
+        <n v="135220" u="1"/>
         <n v="23216" u="1"/>
+        <n v="36100" u="1"/>
+        <n v="58820" u="1"/>
+        <n v="133312" u="1"/>
+        <n v="136152" u="1"/>
+        <n v="54012" u="1"/>
+        <n v="68332" u="1"/>
         <n v="22100" u="1"/>
+        <n v="51192" u="1"/>
+        <n v="80584" u="1"/>
+        <n v="52916" u="1"/>
+        <n v="47540" u="1"/>
+        <n v="48108" u="1"/>
+        <n v="80664" u="1"/>
+        <n v="13364" u="1"/>
+        <n v="22992" u="1"/>
+        <n v="35652" u="1"/>
+        <n v="48148" u="1"/>
+        <n v="84436" u="1"/>
+        <n v="32516" u="1"/>
+        <n v="96972" u="1"/>
+        <n v="47620" u="1"/>
+        <n v="133384" u="1"/>
+        <n v="138212" u="1"/>
+        <n v="50480" u="1"/>
+        <n v="28712" u="1"/>
         <n v="6888" u="1"/>
+        <n v="94576" u="1"/>
+        <n v="137680" u="1"/>
+        <n v="47720" u="1"/>
+        <n v="79928" u="1"/>
+        <n v="69744" u="1"/>
+        <n v="53196" u="1"/>
         <n v="77532" u="1"/>
+        <n v="134752" u="1"/>
         <n v="20708" u="1"/>
+        <n v="47272" u="1"/>
+        <n v="48408" u="1"/>
+        <n v="40760" u="1"/>
+        <n v="66576" u="1"/>
+        <n v="134708" u="1"/>
+        <n v="31956" u="1"/>
+        <n v="69212" u="1"/>
+        <n v="71240" u="1"/>
+        <n v="76352" u="1"/>
+        <n v="134664" u="1"/>
+        <n v="137788" u="1"/>
+        <n v="50516" u="1"/>
+        <n v="65600" u="1"/>
         <n v="77244" u="1"/>
+        <n v="94568" u="1"/>
         <n v="7032" u="1"/>
+        <n v="45140" u="1"/>
+        <n v="49400" u="1"/>
+        <n v="89780" u="1"/>
+        <n v="62200" u="1"/>
+        <n v="77892" u="1"/>
+        <n v="24348" u="1"/>
+        <n v="43192" u="1"/>
+        <n v="60516" u="1"/>
+        <n v="93268" u="1"/>
+        <n v="136120" u="1"/>
         <n v="22512" u="1"/>
+        <n v="69736" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="91320" u="1"/>
+        <n v="2800" u="1"/>
+        <n v="56864" u="1"/>
+        <n v="48080" u="1"/>
         <n v="2412" u="1"/>
         <n v="23536" u="1"/>
+        <n v="30920" u="1"/>
+        <n v="39864" u="1"/>
+        <n v="11232" u="1"/>
+        <n v="42156" u="1"/>
+        <n v="75860" u="1"/>
+        <n v="123572" u="1"/>
+        <n v="46436" u="1"/>
+        <n v="59520" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="136040"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="118496" maxValue="136700" count="6">
+        <n v="135128"/>
+        <n v="136568"/>
+        <n v="136700"/>
+        <n v="132888"/>
+        <n v="136312"/>
+        <n v="118496"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="NETPROCESSID" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -3674,14 +3837,14 @@
       </sharedItems>
     </cacheField>
     <cacheField name="POS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="49799"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5939"/>
     </cacheField>
     <cacheField name="FEATUREID" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
+        <n v="2"/>
+        <n v="3"/>
         <n v="0"/>
         <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ACTUAL" numFmtId="0" sqlType="6">
@@ -3703,10 +3866,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.00000023841858" maxValue="1"/>
     </cacheField>
     <cacheField name="PREDICTEDTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.77474886178970304" maxValue="0.77143287658691395"/>
     </cacheField>
     <cacheField name="ERRORTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2.00000023841858"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.12341547012329E-7" maxValue="1.2204825878143299"/>
     </cacheField>
     <cacheField name="BARWIDTH" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -4704,147 +4867,166 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="137">
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="123"/>
-        <item h="1" m="1" x="134"/>
-        <item h="1" m="1" x="121"/>
-        <item h="1" m="1" x="128"/>
-        <item h="1" m="1" x="132"/>
-        <item h="1" m="1" x="122"/>
-        <item h="1" m="1" x="130"/>
-        <item h="1" m="1" x="127"/>
-        <item h="1" m="1" x="133"/>
-        <item h="1" m="1" x="124"/>
-        <item h="1" m="1" x="126"/>
-        <item h="1" m="1" x="135"/>
-        <item h="1" x="73"/>
-        <item h="1" m="1" x="131"/>
-        <item h="1" m="1" x="129"/>
-        <item h="1" m="1" x="125"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item h="1" x="25"/>
-        <item h="1" x="26"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="29"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="33"/>
-        <item h="1" x="34"/>
-        <item h="1" x="35"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="38"/>
-        <item h="1" x="39"/>
-        <item h="1" x="40"/>
-        <item h="1" x="41"/>
-        <item h="1" x="42"/>
-        <item h="1" x="43"/>
-        <item h="1" x="44"/>
-        <item h="1" x="45"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item h="1" x="59"/>
-        <item h="1" x="60"/>
-        <item h="1" x="61"/>
-        <item h="1" x="62"/>
-        <item h="1" x="63"/>
-        <item h="1" x="65"/>
-        <item h="1" x="66"/>
-        <item h="1" x="67"/>
-        <item h="1" x="68"/>
-        <item h="1" x="69"/>
-        <item h="1" x="70"/>
-        <item h="1" x="71"/>
-        <item h="1" x="72"/>
-        <item h="1" x="74"/>
-        <item h="1" x="75"/>
-        <item h="1" x="76"/>
-        <item h="1" x="77"/>
-        <item h="1" x="78"/>
-        <item h="1" x="79"/>
-        <item h="1" x="80"/>
-        <item h="1" x="81"/>
-        <item h="1" x="82"/>
-        <item h="1" x="83"/>
-        <item h="1" x="84"/>
-        <item h="1" x="85"/>
-        <item h="1" x="86"/>
-        <item h="1" x="87"/>
-        <item h="1" x="88"/>
-        <item h="1" x="89"/>
-        <item h="1" x="90"/>
-        <item h="1" x="91"/>
-        <item h="1" x="92"/>
-        <item h="1" x="93"/>
-        <item h="1" x="94"/>
-        <item h="1" x="95"/>
-        <item h="1" x="96"/>
-        <item h="1" x="97"/>
-        <item h="1" x="98"/>
-        <item h="1" x="99"/>
-        <item h="1" x="100"/>
-        <item h="1" x="101"/>
-        <item h="1" x="102"/>
-        <item h="1" x="103"/>
-        <item h="1" x="104"/>
-        <item h="1" x="105"/>
-        <item h="1" x="106"/>
-        <item h="1" x="107"/>
-        <item h="1" x="108"/>
-        <item h="1" x="109"/>
-        <item h="1" x="110"/>
-        <item h="1" x="111"/>
-        <item h="1" x="113"/>
-        <item h="1" x="115"/>
-        <item h="1" x="114"/>
-        <item h="1" x="118"/>
-        <item h="1" x="119"/>
-        <item h="1" x="19"/>
-        <item h="1" x="117"/>
-        <item h="1" x="120"/>
-        <item h="1" x="112"/>
-        <item x="116"/>
-        <item x="64"/>
+      <items count="156">
+        <item m="1" x="8"/>
+        <item m="1" x="72"/>
+        <item m="1" x="145"/>
+        <item m="1" x="41"/>
+        <item m="1" x="102"/>
+        <item m="1" x="127"/>
+        <item m="1" x="60"/>
+        <item m="1" x="111"/>
+        <item m="1" x="83"/>
+        <item m="1" x="138"/>
+        <item m="1" x="73"/>
+        <item m="1" x="76"/>
+        <item m="1" x="146"/>
+        <item m="1" x="51"/>
+        <item m="1" x="125"/>
+        <item m="1" x="109"/>
+        <item m="1" x="74"/>
+        <item m="1" x="39"/>
+        <item m="1" x="59"/>
+        <item m="1" x="55"/>
+        <item m="1" x="36"/>
+        <item m="1" x="142"/>
+        <item m="1" x="45"/>
+        <item m="1" x="44"/>
+        <item m="1" x="9"/>
+        <item m="1" x="149"/>
+        <item m="1" x="90"/>
+        <item m="1" x="35"/>
+        <item m="1" x="20"/>
+        <item m="1" x="21"/>
+        <item m="1" x="63"/>
+        <item m="1" x="37"/>
+        <item m="1" x="91"/>
+        <item m="1" x="13"/>
+        <item m="1" x="133"/>
+        <item m="1" x="48"/>
+        <item m="1" x="42"/>
+        <item m="1" x="64"/>
+        <item m="1" x="101"/>
+        <item m="1" x="147"/>
+        <item m="1" x="117"/>
+        <item m="1" x="95"/>
+        <item m="1" x="30"/>
+        <item m="1" x="49"/>
+        <item m="1" x="92"/>
+        <item m="1" x="31"/>
+        <item m="1" x="10"/>
+        <item m="1" x="77"/>
+        <item m="1" x="15"/>
+        <item m="1" x="65"/>
+        <item m="1" x="148"/>
+        <item m="1" x="114"/>
+        <item m="1" x="66"/>
+        <item m="1" x="150"/>
+        <item m="1" x="67"/>
+        <item m="1" x="40"/>
+        <item m="1" x="134"/>
+        <item m="1" x="17"/>
+        <item m="1" x="22"/>
+        <item m="1" x="26"/>
+        <item m="1" x="14"/>
+        <item m="1" x="128"/>
+        <item m="1" x="50"/>
+        <item m="1" x="153"/>
+        <item m="1" x="32"/>
+        <item m="1" x="112"/>
+        <item m="1" x="38"/>
+        <item m="1" x="87"/>
+        <item m="1" x="97"/>
+        <item m="1" x="105"/>
+        <item m="1" x="144"/>
+        <item m="1" x="88"/>
+        <item m="1" x="93"/>
+        <item m="1" x="18"/>
+        <item m="1" x="113"/>
+        <item m="1" x="27"/>
+        <item m="1" x="129"/>
+        <item m="1" x="100"/>
+        <item m="1" x="123"/>
+        <item m="1" x="86"/>
+        <item m="1" x="108"/>
+        <item m="1" x="81"/>
+        <item m="1" x="23"/>
+        <item m="1" x="143"/>
+        <item m="1" x="7"/>
+        <item m="1" x="78"/>
+        <item m="1" x="25"/>
+        <item m="1" x="33"/>
+        <item m="1" x="154"/>
+        <item m="1" x="135"/>
+        <item m="1" x="56"/>
+        <item m="1" x="131"/>
+        <item m="1" x="46"/>
+        <item m="1" x="124"/>
+        <item m="1" x="115"/>
+        <item m="1" x="68"/>
+        <item m="1" x="82"/>
+        <item m="1" x="118"/>
+        <item m="1" x="139"/>
+        <item m="1" x="107"/>
+        <item m="1" x="119"/>
+        <item m="1" x="43"/>
+        <item m="1" x="69"/>
+        <item m="1" x="151"/>
+        <item m="1" x="120"/>
+        <item m="1" x="34"/>
+        <item m="1" x="132"/>
+        <item m="1" x="47"/>
+        <item m="1" x="140"/>
+        <item m="1" x="106"/>
+        <item m="1" x="85"/>
+        <item m="1" x="24"/>
+        <item m="1" x="89"/>
+        <item m="1" x="70"/>
+        <item m="1" x="61"/>
+        <item m="1" x="6"/>
+        <item m="1" x="19"/>
+        <item m="1" x="11"/>
+        <item m="1" x="71"/>
+        <item m="1" x="94"/>
+        <item m="1" x="54"/>
+        <item m="1" x="130"/>
+        <item m="1" x="12"/>
+        <item m="1" x="136"/>
+        <item m="1" x="126"/>
+        <item m="1" x="96"/>
+        <item m="1" x="79"/>
+        <item m="1" x="152"/>
+        <item m="1" x="116"/>
+        <item m="1" x="110"/>
+        <item m="1" x="29"/>
+        <item m="1" x="121"/>
+        <item m="1" x="62"/>
+        <item m="1" x="103"/>
+        <item m="1" x="98"/>
+        <item m="1" x="84"/>
+        <item m="1" x="80"/>
+        <item m="1" x="137"/>
+        <item m="1" x="53"/>
+        <item m="1" x="104"/>
+        <item m="1" x="122"/>
+        <item m="1" x="99"/>
+        <item m="1" x="52"/>
+        <item m="1" x="141"/>
+        <item m="1" x="16"/>
+        <item m="1" x="57"/>
+        <item m="1" x="58"/>
+        <item m="1" x="75"/>
+        <item m="1" x="28"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4854,10 +5036,10 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="5">
+        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -4873,12 +5055,24 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="7">
     <i>
-      <x v="134"/>
+      <x v="149"/>
     </i>
     <i>
-      <x v="135"/>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
     </i>
     <i t="grand">
       <x/>
@@ -5190,143 +5384,162 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="2">
-      <items count="136">
-        <i x="0"/>
-        <i x="1"/>
-        <i x="2"/>
-        <i x="3"/>
-        <i x="4"/>
-        <i x="5"/>
-        <i x="6"/>
-        <i x="7"/>
-        <i x="8"/>
-        <i x="9"/>
-        <i x="10"/>
-        <i x="11"/>
-        <i x="12"/>
-        <i x="13"/>
-        <i x="14"/>
-        <i x="15"/>
-        <i x="16"/>
-        <i x="17"/>
-        <i x="18"/>
-        <i x="19"/>
-        <i x="20"/>
-        <i x="21"/>
-        <i x="22"/>
-        <i x="23"/>
-        <i x="24"/>
-        <i x="25"/>
-        <i x="26"/>
-        <i x="27"/>
-        <i x="28"/>
-        <i x="29"/>
-        <i x="30"/>
-        <i x="31"/>
-        <i x="32"/>
-        <i x="33"/>
-        <i x="34"/>
-        <i x="35"/>
-        <i x="36"/>
-        <i x="37"/>
-        <i x="38"/>
-        <i x="39"/>
-        <i x="40"/>
-        <i x="41"/>
-        <i x="42"/>
-        <i x="43"/>
-        <i x="44"/>
-        <i x="45"/>
-        <i x="46"/>
-        <i x="47"/>
-        <i x="48"/>
-        <i x="49"/>
-        <i x="50"/>
-        <i x="51"/>
-        <i x="52"/>
-        <i x="53"/>
-        <i x="54"/>
-        <i x="55"/>
-        <i x="56"/>
-        <i x="57"/>
-        <i x="58"/>
-        <i x="59"/>
-        <i x="60"/>
-        <i x="61"/>
-        <i x="62"/>
-        <i x="63"/>
-        <i x="64" s="1"/>
-        <i x="65"/>
-        <i x="66"/>
-        <i x="67"/>
-        <i x="68"/>
-        <i x="69"/>
-        <i x="70"/>
-        <i x="71"/>
-        <i x="72"/>
-        <i x="73"/>
-        <i x="74"/>
-        <i x="75"/>
-        <i x="76"/>
-        <i x="77"/>
-        <i x="78"/>
-        <i x="79"/>
-        <i x="80"/>
-        <i x="81"/>
-        <i x="82"/>
-        <i x="83"/>
-        <i x="84"/>
-        <i x="85"/>
-        <i x="86"/>
-        <i x="87"/>
-        <i x="88"/>
-        <i x="89"/>
-        <i x="90"/>
-        <i x="91"/>
-        <i x="92"/>
-        <i x="93"/>
-        <i x="94"/>
-        <i x="95"/>
-        <i x="96"/>
-        <i x="97"/>
-        <i x="98"/>
-        <i x="99"/>
-        <i x="100"/>
-        <i x="101"/>
-        <i x="102"/>
-        <i x="103"/>
-        <i x="104"/>
-        <i x="105"/>
-        <i x="106"/>
-        <i x="107"/>
-        <i x="108"/>
-        <i x="109"/>
-        <i x="110"/>
-        <i x="111"/>
-        <i x="112"/>
-        <i x="113"/>
-        <i x="114"/>
-        <i x="115"/>
-        <i x="116" s="1"/>
-        <i x="117"/>
-        <i x="118"/>
-        <i x="119"/>
-        <i x="120"/>
-        <i x="123" nd="1"/>
-        <i x="134" nd="1"/>
-        <i x="121" nd="1"/>
-        <i x="128" nd="1"/>
-        <i x="132" nd="1"/>
-        <i x="122" nd="1"/>
-        <i x="130" nd="1"/>
-        <i x="127" nd="1"/>
-        <i x="133" nd="1"/>
-        <i x="124" nd="1"/>
-        <i x="126" nd="1"/>
-        <i x="135" nd="1"/>
-        <i x="131" nd="1"/>
-        <i x="129" nd="1"/>
-        <i x="125" nd="1"/>
+      <items count="155">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="4" s="1"/>
+        <i x="5" s="1"/>
+        <i x="39" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="55" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
+        <i x="145" s="1" nd="1"/>
+        <i x="36" s="1" nd="1"/>
+        <i x="142" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
+        <i x="41" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="102" s="1" nd="1"/>
+        <i x="127" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="149" s="1" nd="1"/>
+        <i x="90" s="1" nd="1"/>
+        <i x="35" s="1" nd="1"/>
+        <i x="20" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="21" s="1" nd="1"/>
+        <i x="63" s="1" nd="1"/>
+        <i x="111" s="1" nd="1"/>
+        <i x="37" s="1" nd="1"/>
+        <i x="83" s="1" nd="1"/>
+        <i x="138" s="1" nd="1"/>
+        <i x="73" s="1" nd="1"/>
+        <i x="91" s="1" nd="1"/>
+        <i x="76" s="1" nd="1"/>
+        <i x="146" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="133" s="1" nd="1"/>
+        <i x="29" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="42" s="1" nd="1"/>
+        <i x="64" s="1" nd="1"/>
+        <i x="101" s="1" nd="1"/>
+        <i x="147" s="1" nd="1"/>
+        <i x="117" s="1" nd="1"/>
+        <i x="95" s="1" nd="1"/>
+        <i x="30" s="1" nd="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="92" s="1" nd="1"/>
+        <i x="31" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="148" s="1" nd="1"/>
+        <i x="114" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="150" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="40" s="1" nd="1"/>
+        <i x="134" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
+        <i x="26" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="128" s="1" nd="1"/>
+        <i x="50" s="1" nd="1"/>
+        <i x="153" s="1" nd="1"/>
+        <i x="32" s="1" nd="1"/>
+        <i x="112" s="1" nd="1"/>
+        <i x="38" s="1" nd="1"/>
+        <i x="87" s="1" nd="1"/>
+        <i x="97" s="1" nd="1"/>
+        <i x="105" s="1" nd="1"/>
+        <i x="144" s="1" nd="1"/>
+        <i x="88" s="1" nd="1"/>
+        <i x="93" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
+        <i x="113" s="1" nd="1"/>
+        <i x="27" s="1" nd="1"/>
+        <i x="129" s="1" nd="1"/>
+        <i x="100" s="1" nd="1"/>
+        <i x="123" s="1" nd="1"/>
+        <i x="84" s="1" nd="1"/>
+        <i x="86" s="1" nd="1"/>
+        <i x="108" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
+        <i x="23" s="1" nd="1"/>
+        <i x="143" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="25" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="33" s="1" nd="1"/>
+        <i x="154" s="1" nd="1"/>
+        <i x="135" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="131" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="124" s="1" nd="1"/>
+        <i x="115" s="1" nd="1"/>
+        <i x="68" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="118" s="1" nd="1"/>
+        <i x="139" s="1" nd="1"/>
+        <i x="107" s="1" nd="1"/>
+        <i x="119" s="1" nd="1"/>
+        <i x="43" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="151" s="1" nd="1"/>
+        <i x="120" s="1" nd="1"/>
+        <i x="34" s="1" nd="1"/>
+        <i x="125" s="1" nd="1"/>
+        <i x="109" s="1" nd="1"/>
+        <i x="132" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
+        <i x="47" s="1" nd="1"/>
+        <i x="140" s="1" nd="1"/>
+        <i x="106" s="1" nd="1"/>
+        <i x="85" s="1" nd="1"/>
+        <i x="24" s="1" nd="1"/>
+        <i x="89" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="61" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="19" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="71" s="1" nd="1"/>
+        <i x="94" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="130" s="1" nd="1"/>
+        <i x="141" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="136" s="1" nd="1"/>
+        <i x="126" s="1" nd="1"/>
+        <i x="103" s="1" nd="1"/>
+        <i x="96" s="1" nd="1"/>
+        <i x="152" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
+        <i x="98" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="121" s="1" nd="1"/>
+        <i x="116" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
+        <i x="110" s="1" nd="1"/>
+        <i x="62" s="1" nd="1"/>
+        <i x="75" s="1" nd="1"/>
+        <i x="137" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
+        <i x="53" s="1" nd="1"/>
+        <i x="28" s="1" nd="1"/>
+        <i x="104" s="1" nd="1"/>
+        <i x="122" s="1" nd="1"/>
+        <i x="99" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -5341,7 +5554,7 @@
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="PROCESSID 1" cache="Slicer_PROCESSID1" caption="PROCESSID" startItem="64" rowHeight="241300"/>
+  <slicer name="PROCESSID 1" cache="Slicer_PROCESSID1" caption="PROCESSID" startItem="102" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -6816,18 +7029,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F7"/>
+  <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6861,62 +7075,118 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>133384</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.6516156762295561E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.3760086724508448E-2</v>
-      </c>
+        <v>133520</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>3.1026730620363974E-2</v>
+        <v>3.9946007234232909E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>3.9405127104566277E-2</v>
+        <v>4.2206446785065861E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>3.0177025302933567E-2</v>
+        <v>4.1076227009649385E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>51192</v>
+        <v>134976</v>
       </c>
       <c r="B6" s="1">
-        <v>1.5990172705072376E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.3842097415652382E-2</v>
-      </c>
+        <v>3.3141288456666952E-2</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>3.1092828457186701E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.9329665659002991E-2</v>
-      </c>
+        <v>4.5915680880554852E-2</v>
+      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
-        <v>3.0063691059228612E-2</v>
+        <v>3.9528484668610898E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="3">
+        <v>136024</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.515897625147895E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.883773612943462E-2</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>3.6998356190456785E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>136960</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>3.3955207038106339E-2</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>4.2783293378874911E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3.8369250208490628E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>137196</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.0300426752955627E-3</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>4.2798512137999838E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.3914277406647703E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>137856</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>3.7888838628288173E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4.5688435739856405E-2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>4.1788637184072289E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <v>1.6253164733683968E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.3801092070080412E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.1059779538775339E-2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3.9367396381784638E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3.0120358181081087E-2</v>
+      <c r="B11" s="1">
+        <v>2.4443435794480488E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.6893927265276377E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.3850041284881389E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.2596084100646872E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3.6945872111321283E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tester2.xlsx
+++ b/Tester2.xlsx
@@ -24,7 +24,7 @@
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="16" r:id="rId5"/>
+    <pivotCache cacheId="48" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -911,9 +911,6 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -923,7 +920,19 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -1068,6 +1077,456 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1079,11 +1538,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Run!$B$3:$B$4</c:f>
+              <c:f>Run!$B$3:$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>133100 - 54988</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1098,48 +1557,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Run!$A$5:$A$11</c:f>
+              <c:f>Run!$A$6:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>133520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134976</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136024</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136960</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>137856</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$B$5:$B$11</c:f>
+              <c:f>Run!$B$6:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0951737113021039E-2</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3141288456666952E-2</c:v>
+                  <c:v>5.6764620197591958E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.515897625147895E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0300426752955627E-3</c:v>
+                  <c:v>7.1587257583936068E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2925817798133253E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1156,11 +1624,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Run!$C$3:$C$4</c:f>
+              <c:f>Run!$C$3:$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>139476 - 138304</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1175,192 +1643,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Run!$A$5:$A$11</c:f>
+              <c:f>Run!$A$6:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>133520</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134976</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>136024</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136960</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>137856</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$C$5:$C$11</c:f>
+              <c:f>Run!$C$6:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0951737113021039E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6764620197591958E-2</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.883773612943462E-2</c:v>
+                  <c:v>7.1587257583936068E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3955207038106339E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.7888838628288173E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run!$A$5:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>133520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134976</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>136024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>136960</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>137856</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run!$D$5:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.9946007234232909E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5915680880554852E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.5688435739856405E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run!$E$3:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run!$A$5:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>133520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>134976</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>136024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>136960</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>137856</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run!$E$5:$E$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.2206446785065861E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.2783293378874911E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2798512137999838E-2</c:v>
+                  <c:v>8.2925817798133253E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1375,6 +1708,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="-761439488"/>
         <c:axId val="-761438944"/>
@@ -2743,16 +3077,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>338137</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2779,8 +3113,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -3654,37 +3988,40 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43156.582428125002" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="71280">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43156.838012384258" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="4320">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="14">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="138212" count="155">
-        <n v="133520"/>
-        <n v="134976"/>
-        <n v="136024"/>
-        <n v="136960"/>
-        <n v="137196"/>
-        <n v="137856"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="139476" count="177">
+        <n v="133100"/>
+        <n v="139476"/>
         <n v="82796" u="1"/>
         <n v="57572" u="1"/>
+        <n v="134852" u="1"/>
         <n v="1932" u="1"/>
         <n v="7100" u="1"/>
         <n v="36028" u="1"/>
         <n v="84052" u="1"/>
         <n v="92856" u="1"/>
+        <n v="137000" u="1"/>
+        <n v="136024" u="1"/>
         <n v="24204" u="1"/>
         <n v="44892" u="1"/>
+        <n v="134400" u="1"/>
         <n v="39232" u="1"/>
         <n v="133912" u="1"/>
         <n v="43512" u="1"/>
         <n v="48340" u="1"/>
         <n v="83400" u="1"/>
+        <n v="38136" u="1"/>
+        <n v="137196" u="1"/>
         <n v="15344" u="1"/>
         <n v="18280" u="1"/>
         <n v="43552" u="1"/>
         <n v="54912" u="1"/>
         <n v="80640" u="1"/>
         <n v="58908" u="1"/>
+        <n v="138208" u="1"/>
         <n v="44444" u="1"/>
         <n v="48420" u="1"/>
         <n v="137152" u="1"/>
@@ -3698,11 +4035,16 @@
         <n v="2792" u="1"/>
         <n v="21748" u="1"/>
         <n v="47364" u="1"/>
+        <n v="137756" u="1"/>
         <n v="204" u="1"/>
         <n v="43124" u="1"/>
+        <n v="134428" u="1"/>
+        <n v="137268" u="1"/>
+        <n v="137836" u="1"/>
         <n v="6288" u="1"/>
         <n v="25896" u="1"/>
         <n v="73656" u="1"/>
+        <n v="137792" u="1"/>
         <n v="6648" u="1"/>
         <n v="5692" u="1"/>
         <n v="62252" u="1"/>
@@ -3718,6 +4060,7 @@
         <n v="61520" u="1"/>
         <n v="134172" u="1"/>
         <n v="134740" u="1"/>
+        <n v="137864" u="1"/>
         <n v="1372" u="1"/>
         <n v="17192" u="1"/>
         <n v="81684" u="1"/>
@@ -3740,15 +4083,22 @@
         <n v="58820" u="1"/>
         <n v="133312" u="1"/>
         <n v="136152" u="1"/>
+        <n v="137856" u="1"/>
         <n v="54012" u="1"/>
         <n v="68332" u="1"/>
         <n v="22100" u="1"/>
         <n v="51192" u="1"/>
+        <n v="73200" u="1"/>
         <n v="80584" u="1"/>
+        <n v="123752" u="1"/>
         <n v="52916" u="1"/>
+        <n v="136960" u="1"/>
         <n v="47540" u="1"/>
         <n v="48108" u="1"/>
+        <n v="65612" u="1"/>
         <n v="80664" u="1"/>
+        <n v="134768" u="1"/>
+        <n v="137608" u="1"/>
         <n v="13364" u="1"/>
         <n v="22992" u="1"/>
         <n v="35652" u="1"/>
@@ -3767,12 +4117,14 @@
         <n v="47720" u="1"/>
         <n v="79928" u="1"/>
         <n v="69744" u="1"/>
+        <n v="138204" u="1"/>
         <n v="53196" u="1"/>
         <n v="77532" u="1"/>
         <n v="134752" u="1"/>
         <n v="20708" u="1"/>
         <n v="47272" u="1"/>
         <n v="48408" u="1"/>
+        <n v="137388" u="1"/>
         <n v="40760" u="1"/>
         <n v="66576" u="1"/>
         <n v="134708" u="1"/>
@@ -3780,6 +4132,7 @@
         <n v="69212" u="1"/>
         <n v="71240" u="1"/>
         <n v="76352" u="1"/>
+        <n v="120656" u="1"/>
         <n v="134664" u="1"/>
         <n v="137788" u="1"/>
         <n v="50516" u="1"/>
@@ -3797,6 +4150,7 @@
         <n v="60516" u="1"/>
         <n v="93268" u="1"/>
         <n v="136120" u="1"/>
+        <n v="137824" u="1"/>
         <n v="22512" u="1"/>
         <n v="69736" u="1"/>
         <n v="78540" u="1"/>
@@ -3804,6 +4158,7 @@
         <n v="2800" u="1"/>
         <n v="56864" u="1"/>
         <n v="48080" u="1"/>
+        <n v="133520" u="1"/>
         <n v="2412" u="1"/>
         <n v="23536" u="1"/>
         <n v="30920" u="1"/>
@@ -3814,37 +4169,37 @@
         <n v="123572" u="1"/>
         <n v="46436" u="1"/>
         <n v="59520" u="1"/>
+        <n v="134976" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="118496" maxValue="136700" count="6">
-        <n v="135128"/>
-        <n v="136568"/>
-        <n v="136700"/>
-        <n v="132888"/>
-        <n v="136312"/>
-        <n v="118496"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54988" maxValue="138304" count="3">
+        <n v="54988"/>
+        <n v="138304"/>
+        <n v="137352" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETPROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsString="0" containsBlank="1" count="1">
-        <m/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="133100" maxValue="139476" count="2">
+        <n v="133100"/>
+        <n v="139476"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETTHREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsString="0" containsBlank="1" count="1">
-        <m/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54988" maxValue="138304" count="2">
+        <n v="54988"/>
+        <n v="138304"/>
       </sharedItems>
     </cacheField>
     <cacheField name="POS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5939"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="539"/>
     </cacheField>
     <cacheField name="FEATUREID" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
+        <n v="0"/>
+        <n v="1"/>
         <n v="2"/>
         <n v="3"/>
-        <n v="0"/>
-        <n v="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ACTUAL" numFmtId="0" sqlType="6">
@@ -3863,13 +4218,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="ACTUALTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.00000023841858" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="1"/>
     </cacheField>
     <cacheField name="PREDICTEDTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.77474886178970304" maxValue="0.77143287658691395"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.66471564769744895" maxValue="0.65950626134872403"/>
     </cacheField>
     <cacheField name="ERRORTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.12341547012329E-7" maxValue="1.2204825878143299"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.29342079162598E-5" maxValue="1.2624430656433101"/>
     </cacheField>
     <cacheField name="BARWIDTH" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -4867,179 +5222,207 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
-  <location ref="A3:F11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+  <location ref="A3:D10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="14">
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="156">
+    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="177">
+        <item m="1" x="5"/>
+        <item m="1" x="81"/>
+        <item m="1" x="166"/>
+        <item m="1" x="48"/>
+        <item m="1" x="118"/>
+        <item m="1" x="146"/>
+        <item m="1" x="69"/>
+        <item m="1" x="128"/>
+        <item m="1" x="93"/>
+        <item m="1" x="158"/>
+        <item m="1" x="82"/>
+        <item m="1" x="85"/>
+        <item m="1" x="167"/>
+        <item m="1" x="59"/>
+        <item m="1" x="144"/>
+        <item m="1" x="126"/>
+        <item m="1" x="83"/>
+        <item m="1" x="43"/>
+        <item m="1" x="68"/>
+        <item m="1" x="63"/>
+        <item m="1" x="39"/>
+        <item m="1" x="162"/>
+        <item m="1" x="53"/>
+        <item m="1" x="52"/>
+        <item m="1" x="6"/>
+        <item m="1" x="170"/>
+        <item m="1" x="106"/>
+        <item m="1" x="38"/>
+        <item m="1" x="22"/>
+        <item m="1" x="23"/>
+        <item m="1" x="72"/>
+        <item m="1" x="40"/>
+        <item m="1" x="107"/>
+        <item m="1" x="12"/>
+        <item m="1" x="152"/>
+        <item m="1" x="56"/>
+        <item m="1" x="49"/>
+        <item m="1" x="73"/>
+        <item m="1" x="117"/>
+        <item m="1" x="168"/>
+        <item m="1" x="135"/>
+        <item m="1" x="111"/>
+        <item m="1" x="33"/>
+        <item m="1" x="57"/>
+        <item m="1" x="108"/>
+        <item m="1" x="34"/>
+        <item m="1" x="7"/>
+        <item m="1" x="86"/>
+        <item m="1" x="15"/>
+        <item m="1" x="74"/>
+        <item m="1" x="169"/>
+        <item m="1" x="132"/>
+        <item m="1" x="75"/>
+        <item m="1" x="171"/>
+        <item m="1" x="76"/>
+        <item m="1" x="44"/>
+        <item m="1" x="153"/>
+        <item m="1" x="17"/>
+        <item m="1" x="24"/>
+        <item m="1" x="29"/>
+        <item m="1" x="13"/>
+        <item m="1" x="147"/>
+        <item m="1" x="58"/>
+        <item m="1" x="174"/>
+        <item m="1" x="35"/>
+        <item m="1" x="129"/>
+        <item m="1" x="41"/>
+        <item m="1" x="100"/>
+        <item m="1" x="113"/>
+        <item m="1" x="121"/>
+        <item m="1" x="164"/>
+        <item m="1" x="101"/>
+        <item m="1" x="109"/>
+        <item m="1" x="18"/>
+        <item m="1" x="130"/>
+        <item m="1" x="30"/>
+        <item m="1" x="148"/>
+        <item m="1" x="116"/>
+        <item m="1" x="142"/>
+        <item m="1" x="98"/>
+        <item m="1" x="125"/>
+        <item m="1" x="91"/>
+        <item m="1" x="25"/>
+        <item m="1" x="163"/>
+        <item m="1" x="3"/>
+        <item m="1" x="87"/>
+        <item m="1" x="27"/>
+        <item m="1" x="36"/>
+        <item m="1" x="175"/>
+        <item m="1" x="154"/>
+        <item m="1" x="64"/>
+        <item m="1" x="150"/>
+        <item m="1" x="54"/>
+        <item m="1" x="143"/>
+        <item m="1" x="133"/>
+        <item m="1" x="77"/>
+        <item m="1" x="92"/>
+        <item m="1" x="136"/>
+        <item m="1" x="159"/>
+        <item m="1" x="123"/>
+        <item m="1" x="137"/>
+        <item m="1" x="50"/>
+        <item m="1" x="78"/>
+        <item m="1" x="172"/>
+        <item m="1" x="138"/>
+        <item m="1" x="37"/>
+        <item m="1" x="151"/>
+        <item m="1" x="55"/>
+        <item m="1" x="160"/>
+        <item m="1" x="122"/>
+        <item m="1" x="96"/>
+        <item m="1" x="26"/>
+        <item m="1" x="103"/>
+        <item m="1" x="79"/>
+        <item m="1" x="70"/>
+        <item m="1" x="2"/>
+        <item m="1" x="19"/>
         <item m="1" x="8"/>
-        <item m="1" x="72"/>
+        <item m="1" x="80"/>
+        <item m="1" x="110"/>
+        <item m="1" x="62"/>
+        <item m="1" x="149"/>
+        <item m="1" x="9"/>
+        <item m="1" x="155"/>
         <item m="1" x="145"/>
-        <item m="1" x="41"/>
+        <item m="1" x="112"/>
+        <item m="1" x="88"/>
+        <item m="1" x="173"/>
+        <item m="1" x="134"/>
+        <item m="1" x="127"/>
+        <item m="1" x="32"/>
+        <item m="1" x="140"/>
+        <item m="1" x="71"/>
+        <item m="1" x="119"/>
+        <item m="1" x="114"/>
+        <item m="1" x="94"/>
+        <item m="1" x="89"/>
+        <item m="1" x="156"/>
+        <item m="1" x="61"/>
+        <item m="1" x="120"/>
+        <item m="1" x="141"/>
+        <item m="1" x="115"/>
+        <item m="1" x="60"/>
+        <item m="1" x="161"/>
+        <item m="1" x="16"/>
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
+        <item m="1" x="84"/>
+        <item m="1" x="31"/>
+        <item m="1" x="165"/>
+        <item m="1" x="176"/>
+        <item m="1" x="11"/>
+        <item m="1" x="99"/>
+        <item m="1" x="21"/>
+        <item m="1" x="90"/>
+        <item m="1" x="104"/>
+        <item m="1" x="10"/>
+        <item m="1" x="157"/>
+        <item m="1" x="47"/>
+        <item m="1" x="67"/>
+        <item m="1" x="20"/>
+        <item m="1" x="139"/>
+        <item m="1" x="4"/>
+        <item m="1" x="131"/>
+        <item m="1" x="42"/>
+        <item m="1" x="28"/>
+        <item m="1" x="14"/>
+        <item m="1" x="45"/>
         <item m="1" x="102"/>
-        <item m="1" x="127"/>
-        <item m="1" x="60"/>
-        <item m="1" x="111"/>
-        <item m="1" x="83"/>
-        <item m="1" x="138"/>
-        <item m="1" x="73"/>
-        <item m="1" x="76"/>
-        <item m="1" x="146"/>
+        <item m="1" x="95"/>
+        <item m="1" x="46"/>
+        <item m="1" x="105"/>
         <item m="1" x="51"/>
-        <item m="1" x="125"/>
-        <item m="1" x="109"/>
-        <item m="1" x="74"/>
-        <item m="1" x="39"/>
-        <item m="1" x="59"/>
-        <item m="1" x="55"/>
-        <item m="1" x="36"/>
-        <item m="1" x="142"/>
-        <item m="1" x="45"/>
-        <item m="1" x="44"/>
-        <item m="1" x="9"/>
-        <item m="1" x="149"/>
-        <item m="1" x="90"/>
-        <item m="1" x="35"/>
-        <item m="1" x="20"/>
-        <item m="1" x="21"/>
-        <item m="1" x="63"/>
-        <item m="1" x="37"/>
-        <item m="1" x="91"/>
-        <item m="1" x="13"/>
-        <item m="1" x="133"/>
-        <item m="1" x="48"/>
-        <item m="1" x="42"/>
-        <item m="1" x="64"/>
-        <item m="1" x="101"/>
-        <item m="1" x="147"/>
-        <item m="1" x="117"/>
-        <item m="1" x="95"/>
-        <item m="1" x="30"/>
-        <item m="1" x="49"/>
-        <item m="1" x="92"/>
-        <item m="1" x="31"/>
-        <item m="1" x="10"/>
-        <item m="1" x="77"/>
-        <item m="1" x="15"/>
-        <item m="1" x="65"/>
-        <item m="1" x="148"/>
-        <item m="1" x="114"/>
-        <item m="1" x="66"/>
-        <item m="1" x="150"/>
-        <item m="1" x="67"/>
-        <item m="1" x="40"/>
-        <item m="1" x="134"/>
-        <item m="1" x="17"/>
-        <item m="1" x="22"/>
-        <item m="1" x="26"/>
-        <item m="1" x="14"/>
-        <item m="1" x="128"/>
-        <item m="1" x="50"/>
-        <item m="1" x="153"/>
-        <item m="1" x="32"/>
-        <item m="1" x="112"/>
-        <item m="1" x="38"/>
-        <item m="1" x="87"/>
+        <item m="1" x="124"/>
         <item m="1" x="97"/>
-        <item m="1" x="105"/>
-        <item m="1" x="144"/>
-        <item m="1" x="88"/>
-        <item m="1" x="93"/>
-        <item m="1" x="18"/>
-        <item m="1" x="113"/>
-        <item m="1" x="27"/>
-        <item m="1" x="129"/>
-        <item m="1" x="100"/>
-        <item m="1" x="123"/>
-        <item m="1" x="86"/>
-        <item m="1" x="108"/>
-        <item m="1" x="81"/>
-        <item m="1" x="23"/>
-        <item m="1" x="143"/>
-        <item m="1" x="7"/>
-        <item m="1" x="78"/>
-        <item m="1" x="25"/>
-        <item m="1" x="33"/>
-        <item m="1" x="154"/>
-        <item m="1" x="135"/>
-        <item m="1" x="56"/>
-        <item m="1" x="131"/>
-        <item m="1" x="46"/>
-        <item m="1" x="124"/>
-        <item m="1" x="115"/>
-        <item m="1" x="68"/>
-        <item m="1" x="82"/>
-        <item m="1" x="118"/>
-        <item m="1" x="139"/>
-        <item m="1" x="107"/>
-        <item m="1" x="119"/>
-        <item m="1" x="43"/>
-        <item m="1" x="69"/>
-        <item m="1" x="151"/>
-        <item m="1" x="120"/>
-        <item m="1" x="34"/>
-        <item m="1" x="132"/>
-        <item m="1" x="47"/>
-        <item m="1" x="140"/>
-        <item m="1" x="106"/>
-        <item m="1" x="85"/>
-        <item m="1" x="24"/>
-        <item m="1" x="89"/>
-        <item m="1" x="70"/>
-        <item m="1" x="61"/>
-        <item m="1" x="6"/>
-        <item m="1" x="19"/>
-        <item m="1" x="11"/>
-        <item m="1" x="71"/>
-        <item m="1" x="94"/>
-        <item m="1" x="54"/>
-        <item m="1" x="130"/>
-        <item m="1" x="12"/>
-        <item m="1" x="136"/>
-        <item m="1" x="126"/>
-        <item m="1" x="96"/>
-        <item m="1" x="79"/>
-        <item m="1" x="152"/>
-        <item m="1" x="116"/>
-        <item m="1" x="110"/>
-        <item m="1" x="29"/>
-        <item m="1" x="121"/>
-        <item m="1" x="62"/>
-        <item m="1" x="103"/>
-        <item m="1" x="98"/>
-        <item m="1" x="84"/>
-        <item m="1" x="80"/>
-        <item m="1" x="137"/>
-        <item m="1" x="53"/>
-        <item m="1" x="104"/>
-        <item m="1" x="122"/>
-        <item m="1" x="99"/>
-        <item m="1" x="52"/>
-        <item m="1" x="141"/>
-        <item m="1" x="16"/>
-        <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="75"/>
-        <item m="1" x="28"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
+        <item x="0"/>
+        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5053,35 +5436,9 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="0"/>
+    <field x="5"/>
   </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="149"/>
-    </i>
-    <i>
-      <x v="150"/>
-    </i>
-    <i>
-      <x v="151"/>
-    </i>
-    <i>
-      <x v="152"/>
-    </i>
-    <i>
-      <x v="153"/>
-    </i>
-    <i>
-      <x v="154"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="5"/>
-  </colFields>
-  <colItems count="5">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -5097,11 +5454,28 @@
     <i t="grand">
       <x/>
     </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x v="175"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="176"/>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Average of ERRORTRS" fld="11" subtotal="average" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="5">
+  <chartFormats count="35">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -5155,6 +5529,435 @@
           </reference>
           <reference field="5" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="157"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="158"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="151"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="152"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="154"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="155"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="157"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="158"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="159"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="149"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="150"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="154"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="155"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="156"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="158"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="159"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="149"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="152"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="153"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="155"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="156"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="157"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="159"/>
+          </reference>
+          <reference field="5" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="166"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="168"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="169"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="170"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="171"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="172"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="173"/>
           </reference>
         </references>
       </pivotArea>
@@ -5384,162 +6187,184 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="2">
-      <items count="155">
+      <items count="177">
         <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
+        <i x="43" s="1" nd="1"/>
+        <i x="68" s="1" nd="1"/>
+        <i x="63" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
+        <i x="166" s="1" nd="1"/>
         <i x="39" s="1" nd="1"/>
+        <i x="162" s="1" nd="1"/>
+        <i x="53" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="118" s="1" nd="1"/>
+        <i x="146" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="170" s="1" nd="1"/>
+        <i x="106" s="1" nd="1"/>
+        <i x="38" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="23" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
+        <i x="128" s="1" nd="1"/>
+        <i x="40" s="1" nd="1"/>
+        <i x="93" s="1" nd="1"/>
+        <i x="158" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="107" s="1" nd="1"/>
+        <i x="85" s="1" nd="1"/>
+        <i x="167" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="152" s="1" nd="1"/>
+        <i x="32" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="73" s="1" nd="1"/>
+        <i x="117" s="1" nd="1"/>
+        <i x="168" s="1" nd="1"/>
+        <i x="135" s="1" nd="1"/>
+        <i x="111" s="1" nd="1"/>
+        <i x="33" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="108" s="1" nd="1"/>
+        <i x="34" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="86" s="1" nd="1"/>
+        <i x="20" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
+        <i x="169" s="1" nd="1"/>
+        <i x="132" s="1" nd="1"/>
+        <i x="75" s="1" nd="1"/>
+        <i x="171" s="1" nd="1"/>
+        <i x="76" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="153" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
+        <i x="24" s="1" nd="1"/>
+        <i x="29" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="147" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
+        <i x="174" s="1" nd="1"/>
+        <i x="35" s="1" nd="1"/>
+        <i x="129" s="1" nd="1"/>
+        <i x="41" s="1" nd="1"/>
+        <i x="100" s="1" nd="1"/>
+        <i x="113" s="1" nd="1"/>
+        <i x="121" s="1" nd="1"/>
+        <i x="164" s="1" nd="1"/>
+        <i x="101" s="1" nd="1"/>
+        <i x="109" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
+        <i x="130" s="1" nd="1"/>
+        <i x="30" s="1" nd="1"/>
+        <i x="148" s="1" nd="1"/>
+        <i x="116" s="1" nd="1"/>
+        <i x="142" s="1" nd="1"/>
+        <i x="94" s="1" nd="1"/>
+        <i x="98" s="1" nd="1"/>
+        <i x="125" s="1" nd="1"/>
+        <i x="91" s="1" nd="1"/>
+        <i x="25" s="1" nd="1"/>
+        <i x="163" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="87" s="1" nd="1"/>
+        <i x="27" s="1" nd="1"/>
         <i x="59" s="1" nd="1"/>
+        <i x="36" s="1" nd="1"/>
+        <i x="175" s="1" nd="1"/>
+        <i x="154" s="1" nd="1"/>
+        <i x="64" s="1" nd="1"/>
+        <i x="150" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="143" s="1" nd="1"/>
+        <i x="102" s="1" nd="1"/>
+        <i x="133" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="92" s="1" nd="1"/>
+        <i x="136" s="1" nd="1"/>
+        <i x="159" s="1" nd="1"/>
+        <i x="123" s="1" nd="1"/>
+        <i x="137" s="1" nd="1"/>
+        <i x="95" s="1" nd="1"/>
+        <i x="50" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="172" s="1" nd="1"/>
+        <i x="138" s="1" nd="1"/>
+        <i x="37" s="1" nd="1"/>
+        <i x="144" s="1" nd="1"/>
+        <i x="126" s="1" nd="1"/>
+        <i x="151" s="1" nd="1"/>
+        <i x="83" s="1" nd="1"/>
         <i x="55" s="1" nd="1"/>
+        <i x="160" s="1" nd="1"/>
+        <i x="122" s="1" nd="1"/>
+        <i x="96" s="1" nd="1"/>
+        <i x="26" s="1" nd="1"/>
+        <i x="103" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="19" s="1" nd="1"/>
         <i x="8" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="145" s="1" nd="1"/>
-        <i x="36" s="1" nd="1"/>
-        <i x="142" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="102" s="1" nd="1"/>
-        <i x="127" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="149" s="1" nd="1"/>
-        <i x="90" s="1" nd="1"/>
-        <i x="35" s="1" nd="1"/>
-        <i x="20" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="21" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
-        <i x="111" s="1" nd="1"/>
-        <i x="37" s="1" nd="1"/>
-        <i x="83" s="1" nd="1"/>
-        <i x="138" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
-        <i x="91" s="1" nd="1"/>
-        <i x="76" s="1" nd="1"/>
-        <i x="146" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="133" s="1" nd="1"/>
-        <i x="29" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="64" s="1" nd="1"/>
-        <i x="101" s="1" nd="1"/>
-        <i x="147" s="1" nd="1"/>
-        <i x="117" s="1" nd="1"/>
-        <i x="95" s="1" nd="1"/>
-        <i x="30" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="92" s="1" nd="1"/>
-        <i x="31" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="148" s="1" nd="1"/>
-        <i x="114" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="150" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="40" s="1" nd="1"/>
-        <i x="134" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
-        <i x="22" s="1" nd="1"/>
-        <i x="26" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
-        <i x="128" s="1" nd="1"/>
-        <i x="50" s="1" nd="1"/>
-        <i x="153" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
-        <i x="112" s="1" nd="1"/>
-        <i x="38" s="1" nd="1"/>
-        <i x="87" s="1" nd="1"/>
-        <i x="97" s="1" nd="1"/>
-        <i x="105" s="1" nd="1"/>
-        <i x="144" s="1" nd="1"/>
-        <i x="88" s="1" nd="1"/>
-        <i x="93" s="1" nd="1"/>
-        <i x="18" s="1" nd="1"/>
-        <i x="113" s="1" nd="1"/>
-        <i x="27" s="1" nd="1"/>
-        <i x="129" s="1" nd="1"/>
-        <i x="100" s="1" nd="1"/>
-        <i x="123" s="1" nd="1"/>
-        <i x="84" s="1" nd="1"/>
-        <i x="86" s="1" nd="1"/>
-        <i x="108" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
-        <i x="23" s="1" nd="1"/>
-        <i x="143" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="25" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="33" s="1" nd="1"/>
-        <i x="154" s="1" nd="1"/>
-        <i x="135" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="131" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="124" s="1" nd="1"/>
-        <i x="115" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="82" s="1" nd="1"/>
-        <i x="118" s="1" nd="1"/>
-        <i x="139" s="1" nd="1"/>
-        <i x="107" s="1" nd="1"/>
-        <i x="119" s="1" nd="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="151" s="1" nd="1"/>
-        <i x="120" s="1" nd="1"/>
-        <i x="34" s="1" nd="1"/>
-        <i x="125" s="1" nd="1"/>
-        <i x="109" s="1" nd="1"/>
-        <i x="132" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
-        <i x="47" s="1" nd="1"/>
-        <i x="140" s="1" nd="1"/>
-        <i x="106" s="1" nd="1"/>
-        <i x="85" s="1" nd="1"/>
-        <i x="24" s="1" nd="1"/>
-        <i x="89" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="19" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="94" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
-        <i x="130" s="1" nd="1"/>
-        <i x="141" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="136" s="1" nd="1"/>
-        <i x="126" s="1" nd="1"/>
-        <i x="103" s="1" nd="1"/>
-        <i x="96" s="1" nd="1"/>
-        <i x="152" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="98" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="121" s="1" nd="1"/>
-        <i x="116" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
         <i x="110" s="1" nd="1"/>
         <i x="62" s="1" nd="1"/>
-        <i x="75" s="1" nd="1"/>
-        <i x="137" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="53" s="1" nd="1"/>
+        <i x="149" s="1" nd="1"/>
+        <i x="161" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="155" s="1" nd="1"/>
+        <i x="145" s="1" nd="1"/>
+        <i x="119" s="1" nd="1"/>
+        <i x="112" s="1" nd="1"/>
+        <i x="139" s="1" nd="1"/>
+        <i x="173" s="1" nd="1"/>
+        <i x="97" s="1" nd="1"/>
+        <i x="88" s="1" nd="1"/>
+        <i x="114" s="1" nd="1"/>
+        <i x="165" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
+        <i x="140" s="1" nd="1"/>
+        <i x="134" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="127" s="1" nd="1"/>
+        <i x="104" s="1" nd="1"/>
+        <i x="71" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="176" s="1" nd="1"/>
+        <i x="84" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="156" s="1" nd="1"/>
+        <i x="89" s="1" nd="1"/>
+        <i x="61" s="1" nd="1"/>
+        <i x="99" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="31" s="1" nd="1"/>
+        <i x="21" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="131" s="1" nd="1"/>
+        <i x="105" s="1" nd="1"/>
+        <i x="120" s="1" nd="1"/>
+        <i x="42" s="1" nd="1"/>
+        <i x="141" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="157" s="1" nd="1"/>
+        <i x="47" s="1" nd="1"/>
+        <i x="90" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="124" s="1" nd="1"/>
         <i x="28" s="1" nd="1"/>
-        <i x="104" s="1" nd="1"/>
-        <i x="122" s="1" nd="1"/>
-        <i x="99" s="1" nd="1"/>
+        <i x="115" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7029,23 +7854,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F11"/>
+  <dimension ref="A3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="12" width="7.5703125" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="32" width="7.5703125" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -7053,140 +7882,96 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4">
+        <v>133100</v>
+      </c>
+      <c r="C4">
+        <v>139476</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>54988</v>
+      </c>
+      <c r="C5">
+        <v>138304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="B6" s="1">
+        <v>4.0951737113021039E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0951737113021039E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.0951737113021039E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5.6764620197591958E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.6764620197591958E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.6764620197591958E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="B8" s="1">
+        <v>7.1587257583936068E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.1587257583936068E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.1587257583936068E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B9" s="1">
+        <v>8.2925817798133253E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.2925817798133253E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8.2925817798133253E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>133520</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>3.9946007234232909E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4.2206446785065861E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4.1076227009649385E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>134976</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3.3141288456666952E-2</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>4.5915680880554852E-2</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>3.9528484668610898E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>136024</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.515897625147895E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.883773612943462E-2</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>3.6998356190456785E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>136960</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>3.3955207038106339E-2</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>4.2783293378874911E-2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3.8369250208490628E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>137196</v>
-      </c>
-      <c r="B9" s="1">
-        <v>5.0300426752955627E-3</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>4.2798512137999838E-2</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.3914277406647703E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>137856</v>
-      </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>6.3057358173170569E-2</v>
+      </c>
       <c r="C10" s="1">
-        <v>3.7888838628288173E-2</v>
+        <v>6.3057358173170569E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>4.5688435739856405E-2</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>4.1788637184072289E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2.4443435794480488E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3.6893927265276377E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4.3850041284881389E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4.2596084100646872E-2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3.6945872111321283E-2</v>
+        <v>6.3057358173170569E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tester2.xlsx
+++ b/Tester2.xlsx
@@ -17,20 +17,24 @@
     <sheet name="Run" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Query_from_Algo" localSheetId="0" hidden="1">ClientInfo!$A$1:$H$27</definedName>
+    <definedName name="Query_from_Algo" localSheetId="0" hidden="1">ClientInfo!$A$1:$I$2</definedName>
     <definedName name="Slicer_PROCESSID">#N/A</definedName>
     <definedName name="Slicer_PROCESSID1">#N/A</definedName>
+    <definedName name="Slicer_SETID">#N/A</definedName>
+    <definedName name="Slicer_THREADID">#N/A</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-    <pivotCache cacheId="48" r:id="rId5"/>
+    <pivotCache cacheId="53" r:id="rId4"/>
+    <pivotCache cacheId="57" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -46,19 +50,19 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="Q_ClientInfo" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
-    <dbPr connection="DSN=Algo;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=F;CSR=F;FWC=F;FBS=64000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT CLIENTINFO.PROCESSID, CLIENTINFO.CLIENTNAME, CLIENTINFO.CLIENTSTART, CLIENTINFO.DURATION, CLIENTINFO.SIMULATIONLEN, CLIENTINFO.SIMULATIONSTART, CLIENTINFO.DOTRAINING, CLIENTINFO.DORUN_x000d__x000a_FROM CULOGUSER.CLIENTINFO CLIENTINFO_x000d__x000a_ORDER BY CLIENTINFO.CLIENTSTART"/>
+    <dbPr connection="DSN=Algo;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=F;CSR=F;FWC=F;FBS=64000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT CLIENTINFO.PROCESSID, CLIENTINFO.CLIENTNAME, CLIENTINFO.CLIENTSTART, CLIENTINFO.DURATION, CLIENTINFO.SIMULATIONLEN, CLIENTINFO.SIMULATIONSTART, CLIENTINFO.DOTRAINING, CLIENTINFO.DOTRAINRUN, CLIENTINFO.DOTESTRUN_x000d__x000a_FROM CULOGUSER.CLIENTINFO CLIENTINFO_x000d__x000a_ORDER BY CLIENTINFO.CLIENTSTART DESC"/>
   </connection>
   <connection id="2" name="Q_MSE" type="1" refreshedVersion="5" savePassword="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH, TRAINLOG.MSE_T, TRAINLOG.MSE_V_x000d__x000a_FROM CULOGUSER.TRAINLOG TRAINLOG_x000d__x000a_ORDER BY TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH"/>
   </connection>
   <connection id="3" name="Q_Run" type="1" refreshedVersion="5" savePassword="1" saveData="1">
-    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.NETPROCESSID, RUNLOG.NETTHREADID, RUNLOG.POS, RUNLOG.FEATUREID, RUNLOG.ACTUAL, RUNLOG.PREDICTED, RUNLOG.ERROR, RUNLOG.ACTUALTRS, RUNLOG.PREDICTEDTRS, RUNLOG.ERRORTRS, RUNLOG.BARWIDTH, RUNLOG.ERRORP_x000d__x000a_FROM CULOGUSER.RUNLOG RUNLOG_x000d__x000a_ORDER BY RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.POS, RUNLOG.FEATUREID"/>
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.SETID,RUNLOG.NETPROCESSID, RUNLOG.NETTHREADID, RUNLOG.POS, RUNLOG.FEATUREID, RUNLOG.ACTUAL, RUNLOG.PREDICTED, RUNLOG.ERROR, RUNLOG.ACTUALTRS, RUNLOG.PREDICTEDTRS, RUNLOG.ERRORTRS, RUNLOG.BARWIDTH, RUNLOG.ERRORP_x000d__x000a_FROM CULOGUSER.RUNLOG RUNLOG_x000d__x000a_ORDER BY RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.POS, RUNLOG.FEATUREID"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Average of MSE_T</t>
   </si>
@@ -102,10 +106,13 @@
     <t>DOTRAINING</t>
   </si>
   <si>
-    <t>DORUN</t>
+    <t>Client.cpp</t>
   </si>
   <si>
-    <t>Client.cpp</t>
+    <t>DOTRAINRUN</t>
+  </si>
+  <si>
+    <t>DOTESTRUN</t>
   </si>
 </sst>
 </file>
@@ -233,6 +240,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -494,154 +502,154 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>1.8017491092905398E-3</c:v>
+                  <c:v>2.9612287878990201E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4347193003632107E-4</c:v>
+                  <c:v>2.06098556518555E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.2090339381247759E-4</c:v>
+                  <c:v>1.9641065970063199E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0954888360574852E-4</c:v>
+                  <c:v>1.8915496766567199E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.01474054949358E-4</c:v>
+                  <c:v>1.8520979210734399E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9415615871548653E-4</c:v>
+                  <c:v>1.8202744424343099E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4734261832199947E-4</c:v>
+                  <c:v>1.7816403880715401E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7773964363150299E-4</c:v>
+                  <c:v>1.7425937578082099E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5580407206434757E-4</c:v>
+                  <c:v>1.71273350715637E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4192198149394244E-4</c:v>
+                  <c:v>1.69132873415947E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3140832460485399E-4</c:v>
+                  <c:v>1.6745075583457902E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2375704399310052E-4</c:v>
+                  <c:v>1.65931023657322E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.1858407096005998E-4</c:v>
+                  <c:v>1.6450785100460101E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1513164362404495E-4</c:v>
+                  <c:v>1.6305642202496501E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1271716074552409E-4</c:v>
+                  <c:v>1.6170406714081799E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1089728367514952E-4</c:v>
+                  <c:v>1.6063641756772998E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.094349617138505E-4</c:v>
+                  <c:v>1.5996532514691401E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0820276373997352E-4</c:v>
+                  <c:v>1.5957765281200399E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0711820949800345E-4</c:v>
+                  <c:v>1.5917852520942698E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.0611748883966346E-4</c:v>
+                  <c:v>1.58628057688475E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0515940529294301E-4</c:v>
+                  <c:v>1.5785096213221501E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0422913045622398E-4</c:v>
+                  <c:v>1.5681013464927701E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0333220860920846E-4</c:v>
+                  <c:v>1.5545685775577999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.024778947699815E-4</c:v>
+                  <c:v>1.53756905347109E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.016690120100975E-4</c:v>
+                  <c:v>1.5178616158664201E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0090353761334005E-4</c:v>
+                  <c:v>1.49705493822694E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.0017448666039854E-4</c:v>
+                  <c:v>1.47744789719582E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9947477236855797E-4</c:v>
+                  <c:v>1.4620117843151099E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.98792229336686E-4</c:v>
+                  <c:v>1.4512683264911201E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.9811312055680901E-4</c:v>
+                  <c:v>1.44273331388831E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.9741737893782545E-4</c:v>
+                  <c:v>1.4341021887957999E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9667358689475794E-4</c:v>
+                  <c:v>1.4250415377318901E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.958257923135535E-4</c:v>
+                  <c:v>1.41776716336608E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9476612184662394E-4</c:v>
+                  <c:v>1.41749801114202E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9324579595122497E-4</c:v>
+                  <c:v>1.42765445634723E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.9055888666771352E-4</c:v>
+                  <c:v>1.4380438253283501E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.8394022451248047E-4</c:v>
+                  <c:v>1.44595960155129E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.59323535324074E-4</c:v>
+                  <c:v>1.4564007520675701E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.0268123848363746E-4</c:v>
+                  <c:v>1.46931242197752E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.781098494073375E-4</c:v>
+                  <c:v>1.4799563214182901E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.7947906821500499E-4</c:v>
+                  <c:v>1.48293748497963E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.7781934952363404E-4</c:v>
+                  <c:v>1.4769732952117901E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.7493120180442951E-4</c:v>
+                  <c:v>1.4639918692409999E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.7301366683095699E-4</c:v>
+                  <c:v>1.4463507570326301E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.715734055731445E-4</c:v>
+                  <c:v>1.4290274120867299E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.7035970308352251E-4</c:v>
+                  <c:v>1.41516253352165E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.6925933090969898E-4</c:v>
+                  <c:v>1.4036305248737301E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.682232927531005E-4</c:v>
+                  <c:v>1.39519507065415E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.6723777884617448E-4</c:v>
+                  <c:v>1.39120882377028E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.7721877743024401E-4</c:v>
+                  <c:v>1.31871588528156E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -924,11 +932,11 @@
           <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -1542,7 +1550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>133100 - 54988</c:v>
+                  <c:v>43024 - 135232</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1598,16 +1606,16 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0951737113021039E-2</c:v>
+                  <c:v>4.1928980195963819E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6764620197591958E-2</c:v>
+                  <c:v>6.0340686032065639E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1587257583936068E-2</c:v>
+                  <c:v>6.0982940263218349E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.2925817798133253E-2</c:v>
+                  <c:v>7.9162700101733194E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1618,87 +1626,6 @@
               <c16:uniqueId val="{00000000-2B19-40FC-8792-B72E388B5F83}"/>
             </c:ext>
           </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run!$C$3:$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>139476 - 138304</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run!$A$6:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run!$C$6:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4.0951737113021039E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.6764620197591958E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.1587257583936068E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.2925817798133253E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3070,6 +2997,78 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="THREADID"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="THREADID"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2019300" y="3314700"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3177,196 +3176,271 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="SETID"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="SETID"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3771900" y="2876550"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43156.433401504626" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="14324">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.031755439813" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="50">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="134028" count="177">
-        <n v="204"/>
-        <n v="1372"/>
-        <n v="1540"/>
-        <n v="1932"/>
-        <n v="2792"/>
-        <n v="2800"/>
-        <n v="5692"/>
-        <n v="6648"/>
-        <n v="7100"/>
-        <n v="11232"/>
-        <n v="13364"/>
-        <n v="15080"/>
-        <n v="15344"/>
-        <n v="16120"/>
-        <n v="18280"/>
-        <n v="20184"/>
-        <n v="21748"/>
-        <n v="21772"/>
-        <n v="22992"/>
-        <n v="24204"/>
-        <n v="24348"/>
-        <n v="25652"/>
-        <n v="25896"/>
-        <n v="26432"/>
-        <n v="28712"/>
-        <n v="30736"/>
-        <n v="30920"/>
-        <n v="31956"/>
-        <n v="32516"/>
-        <n v="32652"/>
-        <n v="33240"/>
-        <n v="33304"/>
-        <n v="34204"/>
-        <n v="35652"/>
-        <n v="35660"/>
-        <n v="36028"/>
-        <n v="36100"/>
-        <n v="39232"/>
-        <n v="39408"/>
-        <n v="39864"/>
-        <n v="40760"/>
-        <n v="41008"/>
-        <n v="41964"/>
-        <n v="42156"/>
-        <n v="42216"/>
-        <n v="42856"/>
-        <n v="43124"/>
-        <n v="43192"/>
-        <n v="43512"/>
-        <n v="43552"/>
-        <n v="44444"/>
-        <n v="44892"/>
-        <n v="45140"/>
-        <n v="45516"/>
-        <n v="45748"/>
-        <n v="46436"/>
-        <n v="46736"/>
-        <n v="47272"/>
-        <n v="47364"/>
-        <n v="47540"/>
-        <n v="47620"/>
-        <n v="47720"/>
-        <n v="48080"/>
-        <n v="48108"/>
-        <n v="48148"/>
-        <n v="48340"/>
-        <n v="48408"/>
-        <n v="48420"/>
-        <n v="48964"/>
-        <n v="49112"/>
-        <n v="49400"/>
-        <n v="50480"/>
-        <n v="50516"/>
-        <n v="52544"/>
-        <n v="52916"/>
-        <n v="53196"/>
-        <n v="54012"/>
-        <n v="54912"/>
-        <n v="56864"/>
-        <n v="57572"/>
-        <n v="58820"/>
-        <n v="58908"/>
-        <n v="59188"/>
-        <n v="59232"/>
-        <n v="59520"/>
-        <n v="59944"/>
-        <n v="60516"/>
-        <n v="61520"/>
-        <n v="62200"/>
-        <n v="62252"/>
-        <n v="65600"/>
-        <n v="66244"/>
-        <n v="66576"/>
-        <n v="68172"/>
-        <n v="68332"/>
-        <n v="69212"/>
-        <n v="69736"/>
-        <n v="69744"/>
-        <n v="71240"/>
-        <n v="71336"/>
-        <n v="73656"/>
-        <n v="75272"/>
-        <n v="75860"/>
-        <n v="76000"/>
-        <n v="76352"/>
-        <n v="76632"/>
-        <n v="76784"/>
-        <n v="77776"/>
-        <n v="77892"/>
-        <n v="78280"/>
-        <n v="78540"/>
-        <n v="79928"/>
-        <n v="80584"/>
-        <n v="80640"/>
-        <n v="80664"/>
-        <n v="80792"/>
-        <n v="81520"/>
-        <n v="81684"/>
-        <n v="82796"/>
-        <n v="83400"/>
-        <n v="83896"/>
-        <n v="84052"/>
-        <n v="84076"/>
-        <n v="84436"/>
-        <n v="85840"/>
-        <n v="86740"/>
-        <n v="87384"/>
-        <n v="87852"/>
-        <n v="89780"/>
-        <n v="90740"/>
-        <n v="90804"/>
-        <n v="91368"/>
-        <n v="92856"/>
-        <n v="93268"/>
-        <n v="94568"/>
-        <n v="96112"/>
-        <n v="96524"/>
-        <n v="96972"/>
-        <n v="97828"/>
-        <n v="98200"/>
-        <n v="98868"/>
-        <n v="119624"/>
-        <n v="120584"/>
-        <n v="120768"/>
-        <n v="123828"/>
-        <n v="133164"/>
-        <n v="133248"/>
-        <n v="133364"/>
-        <n v="133516"/>
-        <n v="133844"/>
-        <n v="134008"/>
-        <n v="134028"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="134028" count="178">
+        <n v="43024"/>
+        <n v="77464" u="1"/>
+        <n v="36100" u="1"/>
+        <n v="78280" u="1"/>
+        <n v="26432" u="1"/>
+        <n v="2412" u="1"/>
+        <n v="71240" u="1"/>
+        <n v="81684" u="1"/>
+        <n v="49400" u="1"/>
+        <n v="2192" u="1"/>
+        <n v="69212" u="1"/>
+        <n v="25896" u="1"/>
+        <n v="15344" u="1"/>
+        <n v="30920" u="1"/>
+        <n v="41008" u="1"/>
+        <n v="6648" u="1"/>
+        <n v="84436" u="1"/>
+        <n v="41964" u="1"/>
+        <n v="48340" u="1"/>
+        <n v="65600" u="1"/>
+        <n v="23536" u="1"/>
+        <n v="57572" u="1"/>
+        <n v="33304" u="1"/>
+        <n v="98868" u="1"/>
+        <n v="71336" u="1"/>
+        <n v="62200" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="25652" u="1"/>
+        <n v="58820" u="1"/>
+        <n v="78960" u="1"/>
+        <n v="48108" u="1"/>
+        <n v="78028" u="1"/>
+        <n v="75860" u="1"/>
+        <n v="23216" u="1"/>
+        <n v="76000" u="1"/>
+        <n v="133248" u="1"/>
+        <n v="28712" u="1"/>
+        <n v="59520" u="1"/>
+        <n v="90804" u="1"/>
+        <n v="80640" u="1"/>
+        <n v="32652" u="1"/>
+        <n v="92856" u="1"/>
+        <n v="35660" u="1"/>
+        <n v="80664" u="1"/>
+        <n v="18280" u="1"/>
+        <n v="44892" u="1"/>
+        <n v="68332" u="1"/>
+        <n v="7100" u="1"/>
+        <n v="85840" u="1"/>
+        <n v="76352" u="1"/>
+        <n v="89780" u="1"/>
+        <n v="22628" u="1"/>
+        <n v="76632" u="1"/>
+        <n v="81108" u="1"/>
+        <n v="47620" u="1"/>
+        <n v="49112" u="1"/>
+        <n v="21748" u="1"/>
+        <n v="43552" u="1"/>
+        <n v="34204" u="1"/>
+        <n v="47364" u="1"/>
+        <n v="16120" u="1"/>
+        <n v="77892" u="1"/>
+        <n v="56864" u="1"/>
+        <n v="77776" u="1"/>
+        <n v="22512" u="1"/>
+        <n v="133164" u="1"/>
+        <n v="68172" u="1"/>
+        <n v="91368" u="1"/>
+        <n v="24348" u="1"/>
+        <n v="43192" u="1"/>
+        <n v="21772" u="1"/>
+        <n v="47540" u="1"/>
+        <n v="47272" u="1"/>
+        <n v="15080" u="1"/>
+        <n v="119624" u="1"/>
+        <n v="46736" u="1"/>
+        <n v="90740" u="1"/>
+        <n v="98200" u="1"/>
+        <n v="30736" u="1"/>
+        <n v="69736" u="1"/>
+        <n v="134008" u="1"/>
+        <n v="78152" u="1"/>
+        <n v="59232" u="1"/>
+        <n v="87384" u="1"/>
+        <n v="97828" u="1"/>
+        <n v="5400" u="1"/>
+        <n v="1372" u="1"/>
+        <n v="78992" u="1"/>
+        <n v="120768" u="1"/>
+        <n v="42156" u="1"/>
+        <n v="45140" u="1"/>
+        <n v="77244" u="1"/>
+        <n v="35652" u="1"/>
+        <n v="96524" u="1"/>
+        <n v="17192" u="1"/>
+        <n v="84052" u="1"/>
+        <n v="13364" u="1"/>
+        <n v="43124" u="1"/>
+        <n v="87852" u="1"/>
+        <n v="2800" u="1"/>
+        <n v="59944" u="1"/>
+        <n v="42856" u="1"/>
+        <n v="62252" u="1"/>
+        <n v="48148" u="1"/>
+        <n v="7032" u="1"/>
+        <n v="48964" u="1"/>
+        <n v="2792" u="1"/>
+        <n v="84076" u="1"/>
+        <n v="83400" u="1"/>
+        <n v="33240" u="1"/>
+        <n v="80976" u="1"/>
+        <n v="120584" u="1"/>
+        <n v="73656" u="1"/>
+        <n v="52916" u="1"/>
+        <n v="60516" u="1"/>
+        <n v="50480" u="1"/>
+        <n v="53196" u="1"/>
+        <n v="94568" u="1"/>
+        <n v="54012" u="1"/>
+        <n v="79928" u="1"/>
+        <n v="133364" u="1"/>
+        <n v="39232" u="1"/>
+        <n v="42216" u="1"/>
+        <n v="22100" u="1"/>
+        <n v="45748" u="1"/>
+        <n v="66244" u="1"/>
+        <n v="82796" u="1"/>
+        <n v="24204" u="1"/>
+        <n v="58908" u="1"/>
+        <n v="204" u="1"/>
+        <n v="46436" u="1"/>
+        <n v="59188" u="1"/>
+        <n v="1540" u="1"/>
+        <n v="52544" u="1"/>
+        <n v="80792" u="1"/>
+        <n v="22992" u="1"/>
+        <n v="50516" u="1"/>
         <n v="78088" u="1"/>
+        <n v="48080" u="1"/>
+        <n v="6888" u="1"/>
+        <n v="40760" u="1"/>
+        <n v="39408" u="1"/>
+        <n v="96972" u="1"/>
+        <n v="123828" u="1"/>
+        <n v="61520" u="1"/>
+        <n v="45516" u="1"/>
+        <n v="31956" u="1"/>
+        <n v="36028" u="1"/>
+        <n v="76784" u="1"/>
+        <n v="80584" u="1"/>
+        <n v="44444" u="1"/>
+        <n v="69744" u="1"/>
+        <n v="20708" u="1"/>
+        <n v="43512" u="1"/>
+        <n v="47720" u="1"/>
+        <n v="86740" u="1"/>
+        <n v="54912" u="1"/>
+        <n v="83896" u="1"/>
+        <n v="1932" u="1"/>
+        <n v="32516" u="1"/>
+        <n v="96112" u="1"/>
+        <n v="48408" u="1"/>
+        <n v="77532" u="1"/>
+        <n v="39864" u="1"/>
         <n v="75364" u="1"/>
+        <n v="93268" u="1"/>
+        <n v="5692" u="1"/>
+        <n v="134028" u="1"/>
+        <n v="48420" u="1"/>
+        <n v="66576" u="1"/>
+        <n v="133516" u="1"/>
+        <n v="20184" u="1"/>
+        <n v="11232" u="1"/>
+        <n v="75272" u="1"/>
+        <n v="81520" u="1"/>
         <n v="6288" u="1"/>
-        <n v="17192" u="1"/>
-        <n v="77464" u="1"/>
-        <n v="2192" u="1"/>
-        <n v="5400" u="1"/>
-        <n v="22628" u="1"/>
-        <n v="78152" u="1"/>
-        <n v="23216" u="1"/>
-        <n v="22100" u="1"/>
-        <n v="78028" u="1"/>
+        <n v="133844" u="1"/>
         <n v="76648" u="1"/>
-        <n v="78960" u="1"/>
-        <n v="81108" u="1"/>
-        <n v="6888" u="1"/>
-        <n v="77532" u="1"/>
-        <n v="20708" u="1"/>
-        <n v="78992" u="1"/>
-        <n v="77244" u="1"/>
-        <n v="7032" u="1"/>
-        <n v="80976" u="1"/>
-        <n v="22512" u="1"/>
-        <n v="2412" u="1"/>
-        <n v="23536" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="133872"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="135232" maxValue="135232" count="1">
+        <n v="135232"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="EPOCH" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="596" count="597">
@@ -3420,562 +3494,561 @@
         <n v="47"/>
         <n v="48"/>
         <n v="49"/>
-        <n v="50"/>
-        <n v="51"/>
-        <n v="52"/>
-        <n v="53"/>
-        <n v="54"/>
-        <n v="55"/>
-        <n v="56"/>
-        <n v="57"/>
-        <n v="58"/>
-        <n v="59"/>
-        <n v="60"/>
-        <n v="61"/>
-        <n v="62"/>
-        <n v="63"/>
-        <n v="64"/>
-        <n v="65"/>
-        <n v="66"/>
-        <n v="67"/>
-        <n v="68"/>
-        <n v="69"/>
-        <n v="70"/>
-        <n v="71"/>
-        <n v="72"/>
-        <n v="73"/>
-        <n v="74"/>
-        <n v="75"/>
-        <n v="76"/>
-        <n v="77"/>
-        <n v="78"/>
-        <n v="79"/>
-        <n v="80"/>
-        <n v="81"/>
-        <n v="82"/>
-        <n v="83"/>
-        <n v="84"/>
-        <n v="85"/>
-        <n v="86"/>
-        <n v="87"/>
-        <n v="88"/>
-        <n v="89"/>
-        <n v="90"/>
-        <n v="91"/>
-        <n v="92"/>
-        <n v="93"/>
-        <n v="94"/>
-        <n v="95"/>
-        <n v="96"/>
-        <n v="97"/>
-        <n v="98"/>
-        <n v="99"/>
-        <n v="100"/>
-        <n v="101"/>
-        <n v="102"/>
-        <n v="103"/>
-        <n v="104"/>
-        <n v="105"/>
-        <n v="106"/>
-        <n v="107"/>
-        <n v="108"/>
-        <n v="109"/>
-        <n v="110"/>
-        <n v="111"/>
-        <n v="112"/>
-        <n v="113"/>
-        <n v="114"/>
-        <n v="115"/>
-        <n v="116"/>
-        <n v="117"/>
-        <n v="118"/>
-        <n v="119"/>
-        <n v="120"/>
-        <n v="121"/>
-        <n v="122"/>
-        <n v="123"/>
-        <n v="124"/>
-        <n v="125"/>
-        <n v="126"/>
-        <n v="127"/>
-        <n v="128"/>
-        <n v="129"/>
-        <n v="130"/>
-        <n v="131"/>
-        <n v="132"/>
-        <n v="133"/>
-        <n v="134"/>
-        <n v="135"/>
-        <n v="136"/>
-        <n v="137"/>
-        <n v="138"/>
-        <n v="139"/>
-        <n v="140"/>
-        <n v="141"/>
-        <n v="142"/>
-        <n v="143"/>
-        <n v="144"/>
-        <n v="145"/>
-        <n v="146"/>
-        <n v="147"/>
-        <n v="148"/>
-        <n v="149"/>
-        <n v="150"/>
-        <n v="151"/>
-        <n v="152"/>
-        <n v="153"/>
-        <n v="154"/>
-        <n v="155"/>
-        <n v="156"/>
-        <n v="157"/>
-        <n v="158"/>
-        <n v="159"/>
-        <n v="160"/>
-        <n v="161"/>
-        <n v="162"/>
-        <n v="163"/>
-        <n v="164"/>
-        <n v="165"/>
-        <n v="166"/>
-        <n v="167"/>
-        <n v="168"/>
-        <n v="169"/>
-        <n v="170"/>
-        <n v="171"/>
-        <n v="172"/>
-        <n v="173"/>
-        <n v="174"/>
-        <n v="175"/>
-        <n v="176"/>
-        <n v="177"/>
-        <n v="178"/>
-        <n v="179"/>
-        <n v="180"/>
-        <n v="181"/>
-        <n v="182"/>
-        <n v="183"/>
-        <n v="184"/>
-        <n v="185"/>
-        <n v="186"/>
-        <n v="187"/>
-        <n v="188"/>
-        <n v="189"/>
-        <n v="190"/>
-        <n v="191"/>
-        <n v="192"/>
-        <n v="193"/>
-        <n v="194"/>
-        <n v="195"/>
-        <n v="196"/>
-        <n v="197"/>
-        <n v="198"/>
-        <n v="199"/>
-        <n v="200"/>
-        <n v="201"/>
-        <n v="202"/>
-        <n v="203"/>
-        <n v="204"/>
-        <n v="205"/>
-        <n v="206"/>
-        <n v="207"/>
-        <n v="208"/>
-        <n v="209"/>
-        <n v="210"/>
-        <n v="211"/>
-        <n v="212"/>
-        <n v="213"/>
-        <n v="214"/>
-        <n v="215"/>
-        <n v="216"/>
-        <n v="217"/>
-        <n v="218"/>
-        <n v="219"/>
-        <n v="220"/>
-        <n v="221"/>
-        <n v="222"/>
-        <n v="223"/>
-        <n v="224"/>
-        <n v="225"/>
-        <n v="226"/>
-        <n v="227"/>
-        <n v="228"/>
-        <n v="229"/>
-        <n v="230"/>
-        <n v="231"/>
-        <n v="232"/>
-        <n v="233"/>
-        <n v="234"/>
-        <n v="235"/>
-        <n v="236"/>
-        <n v="237"/>
-        <n v="238"/>
-        <n v="239"/>
-        <n v="240"/>
-        <n v="241"/>
-        <n v="242"/>
-        <n v="243"/>
-        <n v="244"/>
-        <n v="245"/>
-        <n v="246"/>
-        <n v="247"/>
-        <n v="248"/>
-        <n v="249"/>
-        <n v="250"/>
-        <n v="251"/>
-        <n v="252"/>
-        <n v="253"/>
-        <n v="254"/>
-        <n v="255"/>
-        <n v="256"/>
-        <n v="257"/>
-        <n v="258"/>
-        <n v="259"/>
-        <n v="260"/>
-        <n v="261"/>
-        <n v="262"/>
-        <n v="263"/>
-        <n v="264"/>
-        <n v="265"/>
-        <n v="266"/>
-        <n v="267"/>
-        <n v="268"/>
-        <n v="269"/>
-        <n v="270"/>
-        <n v="271"/>
-        <n v="272"/>
-        <n v="273"/>
-        <n v="274"/>
-        <n v="275"/>
-        <n v="276"/>
-        <n v="277"/>
-        <n v="278"/>
-        <n v="279"/>
-        <n v="280"/>
-        <n v="281"/>
-        <n v="282"/>
-        <n v="283"/>
-        <n v="284"/>
-        <n v="285"/>
-        <n v="286"/>
-        <n v="287"/>
-        <n v="288"/>
-        <n v="289"/>
-        <n v="290"/>
-        <n v="291"/>
-        <n v="292"/>
-        <n v="293"/>
-        <n v="294"/>
-        <n v="295"/>
-        <n v="296"/>
-        <n v="297"/>
-        <n v="298"/>
-        <n v="299"/>
-        <n v="300"/>
-        <n v="301"/>
-        <n v="302"/>
-        <n v="303"/>
-        <n v="304"/>
-        <n v="305"/>
-        <n v="306"/>
-        <n v="307"/>
-        <n v="308"/>
-        <n v="309"/>
-        <n v="310"/>
-        <n v="311"/>
-        <n v="312"/>
-        <n v="313"/>
-        <n v="314"/>
-        <n v="315"/>
-        <n v="316"/>
-        <n v="317"/>
-        <n v="318"/>
-        <n v="319"/>
         <n v="582" u="1"/>
         <n v="517" u="1"/>
         <n v="482" u="1"/>
         <n v="417" u="1"/>
+        <n v="94" u="1"/>
         <n v="352" u="1"/>
+        <n v="287" u="1"/>
+        <n v="239" u="1"/>
+        <n v="174" u="1"/>
         <n v="583" u="1"/>
         <n v="518" u="1"/>
         <n v="450" u="1"/>
         <n v="385" u="1"/>
+        <n v="86" u="1"/>
         <n v="320" u="1"/>
+        <n v="223" u="1"/>
+        <n v="158" u="1"/>
         <n v="584" u="1"/>
         <n v="519" u="1"/>
         <n v="483" u="1"/>
         <n v="418" u="1"/>
         <n v="353" u="1"/>
+        <n v="78" u="1"/>
+        <n v="288" u="1"/>
+        <n v="207" u="1"/>
         <n v="585" u="1"/>
+        <n v="142" u="1"/>
         <n v="520" u="1"/>
         <n v="451" u="1"/>
         <n v="386" u="1"/>
         <n v="321" u="1"/>
+        <n v="70" u="1"/>
+        <n v="256" u="1"/>
+        <n v="191" u="1"/>
         <n v="586" u="1"/>
         <n v="521" u="1"/>
+        <n v="127" u="1"/>
         <n v="484" u="1"/>
         <n v="419" u="1"/>
         <n v="354" u="1"/>
+        <n v="289" u="1"/>
+        <n v="63" u="1"/>
+        <n v="240" u="1"/>
+        <n v="175" u="1"/>
         <n v="587" u="1"/>
         <n v="522" u="1"/>
+        <n v="119" u="1"/>
         <n v="452" u="1"/>
         <n v="387" u="1"/>
         <n v="322" u="1"/>
+        <n v="257" u="1"/>
+        <n v="59" u="1"/>
+        <n v="224" u="1"/>
+        <n v="159" u="1"/>
         <n v="588" u="1"/>
         <n v="523" u="1"/>
         <n v="485" u="1"/>
+        <n v="111" u="1"/>
         <n v="420" u="1"/>
         <n v="355" u="1"/>
+        <n v="290" u="1"/>
+        <n v="55" u="1"/>
+        <n v="208" u="1"/>
         <n v="589" u="1"/>
+        <n v="143" u="1"/>
         <n v="524" u="1"/>
         <n v="453" u="1"/>
+        <n v="103" u="1"/>
         <n v="388" u="1"/>
         <n v="323" u="1"/>
+        <n v="258" u="1"/>
+        <n v="51" u="1"/>
+        <n v="192" u="1"/>
         <n v="590" u="1"/>
         <n v="525" u="1"/>
         <n v="486" u="1"/>
         <n v="421" u="1"/>
+        <n v="95" u="1"/>
         <n v="356" u="1"/>
+        <n v="291" u="1"/>
+        <n v="241" u="1"/>
+        <n v="176" u="1"/>
         <n v="591" u="1"/>
         <n v="526" u="1"/>
         <n v="454" u="1"/>
         <n v="389" u="1"/>
+        <n v="87" u="1"/>
         <n v="324" u="1"/>
+        <n v="259" u="1"/>
+        <n v="225" u="1"/>
+        <n v="160" u="1"/>
         <n v="592" u="1"/>
         <n v="527" u="1"/>
         <n v="487" u="1"/>
         <n v="422" u="1"/>
         <n v="357" u="1"/>
+        <n v="79" u="1"/>
+        <n v="292" u="1"/>
+        <n v="209" u="1"/>
         <n v="593" u="1"/>
+        <n v="144" u="1"/>
         <n v="528" u="1"/>
         <n v="455" u="1"/>
         <n v="390" u="1"/>
         <n v="325" u="1"/>
+        <n v="71" u="1"/>
+        <n v="260" u="1"/>
+        <n v="193" u="1"/>
         <n v="594" u="1"/>
         <n v="529" u="1"/>
+        <n v="128" u="1"/>
         <n v="488" u="1"/>
         <n v="423" u="1"/>
         <n v="358" u="1"/>
+        <n v="293" u="1"/>
+        <n v="242" u="1"/>
+        <n v="177" u="1"/>
         <n v="595" u="1"/>
         <n v="530" u="1"/>
+        <n v="120" u="1"/>
         <n v="456" u="1"/>
         <n v="391" u="1"/>
         <n v="326" u="1"/>
+        <n v="261" u="1"/>
+        <n v="226" u="1"/>
+        <n v="161" u="1"/>
         <n v="596" u="1"/>
         <n v="531" u="1"/>
         <n v="489" u="1"/>
+        <n v="112" u="1"/>
         <n v="424" u="1"/>
         <n v="359" u="1"/>
+        <n v="294" u="1"/>
+        <n v="210" u="1"/>
+        <n v="145" u="1"/>
         <n v="532" u="1"/>
         <n v="457" u="1"/>
+        <n v="104" u="1"/>
         <n v="392" u="1"/>
         <n v="327" u="1"/>
+        <n v="262" u="1"/>
+        <n v="194" u="1"/>
         <n v="533" u="1"/>
+        <n v="129" u="1"/>
         <n v="490" u="1"/>
         <n v="425" u="1"/>
+        <n v="96" u="1"/>
         <n v="360" u="1"/>
+        <n v="295" u="1"/>
+        <n v="243" u="1"/>
+        <n v="178" u="1"/>
         <n v="534" u="1"/>
         <n v="458" u="1"/>
         <n v="393" u="1"/>
+        <n v="88" u="1"/>
         <n v="328" u="1"/>
+        <n v="263" u="1"/>
+        <n v="227" u="1"/>
+        <n v="162" u="1"/>
         <n v="535" u="1"/>
         <n v="491" u="1"/>
         <n v="426" u="1"/>
         <n v="361" u="1"/>
+        <n v="80" u="1"/>
+        <n v="296" u="1"/>
+        <n v="211" u="1"/>
+        <n v="146" u="1"/>
         <n v="536" u="1"/>
         <n v="459" u="1"/>
         <n v="394" u="1"/>
         <n v="329" u="1"/>
+        <n v="72" u="1"/>
+        <n v="264" u="1"/>
+        <n v="195" u="1"/>
         <n v="537" u="1"/>
+        <n v="130" u="1"/>
         <n v="492" u="1"/>
         <n v="427" u="1"/>
         <n v="362" u="1"/>
+        <n v="297" u="1"/>
+        <n v="64" u="1"/>
+        <n v="244" u="1"/>
+        <n v="179" u="1"/>
         <n v="538" u="1"/>
+        <n v="121" u="1"/>
         <n v="460" u="1"/>
         <n v="395" u="1"/>
         <n v="330" u="1"/>
+        <n v="265" u="1"/>
+        <n v="60" u="1"/>
+        <n v="228" u="1"/>
+        <n v="163" u="1"/>
         <n v="539" u="1"/>
         <n v="493" u="1"/>
+        <n v="113" u="1"/>
         <n v="428" u="1"/>
         <n v="363" u="1"/>
+        <n v="298" u="1"/>
+        <n v="56" u="1"/>
+        <n v="212" u="1"/>
+        <n v="147" u="1"/>
         <n v="540" u="1"/>
         <n v="461" u="1"/>
+        <n v="105" u="1"/>
         <n v="396" u="1"/>
         <n v="331" u="1"/>
+        <n v="266" u="1"/>
+        <n v="52" u="1"/>
+        <n v="196" u="1"/>
         <n v="541" u="1"/>
+        <n v="131" u="1"/>
         <n v="494" u="1"/>
         <n v="429" u="1"/>
+        <n v="97" u="1"/>
         <n v="364" u="1"/>
+        <n v="299" u="1"/>
+        <n v="245" u="1"/>
+        <n v="180" u="1"/>
         <n v="542" u="1"/>
         <n v="462" u="1"/>
         <n v="397" u="1"/>
+        <n v="89" u="1"/>
         <n v="332" u="1"/>
+        <n v="267" u="1"/>
+        <n v="229" u="1"/>
+        <n v="164" u="1"/>
         <n v="543" u="1"/>
         <n v="495" u="1"/>
         <n v="430" u="1"/>
         <n v="365" u="1"/>
+        <n v="81" u="1"/>
+        <n v="300" u="1"/>
+        <n v="213" u="1"/>
+        <n v="148" u="1"/>
         <n v="544" u="1"/>
         <n v="463" u="1"/>
         <n v="398" u="1"/>
         <n v="333" u="1"/>
+        <n v="73" u="1"/>
+        <n v="268" u="1"/>
+        <n v="197" u="1"/>
         <n v="545" u="1"/>
+        <n v="132" u="1"/>
         <n v="496" u="1"/>
         <n v="431" u="1"/>
         <n v="366" u="1"/>
+        <n v="301" u="1"/>
+        <n v="65" u="1"/>
+        <n v="246" u="1"/>
+        <n v="181" u="1"/>
         <n v="546" u="1"/>
+        <n v="122" u="1"/>
         <n v="464" u="1"/>
         <n v="399" u="1"/>
         <n v="334" u="1"/>
+        <n v="269" u="1"/>
+        <n v="230" u="1"/>
+        <n v="165" u="1"/>
         <n v="547" u="1"/>
         <n v="497" u="1"/>
+        <n v="114" u="1"/>
         <n v="432" u="1"/>
         <n v="367" u="1"/>
+        <n v="302" u="1"/>
+        <n v="214" u="1"/>
+        <n v="149" u="1"/>
         <n v="548" u="1"/>
         <n v="465" u="1"/>
+        <n v="106" u="1"/>
         <n v="400" u="1"/>
         <n v="335" u="1"/>
+        <n v="270" u="1"/>
+        <n v="198" u="1"/>
         <n v="549" u="1"/>
+        <n v="133" u="1"/>
         <n v="498" u="1"/>
         <n v="433" u="1"/>
+        <n v="98" u="1"/>
         <n v="368" u="1"/>
+        <n v="303" u="1"/>
+        <n v="247" u="1"/>
+        <n v="182" u="1"/>
         <n v="550" u="1"/>
         <n v="466" u="1"/>
         <n v="401" u="1"/>
+        <n v="90" u="1"/>
         <n v="336" u="1"/>
+        <n v="271" u="1"/>
+        <n v="231" u="1"/>
+        <n v="166" u="1"/>
         <n v="551" u="1"/>
         <n v="499" u="1"/>
         <n v="434" u="1"/>
         <n v="369" u="1"/>
+        <n v="82" u="1"/>
+        <n v="304" u="1"/>
+        <n v="215" u="1"/>
+        <n v="150" u="1"/>
         <n v="552" u="1"/>
         <n v="467" u="1"/>
         <n v="402" u="1"/>
         <n v="337" u="1"/>
+        <n v="74" u="1"/>
+        <n v="272" u="1"/>
+        <n v="199" u="1"/>
         <n v="553" u="1"/>
+        <n v="134" u="1"/>
         <n v="500" u="1"/>
         <n v="435" u="1"/>
         <n v="370" u="1"/>
+        <n v="305" u="1"/>
+        <n v="66" u="1"/>
+        <n v="248" u="1"/>
+        <n v="183" u="1"/>
         <n v="554" u="1"/>
+        <n v="123" u="1"/>
         <n v="468" u="1"/>
         <n v="403" u="1"/>
         <n v="338" u="1"/>
+        <n v="273" u="1"/>
+        <n v="61" u="1"/>
+        <n v="232" u="1"/>
+        <n v="167" u="1"/>
         <n v="555" u="1"/>
         <n v="501" u="1"/>
+        <n v="115" u="1"/>
         <n v="436" u="1"/>
         <n v="371" u="1"/>
+        <n v="306" u="1"/>
+        <n v="57" u="1"/>
+        <n v="216" u="1"/>
+        <n v="151" u="1"/>
         <n v="556" u="1"/>
         <n v="469" u="1"/>
+        <n v="107" u="1"/>
         <n v="404" u="1"/>
         <n v="339" u="1"/>
+        <n v="274" u="1"/>
+        <n v="53" u="1"/>
+        <n v="200" u="1"/>
         <n v="557" u="1"/>
+        <n v="135" u="1"/>
         <n v="502" u="1"/>
         <n v="437" u="1"/>
+        <n v="99" u="1"/>
         <n v="372" u="1"/>
+        <n v="307" u="1"/>
+        <n v="249" u="1"/>
+        <n v="184" u="1"/>
         <n v="558" u="1"/>
         <n v="470" u="1"/>
         <n v="405" u="1"/>
+        <n v="91" u="1"/>
         <n v="340" u="1"/>
+        <n v="275" u="1"/>
+        <n v="233" u="1"/>
+        <n v="168" u="1"/>
         <n v="559" u="1"/>
         <n v="503" u="1"/>
         <n v="438" u="1"/>
         <n v="373" u="1"/>
+        <n v="83" u="1"/>
+        <n v="308" u="1"/>
+        <n v="217" u="1"/>
+        <n v="152" u="1"/>
         <n v="560" u="1"/>
         <n v="471" u="1"/>
         <n v="406" u="1"/>
         <n v="341" u="1"/>
+        <n v="75" u="1"/>
+        <n v="276" u="1"/>
+        <n v="201" u="1"/>
         <n v="561" u="1"/>
+        <n v="136" u="1"/>
         <n v="504" u="1"/>
         <n v="439" u="1"/>
         <n v="374" u="1"/>
+        <n v="309" u="1"/>
+        <n v="67" u="1"/>
+        <n v="250" u="1"/>
+        <n v="185" u="1"/>
         <n v="562" u="1"/>
+        <n v="124" u="1"/>
         <n v="472" u="1"/>
         <n v="407" u="1"/>
         <n v="342" u="1"/>
+        <n v="277" u="1"/>
+        <n v="234" u="1"/>
+        <n v="169" u="1"/>
         <n v="563" u="1"/>
         <n v="505" u="1"/>
+        <n v="116" u="1"/>
         <n v="440" u="1"/>
         <n v="375" u="1"/>
+        <n v="310" u="1"/>
+        <n v="218" u="1"/>
+        <n v="153" u="1"/>
         <n v="564" u="1"/>
         <n v="473" u="1"/>
+        <n v="108" u="1"/>
         <n v="408" u="1"/>
         <n v="343" u="1"/>
+        <n v="278" u="1"/>
+        <n v="202" u="1"/>
         <n v="565" u="1"/>
+        <n v="137" u="1"/>
         <n v="506" u="1"/>
         <n v="441" u="1"/>
+        <n v="100" u="1"/>
         <n v="376" u="1"/>
+        <n v="311" u="1"/>
+        <n v="251" u="1"/>
+        <n v="186" u="1"/>
         <n v="566" u="1"/>
         <n v="474" u="1"/>
         <n v="409" u="1"/>
+        <n v="92" u="1"/>
         <n v="344" u="1"/>
+        <n v="279" u="1"/>
+        <n v="235" u="1"/>
+        <n v="170" u="1"/>
         <n v="567" u="1"/>
         <n v="507" u="1"/>
         <n v="442" u="1"/>
         <n v="377" u="1"/>
+        <n v="84" u="1"/>
+        <n v="312" u="1"/>
+        <n v="219" u="1"/>
+        <n v="154" u="1"/>
         <n v="568" u="1"/>
         <n v="475" u="1"/>
         <n v="410" u="1"/>
         <n v="345" u="1"/>
+        <n v="76" u="1"/>
+        <n v="280" u="1"/>
+        <n v="203" u="1"/>
         <n v="569" u="1"/>
+        <n v="138" u="1"/>
         <n v="508" u="1"/>
         <n v="443" u="1"/>
         <n v="378" u="1"/>
+        <n v="313" u="1"/>
+        <n v="68" u="1"/>
+        <n v="252" u="1"/>
+        <n v="187" u="1"/>
         <n v="570" u="1"/>
+        <n v="125" u="1"/>
         <n v="476" u="1"/>
         <n v="411" u="1"/>
         <n v="346" u="1"/>
+        <n v="281" u="1"/>
+        <n v="62" u="1"/>
+        <n v="236" u="1"/>
+        <n v="171" u="1"/>
         <n v="571" u="1"/>
         <n v="509" u="1"/>
+        <n v="117" u="1"/>
         <n v="444" u="1"/>
         <n v="379" u="1"/>
+        <n v="314" u="1"/>
+        <n v="58" u="1"/>
+        <n v="220" u="1"/>
+        <n v="155" u="1"/>
         <n v="572" u="1"/>
         <n v="477" u="1"/>
+        <n v="109" u="1"/>
         <n v="412" u="1"/>
         <n v="347" u="1"/>
+        <n v="282" u="1"/>
+        <n v="54" u="1"/>
+        <n v="204" u="1"/>
         <n v="573" u="1"/>
+        <n v="139" u="1"/>
         <n v="510" u="1"/>
         <n v="445" u="1"/>
+        <n v="101" u="1"/>
         <n v="380" u="1"/>
+        <n v="315" u="1"/>
+        <n v="253" u="1"/>
+        <n v="50" u="1"/>
+        <n v="188" u="1"/>
         <n v="574" u="1"/>
         <n v="478" u="1"/>
         <n v="413" u="1"/>
+        <n v="93" u="1"/>
         <n v="348" u="1"/>
+        <n v="283" u="1"/>
+        <n v="237" u="1"/>
+        <n v="172" u="1"/>
         <n v="575" u="1"/>
         <n v="511" u="1"/>
         <n v="446" u="1"/>
         <n v="381" u="1"/>
+        <n v="85" u="1"/>
+        <n v="316" u="1"/>
+        <n v="221" u="1"/>
+        <n v="156" u="1"/>
         <n v="576" u="1"/>
         <n v="479" u="1"/>
         <n v="414" u="1"/>
         <n v="349" u="1"/>
+        <n v="77" u="1"/>
+        <n v="284" u="1"/>
+        <n v="205" u="1"/>
         <n v="577" u="1"/>
+        <n v="140" u="1"/>
         <n v="512" u="1"/>
         <n v="447" u="1"/>
         <n v="382" u="1"/>
+        <n v="317" u="1"/>
+        <n v="69" u="1"/>
+        <n v="254" u="1"/>
+        <n v="189" u="1"/>
         <n v="578" u="1"/>
         <n v="513" u="1"/>
+        <n v="126" u="1"/>
         <n v="480" u="1"/>
         <n v="415" u="1"/>
         <n v="350" u="1"/>
+        <n v="285" u="1"/>
+        <n v="238" u="1"/>
+        <n v="173" u="1"/>
         <n v="579" u="1"/>
         <n v="514" u="1"/>
+        <n v="118" u="1"/>
         <n v="448" u="1"/>
         <n v="383" u="1"/>
+        <n v="318" u="1"/>
+        <n v="222" u="1"/>
+        <n v="157" u="1"/>
         <n v="580" u="1"/>
         <n v="515" u="1"/>
         <n v="481" u="1"/>
+        <n v="110" u="1"/>
         <n v="416" u="1"/>
         <n v="351" u="1"/>
+        <n v="286" u="1"/>
+        <n v="206" u="1"/>
         <n v="581" u="1"/>
+        <n v="141" u="1"/>
         <n v="516" u="1"/>
         <n v="449" u="1"/>
+        <n v="102" u="1"/>
         <n v="384" u="1"/>
+        <n v="319" u="1"/>
+        <n v="255" u="1"/>
+        <n v="190" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MSE_T" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.5700921772513498E-5" maxValue="512.37072753906295"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.31871588528156E-2" maxValue="2.9612287878990201E-2"/>
     </cacheField>
     <cacheField name="MSE_V" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-431602080" maxValue="0" count="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
         <n v="0"/>
-        <n v="-431602080"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -3988,17 +4061,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43156.838012384258" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="4320">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.03268877315" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="4320">
   <cacheSource type="external" connectionId="3"/>
-  <cacheFields count="14">
+  <cacheFields count="15">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="139476" count="177">
-        <n v="133100"/>
-        <n v="139476"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="139476" count="179">
+        <n v="43024"/>
         <n v="82796" u="1"/>
         <n v="57572" u="1"/>
         <n v="134852" u="1"/>
         <n v="1932" u="1"/>
+        <n v="139476" u="1"/>
         <n v="7100" u="1"/>
         <n v="36028" u="1"/>
         <n v="84052" u="1"/>
@@ -4031,6 +4104,7 @@
         <n v="46736" u="1"/>
         <n v="59232" u="1"/>
         <n v="76784" u="1"/>
+        <n v="139220" u="1"/>
         <n v="15080" u="1"/>
         <n v="2792" u="1"/>
         <n v="21748" u="1"/>
@@ -4107,6 +4181,7 @@
         <n v="32516" u="1"/>
         <n v="96972" u="1"/>
         <n v="47620" u="1"/>
+        <n v="133100" u="1"/>
         <n v="133384" u="1"/>
         <n v="138212" u="1"/>
         <n v="50480" u="1"/>
@@ -4173,22 +4248,30 @@
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54988" maxValue="138304" count="3">
-        <n v="54988"/>
-        <n v="138304"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54988" maxValue="139660" count="5">
+        <n v="135232"/>
+        <n v="54988" u="1"/>
         <n v="137352" u="1"/>
+        <n v="139660" u="1"/>
+        <n v="138304" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="SETID" numFmtId="0" sqlType="6">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
+        <n v="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETPROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="133100" maxValue="139476" count="2">
-        <n v="133100"/>
-        <n v="139476"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="43024" count="2">
+        <n v="43024"/>
+        <n v="0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETTHREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54988" maxValue="138304" count="2">
-        <n v="54988"/>
-        <n v="138304"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="135232" count="2">
+        <n v="135232"/>
+        <n v="0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="POS" numFmtId="0" sqlType="6">
@@ -4218,13 +4301,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="ACTUALTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.00000011920929" maxValue="1"/>
     </cacheField>
     <cacheField name="PREDICTEDTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.66471564769744895" maxValue="0.65950626134872403"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.84100401401519798" maxValue="0.81332200765609697"/>
     </cacheField>
     <cacheField name="ERRORTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.29342079162598E-5" maxValue="1.2624430656433101"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.6892633438110399E-5" maxValue="1.3975193500518801"/>
     </cacheField>
     <cacheField name="BARWIDTH" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -4246,192 +4329,198 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="178">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="157"/>
-        <item h="1" m="1" x="175"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" m="1" x="158"/>
-        <item h="1" x="6"/>
-        <item h="1" m="1" x="154"/>
-        <item h="1" x="7"/>
-        <item h="1" m="1" x="167"/>
-        <item h="1" m="1" x="172"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" m="1" x="155"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" m="1" x="169"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" m="1" x="162"/>
-        <item h="1" m="1" x="174"/>
-        <item h="1" m="1" x="159"/>
-        <item h="1" x="18"/>
-        <item h="1" m="1" x="161"/>
-        <item h="1" m="1" x="176"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item h="1" x="25"/>
-        <item h="1" x="26"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="29"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="33"/>
-        <item h="1" x="34"/>
-        <item h="1" x="35"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="38"/>
-        <item h="1" x="39"/>
-        <item h="1" x="40"/>
-        <item h="1" x="41"/>
-        <item h="1" x="42"/>
-        <item h="1" x="43"/>
-        <item h="1" x="44"/>
-        <item h="1" x="45"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item h="1" x="59"/>
-        <item h="1" x="60"/>
-        <item h="1" x="61"/>
-        <item h="1" x="62"/>
-        <item h="1" x="63"/>
-        <item h="1" x="64"/>
-        <item h="1" x="65"/>
-        <item h="1" x="66"/>
-        <item h="1" x="67"/>
-        <item h="1" x="68"/>
-        <item h="1" x="69"/>
-        <item h="1" x="70"/>
-        <item h="1" x="71"/>
-        <item h="1" x="72"/>
-        <item h="1" x="73"/>
-        <item h="1" x="74"/>
-        <item h="1" x="75"/>
-        <item h="1" x="76"/>
-        <item h="1" x="77"/>
-        <item h="1" x="78"/>
-        <item h="1" x="79"/>
-        <item h="1" x="80"/>
-        <item h="1" x="81"/>
-        <item h="1" x="82"/>
-        <item h="1" x="83"/>
-        <item h="1" x="84"/>
-        <item h="1" x="85"/>
-        <item h="1" x="86"/>
-        <item h="1" x="87"/>
-        <item h="1" x="88"/>
-        <item h="1" x="89"/>
-        <item h="1" x="90"/>
-        <item h="1" x="91"/>
-        <item h="1" x="92"/>
-        <item h="1" x="93"/>
-        <item h="1" x="94"/>
-        <item h="1" x="95"/>
-        <item h="1" x="96"/>
-        <item h="1" x="97"/>
-        <item h="1" x="98"/>
-        <item h="1" x="99"/>
-        <item h="1" x="100"/>
-        <item h="1" x="101"/>
-        <item h="1" m="1" x="153"/>
-        <item h="1" x="102"/>
-        <item h="1" x="103"/>
-        <item h="1" x="104"/>
-        <item h="1" x="105"/>
-        <item h="1" m="1" x="164"/>
-        <item h="1" x="106"/>
-        <item h="1" m="1" x="171"/>
-        <item h="1" m="1" x="156"/>
-        <item h="1" m="1" x="168"/>
-        <item h="1" x="107"/>
-        <item h="1" x="108"/>
-        <item h="1" m="1" x="163"/>
-        <item h="1" m="1" x="152"/>
-        <item h="1" m="1" x="160"/>
-        <item h="1" x="109"/>
-        <item h="1" x="110"/>
-        <item h="1" m="1" x="165"/>
-        <item h="1" m="1" x="170"/>
-        <item h="1" x="111"/>
-        <item h="1" x="112"/>
-        <item h="1" x="113"/>
-        <item h="1" x="114"/>
-        <item h="1" x="115"/>
-        <item h="1" m="1" x="173"/>
-        <item h="1" m="1" x="166"/>
-        <item h="1" x="116"/>
-        <item h="1" x="117"/>
-        <item h="1" x="118"/>
-        <item h="1" x="119"/>
-        <item h="1" x="120"/>
-        <item h="1" x="121"/>
-        <item h="1" x="122"/>
-        <item h="1" x="123"/>
-        <item h="1" x="124"/>
-        <item h="1" x="125"/>
-        <item h="1" x="126"/>
-        <item h="1" x="127"/>
-        <item h="1" x="128"/>
-        <item h="1" x="129"/>
-        <item h="1" x="130"/>
-        <item h="1" x="131"/>
-        <item h="1" x="132"/>
-        <item h="1" x="133"/>
-        <item h="1" x="134"/>
-        <item h="1" x="135"/>
-        <item h="1" x="136"/>
-        <item h="1" x="137"/>
-        <item h="1" x="138"/>
-        <item h="1" x="139"/>
-        <item h="1" x="140"/>
-        <item h="1" x="141"/>
-        <item h="1" x="142"/>
-        <item h="1" x="143"/>
-        <item x="144"/>
-        <item h="1" x="145"/>
-        <item h="1" x="146"/>
-        <item h="1" x="147"/>
-        <item h="1" x="148"/>
-        <item h="1" x="149"/>
-        <item h="1" x="150"/>
-        <item h="1" x="151"/>
+      <items count="179">
+        <item m="1" x="129"/>
+        <item m="1" x="86"/>
+        <item m="1" x="132"/>
+        <item m="1" x="158"/>
+        <item m="1" x="9"/>
+        <item m="1" x="5"/>
+        <item m="1" x="106"/>
+        <item m="1" x="99"/>
+        <item m="1" x="85"/>
+        <item m="1" x="166"/>
+        <item m="1" x="175"/>
+        <item m="1" x="15"/>
+        <item m="1" x="139"/>
+        <item m="1" x="104"/>
+        <item m="1" x="47"/>
+        <item m="1" x="172"/>
+        <item m="1" x="96"/>
+        <item m="1" x="73"/>
+        <item m="1" x="12"/>
+        <item m="1" x="60"/>
+        <item m="1" x="94"/>
+        <item m="1" x="44"/>
+        <item m="1" x="171"/>
+        <item m="1" x="152"/>
+        <item m="1" x="56"/>
+        <item m="1" x="70"/>
+        <item m="1" x="123"/>
+        <item m="1" x="64"/>
+        <item m="1" x="51"/>
+        <item m="1" x="135"/>
+        <item m="1" x="33"/>
+        <item m="1" x="20"/>
+        <item m="1" x="127"/>
+        <item m="1" x="68"/>
+        <item m="1" x="27"/>
+        <item m="1" x="11"/>
+        <item m="1" x="4"/>
+        <item m="1" x="36"/>
+        <item m="1" x="78"/>
+        <item m="1" x="13"/>
+        <item m="1" x="146"/>
+        <item m="1" x="159"/>
+        <item m="1" x="40"/>
+        <item m="1" x="109"/>
+        <item m="1" x="22"/>
+        <item m="1" x="58"/>
+        <item m="1" x="92"/>
+        <item m="1" x="42"/>
+        <item m="1" x="147"/>
+        <item m="1" x="2"/>
+        <item m="1" x="121"/>
+        <item m="1" x="141"/>
+        <item m="1" x="163"/>
+        <item m="1" x="140"/>
+        <item m="1" x="14"/>
+        <item m="1" x="17"/>
+        <item m="1" x="89"/>
+        <item m="1" x="122"/>
+        <item m="1" x="101"/>
+        <item x="0"/>
+        <item m="1" x="97"/>
+        <item m="1" x="69"/>
+        <item m="1" x="153"/>
+        <item m="1" x="57"/>
+        <item m="1" x="150"/>
+        <item m="1" x="45"/>
+        <item m="1" x="90"/>
+        <item m="1" x="145"/>
+        <item m="1" x="124"/>
+        <item m="1" x="130"/>
+        <item m="1" x="75"/>
+        <item m="1" x="72"/>
+        <item m="1" x="59"/>
+        <item m="1" x="71"/>
+        <item m="1" x="54"/>
+        <item m="1" x="154"/>
+        <item m="1" x="138"/>
+        <item m="1" x="30"/>
+        <item m="1" x="103"/>
+        <item m="1" x="18"/>
+        <item m="1" x="161"/>
+        <item m="1" x="168"/>
+        <item m="1" x="105"/>
+        <item m="1" x="55"/>
+        <item m="1" x="8"/>
+        <item m="1" x="115"/>
+        <item m="1" x="136"/>
+        <item m="1" x="133"/>
+        <item m="1" x="113"/>
+        <item m="1" x="116"/>
+        <item m="1" x="118"/>
+        <item m="1" x="156"/>
+        <item m="1" x="62"/>
+        <item m="1" x="21"/>
+        <item m="1" x="28"/>
+        <item m="1" x="128"/>
+        <item m="1" x="131"/>
+        <item m="1" x="82"/>
+        <item m="1" x="37"/>
+        <item m="1" x="100"/>
+        <item m="1" x="114"/>
+        <item m="1" x="144"/>
+        <item m="1" x="25"/>
+        <item m="1" x="102"/>
+        <item m="1" x="19"/>
+        <item m="1" x="125"/>
+        <item m="1" x="169"/>
+        <item m="1" x="66"/>
+        <item m="1" x="46"/>
+        <item m="1" x="10"/>
+        <item m="1" x="79"/>
+        <item m="1" x="151"/>
+        <item m="1" x="6"/>
+        <item m="1" x="24"/>
+        <item m="1" x="112"/>
+        <item m="1" x="173"/>
+        <item m="1" x="164"/>
+        <item m="1" x="32"/>
+        <item m="1" x="34"/>
+        <item m="1" x="49"/>
+        <item m="1" x="52"/>
+        <item m="1" x="177"/>
+        <item m="1" x="148"/>
+        <item m="1" x="91"/>
+        <item m="1" x="1"/>
+        <item m="1" x="162"/>
+        <item m="1" x="63"/>
+        <item m="1" x="61"/>
+        <item m="1" x="31"/>
+        <item m="1" x="137"/>
+        <item m="1" x="81"/>
+        <item m="1" x="3"/>
+        <item m="1" x="26"/>
+        <item m="1" x="29"/>
+        <item m="1" x="87"/>
+        <item m="1" x="119"/>
+        <item m="1" x="149"/>
+        <item m="1" x="39"/>
+        <item m="1" x="43"/>
+        <item m="1" x="134"/>
+        <item m="1" x="110"/>
+        <item m="1" x="53"/>
+        <item m="1" x="174"/>
+        <item m="1" x="7"/>
+        <item m="1" x="126"/>
+        <item m="1" x="108"/>
+        <item m="1" x="157"/>
+        <item m="1" x="95"/>
+        <item m="1" x="107"/>
+        <item m="1" x="16"/>
+        <item m="1" x="48"/>
+        <item m="1" x="155"/>
+        <item m="1" x="83"/>
+        <item m="1" x="98"/>
+        <item m="1" x="50"/>
+        <item m="1" x="76"/>
+        <item m="1" x="38"/>
+        <item m="1" x="67"/>
+        <item m="1" x="41"/>
+        <item m="1" x="165"/>
+        <item m="1" x="117"/>
+        <item m="1" x="160"/>
+        <item m="1" x="93"/>
+        <item m="1" x="142"/>
+        <item m="1" x="84"/>
+        <item m="1" x="77"/>
+        <item m="1" x="23"/>
+        <item m="1" x="74"/>
+        <item m="1" x="111"/>
+        <item m="1" x="88"/>
+        <item m="1" x="143"/>
+        <item m="1" x="65"/>
+        <item m="1" x="35"/>
+        <item m="1" x="120"/>
+        <item m="1" x="170"/>
+        <item m="1" x="176"/>
+        <item m="1" x="80"/>
+        <item m="1" x="167"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="598">
         <item x="0"/>
@@ -4484,553 +4573,553 @@
         <item x="47"/>
         <item x="48"/>
         <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
+        <item m="1" x="529"/>
+        <item m="1" x="121"/>
+        <item m="1" x="257"/>
+        <item m="1" x="388"/>
+        <item m="1" x="519"/>
+        <item m="1" x="111"/>
+        <item m="1" x="248"/>
+        <item m="1" x="379"/>
+        <item m="1" x="510"/>
+        <item m="1" x="101"/>
+        <item m="1" x="239"/>
+        <item m="1" x="370"/>
+        <item m="1" x="501"/>
+        <item m="1" x="91"/>
+        <item m="1" x="230"/>
+        <item m="1" x="297"/>
+        <item m="1" x="361"/>
+        <item m="1" x="428"/>
+        <item m="1" x="492"/>
+        <item m="1" x="560"/>
+        <item m="1" x="81"/>
+        <item m="1" x="155"/>
+        <item m="1" x="221"/>
+        <item m="1" x="288"/>
+        <item m="1" x="352"/>
+        <item m="1" x="419"/>
+        <item m="1" x="483"/>
+        <item m="1" x="551"/>
+        <item m="1" x="72"/>
+        <item m="1" x="146"/>
+        <item m="1" x="213"/>
+        <item m="1" x="280"/>
+        <item m="1" x="344"/>
+        <item m="1" x="411"/>
+        <item m="1" x="475"/>
+        <item m="1" x="543"/>
+        <item m="1" x="63"/>
+        <item m="1" x="136"/>
+        <item m="1" x="204"/>
+        <item m="1" x="271"/>
+        <item m="1" x="335"/>
+        <item m="1" x="402"/>
+        <item m="1" x="466"/>
+        <item m="1" x="534"/>
+        <item m="1" x="54"/>
+        <item m="1" x="127"/>
+        <item m="1" x="196"/>
+        <item m="1" x="263"/>
+        <item m="1" x="327"/>
+        <item m="1" x="394"/>
+        <item m="1" x="458"/>
+        <item m="1" x="525"/>
+        <item m="1" x="592"/>
+        <item m="1" x="117"/>
+        <item m="1" x="187"/>
+        <item m="1" x="253"/>
+        <item m="1" x="318"/>
+        <item m="1" x="384"/>
+        <item m="1" x="449"/>
+        <item m="1" x="515"/>
+        <item m="1" x="583"/>
+        <item m="1" x="107"/>
+        <item m="1" x="179"/>
+        <item m="1" x="244"/>
+        <item m="1" x="310"/>
+        <item m="1" x="375"/>
+        <item m="1" x="441"/>
+        <item m="1" x="506"/>
+        <item m="1" x="574"/>
+        <item m="1" x="96"/>
+        <item m="1" x="169"/>
+        <item m="1" x="234"/>
+        <item m="1" x="301"/>
+        <item m="1" x="365"/>
+        <item m="1" x="432"/>
+        <item m="1" x="496"/>
+        <item m="1" x="565"/>
+        <item m="1" x="86"/>
+        <item m="1" x="160"/>
+        <item m="1" x="193"/>
+        <item m="1" x="225"/>
+        <item m="1" x="260"/>
+        <item m="1" x="292"/>
+        <item m="1" x="324"/>
+        <item m="1" x="356"/>
+        <item m="1" x="391"/>
+        <item m="1" x="423"/>
+        <item m="1" x="455"/>
+        <item m="1" x="487"/>
+        <item m="1" x="522"/>
+        <item m="1" x="555"/>
+        <item m="1" x="589"/>
+        <item m="1" x="76"/>
+        <item m="1" x="114"/>
+        <item m="1" x="150"/>
+        <item m="1" x="184"/>
+        <item m="1" x="216"/>
+        <item m="1" x="250"/>
+        <item m="1" x="283"/>
+        <item m="1" x="315"/>
+        <item m="1" x="347"/>
+        <item m="1" x="381"/>
+        <item m="1" x="414"/>
+        <item m="1" x="446"/>
+        <item m="1" x="478"/>
+        <item m="1" x="512"/>
+        <item m="1" x="546"/>
+        <item m="1" x="579"/>
+        <item m="1" x="66"/>
+        <item m="1" x="103"/>
+        <item m="1" x="140"/>
+        <item m="1" x="175"/>
+        <item m="1" x="208"/>
+        <item m="1" x="241"/>
+        <item m="1" x="275"/>
+        <item m="1" x="307"/>
+        <item m="1" x="339"/>
+        <item m="1" x="372"/>
+        <item m="1" x="406"/>
+        <item m="1" x="438"/>
+        <item m="1" x="470"/>
+        <item m="1" x="503"/>
+        <item m="1" x="538"/>
+        <item m="1" x="571"/>
+        <item m="1" x="58"/>
+        <item m="1" x="93"/>
+        <item m="1" x="131"/>
+        <item m="1" x="166"/>
+        <item m="1" x="200"/>
+        <item m="1" x="232"/>
+        <item m="1" x="267"/>
+        <item m="1" x="299"/>
+        <item m="1" x="331"/>
+        <item m="1" x="363"/>
+        <item m="1" x="398"/>
+        <item m="1" x="430"/>
+        <item m="1" x="462"/>
+        <item m="1" x="494"/>
+        <item m="1" x="530"/>
+        <item m="1" x="562"/>
+        <item m="1" x="596"/>
+        <item m="1" x="83"/>
+        <item m="1" x="122"/>
+        <item m="1" x="157"/>
+        <item m="1" x="191"/>
+        <item m="1" x="223"/>
+        <item m="1" x="258"/>
+        <item m="1" x="290"/>
+        <item m="1" x="322"/>
+        <item m="1" x="354"/>
+        <item m="1" x="389"/>
+        <item m="1" x="421"/>
+        <item m="1" x="453"/>
+        <item m="1" x="485"/>
+        <item m="1" x="520"/>
+        <item m="1" x="553"/>
+        <item m="1" x="587"/>
+        <item m="1" x="74"/>
+        <item m="1" x="112"/>
+        <item m="1" x="148"/>
+        <item m="1" x="183"/>
+        <item m="1" x="215"/>
+        <item m="1" x="249"/>
+        <item m="1" x="282"/>
+        <item m="1" x="314"/>
+        <item m="1" x="346"/>
+        <item m="1" x="380"/>
+        <item m="1" x="413"/>
+        <item m="1" x="445"/>
+        <item m="1" x="477"/>
+        <item m="1" x="511"/>
+        <item m="1" x="545"/>
+        <item m="1" x="578"/>
+        <item m="1" x="65"/>
+        <item m="1" x="102"/>
+        <item m="1" x="139"/>
+        <item m="1" x="174"/>
+        <item m="1" x="207"/>
+        <item m="1" x="240"/>
+        <item m="1" x="274"/>
+        <item m="1" x="306"/>
+        <item m="1" x="338"/>
+        <item m="1" x="371"/>
+        <item m="1" x="405"/>
+        <item m="1" x="437"/>
+        <item m="1" x="469"/>
+        <item m="1" x="502"/>
+        <item m="1" x="537"/>
+        <item m="1" x="570"/>
+        <item m="1" x="57"/>
+        <item m="1" x="92"/>
+        <item m="1" x="130"/>
+        <item m="1" x="165"/>
+        <item m="1" x="199"/>
+        <item m="1" x="231"/>
+        <item m="1" x="266"/>
+        <item m="1" x="298"/>
+        <item m="1" x="330"/>
+        <item m="1" x="362"/>
+        <item m="1" x="397"/>
+        <item m="1" x="429"/>
+        <item m="1" x="461"/>
+        <item m="1" x="493"/>
+        <item m="1" x="528"/>
+        <item m="1" x="561"/>
+        <item m="1" x="595"/>
+        <item m="1" x="82"/>
+        <item m="1" x="100"/>
+        <item m="1" x="120"/>
+        <item m="1" x="138"/>
+        <item m="1" x="156"/>
+        <item m="1" x="173"/>
+        <item m="1" x="190"/>
+        <item m="1" x="206"/>
+        <item m="1" x="222"/>
+        <item m="1" x="238"/>
+        <item m="1" x="256"/>
+        <item m="1" x="273"/>
+        <item m="1" x="289"/>
+        <item m="1" x="305"/>
+        <item m="1" x="321"/>
+        <item m="1" x="337"/>
+        <item m="1" x="353"/>
+        <item m="1" x="369"/>
+        <item m="1" x="387"/>
+        <item m="1" x="404"/>
+        <item m="1" x="420"/>
+        <item m="1" x="436"/>
+        <item m="1" x="452"/>
+        <item m="1" x="468"/>
+        <item m="1" x="484"/>
+        <item m="1" x="500"/>
+        <item m="1" x="518"/>
+        <item m="1" x="536"/>
+        <item m="1" x="552"/>
+        <item m="1" x="569"/>
+        <item m="1" x="586"/>
+        <item m="1" x="56"/>
+        <item m="1" x="73"/>
+        <item m="1" x="90"/>
+        <item m="1" x="110"/>
+        <item m="1" x="129"/>
+        <item m="1" x="147"/>
+        <item m="1" x="164"/>
+        <item m="1" x="182"/>
+        <item m="1" x="198"/>
+        <item m="1" x="214"/>
+        <item m="1" x="229"/>
+        <item m="1" x="247"/>
+        <item m="1" x="265"/>
+        <item m="1" x="281"/>
+        <item m="1" x="296"/>
+        <item m="1" x="313"/>
         <item m="1" x="329"/>
-        <item m="1" x="339"/>
+        <item m="1" x="345"/>
+        <item m="1" x="360"/>
+        <item m="1" x="378"/>
+        <item m="1" x="396"/>
+        <item m="1" x="412"/>
+        <item m="1" x="427"/>
+        <item m="1" x="444"/>
+        <item m="1" x="460"/>
+        <item m="1" x="476"/>
+        <item m="1" x="491"/>
+        <item m="1" x="509"/>
+        <item m="1" x="527"/>
+        <item m="1" x="544"/>
+        <item m="1" x="559"/>
+        <item m="1" x="577"/>
+        <item m="1" x="594"/>
+        <item m="1" x="64"/>
+        <item m="1" x="80"/>
+        <item m="1" x="99"/>
+        <item m="1" x="119"/>
+        <item m="1" x="137"/>
+        <item m="1" x="154"/>
+        <item m="1" x="172"/>
+        <item m="1" x="189"/>
+        <item m="1" x="205"/>
+        <item m="1" x="220"/>
+        <item m="1" x="237"/>
+        <item m="1" x="255"/>
+        <item m="1" x="272"/>
+        <item m="1" x="287"/>
+        <item m="1" x="304"/>
+        <item m="1" x="320"/>
+        <item m="1" x="336"/>
+        <item m="1" x="351"/>
+        <item m="1" x="368"/>
+        <item m="1" x="386"/>
+        <item m="1" x="403"/>
+        <item m="1" x="418"/>
+        <item m="1" x="435"/>
+        <item m="1" x="451"/>
+        <item m="1" x="467"/>
+        <item m="1" x="482"/>
+        <item m="1" x="499"/>
+        <item m="1" x="517"/>
+        <item m="1" x="535"/>
+        <item m="1" x="550"/>
+        <item m="1" x="568"/>
+        <item m="1" x="585"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="89"/>
+        <item m="1" x="109"/>
+        <item m="1" x="128"/>
+        <item m="1" x="145"/>
+        <item m="1" x="163"/>
+        <item m="1" x="181"/>
+        <item m="1" x="197"/>
+        <item m="1" x="212"/>
+        <item m="1" x="228"/>
+        <item m="1" x="246"/>
+        <item m="1" x="264"/>
+        <item m="1" x="279"/>
+        <item m="1" x="295"/>
+        <item m="1" x="312"/>
+        <item m="1" x="328"/>
+        <item m="1" x="343"/>
+        <item m="1" x="359"/>
+        <item m="1" x="377"/>
+        <item m="1" x="395"/>
+        <item m="1" x="410"/>
+        <item m="1" x="426"/>
+        <item m="1" x="443"/>
+        <item m="1" x="459"/>
+        <item m="1" x="474"/>
+        <item m="1" x="490"/>
+        <item m="1" x="508"/>
+        <item m="1" x="526"/>
+        <item m="1" x="542"/>
+        <item m="1" x="558"/>
+        <item m="1" x="576"/>
+        <item m="1" x="593"/>
+        <item m="1" x="62"/>
+        <item m="1" x="79"/>
+        <item m="1" x="98"/>
+        <item m="1" x="118"/>
+        <item m="1" x="135"/>
+        <item m="1" x="153"/>
+        <item m="1" x="171"/>
+        <item m="1" x="188"/>
+        <item m="1" x="203"/>
+        <item m="1" x="219"/>
+        <item m="1" x="236"/>
+        <item m="1" x="254"/>
+        <item m="1" x="270"/>
+        <item m="1" x="286"/>
+        <item m="1" x="303"/>
+        <item m="1" x="319"/>
+        <item m="1" x="334"/>
+        <item m="1" x="350"/>
+        <item m="1" x="367"/>
+        <item m="1" x="385"/>
+        <item m="1" x="401"/>
+        <item m="1" x="417"/>
+        <item m="1" x="434"/>
+        <item m="1" x="450"/>
+        <item m="1" x="465"/>
+        <item m="1" x="481"/>
+        <item m="1" x="498"/>
+        <item m="1" x="516"/>
+        <item m="1" x="533"/>
+        <item m="1" x="549"/>
+        <item m="1" x="567"/>
+        <item m="1" x="584"/>
+        <item m="1" x="53"/>
+        <item m="1" x="70"/>
+        <item m="1" x="88"/>
+        <item m="1" x="108"/>
+        <item m="1" x="126"/>
+        <item m="1" x="144"/>
+        <item m="1" x="162"/>
+        <item m="1" x="180"/>
+        <item m="1" x="195"/>
+        <item m="1" x="211"/>
+        <item m="1" x="227"/>
+        <item m="1" x="245"/>
+        <item m="1" x="262"/>
+        <item m="1" x="278"/>
+        <item m="1" x="294"/>
+        <item m="1" x="311"/>
+        <item m="1" x="326"/>
+        <item m="1" x="342"/>
+        <item m="1" x="358"/>
+        <item m="1" x="376"/>
+        <item m="1" x="393"/>
+        <item m="1" x="409"/>
+        <item m="1" x="425"/>
+        <item m="1" x="442"/>
+        <item m="1" x="457"/>
+        <item m="1" x="473"/>
+        <item m="1" x="489"/>
+        <item m="1" x="507"/>
+        <item m="1" x="524"/>
+        <item m="1" x="541"/>
+        <item m="1" x="557"/>
+        <item m="1" x="575"/>
+        <item m="1" x="591"/>
+        <item m="1" x="61"/>
+        <item m="1" x="78"/>
+        <item m="1" x="97"/>
+        <item m="1" x="116"/>
+        <item m="1" x="134"/>
+        <item m="1" x="152"/>
+        <item m="1" x="170"/>
+        <item m="1" x="186"/>
+        <item m="1" x="202"/>
+        <item m="1" x="218"/>
+        <item m="1" x="235"/>
+        <item m="1" x="252"/>
+        <item m="1" x="269"/>
+        <item m="1" x="285"/>
+        <item m="1" x="302"/>
+        <item m="1" x="317"/>
+        <item m="1" x="333"/>
         <item m="1" x="349"/>
-        <item m="1" x="359"/>
-        <item m="1" x="369"/>
-        <item m="1" x="379"/>
-        <item m="1" x="389"/>
-        <item m="1" x="398"/>
-        <item m="1" x="406"/>
-        <item m="1" x="414"/>
+        <item m="1" x="366"/>
+        <item m="1" x="383"/>
+        <item m="1" x="400"/>
+        <item m="1" x="416"/>
+        <item m="1" x="433"/>
+        <item m="1" x="448"/>
+        <item m="1" x="464"/>
+        <item m="1" x="480"/>
+        <item m="1" x="497"/>
+        <item m="1" x="514"/>
+        <item m="1" x="532"/>
+        <item m="1" x="548"/>
+        <item m="1" x="566"/>
+        <item m="1" x="582"/>
+        <item m="1" x="52"/>
+        <item m="1" x="69"/>
+        <item m="1" x="87"/>
+        <item m="1" x="106"/>
+        <item m="1" x="125"/>
+        <item m="1" x="143"/>
+        <item m="1" x="161"/>
+        <item m="1" x="178"/>
+        <item m="1" x="194"/>
+        <item m="1" x="210"/>
+        <item m="1" x="226"/>
+        <item m="1" x="243"/>
+        <item m="1" x="261"/>
+        <item m="1" x="277"/>
+        <item m="1" x="293"/>
+        <item m="1" x="309"/>
+        <item m="1" x="325"/>
+        <item m="1" x="341"/>
+        <item m="1" x="357"/>
+        <item m="1" x="374"/>
+        <item m="1" x="392"/>
+        <item m="1" x="408"/>
+        <item m="1" x="424"/>
+        <item m="1" x="440"/>
+        <item m="1" x="456"/>
+        <item m="1" x="472"/>
+        <item m="1" x="488"/>
+        <item m="1" x="505"/>
+        <item m="1" x="523"/>
+        <item m="1" x="540"/>
+        <item m="1" x="556"/>
+        <item m="1" x="564"/>
+        <item m="1" x="573"/>
+        <item m="1" x="581"/>
+        <item m="1" x="590"/>
+        <item m="1" x="51"/>
+        <item m="1" x="60"/>
+        <item m="1" x="68"/>
+        <item m="1" x="77"/>
+        <item m="1" x="85"/>
+        <item m="1" x="95"/>
+        <item m="1" x="105"/>
+        <item m="1" x="115"/>
+        <item m="1" x="124"/>
+        <item m="1" x="133"/>
+        <item m="1" x="142"/>
+        <item m="1" x="151"/>
+        <item m="1" x="159"/>
+        <item m="1" x="168"/>
+        <item m="1" x="177"/>
+        <item m="1" x="185"/>
+        <item m="1" x="192"/>
+        <item m="1" x="201"/>
+        <item m="1" x="209"/>
+        <item m="1" x="217"/>
+        <item m="1" x="224"/>
+        <item m="1" x="233"/>
+        <item m="1" x="242"/>
+        <item m="1" x="251"/>
+        <item m="1" x="259"/>
+        <item m="1" x="268"/>
+        <item m="1" x="276"/>
+        <item m="1" x="284"/>
+        <item m="1" x="291"/>
+        <item m="1" x="300"/>
+        <item m="1" x="308"/>
+        <item m="1" x="316"/>
+        <item m="1" x="323"/>
+        <item m="1" x="332"/>
+        <item m="1" x="340"/>
+        <item m="1" x="348"/>
+        <item m="1" x="355"/>
+        <item m="1" x="364"/>
+        <item m="1" x="373"/>
+        <item m="1" x="382"/>
+        <item m="1" x="390"/>
+        <item m="1" x="399"/>
+        <item m="1" x="407"/>
+        <item m="1" x="415"/>
         <item m="1" x="422"/>
-        <item m="1" x="430"/>
-        <item m="1" x="438"/>
-        <item m="1" x="446"/>
+        <item m="1" x="431"/>
+        <item m="1" x="439"/>
+        <item m="1" x="447"/>
         <item m="1" x="454"/>
-        <item m="1" x="462"/>
-        <item m="1" x="470"/>
-        <item m="1" x="478"/>
+        <item m="1" x="463"/>
+        <item m="1" x="471"/>
+        <item m="1" x="479"/>
         <item m="1" x="486"/>
-        <item m="1" x="494"/>
-        <item m="1" x="502"/>
-        <item m="1" x="510"/>
-        <item m="1" x="518"/>
-        <item m="1" x="526"/>
-        <item m="1" x="534"/>
-        <item m="1" x="542"/>
-        <item m="1" x="550"/>
-        <item m="1" x="558"/>
-        <item m="1" x="566"/>
-        <item m="1" x="574"/>
-        <item m="1" x="583"/>
-        <item m="1" x="592"/>
-        <item m="1" x="324"/>
-        <item m="1" x="334"/>
-        <item m="1" x="344"/>
-        <item m="1" x="354"/>
-        <item m="1" x="364"/>
-        <item m="1" x="374"/>
-        <item m="1" x="384"/>
-        <item m="1" x="394"/>
-        <item m="1" x="402"/>
-        <item m="1" x="410"/>
-        <item m="1" x="418"/>
-        <item m="1" x="426"/>
-        <item m="1" x="434"/>
-        <item m="1" x="442"/>
-        <item m="1" x="450"/>
-        <item m="1" x="458"/>
-        <item m="1" x="466"/>
-        <item m="1" x="474"/>
-        <item m="1" x="482"/>
-        <item m="1" x="490"/>
-        <item m="1" x="498"/>
-        <item m="1" x="506"/>
-        <item m="1" x="514"/>
-        <item m="1" x="522"/>
-        <item m="1" x="530"/>
-        <item m="1" x="538"/>
-        <item m="1" x="546"/>
-        <item m="1" x="554"/>
-        <item m="1" x="562"/>
-        <item m="1" x="570"/>
-        <item m="1" x="578"/>
-        <item m="1" x="587"/>
-        <item m="1" x="596"/>
-        <item m="1" x="328"/>
-        <item m="1" x="338"/>
-        <item m="1" x="348"/>
-        <item m="1" x="358"/>
-        <item m="1" x="368"/>
-        <item m="1" x="378"/>
-        <item m="1" x="388"/>
-        <item m="1" x="397"/>
-        <item m="1" x="405"/>
-        <item m="1" x="413"/>
-        <item m="1" x="421"/>
-        <item m="1" x="429"/>
-        <item m="1" x="437"/>
-        <item m="1" x="445"/>
-        <item m="1" x="453"/>
-        <item m="1" x="461"/>
-        <item m="1" x="469"/>
-        <item m="1" x="477"/>
-        <item m="1" x="485"/>
-        <item m="1" x="493"/>
-        <item m="1" x="501"/>
-        <item m="1" x="509"/>
-        <item m="1" x="517"/>
-        <item m="1" x="525"/>
-        <item m="1" x="533"/>
-        <item m="1" x="541"/>
-        <item m="1" x="549"/>
-        <item m="1" x="557"/>
-        <item m="1" x="565"/>
-        <item m="1" x="573"/>
-        <item m="1" x="582"/>
-        <item m="1" x="591"/>
-        <item m="1" x="323"/>
-        <item m="1" x="333"/>
-        <item m="1" x="343"/>
-        <item m="1" x="353"/>
-        <item m="1" x="363"/>
-        <item m="1" x="373"/>
-        <item m="1" x="383"/>
-        <item m="1" x="393"/>
-        <item m="1" x="401"/>
-        <item m="1" x="409"/>
-        <item m="1" x="417"/>
-        <item m="1" x="425"/>
-        <item m="1" x="433"/>
-        <item m="1" x="441"/>
-        <item m="1" x="449"/>
-        <item m="1" x="457"/>
-        <item m="1" x="465"/>
-        <item m="1" x="473"/>
-        <item m="1" x="481"/>
-        <item m="1" x="489"/>
-        <item m="1" x="497"/>
-        <item m="1" x="505"/>
+        <item m="1" x="495"/>
+        <item m="1" x="504"/>
         <item m="1" x="513"/>
         <item m="1" x="521"/>
-        <item m="1" x="529"/>
-        <item m="1" x="537"/>
-        <item m="1" x="545"/>
-        <item m="1" x="553"/>
-        <item m="1" x="561"/>
-        <item m="1" x="569"/>
-        <item m="1" x="577"/>
-        <item m="1" x="586"/>
-        <item m="1" x="595"/>
-        <item m="1" x="327"/>
-        <item m="1" x="337"/>
-        <item m="1" x="347"/>
-        <item m="1" x="357"/>
-        <item m="1" x="367"/>
-        <item m="1" x="377"/>
-        <item m="1" x="387"/>
-        <item m="1" x="396"/>
-        <item m="1" x="404"/>
-        <item m="1" x="412"/>
-        <item m="1" x="420"/>
-        <item m="1" x="428"/>
-        <item m="1" x="436"/>
-        <item m="1" x="444"/>
-        <item m="1" x="452"/>
-        <item m="1" x="460"/>
-        <item m="1" x="468"/>
-        <item m="1" x="476"/>
-        <item m="1" x="484"/>
-        <item m="1" x="492"/>
-        <item m="1" x="500"/>
-        <item m="1" x="508"/>
-        <item m="1" x="516"/>
-        <item m="1" x="524"/>
-        <item m="1" x="532"/>
-        <item m="1" x="540"/>
-        <item m="1" x="548"/>
-        <item m="1" x="556"/>
-        <item m="1" x="564"/>
+        <item m="1" x="531"/>
+        <item m="1" x="539"/>
+        <item m="1" x="547"/>
+        <item m="1" x="554"/>
+        <item m="1" x="563"/>
         <item m="1" x="572"/>
-        <item m="1" x="581"/>
-        <item m="1" x="590"/>
-        <item m="1" x="322"/>
-        <item m="1" x="332"/>
-        <item m="1" x="342"/>
-        <item m="1" x="352"/>
-        <item m="1" x="362"/>
-        <item m="1" x="372"/>
-        <item m="1" x="382"/>
-        <item m="1" x="392"/>
-        <item m="1" x="400"/>
-        <item m="1" x="408"/>
-        <item m="1" x="416"/>
-        <item m="1" x="424"/>
-        <item m="1" x="432"/>
-        <item m="1" x="440"/>
-        <item m="1" x="448"/>
-        <item m="1" x="456"/>
-        <item m="1" x="464"/>
-        <item m="1" x="472"/>
-        <item m="1" x="480"/>
-        <item m="1" x="488"/>
-        <item m="1" x="496"/>
-        <item m="1" x="504"/>
-        <item m="1" x="512"/>
-        <item m="1" x="520"/>
-        <item m="1" x="528"/>
-        <item m="1" x="536"/>
-        <item m="1" x="544"/>
-        <item m="1" x="552"/>
-        <item m="1" x="560"/>
-        <item m="1" x="568"/>
-        <item m="1" x="576"/>
         <item m="1" x="580"/>
-        <item m="1" x="585"/>
-        <item m="1" x="589"/>
-        <item m="1" x="594"/>
-        <item m="1" x="321"/>
-        <item m="1" x="326"/>
-        <item m="1" x="331"/>
-        <item m="1" x="336"/>
-        <item m="1" x="341"/>
-        <item m="1" x="346"/>
-        <item m="1" x="351"/>
-        <item m="1" x="356"/>
-        <item m="1" x="361"/>
-        <item m="1" x="366"/>
-        <item m="1" x="371"/>
-        <item m="1" x="376"/>
-        <item m="1" x="381"/>
-        <item m="1" x="386"/>
-        <item m="1" x="391"/>
-        <item m="1" x="395"/>
-        <item m="1" x="399"/>
-        <item m="1" x="403"/>
-        <item m="1" x="407"/>
-        <item m="1" x="411"/>
-        <item m="1" x="415"/>
-        <item m="1" x="419"/>
-        <item m="1" x="423"/>
-        <item m="1" x="427"/>
-        <item m="1" x="431"/>
-        <item m="1" x="435"/>
-        <item m="1" x="439"/>
-        <item m="1" x="443"/>
-        <item m="1" x="447"/>
-        <item m="1" x="451"/>
-        <item m="1" x="455"/>
-        <item m="1" x="459"/>
-        <item m="1" x="463"/>
-        <item m="1" x="467"/>
-        <item m="1" x="471"/>
-        <item m="1" x="475"/>
-        <item m="1" x="479"/>
-        <item m="1" x="483"/>
-        <item m="1" x="487"/>
-        <item m="1" x="491"/>
-        <item m="1" x="495"/>
-        <item m="1" x="499"/>
-        <item m="1" x="503"/>
-        <item m="1" x="507"/>
-        <item m="1" x="511"/>
-        <item m="1" x="515"/>
-        <item m="1" x="519"/>
-        <item m="1" x="523"/>
-        <item m="1" x="527"/>
-        <item m="1" x="531"/>
-        <item m="1" x="535"/>
-        <item m="1" x="539"/>
-        <item m="1" x="543"/>
-        <item m="1" x="547"/>
-        <item m="1" x="551"/>
-        <item m="1" x="555"/>
-        <item m="1" x="559"/>
-        <item m="1" x="563"/>
-        <item m="1" x="567"/>
-        <item m="1" x="571"/>
-        <item m="1" x="575"/>
-        <item m="1" x="579"/>
-        <item m="1" x="584"/>
         <item m="1" x="588"/>
-        <item m="1" x="593"/>
-        <item m="1" x="320"/>
-        <item m="1" x="325"/>
-        <item m="1" x="330"/>
-        <item m="1" x="335"/>
-        <item m="1" x="340"/>
-        <item m="1" x="345"/>
-        <item m="1" x="350"/>
-        <item m="1" x="355"/>
-        <item m="1" x="360"/>
-        <item m="1" x="365"/>
-        <item m="1" x="370"/>
-        <item m="1" x="375"/>
-        <item m="1" x="380"/>
-        <item m="1" x="385"/>
-        <item m="1" x="390"/>
+        <item m="1" x="50"/>
+        <item m="1" x="59"/>
+        <item m="1" x="67"/>
+        <item m="1" x="75"/>
+        <item m="1" x="84"/>
+        <item m="1" x="94"/>
+        <item m="1" x="104"/>
+        <item m="1" x="113"/>
+        <item m="1" x="123"/>
+        <item m="1" x="132"/>
+        <item m="1" x="141"/>
+        <item m="1" x="149"/>
+        <item m="1" x="158"/>
+        <item m="1" x="167"/>
+        <item m="1" x="176"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5222,196 +5311,206 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="48" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
-  <location ref="A3:D10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+  <location ref="A3:C10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="15">
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="177">
-        <item m="1" x="5"/>
-        <item m="1" x="81"/>
-        <item m="1" x="166"/>
-        <item m="1" x="48"/>
-        <item m="1" x="118"/>
+      <items count="179">
+        <item m="1" x="4"/>
+        <item m="1" x="82"/>
+        <item m="1" x="168"/>
+        <item m="1" x="49"/>
+        <item m="1" x="120"/>
+        <item m="1" x="148"/>
+        <item m="1" x="70"/>
+        <item m="1" x="130"/>
+        <item m="1" x="94"/>
+        <item m="1" x="160"/>
+        <item m="1" x="83"/>
+        <item m="1" x="86"/>
+        <item m="1" x="169"/>
+        <item m="1" x="60"/>
         <item m="1" x="146"/>
+        <item m="1" x="128"/>
+        <item m="1" x="84"/>
+        <item m="1" x="44"/>
         <item m="1" x="69"/>
-        <item m="1" x="128"/>
-        <item m="1" x="93"/>
-        <item m="1" x="158"/>
-        <item m="1" x="82"/>
-        <item m="1" x="85"/>
-        <item m="1" x="167"/>
-        <item m="1" x="59"/>
-        <item m="1" x="144"/>
-        <item m="1" x="126"/>
-        <item m="1" x="83"/>
-        <item m="1" x="43"/>
-        <item m="1" x="68"/>
-        <item m="1" x="63"/>
+        <item m="1" x="64"/>
+        <item m="1" x="40"/>
+        <item m="1" x="164"/>
+        <item m="1" x="54"/>
+        <item m="1" x="53"/>
+        <item m="1" x="6"/>
+        <item m="1" x="172"/>
+        <item m="1" x="107"/>
         <item m="1" x="39"/>
-        <item m="1" x="162"/>
-        <item m="1" x="53"/>
-        <item m="1" x="52"/>
-        <item m="1" x="6"/>
-        <item m="1" x="170"/>
-        <item m="1" x="106"/>
-        <item m="1" x="38"/>
         <item m="1" x="22"/>
         <item m="1" x="23"/>
-        <item m="1" x="72"/>
-        <item m="1" x="40"/>
-        <item m="1" x="107"/>
+        <item m="1" x="73"/>
+        <item m="1" x="41"/>
+        <item m="1" x="108"/>
         <item m="1" x="12"/>
-        <item m="1" x="152"/>
-        <item m="1" x="56"/>
-        <item m="1" x="49"/>
-        <item m="1" x="73"/>
-        <item m="1" x="117"/>
-        <item m="1" x="168"/>
-        <item m="1" x="135"/>
-        <item m="1" x="111"/>
+        <item m="1" x="154"/>
+        <item m="1" x="57"/>
+        <item m="1" x="50"/>
+        <item m="1" x="74"/>
+        <item m="1" x="119"/>
+        <item m="1" x="170"/>
+        <item m="1" x="137"/>
+        <item m="1" x="112"/>
         <item m="1" x="33"/>
-        <item m="1" x="57"/>
-        <item m="1" x="108"/>
+        <item m="1" x="58"/>
+        <item m="1" x="109"/>
         <item m="1" x="34"/>
         <item m="1" x="7"/>
-        <item m="1" x="86"/>
+        <item m="1" x="87"/>
         <item m="1" x="15"/>
-        <item m="1" x="74"/>
-        <item m="1" x="169"/>
-        <item m="1" x="132"/>
         <item m="1" x="75"/>
         <item m="1" x="171"/>
+        <item m="1" x="134"/>
         <item m="1" x="76"/>
-        <item m="1" x="44"/>
-        <item m="1" x="153"/>
+        <item m="1" x="173"/>
+        <item m="1" x="77"/>
+        <item m="1" x="45"/>
+        <item m="1" x="155"/>
         <item m="1" x="17"/>
         <item m="1" x="24"/>
         <item m="1" x="29"/>
         <item m="1" x="13"/>
-        <item m="1" x="147"/>
-        <item m="1" x="58"/>
-        <item m="1" x="174"/>
+        <item m="1" x="149"/>
+        <item m="1" x="59"/>
+        <item m="1" x="176"/>
         <item m="1" x="35"/>
-        <item m="1" x="129"/>
-        <item m="1" x="41"/>
-        <item m="1" x="100"/>
-        <item m="1" x="113"/>
-        <item m="1" x="121"/>
-        <item m="1" x="164"/>
+        <item m="1" x="131"/>
+        <item m="1" x="42"/>
         <item m="1" x="101"/>
-        <item m="1" x="109"/>
+        <item m="1" x="114"/>
+        <item m="1" x="123"/>
+        <item m="1" x="166"/>
+        <item m="1" x="102"/>
+        <item m="1" x="110"/>
         <item m="1" x="18"/>
-        <item m="1" x="130"/>
+        <item m="1" x="132"/>
         <item m="1" x="30"/>
-        <item m="1" x="148"/>
-        <item m="1" x="116"/>
-        <item m="1" x="142"/>
-        <item m="1" x="98"/>
-        <item m="1" x="125"/>
-        <item m="1" x="91"/>
+        <item m="1" x="150"/>
+        <item m="1" x="118"/>
+        <item m="1" x="144"/>
+        <item m="1" x="99"/>
+        <item m="1" x="127"/>
+        <item m="1" x="92"/>
         <item m="1" x="25"/>
-        <item m="1" x="163"/>
-        <item m="1" x="3"/>
-        <item m="1" x="87"/>
+        <item m="1" x="165"/>
+        <item m="1" x="2"/>
+        <item m="1" x="88"/>
         <item m="1" x="27"/>
         <item m="1" x="36"/>
-        <item m="1" x="175"/>
-        <item m="1" x="154"/>
-        <item m="1" x="64"/>
-        <item m="1" x="150"/>
-        <item m="1" x="54"/>
-        <item m="1" x="143"/>
-        <item m="1" x="133"/>
-        <item m="1" x="77"/>
-        <item m="1" x="92"/>
-        <item m="1" x="136"/>
-        <item m="1" x="159"/>
-        <item m="1" x="123"/>
-        <item m="1" x="137"/>
-        <item m="1" x="50"/>
+        <item m="1" x="177"/>
+        <item m="1" x="156"/>
+        <item m="1" x="65"/>
+        <item m="1" x="152"/>
+        <item m="1" x="55"/>
+        <item m="1" x="145"/>
+        <item m="1" x="135"/>
         <item m="1" x="78"/>
-        <item m="1" x="172"/>
+        <item m="1" x="93"/>
         <item m="1" x="138"/>
+        <item m="1" x="161"/>
+        <item m="1" x="125"/>
+        <item m="1" x="139"/>
+        <item m="1" x="51"/>
+        <item m="1" x="79"/>
+        <item m="1" x="174"/>
+        <item m="1" x="140"/>
         <item m="1" x="37"/>
-        <item m="1" x="151"/>
-        <item m="1" x="55"/>
-        <item m="1" x="160"/>
-        <item m="1" x="122"/>
-        <item m="1" x="96"/>
+        <item m="1" x="153"/>
+        <item m="1" x="56"/>
+        <item m="1" x="162"/>
+        <item m="1" x="124"/>
+        <item m="1" x="97"/>
         <item m="1" x="26"/>
-        <item m="1" x="103"/>
-        <item m="1" x="79"/>
-        <item m="1" x="70"/>
-        <item m="1" x="2"/>
+        <item m="1" x="104"/>
+        <item m="1" x="80"/>
+        <item m="1" x="71"/>
+        <item m="1" x="1"/>
         <item m="1" x="19"/>
         <item m="1" x="8"/>
-        <item m="1" x="80"/>
-        <item m="1" x="110"/>
+        <item m="1" x="81"/>
+        <item m="1" x="111"/>
+        <item m="1" x="63"/>
+        <item m="1" x="151"/>
+        <item m="1" x="9"/>
+        <item m="1" x="157"/>
+        <item m="1" x="147"/>
+        <item m="1" x="113"/>
+        <item m="1" x="89"/>
+        <item m="1" x="175"/>
+        <item m="1" x="136"/>
+        <item m="1" x="129"/>
+        <item m="1" x="32"/>
+        <item m="1" x="142"/>
+        <item m="1" x="72"/>
+        <item m="1" x="121"/>
+        <item m="1" x="116"/>
+        <item m="1" x="95"/>
+        <item m="1" x="90"/>
+        <item m="1" x="158"/>
         <item m="1" x="62"/>
-        <item m="1" x="149"/>
-        <item m="1" x="9"/>
-        <item m="1" x="155"/>
-        <item m="1" x="145"/>
-        <item m="1" x="112"/>
-        <item m="1" x="88"/>
-        <item m="1" x="173"/>
-        <item m="1" x="134"/>
-        <item m="1" x="127"/>
-        <item m="1" x="32"/>
-        <item m="1" x="140"/>
-        <item m="1" x="71"/>
-        <item m="1" x="119"/>
-        <item m="1" x="114"/>
-        <item m="1" x="94"/>
-        <item m="1" x="89"/>
-        <item m="1" x="156"/>
+        <item m="1" x="122"/>
+        <item m="1" x="143"/>
+        <item m="1" x="117"/>
         <item m="1" x="61"/>
-        <item m="1" x="120"/>
+        <item m="1" x="163"/>
+        <item m="1" x="16"/>
+        <item m="1" x="66"/>
+        <item m="1" x="67"/>
+        <item m="1" x="85"/>
+        <item m="1" x="31"/>
+        <item m="1" x="167"/>
+        <item m="1" x="178"/>
+        <item m="1" x="11"/>
+        <item m="1" x="100"/>
+        <item m="1" x="21"/>
+        <item m="1" x="91"/>
+        <item m="1" x="105"/>
+        <item m="1" x="10"/>
+        <item m="1" x="159"/>
+        <item m="1" x="48"/>
+        <item m="1" x="68"/>
+        <item m="1" x="20"/>
         <item m="1" x="141"/>
-        <item m="1" x="115"/>
-        <item m="1" x="60"/>
-        <item m="1" x="161"/>
-        <item m="1" x="16"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="84"/>
-        <item m="1" x="31"/>
-        <item m="1" x="165"/>
-        <item m="1" x="176"/>
-        <item m="1" x="11"/>
-        <item m="1" x="99"/>
-        <item m="1" x="21"/>
-        <item m="1" x="90"/>
-        <item m="1" x="104"/>
-        <item m="1" x="10"/>
-        <item m="1" x="157"/>
-        <item m="1" x="47"/>
-        <item m="1" x="67"/>
-        <item m="1" x="20"/>
-        <item m="1" x="139"/>
-        <item m="1" x="4"/>
-        <item m="1" x="131"/>
-        <item m="1" x="42"/>
+        <item m="1" x="3"/>
+        <item m="1" x="133"/>
+        <item m="1" x="43"/>
         <item m="1" x="28"/>
         <item m="1" x="14"/>
-        <item m="1" x="45"/>
-        <item m="1" x="102"/>
-        <item m="1" x="95"/>
         <item m="1" x="46"/>
-        <item m="1" x="105"/>
-        <item m="1" x="51"/>
-        <item m="1" x="124"/>
-        <item m="1" x="97"/>
+        <item m="1" x="103"/>
+        <item m="1" x="96"/>
+        <item m="1" x="47"/>
+        <item m="1" x="106"/>
+        <item m="1" x="52"/>
+        <item m="1" x="126"/>
+        <item m="1" x="98"/>
+        <item m="1" x="115"/>
+        <item m="1" x="5"/>
+        <item m="1" x="38"/>
         <item x="0"/>
-        <item x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="4">
+      <items count="6">
         <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item m="1" x="4"/>
+        <item m="1" x="3"/>
         <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item h="1" x="1"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
@@ -5436,7 +5535,7 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="5"/>
+    <field x="6"/>
   </rowFields>
   <rowItems count="5">
     <i>
@@ -5459,21 +5558,17 @@
     <field x="0"/>
     <field x="1"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
-      <x v="175"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="176"/>
-      <x v="2"/>
+      <x v="178"/>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of ERRORTRS" fld="11" subtotal="average" baseField="4" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of ERRORTRS" fld="12" subtotal="average" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
   <chartFormats count="35">
     <chartFormat chart="0" format="0" series="1">
@@ -5491,7 +5586,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5503,7 +5598,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5515,7 +5610,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5527,7 +5622,7 @@
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -5542,7 +5637,7 @@
           <reference field="0" count="1" selected="0">
             <x v="157"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -5557,7 +5652,7 @@
           <reference field="0" count="1" selected="0">
             <x v="158"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
@@ -5572,7 +5667,7 @@
           <reference field="0" count="1" selected="0">
             <x v="151"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5587,7 +5682,7 @@
           <reference field="0" count="1" selected="0">
             <x v="152"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5602,7 +5697,7 @@
           <reference field="0" count="1" selected="0">
             <x v="154"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5617,7 +5712,7 @@
           <reference field="0" count="1" selected="0">
             <x v="155"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5632,7 +5727,7 @@
           <reference field="0" count="1" selected="0">
             <x v="157"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5647,7 +5742,7 @@
           <reference field="0" count="1" selected="0">
             <x v="158"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5662,7 +5757,7 @@
           <reference field="0" count="1" selected="0">
             <x v="159"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
@@ -5677,7 +5772,7 @@
           <reference field="0" count="1" selected="0">
             <x v="149"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5692,7 +5787,7 @@
           <reference field="0" count="1" selected="0">
             <x v="150"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5707,7 +5802,7 @@
           <reference field="0" count="1" selected="0">
             <x v="154"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5722,7 +5817,7 @@
           <reference field="0" count="1" selected="0">
             <x v="155"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5737,7 +5832,7 @@
           <reference field="0" count="1" selected="0">
             <x v="156"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5752,7 +5847,7 @@
           <reference field="0" count="1" selected="0">
             <x v="158"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5767,7 +5862,7 @@
           <reference field="0" count="1" selected="0">
             <x v="159"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="2"/>
           </reference>
         </references>
@@ -5782,7 +5877,7 @@
           <reference field="0" count="1" selected="0">
             <x v="149"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5797,7 +5892,7 @@
           <reference field="0" count="1" selected="0">
             <x v="152"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5812,7 +5907,7 @@
           <reference field="0" count="1" selected="0">
             <x v="153"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5827,7 +5922,7 @@
           <reference field="0" count="1" selected="0">
             <x v="155"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5842,7 +5937,7 @@
           <reference field="0" count="1" selected="0">
             <x v="156"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5857,7 +5952,7 @@
           <reference field="0" count="1" selected="0">
             <x v="157"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5872,7 +5967,7 @@
           <reference field="0" count="1" selected="0">
             <x v="159"/>
           </reference>
-          <reference field="5" count="1" selected="0">
+          <reference field="6" count="1" selected="0">
             <x v="3"/>
           </reference>
         </references>
@@ -5974,8 +6069,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from Algo" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="11">
+    <queryTableFields count="9">
       <queryTableField id="1" name="PROCESSID" tableColumnId="1"/>
       <queryTableField id="2" name="CLIENTNAME" tableColumnId="2"/>
       <queryTableField id="3" name="CLIENTSTART" tableColumnId="3"/>
@@ -5983,7 +6078,8 @@
       <queryTableField id="5" name="SIMULATIONLEN" tableColumnId="5"/>
       <queryTableField id="6" name="SIMULATIONSTART" tableColumnId="6"/>
       <queryTableField id="7" name="DOTRAINING" tableColumnId="7"/>
-      <queryTableField id="8" name="DORUN" tableColumnId="8"/>
+      <queryTableField id="9" name="DOTRAINRUN" tableColumnId="8"/>
+      <queryTableField id="10" name="DOTESTRUN" tableColumnId="9"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -5996,184 +6092,185 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="177">
-        <i x="0"/>
-        <i x="1"/>
-        <i x="2"/>
-        <i x="3"/>
-        <i x="4"/>
-        <i x="5"/>
-        <i x="6"/>
-        <i x="7"/>
-        <i x="8"/>
-        <i x="9"/>
-        <i x="10"/>
-        <i x="11"/>
-        <i x="12"/>
-        <i x="13"/>
-        <i x="14"/>
-        <i x="15"/>
-        <i x="16"/>
-        <i x="17"/>
-        <i x="18"/>
-        <i x="19"/>
-        <i x="20"/>
-        <i x="21"/>
-        <i x="22"/>
-        <i x="23"/>
-        <i x="24"/>
-        <i x="25"/>
-        <i x="26"/>
-        <i x="27"/>
-        <i x="28"/>
-        <i x="29"/>
-        <i x="30"/>
-        <i x="31"/>
-        <i x="32"/>
-        <i x="33"/>
-        <i x="34"/>
-        <i x="35"/>
-        <i x="36"/>
-        <i x="37"/>
-        <i x="38"/>
-        <i x="39"/>
-        <i x="40"/>
-        <i x="41"/>
-        <i x="42"/>
-        <i x="43"/>
-        <i x="44"/>
-        <i x="45"/>
-        <i x="46"/>
-        <i x="47"/>
-        <i x="48"/>
-        <i x="49"/>
-        <i x="50"/>
-        <i x="51"/>
-        <i x="52"/>
-        <i x="53"/>
-        <i x="54"/>
-        <i x="55"/>
-        <i x="56"/>
-        <i x="57"/>
-        <i x="58"/>
-        <i x="59"/>
-        <i x="60"/>
-        <i x="61"/>
-        <i x="62"/>
-        <i x="63"/>
-        <i x="64"/>
-        <i x="65"/>
-        <i x="66"/>
-        <i x="67"/>
-        <i x="68"/>
-        <i x="69"/>
-        <i x="70"/>
-        <i x="71"/>
-        <i x="72"/>
-        <i x="73"/>
-        <i x="74"/>
-        <i x="75"/>
-        <i x="76"/>
-        <i x="77"/>
-        <i x="78"/>
-        <i x="79"/>
-        <i x="80"/>
-        <i x="81"/>
-        <i x="82"/>
-        <i x="83"/>
-        <i x="84"/>
-        <i x="85"/>
-        <i x="86"/>
-        <i x="87"/>
-        <i x="88"/>
-        <i x="89"/>
-        <i x="90"/>
-        <i x="91"/>
-        <i x="92"/>
-        <i x="93"/>
-        <i x="94"/>
-        <i x="95"/>
-        <i x="96"/>
-        <i x="97"/>
-        <i x="98"/>
-        <i x="99"/>
-        <i x="100"/>
-        <i x="101"/>
-        <i x="102"/>
-        <i x="103"/>
-        <i x="104"/>
-        <i x="105"/>
-        <i x="106"/>
-        <i x="107"/>
-        <i x="108"/>
-        <i x="109"/>
-        <i x="110"/>
-        <i x="111"/>
-        <i x="112"/>
-        <i x="113"/>
-        <i x="114"/>
-        <i x="115"/>
-        <i x="116"/>
-        <i x="117"/>
-        <i x="118"/>
-        <i x="119"/>
-        <i x="120"/>
-        <i x="121"/>
-        <i x="122"/>
-        <i x="123"/>
-        <i x="124"/>
-        <i x="125"/>
-        <i x="126"/>
-        <i x="127"/>
-        <i x="128"/>
-        <i x="129"/>
-        <i x="130"/>
-        <i x="131"/>
-        <i x="132"/>
-        <i x="133"/>
-        <i x="134"/>
-        <i x="135"/>
-        <i x="136"/>
-        <i x="137"/>
-        <i x="138"/>
-        <i x="139"/>
-        <i x="140"/>
-        <i x="141"/>
-        <i x="142"/>
-        <i x="143"/>
-        <i x="144" s="1"/>
-        <i x="145"/>
-        <i x="146"/>
-        <i x="147"/>
-        <i x="148"/>
-        <i x="149"/>
-        <i x="150"/>
-        <i x="151"/>
-        <i x="157" nd="1"/>
-        <i x="175" nd="1"/>
-        <i x="158" nd="1"/>
-        <i x="154" nd="1"/>
-        <i x="167" nd="1"/>
-        <i x="172" nd="1"/>
-        <i x="155" nd="1"/>
-        <i x="169" nd="1"/>
-        <i x="162" nd="1"/>
-        <i x="174" nd="1"/>
-        <i x="159" nd="1"/>
-        <i x="161" nd="1"/>
-        <i x="176" nd="1"/>
-        <i x="153" nd="1"/>
-        <i x="164" nd="1"/>
-        <i x="171" nd="1"/>
-        <i x="156" nd="1"/>
-        <i x="168" nd="1"/>
-        <i x="163" nd="1"/>
-        <i x="152" nd="1"/>
-        <i x="160" nd="1"/>
-        <i x="165" nd="1"/>
-        <i x="170" nd="1"/>
-        <i x="173" nd="1"/>
-        <i x="166" nd="1"/>
+      <items count="178">
+        <i x="0" s="1"/>
+        <i x="129" s="1" nd="1"/>
+        <i x="86" s="1" nd="1"/>
+        <i x="132" s="1" nd="1"/>
+        <i x="158" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="106" s="1" nd="1"/>
+        <i x="99" s="1" nd="1"/>
+        <i x="85" s="1" nd="1"/>
+        <i x="166" s="1" nd="1"/>
+        <i x="175" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="139" s="1" nd="1"/>
+        <i x="104" s="1" nd="1"/>
+        <i x="47" s="1" nd="1"/>
+        <i x="172" s="1" nd="1"/>
+        <i x="96" s="1" nd="1"/>
+        <i x="73" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="94" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="171" s="1" nd="1"/>
+        <i x="152" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="123" s="1" nd="1"/>
+        <i x="64" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="135" s="1" nd="1"/>
+        <i x="33" s="1" nd="1"/>
+        <i x="20" s="1" nd="1"/>
+        <i x="127" s="1" nd="1"/>
+        <i x="68" s="1" nd="1"/>
+        <i x="27" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="36" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="146" s="1" nd="1"/>
+        <i x="159" s="1" nd="1"/>
+        <i x="40" s="1" nd="1"/>
+        <i x="109" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
+        <i x="92" s="1" nd="1"/>
+        <i x="42" s="1" nd="1"/>
+        <i x="147" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="121" s="1" nd="1"/>
+        <i x="141" s="1" nd="1"/>
+        <i x="163" s="1" nd="1"/>
+        <i x="140" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
+        <i x="89" s="1" nd="1"/>
+        <i x="122" s="1" nd="1"/>
+        <i x="101" s="1" nd="1"/>
+        <i x="97" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="153" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="150" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
+        <i x="90" s="1" nd="1"/>
+        <i x="145" s="1" nd="1"/>
+        <i x="124" s="1" nd="1"/>
+        <i x="130" s="1" nd="1"/>
+        <i x="75" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="71" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="154" s="1" nd="1"/>
+        <i x="138" s="1" nd="1"/>
+        <i x="30" s="1" nd="1"/>
+        <i x="103" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
+        <i x="161" s="1" nd="1"/>
+        <i x="168" s="1" nd="1"/>
+        <i x="105" s="1" nd="1"/>
+        <i x="55" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="115" s="1" nd="1"/>
+        <i x="136" s="1" nd="1"/>
+        <i x="133" s="1" nd="1"/>
+        <i x="113" s="1" nd="1"/>
+        <i x="116" s="1" nd="1"/>
+        <i x="118" s="1" nd="1"/>
+        <i x="156" s="1" nd="1"/>
+        <i x="62" s="1" nd="1"/>
+        <i x="21" s="1" nd="1"/>
+        <i x="28" s="1" nd="1"/>
+        <i x="128" s="1" nd="1"/>
+        <i x="131" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="37" s="1" nd="1"/>
+        <i x="100" s="1" nd="1"/>
+        <i x="114" s="1" nd="1"/>
+        <i x="144" s="1" nd="1"/>
+        <i x="25" s="1" nd="1"/>
+        <i x="102" s="1" nd="1"/>
+        <i x="19" s="1" nd="1"/>
+        <i x="125" s="1" nd="1"/>
+        <i x="169" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
+        <i x="151" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="24" s="1" nd="1"/>
+        <i x="112" s="1" nd="1"/>
+        <i x="173" s="1" nd="1"/>
+        <i x="164" s="1" nd="1"/>
+        <i x="32" s="1" nd="1"/>
+        <i x="34" s="1" nd="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="177" s="1" nd="1"/>
+        <i x="148" s="1" nd="1"/>
+        <i x="91" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="162" s="1" nd="1"/>
+        <i x="63" s="1" nd="1"/>
+        <i x="61" s="1" nd="1"/>
+        <i x="31" s="1" nd="1"/>
+        <i x="137" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="26" s="1" nd="1"/>
+        <i x="29" s="1" nd="1"/>
+        <i x="87" s="1" nd="1"/>
+        <i x="119" s="1" nd="1"/>
+        <i x="149" s="1" nd="1"/>
+        <i x="39" s="1" nd="1"/>
+        <i x="43" s="1" nd="1"/>
+        <i x="134" s="1" nd="1"/>
+        <i x="110" s="1" nd="1"/>
+        <i x="53" s="1" nd="1"/>
+        <i x="174" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="126" s="1" nd="1"/>
+        <i x="108" s="1" nd="1"/>
+        <i x="157" s="1" nd="1"/>
+        <i x="95" s="1" nd="1"/>
+        <i x="107" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="155" s="1" nd="1"/>
+        <i x="83" s="1" nd="1"/>
+        <i x="98" s="1" nd="1"/>
+        <i x="50" s="1" nd="1"/>
+        <i x="76" s="1" nd="1"/>
+        <i x="38" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="41" s="1" nd="1"/>
+        <i x="165" s="1" nd="1"/>
+        <i x="117" s="1" nd="1"/>
+        <i x="160" s="1" nd="1"/>
+        <i x="93" s="1" nd="1"/>
+        <i x="142" s="1" nd="1"/>
+        <i x="84" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="23" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
+        <i x="111" s="1" nd="1"/>
+        <i x="88" s="1" nd="1"/>
+        <i x="143" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="35" s="1" nd="1"/>
+        <i x="120" s="1" nd="1"/>
+        <i x="170" s="1" nd="1"/>
+        <i x="176" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
+        <i x="167" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6187,184 +6284,217 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="2">
-      <items count="177">
+      <items count="179">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
-        <i x="166" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="64" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="168" s="1" nd="1"/>
+        <i x="40" s="1" nd="1"/>
+        <i x="164" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="53" s="1" nd="1"/>
+        <i x="120" s="1" nd="1"/>
+        <i x="148" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="172" s="1" nd="1"/>
+        <i x="107" s="1" nd="1"/>
         <i x="39" s="1" nd="1"/>
-        <i x="162" s="1" nd="1"/>
-        <i x="53" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="118" s="1" nd="1"/>
-        <i x="146" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="23" s="1" nd="1"/>
+        <i x="73" s="1" nd="1"/>
+        <i x="130" s="1" nd="1"/>
+        <i x="41" s="1" nd="1"/>
+        <i x="94" s="1" nd="1"/>
+        <i x="160" s="1" nd="1"/>
+        <i x="83" s="1" nd="1"/>
+        <i x="108" s="1" nd="1"/>
+        <i x="86" s="1" nd="1"/>
+        <i x="169" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="154" s="1" nd="1"/>
+        <i x="32" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="50" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
+        <i x="119" s="1" nd="1"/>
         <i x="170" s="1" nd="1"/>
-        <i x="106" s="1" nd="1"/>
-        <i x="38" s="1" nd="1"/>
-        <i x="22" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="23" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="128" s="1" nd="1"/>
-        <i x="40" s="1" nd="1"/>
-        <i x="93" s="1" nd="1"/>
-        <i x="158" s="1" nd="1"/>
-        <i x="82" s="1" nd="1"/>
-        <i x="107" s="1" nd="1"/>
-        <i x="85" s="1" nd="1"/>
-        <i x="167" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="152" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
-        <i x="117" s="1" nd="1"/>
-        <i x="168" s="1" nd="1"/>
-        <i x="135" s="1" nd="1"/>
-        <i x="111" s="1" nd="1"/>
+        <i x="137" s="1" nd="1"/>
+        <i x="112" s="1" nd="1"/>
         <i x="33" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="108" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
+        <i x="109" s="1" nd="1"/>
         <i x="34" s="1" nd="1"/>
         <i x="7" s="1" nd="1"/>
-        <i x="86" s="1" nd="1"/>
+        <i x="87" s="1" nd="1"/>
         <i x="20" s="1" nd="1"/>
         <i x="15" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
-        <i x="169" s="1" nd="1"/>
-        <i x="132" s="1" nd="1"/>
         <i x="75" s="1" nd="1"/>
         <i x="171" s="1" nd="1"/>
+        <i x="134" s="1" nd="1"/>
         <i x="76" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="153" s="1" nd="1"/>
+        <i x="173" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
+        <i x="155" s="1" nd="1"/>
         <i x="17" s="1" nd="1"/>
         <i x="24" s="1" nd="1"/>
         <i x="29" s="1" nd="1"/>
         <i x="13" s="1" nd="1"/>
-        <i x="147" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
+        <i x="149" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="176" s="1" nd="1"/>
+        <i x="35" s="1" nd="1"/>
+        <i x="131" s="1" nd="1"/>
+        <i x="42" s="1" nd="1"/>
+        <i x="101" s="1" nd="1"/>
+        <i x="114" s="1" nd="1"/>
+        <i x="123" s="1" nd="1"/>
+        <i x="166" s="1" nd="1"/>
+        <i x="102" s="1" nd="1"/>
+        <i x="110" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
+        <i x="132" s="1" nd="1"/>
+        <i x="30" s="1" nd="1"/>
+        <i x="150" s="1" nd="1"/>
+        <i x="118" s="1" nd="1"/>
+        <i x="144" s="1" nd="1"/>
+        <i x="95" s="1" nd="1"/>
+        <i x="99" s="1" nd="1"/>
+        <i x="127" s="1" nd="1"/>
+        <i x="92" s="1" nd="1"/>
+        <i x="25" s="1" nd="1"/>
+        <i x="165" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="88" s="1" nd="1"/>
+        <i x="27" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="36" s="1" nd="1"/>
+        <i x="177" s="1" nd="1"/>
+        <i x="156" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="152" s="1" nd="1"/>
+        <i x="55" s="1" nd="1"/>
+        <i x="145" s="1" nd="1"/>
+        <i x="103" s="1" nd="1"/>
+        <i x="135" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="93" s="1" nd="1"/>
+        <i x="138" s="1" nd="1"/>
+        <i x="161" s="1" nd="1"/>
+        <i x="125" s="1" nd="1"/>
+        <i x="139" s="1" nd="1"/>
+        <i x="96" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
         <i x="174" s="1" nd="1"/>
-        <i x="35" s="1" nd="1"/>
-        <i x="129" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
-        <i x="100" s="1" nd="1"/>
-        <i x="113" s="1" nd="1"/>
-        <i x="121" s="1" nd="1"/>
-        <i x="164" s="1" nd="1"/>
-        <i x="101" s="1" nd="1"/>
-        <i x="109" s="1" nd="1"/>
-        <i x="18" s="1" nd="1"/>
-        <i x="130" s="1" nd="1"/>
-        <i x="30" s="1" nd="1"/>
-        <i x="148" s="1" nd="1"/>
-        <i x="116" s="1" nd="1"/>
-        <i x="142" s="1" nd="1"/>
-        <i x="94" s="1" nd="1"/>
-        <i x="98" s="1" nd="1"/>
-        <i x="125" s="1" nd="1"/>
-        <i x="91" s="1" nd="1"/>
-        <i x="25" s="1" nd="1"/>
-        <i x="163" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="87" s="1" nd="1"/>
-        <i x="27" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="36" s="1" nd="1"/>
-        <i x="175" s="1" nd="1"/>
-        <i x="154" s="1" nd="1"/>
-        <i x="64" s="1" nd="1"/>
-        <i x="150" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
-        <i x="143" s="1" nd="1"/>
-        <i x="102" s="1" nd="1"/>
-        <i x="133" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="92" s="1" nd="1"/>
-        <i x="136" s="1" nd="1"/>
-        <i x="159" s="1" nd="1"/>
-        <i x="123" s="1" nd="1"/>
-        <i x="137" s="1" nd="1"/>
-        <i x="95" s="1" nd="1"/>
-        <i x="50" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="172" s="1" nd="1"/>
-        <i x="138" s="1" nd="1"/>
+        <i x="140" s="1" nd="1"/>
         <i x="37" s="1" nd="1"/>
-        <i x="144" s="1" nd="1"/>
-        <i x="126" s="1" nd="1"/>
-        <i x="151" s="1" nd="1"/>
-        <i x="83" s="1" nd="1"/>
-        <i x="55" s="1" nd="1"/>
-        <i x="160" s="1" nd="1"/>
-        <i x="122" s="1" nd="1"/>
-        <i x="96" s="1" nd="1"/>
+        <i x="146" s="1" nd="1"/>
+        <i x="128" s="1" nd="1"/>
+        <i x="153" s="1" nd="1"/>
+        <i x="84" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="162" s="1" nd="1"/>
+        <i x="124" s="1" nd="1"/>
+        <i x="97" s="1" nd="1"/>
         <i x="26" s="1" nd="1"/>
-        <i x="103" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
+        <i x="104" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
+        <i x="71" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
         <i x="19" s="1" nd="1"/>
         <i x="8" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="110" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
+        <i x="111" s="1" nd="1"/>
+        <i x="63" s="1" nd="1"/>
+        <i x="151" s="1" nd="1"/>
+        <i x="163" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="157" s="1" nd="1"/>
+        <i x="147" s="1" nd="1"/>
+        <i x="121" s="1" nd="1"/>
+        <i x="113" s="1" nd="1"/>
+        <i x="141" s="1" nd="1"/>
+        <i x="175" s="1" nd="1"/>
+        <i x="98" s="1" nd="1"/>
+        <i x="115" s="1" nd="1"/>
+        <i x="89" s="1" nd="1"/>
+        <i x="116" s="1" nd="1"/>
+        <i x="167" s="1" nd="1"/>
+        <i x="61" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="142" s="1" nd="1"/>
+        <i x="136" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="129" s="1" nd="1"/>
+        <i x="105" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="178" s="1" nd="1"/>
+        <i x="85" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="158" s="1" nd="1"/>
+        <i x="90" s="1" nd="1"/>
         <i x="62" s="1" nd="1"/>
-        <i x="149" s="1" nd="1"/>
-        <i x="161" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="155" s="1" nd="1"/>
-        <i x="145" s="1" nd="1"/>
-        <i x="119" s="1" nd="1"/>
-        <i x="112" s="1" nd="1"/>
-        <i x="139" s="1" nd="1"/>
-        <i x="173" s="1" nd="1"/>
-        <i x="97" s="1" nd="1"/>
-        <i x="88" s="1" nd="1"/>
-        <i x="114" s="1" nd="1"/>
-        <i x="165" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="140" s="1" nd="1"/>
-        <i x="134" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="127" s="1" nd="1"/>
-        <i x="104" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="176" s="1" nd="1"/>
-        <i x="84" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="156" s="1" nd="1"/>
-        <i x="89" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
-        <i x="99" s="1" nd="1"/>
+        <i x="100" s="1" nd="1"/>
         <i x="10" s="1" nd="1"/>
         <i x="31" s="1" nd="1"/>
         <i x="21" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="131" s="1" nd="1"/>
-        <i x="105" s="1" nd="1"/>
-        <i x="120" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="141" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="157" s="1" nd="1"/>
         <i x="47" s="1" nd="1"/>
-        <i x="90" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="124" s="1" nd="1"/>
+        <i x="133" s="1" nd="1"/>
+        <i x="106" s="1" nd="1"/>
+        <i x="122" s="1" nd="1"/>
+        <i x="43" s="1" nd="1"/>
+        <i x="143" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="159" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="91" s="1" nd="1"/>
+        <i x="68" s="1" nd="1"/>
+        <i x="126" s="1" nd="1"/>
         <i x="28" s="1" nd="1"/>
-        <i x="115" s="1" nd="1"/>
+        <i x="117" s="1" nd="1"/>
+        <i x="38" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_THREADID" sourceName="THREADID">
+  <pivotTables>
+    <pivotTable tabId="1" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="1">
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_SETID" sourceName="SETID">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="2">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -6373,23 +6503,25 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="PROCESSID" cache="Slicer_PROCESSID" caption="PROCESSID" startItem="141" rowHeight="241300"/>
+  <slicer name="PROCESSID" cache="Slicer_PROCESSID" caption="PROCESSID" rowHeight="241300"/>
+  <slicer name="THREADID" cache="Slicer_THREADID" caption="THREADID" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="PROCESSID 1" cache="Slicer_PROCESSID1" caption="PROCESSID" startItem="102" rowHeight="241300"/>
+  <slicer name="PROCESSID 1" cache="Slicer_PROCESSID1" caption="PROCESSID" rowHeight="241300"/>
+  <slicer name="SETID" cache="Slicer_SETID" caption="SETID" rowHeight="241300"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Query_from_Algo" displayName="Table_Query_from_Algo" ref="A1:H27" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H27"/>
-  <sortState ref="A2:H27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Query_from_Algo" displayName="Table_Query_from_Algo" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I2"/>
+  <sortState ref="A2:I2">
     <sortCondition descending="1" ref="C1:C26"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" uniqueName="1" name="PROCESSID" queryTableFieldId="1"/>
     <tableColumn id="2" uniqueName="2" name="CLIENTNAME" queryTableFieldId="2"/>
     <tableColumn id="3" uniqueName="3" name="CLIENTSTART" queryTableFieldId="3" dataDxfId="1"/>
@@ -6397,7 +6529,8 @@
     <tableColumn id="5" uniqueName="5" name="SIMULATIONLEN" queryTableFieldId="5"/>
     <tableColumn id="6" uniqueName="6" name="SIMULATIONSTART" queryTableFieldId="6" dataDxfId="0"/>
     <tableColumn id="7" uniqueName="7" name="DOTRAINING" queryTableFieldId="7"/>
-    <tableColumn id="8" uniqueName="8" name="DORUN" queryTableFieldId="8"/>
+    <tableColumn id="8" uniqueName="8" name="DOTRAINRUN" queryTableFieldId="9"/>
+    <tableColumn id="9" uniqueName="9" name="DOTESTRUN" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6666,7 +6799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -6676,15 +6809,17 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -6707,27 +6842,30 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>43024</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>134708</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="6">
-        <v>43156.471145833333</v>
+        <v>43157.029699074075</v>
       </c>
       <c r="D2">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="6">
-        <v>42734</v>
+        <v>42368</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -6735,654 +6873,7 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>85840</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43155.717488425929</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>30736</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6">
-        <v>43155.717187499999</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>76352</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6">
-        <v>43155.716377314813</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>84052</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6">
-        <v>43141.880972222221</v>
-      </c>
-      <c r="D6">
-        <v>107</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>83400</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="6">
-        <v>43141.85601851852</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>84076</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6">
-        <v>43141.853587962964</v>
-      </c>
-      <c r="D8">
-        <v>11</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>71240</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6">
-        <v>43141.853101851855</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1540</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6">
-        <v>43141.852847222224</v>
-      </c>
-      <c r="D10">
-        <v>192</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>75860</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6">
-        <v>43141.849490740744</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>77892</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="6">
-        <v>43141.849189814813</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>204</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="6">
-        <v>43140.778460648151</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>76784</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="6">
-        <v>43140.77820601852</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>25652</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="6">
-        <v>43140.778009259258</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>18280</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6">
-        <v>43140.777384259258</v>
-      </c>
-      <c r="D16">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>75272</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="6">
-        <v>43140.776724537034</v>
-      </c>
-      <c r="D17">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>25896</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6">
-        <v>43140.772268518522</v>
-      </c>
-      <c r="D18">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2792</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="6">
-        <v>43139.964675925927</v>
-      </c>
-      <c r="D19">
-        <v>156</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>69736</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="6">
-        <v>43139.958460648151</v>
-      </c>
-      <c r="D20">
-        <v>45</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>59520</v>
-      </c>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6">
-        <v>43139.142268518517</v>
-      </c>
-      <c r="D21">
-        <v>36</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>59232</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="6">
-        <v>43139.141631944447</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>47364</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6">
-        <v>43139.141180555554</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>52916</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6">
-        <v>43139.139618055553</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>58820</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="6">
-        <v>43139.139224537037</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>59188</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="6">
-        <v>43139.137384259258</v>
-      </c>
-      <c r="D26">
-        <v>143</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1932</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6">
-        <v>43139.119525462964</v>
-      </c>
-      <c r="D27">
-        <v>126</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
-        <v>42734</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
+      <c r="I2">
         <v>1</v>
       </c>
     </row>
@@ -7398,8 +6889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7421,7 +6912,7 @@
       </c>
       <c r="F1" s="4">
         <f>MIN($B:$B)</f>
-        <v>3.6723777884617448E-4</v>
+        <v>1.31871588528156E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7429,14 +6920,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.8017491092905398E-3</v>
+        <v>2.9612287878990201E-2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4">
         <f>VLOOKUP(MAX($A:$A),$A:$B,2,FALSE)</f>
-        <v>3.7721877743024401E-4</v>
+        <v>1.31871588528156E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7444,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>7.4347193003632107E-4</v>
+        <v>2.06098556518555E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7452,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>7.2090339381247759E-4</v>
+        <v>1.9641065970063199E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7460,7 +6951,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>7.0954888360574852E-4</v>
+        <v>1.8915496766567199E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7468,7 +6959,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>7.01474054949358E-4</v>
+        <v>1.8520979210734399E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7476,7 +6967,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>6.9415615871548653E-4</v>
+        <v>1.8202744424343099E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7484,7 +6975,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>6.4734261832199947E-4</v>
+        <v>1.7816403880715401E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7492,7 +6983,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>5.7773964363150299E-4</v>
+        <v>1.7425937578082099E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7500,7 +6991,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>5.5580407206434757E-4</v>
+        <v>1.71273350715637E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7508,7 +6999,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>5.4192198149394244E-4</v>
+        <v>1.69132873415947E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7516,7 +7007,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>5.3140832460485399E-4</v>
+        <v>1.6745075583457902E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7524,7 +7015,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>5.2375704399310052E-4</v>
+        <v>1.65931023657322E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7532,7 +7023,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>5.1858407096005998E-4</v>
+        <v>1.6450785100460101E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7540,7 +7031,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>5.1513164362404495E-4</v>
+        <v>1.6305642202496501E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7548,7 +7039,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>5.1271716074552409E-4</v>
+        <v>1.6170406714081799E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7556,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>5.1089728367514952E-4</v>
+        <v>1.6063641756772998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7564,7 +7055,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>5.094349617138505E-4</v>
+        <v>1.5996532514691401E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7572,7 +7063,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>5.0820276373997352E-4</v>
+        <v>1.5957765281200399E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7580,7 +7071,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>5.0711820949800345E-4</v>
+        <v>1.5917852520942698E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7079,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>5.0611748883966346E-4</v>
+        <v>1.58628057688475E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7596,7 +7087,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>5.0515940529294301E-4</v>
+        <v>1.5785096213221501E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7604,7 +7095,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>5.0422913045622398E-4</v>
+        <v>1.5681013464927701E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7612,7 +7103,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>5.0333220860920846E-4</v>
+        <v>1.5545685775577999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7620,7 +7111,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>5.024778947699815E-4</v>
+        <v>1.53756905347109E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7628,7 +7119,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>5.016690120100975E-4</v>
+        <v>1.5178616158664201E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7636,7 +7127,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>5.0090353761334005E-4</v>
+        <v>1.49705493822694E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7644,7 +7135,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>5.0017448666039854E-4</v>
+        <v>1.47744789719582E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7652,7 +7143,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>4.9947477236855797E-4</v>
+        <v>1.4620117843151099E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7151,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>4.98792229336686E-4</v>
+        <v>1.4512683264911201E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7159,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>4.9811312055680901E-4</v>
+        <v>1.44273331388831E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7676,7 +7167,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>4.9741737893782545E-4</v>
+        <v>1.4341021887957999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7684,7 +7175,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>4.9667358689475794E-4</v>
+        <v>1.4250415377318901E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7692,7 +7183,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>4.958257923135535E-4</v>
+        <v>1.41776716336608E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7700,7 +7191,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>4.9476612184662394E-4</v>
+        <v>1.41749801114202E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7708,7 +7199,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>4.9324579595122497E-4</v>
+        <v>1.42765445634723E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7716,7 +7207,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>4.9055888666771352E-4</v>
+        <v>1.4380438253283501E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7724,7 +7215,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>4.8394022451248047E-4</v>
+        <v>1.44595960155129E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7223,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>4.59323535324074E-4</v>
+        <v>1.4564007520675701E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7740,7 +7231,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>4.0268123848363746E-4</v>
+        <v>1.46931242197752E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7748,7 +7239,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>3.781098494073375E-4</v>
+        <v>1.4799563214182901E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7756,7 +7247,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>3.7947906821500499E-4</v>
+        <v>1.48293748497963E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7764,7 +7255,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>3.7781934952363404E-4</v>
+        <v>1.4769732952117901E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7772,7 +7263,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>3.7493120180442951E-4</v>
+        <v>1.4639918692409999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7780,7 +7271,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>3.7301366683095699E-4</v>
+        <v>1.4463507570326301E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7788,7 +7279,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>3.715734055731445E-4</v>
+        <v>1.4290274120867299E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7796,7 +7287,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>3.7035970308352251E-4</v>
+        <v>1.41516253352165E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7295,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>3.6925933090969898E-4</v>
+        <v>1.4036305248737301E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7812,7 +7303,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>3.682232927531005E-4</v>
+        <v>1.39519507065415E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7820,7 +7311,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>3.6723777884617448E-4</v>
+        <v>1.39120882377028E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7828,7 +7319,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>3.7721877743024401E-4</v>
+        <v>1.31871588528156E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7836,7 +7327,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>5.2546929160598662E-4</v>
+        <v>1.5881391353905202E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7854,18 +7345,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D10"/>
+  <dimension ref="A3:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="6" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="8" width="7.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="12" width="7.5703125" customWidth="1"/>
@@ -7874,7 +7366,7 @@
     <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -7882,96 +7374,75 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>133100</v>
-      </c>
-      <c r="C4">
-        <v>139476</v>
-      </c>
-      <c r="D4" t="s">
+        <v>43024</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>54988</v>
-      </c>
-      <c r="C5">
-        <v>138304</v>
+        <v>135232</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0951737113021039E-2</v>
+        <v>4.1928980195963819E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>4.0951737113021039E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.0951737113021039E-2</v>
+        <v>4.1928980195963819E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>5.6764620197591958E-2</v>
+        <v>6.0340686032065639E-2</v>
       </c>
       <c r="C7" s="1">
-        <v>5.6764620197591958E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.6764620197591958E-2</v>
+        <v>6.0340686032065639E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>7.1587257583936068E-2</v>
+        <v>6.0982940263218349E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>7.1587257583936068E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7.1587257583936068E-2</v>
+        <v>6.0982940263218349E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>8.2925817798133253E-2</v>
+        <v>7.9162700101733194E-2</v>
       </c>
       <c r="C9" s="1">
-        <v>8.2925817798133253E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8.2925817798133253E-2</v>
+        <v>7.9162700101733194E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>6.3057358173170569E-2</v>
+        <v>6.0603826648245256E-2</v>
       </c>
       <c r="C10" s="1">
-        <v>6.3057358173170569E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6.3057358173170569E-2</v>
+        <v>6.0603826648245256E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tester2.xlsx
+++ b/Tester2.xlsx
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="53" r:id="rId4"/>
-    <pivotCache cacheId="57" r:id="rId5"/>
+    <pivotCache cacheId="60" r:id="rId4"/>
+    <pivotCache cacheId="64" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -502,154 +502,154 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2.9612287878990201E-2</c:v>
+                  <c:v>4.0237335488200196E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.06098556518555E-2</c:v>
+                  <c:v>3.8368329405784598E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9641065970063199E-2</c:v>
+                  <c:v>3.6540711298584899E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8915496766567199E-2</c:v>
+                  <c:v>3.5157108213752499E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8520979210734399E-2</c:v>
+                  <c:v>3.47778992727399E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8202744424343099E-2</c:v>
+                  <c:v>3.41971893794835E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7816403880715401E-2</c:v>
+                  <c:v>3.3973550889640999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7425937578082099E-2</c:v>
+                  <c:v>3.3917247783392698E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.71273350715637E-2</c:v>
+                  <c:v>3.38736246339977E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.69132873415947E-2</c:v>
+                  <c:v>3.3852637279778702E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6745075583457902E-2</c:v>
+                  <c:v>3.3826122526079399E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.65931023657322E-2</c:v>
+                  <c:v>3.3818443771451699E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6450785100460101E-2</c:v>
+                  <c:v>3.37810162454844E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6305642202496501E-2</c:v>
+                  <c:v>3.3748645801097198E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6170406714081799E-2</c:v>
+                  <c:v>3.3637979067861999E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6063641756772998E-2</c:v>
+                  <c:v>3.3517221454531002E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5996532514691401E-2</c:v>
+                  <c:v>3.3405574504286099E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5957765281200399E-2</c:v>
+                  <c:v>3.3347005955874898E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5917852520942698E-2</c:v>
+                  <c:v>3.3300472423434301E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.58628057688475E-2</c:v>
+                  <c:v>3.3225200604647398E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5785096213221501E-2</c:v>
+                  <c:v>3.3151437528431398E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5681013464927701E-2</c:v>
+                  <c:v>3.3030060585588199E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5545685775577999E-2</c:v>
+                  <c:v>3.2958749216049901E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.53756905347109E-2</c:v>
+                  <c:v>3.2886802218854401E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.5178616158664201E-2</c:v>
+                  <c:v>3.2848871778696801E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.49705493822694E-2</c:v>
+                  <c:v>3.2821216154843599E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.47744789719582E-2</c:v>
+                  <c:v>3.2788882963359399E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4620117843151099E-2</c:v>
+                  <c:v>3.2762323971837798E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4512683264911201E-2</c:v>
+                  <c:v>3.274105489254E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.44273331388831E-2</c:v>
+                  <c:v>3.2715781126171398E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.4341021887957999E-2</c:v>
+                  <c:v>3.26960743404925E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.4250415377318901E-2</c:v>
+                  <c:v>3.2677173148840701E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.41776716336608E-2</c:v>
+                  <c:v>3.26554221101105E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.41749801114202E-2</c:v>
+                  <c:v>3.2639687415212401E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.42765445634723E-2</c:v>
+                  <c:v>3.2621894497424399E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4380438253283501E-2</c:v>
+                  <c:v>3.26066999696195E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.44595960155129E-2</c:v>
+                  <c:v>3.2594476360827702E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4564007520675701E-2</c:v>
+                  <c:v>3.2581689301878201E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.46931242197752E-2</c:v>
+                  <c:v>3.25711793266237E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.4799563214182901E-2</c:v>
+                  <c:v>3.2561104744672801E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.48293748497963E-2</c:v>
+                  <c:v>3.2551663462072598E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.4769732952117901E-2</c:v>
+                  <c:v>3.2543020788580201E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4639918692409999E-2</c:v>
+                  <c:v>3.2534652855247298E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4463507570326301E-2</c:v>
+                  <c:v>3.2527185976505301E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4290274120867299E-2</c:v>
+                  <c:v>3.2519982196390598E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.41516253352165E-2</c:v>
+                  <c:v>3.2513260375708298E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4036305248737301E-2</c:v>
+                  <c:v>3.2507032155990601E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.39519507065415E-2</c:v>
+                  <c:v>3.2501004170626402E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.39120882377028E-2</c:v>
+                  <c:v>3.24953813105822E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.31871588528156E-2</c:v>
+                  <c:v>3.59822763130069E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1606,16 +1606,16 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.1928980195963819E-2</c:v>
+                  <c:v>0.2772221380361804</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0340686032065639E-2</c:v>
+                  <c:v>0.51226119048617502</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0982940263218349E-2</c:v>
+                  <c:v>0.33369284981378805</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9162700101733194E-2</c:v>
+                  <c:v>0.10929455532243956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3185,7 +3185,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -3252,194 +3252,196 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.031755439813" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="50">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.037984722221" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="100">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="134028" count="178">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140220" count="179">
         <n v="43024"/>
+        <n v="140220"/>
+        <n v="42216" u="1"/>
+        <n v="82796" u="1"/>
+        <n v="57572" u="1"/>
+        <n v="1932" u="1"/>
+        <n v="7100" u="1"/>
+        <n v="36028" u="1"/>
+        <n v="78088" u="1"/>
+        <n v="84052" u="1"/>
+        <n v="92856" u="1"/>
+        <n v="49112" u="1"/>
+        <n v="120768" u="1"/>
+        <n v="24204" u="1"/>
+        <n v="30736" u="1"/>
+        <n v="44892" u="1"/>
+        <n v="59944" u="1"/>
+        <n v="39232" u="1"/>
+        <n v="43512" u="1"/>
+        <n v="48340" u="1"/>
+        <n v="83400" u="1"/>
+        <n v="16120" u="1"/>
+        <n v="15344" u="1"/>
+        <n v="18280" u="1"/>
+        <n v="43552" u="1"/>
+        <n v="54912" u="1"/>
+        <n v="80640" u="1"/>
+        <n v="58908" u="1"/>
+        <n v="44444" u="1"/>
+        <n v="48420" u="1"/>
+        <n v="134028" u="1"/>
+        <n v="32652" u="1"/>
+        <n v="35660" u="1"/>
+        <n v="46736" u="1"/>
+        <n v="59232" u="1"/>
+        <n v="75364" u="1"/>
+        <n v="76784" u="1"/>
+        <n v="15080" u="1"/>
+        <n v="90740" u="1"/>
+        <n v="2792" u="1"/>
+        <n v="21748" u="1"/>
+        <n v="47364" u="1"/>
+        <n v="204" u="1"/>
+        <n v="43124" u="1"/>
+        <n v="6288" u="1"/>
+        <n v="25896" u="1"/>
+        <n v="119624" u="1"/>
+        <n v="73656" u="1"/>
+        <n v="133248" u="1"/>
+        <n v="6648" u="1"/>
+        <n v="5692" u="1"/>
+        <n v="62252" u="1"/>
+        <n v="78280" u="1"/>
+        <n v="25652" u="1"/>
+        <n v="33304" u="1"/>
+        <n v="45516" u="1"/>
+        <n v="98200" u="1"/>
+        <n v="48964" u="1"/>
+        <n v="59188" u="1"/>
+        <n v="133364" u="1"/>
+        <n v="87852" u="1"/>
+        <n v="1540" u="1"/>
+        <n v="61520" u="1"/>
+        <n v="80792" u="1"/>
+        <n v="1372" u="1"/>
+        <n v="17192" u="1"/>
+        <n v="81684" u="1"/>
+        <n v="20184" u="1"/>
+        <n v="26432" u="1"/>
+        <n v="39408" u="1"/>
+        <n v="41964" u="1"/>
         <n v="77464" u="1"/>
+        <n v="133844" u="1"/>
+        <n v="42856" u="1"/>
+        <n v="68172" u="1"/>
+        <n v="75272" u="1"/>
+        <n v="81520" u="1"/>
+        <n v="84076" u="1"/>
+        <n v="2192" u="1"/>
+        <n v="5400" u="1"/>
+        <n v="22628" u="1"/>
+        <n v="71336" u="1"/>
+        <n v="78152" u="1"/>
+        <n v="33240" u="1"/>
+        <n v="133516" u="1"/>
+        <n v="23216" u="1"/>
         <n v="36100" u="1"/>
-        <n v="78280" u="1"/>
-        <n v="26432" u="1"/>
-        <n v="2412" u="1"/>
+        <n v="58820" u="1"/>
+        <n v="97828" u="1"/>
+        <n v="54012" u="1"/>
+        <n v="68332" u="1"/>
+        <n v="76000" u="1"/>
+        <n v="22100" u="1"/>
+        <n v="78028" u="1"/>
+        <n v="80584" u="1"/>
+        <n v="52916" u="1"/>
+        <n v="76648" u="1"/>
+        <n v="41008" u="1"/>
+        <n v="47540" u="1"/>
+        <n v="48108" u="1"/>
+        <n v="78960" u="1"/>
+        <n v="80664" u="1"/>
+        <n v="13364" u="1"/>
+        <n v="22992" u="1"/>
+        <n v="35652" u="1"/>
+        <n v="48148" u="1"/>
+        <n v="84436" u="1"/>
+        <n v="32516" u="1"/>
+        <n v="96972" u="1"/>
+        <n v="47620" u="1"/>
+        <n v="81108" u="1"/>
+        <n v="120584" u="1"/>
+        <n v="50480" u="1"/>
+        <n v="90804" u="1"/>
+        <n v="28712" u="1"/>
+        <n v="96524" u="1"/>
+        <n v="6888" u="1"/>
+        <n v="123828" u="1"/>
+        <n v="47720" u="1"/>
+        <n v="79928" u="1"/>
+        <n v="69744" u="1"/>
+        <n v="91368" u="1"/>
+        <n v="53196" u="1"/>
+        <n v="77776" u="1"/>
+        <n v="77532" u="1"/>
+        <n v="20708" u="1"/>
+        <n v="47272" u="1"/>
+        <n v="48408" u="1"/>
+        <n v="78992" u="1"/>
+        <n v="40760" u="1"/>
+        <n v="66576" u="1"/>
+        <n v="86740" u="1"/>
+        <n v="96112" u="1"/>
+        <n v="31956" u="1"/>
+        <n v="69212" u="1"/>
+        <n v="133164" u="1"/>
         <n v="71240" u="1"/>
-        <n v="81684" u="1"/>
+        <n v="76352" u="1"/>
+        <n v="50516" u="1"/>
+        <n v="65600" u="1"/>
+        <n v="77244" u="1"/>
+        <n v="94568" u="1"/>
+        <n v="7032" u="1"/>
+        <n v="21772" u="1"/>
+        <n v="45140" u="1"/>
         <n v="49400" u="1"/>
-        <n v="2192" u="1"/>
-        <n v="69212" u="1"/>
-        <n v="25896" u="1"/>
-        <n v="15344" u="1"/>
-        <n v="30920" u="1"/>
-        <n v="41008" u="1"/>
-        <n v="6648" u="1"/>
-        <n v="84436" u="1"/>
-        <n v="41964" u="1"/>
-        <n v="48340" u="1"/>
-        <n v="65600" u="1"/>
-        <n v="23536" u="1"/>
-        <n v="57572" u="1"/>
-        <n v="33304" u="1"/>
+        <n v="80976" u="1"/>
+        <n v="89780" u="1"/>
         <n v="98868" u="1"/>
-        <n v="71336" u="1"/>
+        <n v="52544" u="1"/>
         <n v="62200" u="1"/>
-        <n v="78540" u="1"/>
-        <n v="25652" u="1"/>
-        <n v="58820" u="1"/>
-        <n v="78960" u="1"/>
-        <n v="48108" u="1"/>
-        <n v="78028" u="1"/>
-        <n v="75860" u="1"/>
-        <n v="23216" u="1"/>
-        <n v="76000" u="1"/>
-        <n v="133248" u="1"/>
-        <n v="28712" u="1"/>
-        <n v="59520" u="1"/>
-        <n v="90804" u="1"/>
-        <n v="80640" u="1"/>
-        <n v="32652" u="1"/>
-        <n v="92856" u="1"/>
-        <n v="35660" u="1"/>
-        <n v="80664" u="1"/>
-        <n v="18280" u="1"/>
-        <n v="44892" u="1"/>
-        <n v="68332" u="1"/>
-        <n v="7100" u="1"/>
-        <n v="85840" u="1"/>
-        <n v="76352" u="1"/>
-        <n v="89780" u="1"/>
-        <n v="22628" u="1"/>
-        <n v="76632" u="1"/>
-        <n v="81108" u="1"/>
-        <n v="47620" u="1"/>
-        <n v="49112" u="1"/>
-        <n v="21748" u="1"/>
-        <n v="43552" u="1"/>
-        <n v="34204" u="1"/>
-        <n v="47364" u="1"/>
-        <n v="16120" u="1"/>
         <n v="77892" u="1"/>
-        <n v="56864" u="1"/>
-        <n v="77776" u="1"/>
-        <n v="22512" u="1"/>
-        <n v="133164" u="1"/>
-        <n v="68172" u="1"/>
-        <n v="91368" u="1"/>
         <n v="24348" u="1"/>
         <n v="43192" u="1"/>
-        <n v="21772" u="1"/>
-        <n v="47540" u="1"/>
-        <n v="47272" u="1"/>
-        <n v="15080" u="1"/>
-        <n v="119624" u="1"/>
-        <n v="46736" u="1"/>
-        <n v="90740" u="1"/>
-        <n v="98200" u="1"/>
-        <n v="30736" u="1"/>
+        <n v="45748" u="1"/>
+        <n v="60516" u="1"/>
+        <n v="83896" u="1"/>
+        <n v="93268" u="1"/>
+        <n v="22512" u="1"/>
         <n v="69736" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="2800" u="1"/>
+        <n v="56864" u="1"/>
+        <n v="87384" u="1"/>
         <n v="134008" u="1"/>
-        <n v="78152" u="1"/>
-        <n v="59232" u="1"/>
-        <n v="87384" u="1"/>
-        <n v="97828" u="1"/>
-        <n v="5400" u="1"/>
-        <n v="1372" u="1"/>
-        <n v="78992" u="1"/>
-        <n v="120768" u="1"/>
+        <n v="48080" u="1"/>
+        <n v="76632" u="1"/>
+        <n v="2412" u="1"/>
+        <n v="23536" u="1"/>
+        <n v="30920" u="1"/>
+        <n v="39864" u="1"/>
+        <n v="11232" u="1"/>
+        <n v="34204" u="1"/>
         <n v="42156" u="1"/>
-        <n v="45140" u="1"/>
-        <n v="77244" u="1"/>
-        <n v="35652" u="1"/>
-        <n v="96524" u="1"/>
-        <n v="17192" u="1"/>
-        <n v="84052" u="1"/>
-        <n v="13364" u="1"/>
-        <n v="43124" u="1"/>
-        <n v="87852" u="1"/>
-        <n v="2800" u="1"/>
-        <n v="59944" u="1"/>
-        <n v="42856" u="1"/>
-        <n v="62252" u="1"/>
-        <n v="48148" u="1"/>
-        <n v="7032" u="1"/>
-        <n v="48964" u="1"/>
-        <n v="2792" u="1"/>
-        <n v="84076" u="1"/>
-        <n v="83400" u="1"/>
-        <n v="33240" u="1"/>
-        <n v="80976" u="1"/>
-        <n v="120584" u="1"/>
-        <n v="73656" u="1"/>
-        <n v="52916" u="1"/>
-        <n v="60516" u="1"/>
-        <n v="50480" u="1"/>
-        <n v="53196" u="1"/>
-        <n v="94568" u="1"/>
-        <n v="54012" u="1"/>
-        <n v="79928" u="1"/>
-        <n v="133364" u="1"/>
-        <n v="39232" u="1"/>
-        <n v="42216" u="1"/>
-        <n v="22100" u="1"/>
-        <n v="45748" u="1"/>
+        <n v="75860" u="1"/>
+        <n v="46436" u="1"/>
         <n v="66244" u="1"/>
-        <n v="82796" u="1"/>
-        <n v="24204" u="1"/>
-        <n v="58908" u="1"/>
-        <n v="204" u="1"/>
-        <n v="46436" u="1"/>
-        <n v="59188" u="1"/>
-        <n v="1540" u="1"/>
-        <n v="52544" u="1"/>
-        <n v="80792" u="1"/>
-        <n v="22992" u="1"/>
-        <n v="50516" u="1"/>
-        <n v="78088" u="1"/>
-        <n v="48080" u="1"/>
-        <n v="6888" u="1"/>
-        <n v="40760" u="1"/>
-        <n v="39408" u="1"/>
-        <n v="96972" u="1"/>
-        <n v="123828" u="1"/>
-        <n v="61520" u="1"/>
-        <n v="45516" u="1"/>
-        <n v="31956" u="1"/>
-        <n v="36028" u="1"/>
-        <n v="76784" u="1"/>
-        <n v="80584" u="1"/>
-        <n v="44444" u="1"/>
-        <n v="69744" u="1"/>
-        <n v="20708" u="1"/>
-        <n v="43512" u="1"/>
-        <n v="47720" u="1"/>
-        <n v="86740" u="1"/>
-        <n v="54912" u="1"/>
-        <n v="83896" u="1"/>
-        <n v="1932" u="1"/>
-        <n v="32516" u="1"/>
-        <n v="96112" u="1"/>
-        <n v="48408" u="1"/>
-        <n v="77532" u="1"/>
-        <n v="39864" u="1"/>
-        <n v="75364" u="1"/>
-        <n v="93268" u="1"/>
-        <n v="5692" u="1"/>
-        <n v="134028" u="1"/>
-        <n v="48420" u="1"/>
-        <n v="66576" u="1"/>
-        <n v="133516" u="1"/>
-        <n v="20184" u="1"/>
-        <n v="11232" u="1"/>
-        <n v="75272" u="1"/>
-        <n v="81520" u="1"/>
-        <n v="6288" u="1"/>
-        <n v="133844" u="1"/>
-        <n v="76648" u="1"/>
+        <n v="85840" u="1"/>
+        <n v="59520" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="135232" maxValue="135232" count="1">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="135232" maxValue="139356" count="2">
         <n v="135232"/>
+        <n v="139356"/>
       </sharedItems>
     </cacheField>
     <cacheField name="EPOCH" numFmtId="0" sqlType="6">
@@ -4044,7 +4046,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="MSE_T" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.31871588528156E-2" maxValue="2.9612287878990201E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.24953813105822E-3" maxValue="2.9612287878990201E-2"/>
     </cacheField>
     <cacheField name="MSE_V" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
@@ -4061,12 +4063,14 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.03268877315" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="4320">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.040165740742" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="485920">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="15">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="139476" count="179">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="181">
         <n v="43024"/>
+        <n v="140220"/>
+        <n v="140228"/>
         <n v="82796" u="1"/>
         <n v="57572" u="1"/>
         <n v="134852" u="1"/>
@@ -4248,8 +4252,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54988" maxValue="139660" count="5">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54988" maxValue="139660" count="7">
         <n v="135232"/>
+        <n v="139356"/>
+        <n v="137012"/>
         <n v="54988" u="1"/>
         <n v="137352" u="1"/>
         <n v="139660" u="1"/>
@@ -4258,24 +4264,28 @@
     </cacheField>
     <cacheField name="SETID" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="1"/>
         <n v="0"/>
-        <n v="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETPROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="43024" count="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="140228" count="4">
+        <n v="0"/>
         <n v="43024"/>
-        <n v="0"/>
+        <n v="140220"/>
+        <n v="140228"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETTHREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="135232" count="2">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="139356" count="4">
+        <n v="0"/>
         <n v="135232"/>
-        <n v="0"/>
+        <n v="139356"/>
+        <n v="137012"/>
       </sharedItems>
     </cacheField>
     <cacheField name="POS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="539"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="59799"/>
     </cacheField>
     <cacheField name="FEATUREID" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
@@ -4304,10 +4314,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.00000011920929" maxValue="1"/>
     </cacheField>
     <cacheField name="PREDICTEDTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.84100401401519798" maxValue="0.81332200765609697"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.98163783550262496" maxValue="0.81332200765609697"/>
     </cacheField>
     <cacheField name="ERRORTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.6892633438110399E-5" maxValue="1.3975193500518801"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.2351741790771501E-8" maxValue="1.8223857879638701"/>
     </cacheField>
     <cacheField name="BARWIDTH" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -4329,195 +4339,197 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="179">
-        <item m="1" x="129"/>
-        <item m="1" x="86"/>
-        <item m="1" x="132"/>
-        <item m="1" x="158"/>
-        <item m="1" x="9"/>
-        <item m="1" x="5"/>
-        <item m="1" x="106"/>
-        <item m="1" x="99"/>
-        <item m="1" x="85"/>
-        <item m="1" x="166"/>
-        <item m="1" x="175"/>
-        <item m="1" x="15"/>
-        <item m="1" x="139"/>
-        <item m="1" x="104"/>
-        <item m="1" x="47"/>
-        <item m="1" x="172"/>
-        <item m="1" x="96"/>
-        <item m="1" x="73"/>
-        <item m="1" x="12"/>
-        <item m="1" x="60"/>
-        <item m="1" x="94"/>
-        <item m="1" x="44"/>
-        <item m="1" x="171"/>
-        <item m="1" x="152"/>
-        <item m="1" x="56"/>
-        <item m="1" x="70"/>
-        <item m="1" x="123"/>
-        <item m="1" x="64"/>
-        <item m="1" x="51"/>
-        <item m="1" x="135"/>
-        <item m="1" x="33"/>
-        <item m="1" x="20"/>
-        <item m="1" x="127"/>
-        <item m="1" x="68"/>
-        <item m="1" x="27"/>
-        <item m="1" x="11"/>
-        <item m="1" x="4"/>
-        <item m="1" x="36"/>
-        <item m="1" x="78"/>
-        <item m="1" x="13"/>
-        <item m="1" x="146"/>
-        <item m="1" x="159"/>
-        <item m="1" x="40"/>
-        <item m="1" x="109"/>
-        <item m="1" x="22"/>
-        <item m="1" x="58"/>
-        <item m="1" x="92"/>
-        <item m="1" x="42"/>
-        <item m="1" x="147"/>
-        <item m="1" x="2"/>
-        <item m="1" x="121"/>
-        <item m="1" x="141"/>
-        <item m="1" x="163"/>
-        <item m="1" x="140"/>
-        <item m="1" x="14"/>
-        <item m="1" x="17"/>
-        <item m="1" x="89"/>
-        <item m="1" x="122"/>
-        <item m="1" x="101"/>
-        <item x="0"/>
-        <item m="1" x="97"/>
-        <item m="1" x="69"/>
-        <item m="1" x="153"/>
-        <item m="1" x="57"/>
-        <item m="1" x="150"/>
-        <item m="1" x="45"/>
-        <item m="1" x="90"/>
-        <item m="1" x="145"/>
-        <item m="1" x="124"/>
-        <item m="1" x="130"/>
-        <item m="1" x="75"/>
-        <item m="1" x="72"/>
-        <item m="1" x="59"/>
-        <item m="1" x="71"/>
-        <item m="1" x="54"/>
-        <item m="1" x="154"/>
-        <item m="1" x="138"/>
-        <item m="1" x="30"/>
-        <item m="1" x="103"/>
-        <item m="1" x="18"/>
-        <item m="1" x="161"/>
-        <item m="1" x="168"/>
-        <item m="1" x="105"/>
-        <item m="1" x="55"/>
-        <item m="1" x="8"/>
-        <item m="1" x="115"/>
-        <item m="1" x="136"/>
-        <item m="1" x="133"/>
-        <item m="1" x="113"/>
-        <item m="1" x="116"/>
-        <item m="1" x="118"/>
-        <item m="1" x="156"/>
-        <item m="1" x="62"/>
-        <item m="1" x="21"/>
-        <item m="1" x="28"/>
-        <item m="1" x="128"/>
-        <item m="1" x="131"/>
-        <item m="1" x="82"/>
-        <item m="1" x="37"/>
-        <item m="1" x="100"/>
-        <item m="1" x="114"/>
-        <item m="1" x="144"/>
-        <item m="1" x="25"/>
-        <item m="1" x="102"/>
-        <item m="1" x="19"/>
-        <item m="1" x="125"/>
-        <item m="1" x="169"/>
-        <item m="1" x="66"/>
-        <item m="1" x="46"/>
-        <item m="1" x="10"/>
-        <item m="1" x="79"/>
-        <item m="1" x="151"/>
-        <item m="1" x="6"/>
-        <item m="1" x="24"/>
-        <item m="1" x="112"/>
-        <item m="1" x="173"/>
-        <item m="1" x="164"/>
-        <item m="1" x="32"/>
-        <item m="1" x="34"/>
-        <item m="1" x="49"/>
-        <item m="1" x="52"/>
-        <item m="1" x="177"/>
-        <item m="1" x="148"/>
-        <item m="1" x="91"/>
-        <item m="1" x="1"/>
-        <item m="1" x="162"/>
-        <item m="1" x="63"/>
-        <item m="1" x="61"/>
-        <item m="1" x="31"/>
-        <item m="1" x="137"/>
-        <item m="1" x="81"/>
-        <item m="1" x="3"/>
-        <item m="1" x="26"/>
-        <item m="1" x="29"/>
-        <item m="1" x="87"/>
-        <item m="1" x="119"/>
-        <item m="1" x="149"/>
-        <item m="1" x="39"/>
-        <item m="1" x="43"/>
-        <item m="1" x="134"/>
-        <item m="1" x="110"/>
-        <item m="1" x="53"/>
-        <item m="1" x="174"/>
-        <item m="1" x="7"/>
-        <item m="1" x="126"/>
-        <item m="1" x="108"/>
-        <item m="1" x="157"/>
-        <item m="1" x="95"/>
-        <item m="1" x="107"/>
-        <item m="1" x="16"/>
-        <item m="1" x="48"/>
-        <item m="1" x="155"/>
-        <item m="1" x="83"/>
-        <item m="1" x="98"/>
-        <item m="1" x="50"/>
-        <item m="1" x="76"/>
-        <item m="1" x="38"/>
-        <item m="1" x="67"/>
-        <item m="1" x="41"/>
-        <item m="1" x="165"/>
-        <item m="1" x="117"/>
-        <item m="1" x="160"/>
-        <item m="1" x="93"/>
-        <item m="1" x="142"/>
-        <item m="1" x="84"/>
-        <item m="1" x="77"/>
-        <item m="1" x="23"/>
-        <item m="1" x="74"/>
-        <item m="1" x="111"/>
-        <item m="1" x="88"/>
-        <item m="1" x="143"/>
-        <item m="1" x="65"/>
-        <item m="1" x="35"/>
-        <item m="1" x="120"/>
-        <item m="1" x="170"/>
-        <item m="1" x="176"/>
-        <item m="1" x="80"/>
-        <item m="1" x="167"/>
+      <items count="180">
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="78"/>
+        <item h="1" m="1" x="167"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="161"/>
+        <item h="1" m="1" x="79"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="116"/>
+        <item h="1" m="1" x="142"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="171"/>
+        <item h="1" m="1" x="102"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="125"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="143"/>
+        <item h="1" m="1" x="92"/>
+        <item h="1" m="1" x="158"/>
+        <item h="1" m="1" x="80"/>
+        <item h="1" m="1" x="103"/>
+        <item h="1" m="1" x="85"/>
+        <item h="1" m="1" x="168"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="152"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="114"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="169"/>
+        <item h="1" m="1" x="133"/>
+        <item h="1" m="1" x="107"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="83"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="172"/>
+        <item h="1" m="1" x="104"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="86"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="170"/>
+        <item h="1" m="1" x="129"/>
+        <item h="1" m="1" x="97"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="173"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="73"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="153"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="144"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="154"/>
+        <item h="1" m="1" x="175"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="126"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="98"/>
+        <item h="1" m="1" x="109"/>
+        <item h="1" m="1" x="118"/>
+        <item h="1" m="1" x="165"/>
+        <item h="1" m="1" x="99"/>
+        <item h="1" m="1" x="105"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="127"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="145"/>
+        <item h="1" m="1" x="112"/>
+        <item h="1" m="1" x="138"/>
+        <item h="1" m="1" x="149"/>
+        <item h="1" m="1" x="95"/>
+        <item h="1" m="1" x="122"/>
+        <item h="1" m="1" x="89"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="162"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="87"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="178"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="155"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="150"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="139"/>
+        <item h="1" m="1" x="176"/>
+        <item h="1" m="1" x="130"/>
+        <item h="1" m="1" x="74"/>
+        <item h="1" m="1" x="90"/>
+        <item h="1" m="1" x="134"/>
+        <item h="1" m="1" x="159"/>
+        <item h="1" m="1" x="120"/>
+        <item h="1" m="1" x="136"/>
+        <item h="1" m="1" x="81"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="75"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="174"/>
+        <item h="1" m="1" x="91"/>
+        <item h="1" m="1" x="137"/>
+        <item h="1" m="1" x="166"/>
+        <item h="1" m="1" x="96"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="140"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="124"/>
+        <item h="1" m="1" x="123"/>
+        <item h="1" m="1" x="151"/>
+        <item h="1" m="1" x="93"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="82"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="160"/>
+        <item h="1" m="1" x="100"/>
+        <item h="1" m="1" x="128"/>
+        <item h="1" m="1" x="119"/>
+        <item h="1" m="1" x="94"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="101"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="146"/>
+        <item h="1" m="1" x="110"/>
+        <item h="1" m="1" x="76"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="156"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="77"/>
+        <item h="1" m="1" x="106"/>
+        <item h="1" m="1" x="177"/>
+        <item h="1" m="1" x="131"/>
+        <item h="1" m="1" x="163"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="147"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="113"/>
+        <item h="1" m="1" x="121"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="157"/>
+        <item h="1" m="1" x="141"/>
+        <item h="1" m="1" x="132"/>
+        <item h="1" m="1" x="115"/>
+        <item h="1" m="1" x="108"/>
+        <item h="1" m="1" x="88"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="148"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="111"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="117"/>
+        <item h="1" m="1" x="135"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="84"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="164"/>
+        <item h="1" m="1" x="30"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="2">
+      <items count="3">
         <item x="0"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5311,206 +5323,210 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
   <location ref="A3:C10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="179">
-        <item m="1" x="4"/>
-        <item m="1" x="82"/>
-        <item m="1" x="168"/>
-        <item m="1" x="49"/>
-        <item m="1" x="120"/>
-        <item m="1" x="148"/>
-        <item m="1" x="70"/>
-        <item m="1" x="130"/>
-        <item m="1" x="94"/>
-        <item m="1" x="160"/>
-        <item m="1" x="83"/>
-        <item m="1" x="86"/>
-        <item m="1" x="169"/>
-        <item m="1" x="60"/>
-        <item m="1" x="146"/>
-        <item m="1" x="128"/>
-        <item m="1" x="84"/>
-        <item m="1" x="44"/>
-        <item m="1" x="69"/>
-        <item m="1" x="64"/>
-        <item m="1" x="40"/>
-        <item m="1" x="164"/>
-        <item m="1" x="54"/>
-        <item m="1" x="53"/>
-        <item m="1" x="6"/>
-        <item m="1" x="172"/>
-        <item m="1" x="107"/>
-        <item m="1" x="39"/>
-        <item m="1" x="22"/>
-        <item m="1" x="23"/>
-        <item m="1" x="73"/>
-        <item m="1" x="41"/>
-        <item m="1" x="108"/>
-        <item m="1" x="12"/>
-        <item m="1" x="154"/>
-        <item m="1" x="57"/>
-        <item m="1" x="50"/>
-        <item m="1" x="74"/>
-        <item m="1" x="119"/>
-        <item m="1" x="170"/>
-        <item m="1" x="137"/>
-        <item m="1" x="112"/>
-        <item m="1" x="33"/>
-        <item m="1" x="58"/>
-        <item m="1" x="109"/>
-        <item m="1" x="34"/>
-        <item m="1" x="7"/>
-        <item m="1" x="87"/>
-        <item m="1" x="15"/>
-        <item m="1" x="75"/>
-        <item m="1" x="171"/>
-        <item m="1" x="134"/>
-        <item m="1" x="76"/>
-        <item m="1" x="173"/>
-        <item m="1" x="77"/>
-        <item m="1" x="45"/>
-        <item m="1" x="155"/>
-        <item m="1" x="17"/>
-        <item m="1" x="24"/>
-        <item m="1" x="29"/>
-        <item m="1" x="13"/>
-        <item m="1" x="149"/>
-        <item m="1" x="59"/>
-        <item m="1" x="176"/>
-        <item m="1" x="35"/>
-        <item m="1" x="131"/>
-        <item m="1" x="42"/>
-        <item m="1" x="101"/>
-        <item m="1" x="114"/>
-        <item m="1" x="123"/>
-        <item m="1" x="166"/>
-        <item m="1" x="102"/>
-        <item m="1" x="110"/>
-        <item m="1" x="18"/>
-        <item m="1" x="132"/>
-        <item m="1" x="30"/>
-        <item m="1" x="150"/>
-        <item m="1" x="118"/>
-        <item m="1" x="144"/>
-        <item m="1" x="99"/>
-        <item m="1" x="127"/>
-        <item m="1" x="92"/>
-        <item m="1" x="25"/>
-        <item m="1" x="165"/>
-        <item m="1" x="2"/>
-        <item m="1" x="88"/>
-        <item m="1" x="27"/>
-        <item m="1" x="36"/>
-        <item m="1" x="177"/>
-        <item m="1" x="156"/>
-        <item m="1" x="65"/>
-        <item m="1" x="152"/>
-        <item m="1" x="55"/>
-        <item m="1" x="145"/>
-        <item m="1" x="135"/>
-        <item m="1" x="78"/>
-        <item m="1" x="93"/>
-        <item m="1" x="138"/>
-        <item m="1" x="161"/>
-        <item m="1" x="125"/>
-        <item m="1" x="139"/>
-        <item m="1" x="51"/>
-        <item m="1" x="79"/>
-        <item m="1" x="174"/>
-        <item m="1" x="140"/>
-        <item m="1" x="37"/>
-        <item m="1" x="153"/>
-        <item m="1" x="56"/>
-        <item m="1" x="162"/>
-        <item m="1" x="124"/>
-        <item m="1" x="97"/>
-        <item m="1" x="26"/>
-        <item m="1" x="104"/>
-        <item m="1" x="80"/>
-        <item m="1" x="71"/>
-        <item m="1" x="1"/>
-        <item m="1" x="19"/>
-        <item m="1" x="8"/>
-        <item m="1" x="81"/>
-        <item m="1" x="111"/>
-        <item m="1" x="63"/>
-        <item m="1" x="151"/>
-        <item m="1" x="9"/>
-        <item m="1" x="157"/>
-        <item m="1" x="147"/>
-        <item m="1" x="113"/>
-        <item m="1" x="89"/>
-        <item m="1" x="175"/>
-        <item m="1" x="136"/>
-        <item m="1" x="129"/>
-        <item m="1" x="32"/>
-        <item m="1" x="142"/>
-        <item m="1" x="72"/>
-        <item m="1" x="121"/>
-        <item m="1" x="116"/>
-        <item m="1" x="95"/>
-        <item m="1" x="90"/>
-        <item m="1" x="158"/>
-        <item m="1" x="62"/>
-        <item m="1" x="122"/>
-        <item m="1" x="143"/>
-        <item m="1" x="117"/>
-        <item m="1" x="61"/>
-        <item m="1" x="163"/>
-        <item m="1" x="16"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="85"/>
-        <item m="1" x="31"/>
-        <item m="1" x="167"/>
-        <item m="1" x="178"/>
-        <item m="1" x="11"/>
-        <item m="1" x="100"/>
-        <item m="1" x="21"/>
-        <item m="1" x="91"/>
-        <item m="1" x="105"/>
-        <item m="1" x="10"/>
-        <item m="1" x="159"/>
-        <item m="1" x="48"/>
-        <item m="1" x="68"/>
-        <item m="1" x="20"/>
-        <item m="1" x="141"/>
-        <item m="1" x="3"/>
-        <item m="1" x="133"/>
-        <item m="1" x="43"/>
-        <item m="1" x="28"/>
-        <item m="1" x="14"/>
-        <item m="1" x="46"/>
-        <item m="1" x="103"/>
-        <item m="1" x="96"/>
-        <item m="1" x="47"/>
-        <item m="1" x="106"/>
-        <item m="1" x="52"/>
-        <item m="1" x="126"/>
-        <item m="1" x="98"/>
-        <item m="1" x="115"/>
-        <item m="1" x="5"/>
-        <item m="1" x="38"/>
+      <items count="181">
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="84"/>
+        <item h="1" m="1" x="170"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="122"/>
+        <item h="1" m="1" x="150"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="132"/>
+        <item h="1" m="1" x="96"/>
+        <item h="1" m="1" x="162"/>
+        <item h="1" m="1" x="85"/>
+        <item h="1" m="1" x="88"/>
+        <item h="1" m="1" x="171"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="148"/>
+        <item h="1" m="1" x="130"/>
+        <item h="1" m="1" x="86"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="166"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="174"/>
+        <item h="1" m="1" x="109"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="75"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="110"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="156"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="76"/>
+        <item h="1" m="1" x="121"/>
+        <item h="1" m="1" x="172"/>
+        <item h="1" m="1" x="139"/>
+        <item h="1" m="1" x="114"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="111"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="89"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="77"/>
+        <item h="1" m="1" x="173"/>
+        <item h="1" m="1" x="136"/>
+        <item h="1" m="1" x="78"/>
+        <item h="1" m="1" x="175"/>
+        <item h="1" m="1" x="79"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="157"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="151"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="178"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="133"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="103"/>
+        <item h="1" m="1" x="116"/>
+        <item h="1" m="1" x="125"/>
+        <item h="1" m="1" x="168"/>
+        <item h="1" m="1" x="104"/>
+        <item h="1" m="1" x="112"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="134"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="152"/>
+        <item h="1" m="1" x="120"/>
+        <item h="1" m="1" x="146"/>
+        <item h="1" m="1" x="101"/>
+        <item h="1" m="1" x="129"/>
+        <item h="1" m="1" x="94"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="167"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="90"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="179"/>
+        <item h="1" m="1" x="158"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="154"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="147"/>
+        <item h="1" m="1" x="137"/>
+        <item h="1" m="1" x="80"/>
+        <item h="1" m="1" x="95"/>
+        <item h="1" m="1" x="140"/>
+        <item h="1" m="1" x="163"/>
+        <item h="1" m="1" x="127"/>
+        <item h="1" m="1" x="141"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="81"/>
+        <item h="1" m="1" x="176"/>
+        <item h="1" m="1" x="142"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="155"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="164"/>
+        <item h="1" m="1" x="126"/>
+        <item h="1" m="1" x="99"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="106"/>
+        <item h="1" m="1" x="82"/>
+        <item h="1" m="1" x="73"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="83"/>
+        <item h="1" m="1" x="113"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="153"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="159"/>
+        <item h="1" m="1" x="149"/>
+        <item h="1" m="1" x="115"/>
+        <item h="1" m="1" x="91"/>
+        <item h="1" m="1" x="177"/>
+        <item h="1" m="1" x="138"/>
+        <item h="1" m="1" x="131"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="144"/>
+        <item h="1" m="1" x="74"/>
+        <item h="1" m="1" x="123"/>
+        <item h="1" m="1" x="118"/>
+        <item h="1" m="1" x="97"/>
+        <item h="1" m="1" x="92"/>
+        <item h="1" m="1" x="160"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="124"/>
+        <item h="1" m="1" x="145"/>
+        <item h="1" m="1" x="119"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="165"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="87"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="169"/>
+        <item h="1" m="1" x="180"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="102"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="93"/>
+        <item h="1" m="1" x="107"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="161"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="143"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="135"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="105"/>
+        <item h="1" m="1" x="98"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="108"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="128"/>
+        <item h="1" m="1" x="100"/>
+        <item h="1" m="1" x="117"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="40"/>
         <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="6">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
+      <items count="8">
         <item m="1" x="4"/>
         <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item m="1" x="5"/>
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0" defaultSubtotal="0">
       <items count="2">
+        <item h="1" x="1"/>
         <item x="0"/>
-        <item h="1" x="1"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
@@ -6092,185 +6108,186 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="178">
-        <i x="0" s="1"/>
-        <i x="129" s="1" nd="1"/>
-        <i x="86" s="1" nd="1"/>
-        <i x="132" s="1" nd="1"/>
-        <i x="158" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="106" s="1" nd="1"/>
-        <i x="99" s="1" nd="1"/>
-        <i x="85" s="1" nd="1"/>
-        <i x="166" s="1" nd="1"/>
-        <i x="175" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="139" s="1" nd="1"/>
-        <i x="104" s="1" nd="1"/>
-        <i x="47" s="1" nd="1"/>
-        <i x="172" s="1" nd="1"/>
-        <i x="96" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="94" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="171" s="1" nd="1"/>
-        <i x="152" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="123" s="1" nd="1"/>
-        <i x="64" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="135" s="1" nd="1"/>
-        <i x="33" s="1" nd="1"/>
-        <i x="20" s="1" nd="1"/>
-        <i x="127" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="27" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="36" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="146" s="1" nd="1"/>
-        <i x="159" s="1" nd="1"/>
-        <i x="40" s="1" nd="1"/>
-        <i x="109" s="1" nd="1"/>
-        <i x="22" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
-        <i x="92" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="147" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="121" s="1" nd="1"/>
-        <i x="141" s="1" nd="1"/>
-        <i x="163" s="1" nd="1"/>
-        <i x="140" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
-        <i x="89" s="1" nd="1"/>
-        <i x="122" s="1" nd="1"/>
-        <i x="101" s="1" nd="1"/>
-        <i x="97" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="153" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="150" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="90" s="1" nd="1"/>
-        <i x="145" s="1" nd="1"/>
-        <i x="124" s="1" nd="1"/>
-        <i x="130" s="1" nd="1"/>
-        <i x="75" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
-        <i x="154" s="1" nd="1"/>
-        <i x="138" s="1" nd="1"/>
-        <i x="30" s="1" nd="1"/>
-        <i x="103" s="1" nd="1"/>
-        <i x="18" s="1" nd="1"/>
-        <i x="161" s="1" nd="1"/>
-        <i x="168" s="1" nd="1"/>
-        <i x="105" s="1" nd="1"/>
-        <i x="55" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="115" s="1" nd="1"/>
-        <i x="136" s="1" nd="1"/>
-        <i x="133" s="1" nd="1"/>
-        <i x="113" s="1" nd="1"/>
-        <i x="116" s="1" nd="1"/>
-        <i x="118" s="1" nd="1"/>
-        <i x="156" s="1" nd="1"/>
-        <i x="62" s="1" nd="1"/>
-        <i x="21" s="1" nd="1"/>
-        <i x="28" s="1" nd="1"/>
-        <i x="128" s="1" nd="1"/>
-        <i x="131" s="1" nd="1"/>
-        <i x="82" s="1" nd="1"/>
-        <i x="37" s="1" nd="1"/>
-        <i x="100" s="1" nd="1"/>
-        <i x="114" s="1" nd="1"/>
-        <i x="144" s="1" nd="1"/>
-        <i x="25" s="1" nd="1"/>
-        <i x="102" s="1" nd="1"/>
-        <i x="19" s="1" nd="1"/>
-        <i x="125" s="1" nd="1"/>
-        <i x="169" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="151" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="24" s="1" nd="1"/>
-        <i x="112" s="1" nd="1"/>
-        <i x="173" s="1" nd="1"/>
-        <i x="164" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
-        <i x="34" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="177" s="1" nd="1"/>
-        <i x="148" s="1" nd="1"/>
-        <i x="91" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="162" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
-        <i x="31" s="1" nd="1"/>
-        <i x="137" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="26" s="1" nd="1"/>
-        <i x="29" s="1" nd="1"/>
-        <i x="87" s="1" nd="1"/>
-        <i x="119" s="1" nd="1"/>
-        <i x="149" s="1" nd="1"/>
-        <i x="39" s="1" nd="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="134" s="1" nd="1"/>
-        <i x="110" s="1" nd="1"/>
-        <i x="53" s="1" nd="1"/>
-        <i x="174" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="126" s="1" nd="1"/>
-        <i x="108" s="1" nd="1"/>
-        <i x="157" s="1" nd="1"/>
-        <i x="95" s="1" nd="1"/>
-        <i x="107" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="155" s="1" nd="1"/>
-        <i x="83" s="1" nd="1"/>
-        <i x="98" s="1" nd="1"/>
-        <i x="50" s="1" nd="1"/>
-        <i x="76" s="1" nd="1"/>
-        <i x="38" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
-        <i x="165" s="1" nd="1"/>
-        <i x="117" s="1" nd="1"/>
-        <i x="160" s="1" nd="1"/>
-        <i x="93" s="1" nd="1"/>
-        <i x="142" s="1" nd="1"/>
-        <i x="84" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="23" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
-        <i x="111" s="1" nd="1"/>
-        <i x="88" s="1" nd="1"/>
-        <i x="143" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="35" s="1" nd="1"/>
-        <i x="120" s="1" nd="1"/>
-        <i x="170" s="1" nd="1"/>
-        <i x="176" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="167" s="1" nd="1"/>
+      <items count="179">
+        <i x="0"/>
+        <i x="1" s="1"/>
+        <i x="42" nd="1"/>
+        <i x="64" nd="1"/>
+        <i x="61" nd="1"/>
+        <i x="5" nd="1"/>
+        <i x="78" nd="1"/>
+        <i x="167" nd="1"/>
+        <i x="39" nd="1"/>
+        <i x="161" nd="1"/>
+        <i x="79" nd="1"/>
+        <i x="50" nd="1"/>
+        <i x="44" nd="1"/>
+        <i x="49" nd="1"/>
+        <i x="116" nd="1"/>
+        <i x="142" nd="1"/>
+        <i x="6" nd="1"/>
+        <i x="171" nd="1"/>
+        <i x="102" nd="1"/>
+        <i x="37" nd="1"/>
+        <i x="22" nd="1"/>
+        <i x="21" nd="1"/>
+        <i x="65" nd="1"/>
+        <i x="23" nd="1"/>
+        <i x="67" nd="1"/>
+        <i x="125" nd="1"/>
+        <i x="40" nd="1"/>
+        <i x="143" nd="1"/>
+        <i x="92" nd="1"/>
+        <i x="158" nd="1"/>
+        <i x="80" nd="1"/>
+        <i x="103" nd="1"/>
+        <i x="85" nd="1"/>
+        <i x="168" nd="1"/>
+        <i x="13" nd="1"/>
+        <i x="152" nd="1"/>
+        <i x="53" nd="1"/>
+        <i x="45" nd="1"/>
+        <i x="68" nd="1"/>
+        <i x="114" nd="1"/>
+        <i x="14" nd="1"/>
+        <i x="169" nd="1"/>
+        <i x="133" nd="1"/>
+        <i x="107" nd="1"/>
+        <i x="31" nd="1"/>
+        <i x="83" nd="1"/>
+        <i x="54" nd="1"/>
+        <i x="172" nd="1"/>
+        <i x="104" nd="1"/>
+        <i x="32" nd="1"/>
+        <i x="7" nd="1"/>
+        <i x="86" nd="1"/>
+        <i x="17" nd="1"/>
+        <i x="69" nd="1"/>
+        <i x="170" nd="1"/>
+        <i x="129" nd="1"/>
+        <i x="97" nd="1"/>
+        <i x="70" nd="1"/>
+        <i x="173" nd="1"/>
+        <i x="2" nd="1"/>
+        <i x="73" nd="1"/>
+        <i x="43" nd="1"/>
+        <i x="153" nd="1"/>
+        <i x="18" nd="1"/>
+        <i x="24" nd="1"/>
+        <i x="28" nd="1"/>
+        <i x="15" nd="1"/>
+        <i x="144" nd="1"/>
+        <i x="55" nd="1"/>
+        <i x="154" nd="1"/>
+        <i x="175" nd="1"/>
+        <i x="33" nd="1"/>
+        <i x="126" nd="1"/>
+        <i x="41" nd="1"/>
+        <i x="98" nd="1"/>
+        <i x="109" nd="1"/>
+        <i x="118" nd="1"/>
+        <i x="165" nd="1"/>
+        <i x="99" nd="1"/>
+        <i x="105" nd="1"/>
+        <i x="19" nd="1"/>
+        <i x="127" nd="1"/>
+        <i x="29" nd="1"/>
+        <i x="57" nd="1"/>
+        <i x="11" nd="1"/>
+        <i x="145" nd="1"/>
+        <i x="112" nd="1"/>
+        <i x="138" nd="1"/>
+        <i x="149" nd="1"/>
+        <i x="95" nd="1"/>
+        <i x="122" nd="1"/>
+        <i x="89" nd="1"/>
+        <i x="25" nd="1"/>
+        <i x="162" nd="1"/>
+        <i x="4" nd="1"/>
+        <i x="87" nd="1"/>
+        <i x="27" nd="1"/>
+        <i x="58" nd="1"/>
+        <i x="34" nd="1"/>
+        <i x="178" nd="1"/>
+        <i x="16" nd="1"/>
+        <i x="155" nd="1"/>
+        <i x="62" nd="1"/>
+        <i x="150" nd="1"/>
+        <i x="51" nd="1"/>
+        <i x="139" nd="1"/>
+        <i x="176" nd="1"/>
+        <i x="130" nd="1"/>
+        <i x="74" nd="1"/>
+        <i x="90" nd="1"/>
+        <i x="134" nd="1"/>
+        <i x="159" nd="1"/>
+        <i x="120" nd="1"/>
+        <i x="136" nd="1"/>
+        <i x="81" nd="1"/>
+        <i x="47" nd="1"/>
+        <i x="75" nd="1"/>
+        <i x="35" nd="1"/>
+        <i x="174" nd="1"/>
+        <i x="91" nd="1"/>
+        <i x="137" nd="1"/>
+        <i x="166" nd="1"/>
+        <i x="96" nd="1"/>
+        <i x="36" nd="1"/>
+        <i x="140" nd="1"/>
+        <i x="71" nd="1"/>
+        <i x="124" nd="1"/>
+        <i x="123" nd="1"/>
+        <i x="151" nd="1"/>
+        <i x="93" nd="1"/>
+        <i x="8" nd="1"/>
+        <i x="82" nd="1"/>
+        <i x="52" nd="1"/>
+        <i x="160" nd="1"/>
+        <i x="100" nd="1"/>
+        <i x="128" nd="1"/>
+        <i x="119" nd="1"/>
+        <i x="94" nd="1"/>
+        <i x="26" nd="1"/>
+        <i x="101" nd="1"/>
+        <i x="63" nd="1"/>
+        <i x="146" nd="1"/>
+        <i x="110" nd="1"/>
+        <i x="76" nd="1"/>
+        <i x="66" nd="1"/>
+        <i x="3" nd="1"/>
+        <i x="20" nd="1"/>
+        <i x="156" nd="1"/>
+        <i x="9" nd="1"/>
+        <i x="77" nd="1"/>
+        <i x="106" nd="1"/>
+        <i x="177" nd="1"/>
+        <i x="131" nd="1"/>
+        <i x="163" nd="1"/>
+        <i x="60" nd="1"/>
+        <i x="147" nd="1"/>
+        <i x="38" nd="1"/>
+        <i x="113" nd="1"/>
+        <i x="121" nd="1"/>
+        <i x="10" nd="1"/>
+        <i x="157" nd="1"/>
+        <i x="141" nd="1"/>
+        <i x="132" nd="1"/>
+        <i x="115" nd="1"/>
+        <i x="108" nd="1"/>
+        <i x="88" nd="1"/>
+        <i x="56" nd="1"/>
+        <i x="148" nd="1"/>
+        <i x="46" nd="1"/>
+        <i x="111" nd="1"/>
+        <i x="12" nd="1"/>
+        <i x="117" nd="1"/>
+        <i x="135" nd="1"/>
+        <i x="48" nd="1"/>
+        <i x="59" nd="1"/>
+        <i x="84" nd="1"/>
+        <i x="72" nd="1"/>
+        <i x="164" nd="1"/>
+        <i x="30" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6284,186 +6301,188 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="2">
-      <items count="179">
+      <items count="181">
         <i x="0" s="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="64" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="82" s="1" nd="1"/>
-        <i x="168" s="1" nd="1"/>
-        <i x="40" s="1" nd="1"/>
-        <i x="164" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="53" s="1" nd="1"/>
-        <i x="120" s="1" nd="1"/>
-        <i x="148" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="172" s="1" nd="1"/>
-        <i x="107" s="1" nd="1"/>
-        <i x="39" s="1" nd="1"/>
-        <i x="22" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="23" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
-        <i x="130" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
-        <i x="94" s="1" nd="1"/>
-        <i x="160" s="1" nd="1"/>
-        <i x="83" s="1" nd="1"/>
-        <i x="108" s="1" nd="1"/>
-        <i x="86" s="1" nd="1"/>
-        <i x="169" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="154" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="50" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
-        <i x="119" s="1" nd="1"/>
-        <i x="170" s="1" nd="1"/>
-        <i x="137" s="1" nd="1"/>
-        <i x="112" s="1" nd="1"/>
-        <i x="33" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
-        <i x="109" s="1" nd="1"/>
-        <i x="34" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="87" s="1" nd="1"/>
-        <i x="20" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="75" s="1" nd="1"/>
-        <i x="171" s="1" nd="1"/>
-        <i x="134" s="1" nd="1"/>
-        <i x="76" s="1" nd="1"/>
-        <i x="173" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="155" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
-        <i x="24" s="1" nd="1"/>
-        <i x="29" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="149" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="176" s="1" nd="1"/>
-        <i x="35" s="1" nd="1"/>
-        <i x="131" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="101" s="1" nd="1"/>
-        <i x="114" s="1" nd="1"/>
-        <i x="123" s="1" nd="1"/>
-        <i x="166" s="1" nd="1"/>
-        <i x="102" s="1" nd="1"/>
-        <i x="110" s="1" nd="1"/>
-        <i x="18" s="1" nd="1"/>
-        <i x="132" s="1" nd="1"/>
-        <i x="30" s="1" nd="1"/>
-        <i x="150" s="1" nd="1"/>
-        <i x="118" s="1" nd="1"/>
-        <i x="144" s="1" nd="1"/>
-        <i x="95" s="1" nd="1"/>
-        <i x="99" s="1" nd="1"/>
-        <i x="127" s="1" nd="1"/>
-        <i x="92" s="1" nd="1"/>
-        <i x="25" s="1" nd="1"/>
-        <i x="165" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="88" s="1" nd="1"/>
-        <i x="27" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="36" s="1" nd="1"/>
-        <i x="177" s="1" nd="1"/>
-        <i x="156" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="152" s="1" nd="1"/>
-        <i x="55" s="1" nd="1"/>
-        <i x="145" s="1" nd="1"/>
-        <i x="103" s="1" nd="1"/>
-        <i x="135" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="93" s="1" nd="1"/>
-        <i x="138" s="1" nd="1"/>
-        <i x="161" s="1" nd="1"/>
-        <i x="125" s="1" nd="1"/>
-        <i x="139" s="1" nd="1"/>
-        <i x="96" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="174" s="1" nd="1"/>
-        <i x="140" s="1" nd="1"/>
-        <i x="37" s="1" nd="1"/>
-        <i x="146" s="1" nd="1"/>
-        <i x="128" s="1" nd="1"/>
-        <i x="153" s="1" nd="1"/>
-        <i x="84" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="162" s="1" nd="1"/>
-        <i x="124" s="1" nd="1"/>
-        <i x="97" s="1" nd="1"/>
-        <i x="26" s="1" nd="1"/>
-        <i x="104" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="19" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
-        <i x="111" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
-        <i x="151" s="1" nd="1"/>
-        <i x="163" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="157" s="1" nd="1"/>
-        <i x="147" s="1" nd="1"/>
-        <i x="121" s="1" nd="1"/>
-        <i x="113" s="1" nd="1"/>
-        <i x="141" s="1" nd="1"/>
-        <i x="175" s="1" nd="1"/>
-        <i x="98" s="1" nd="1"/>
-        <i x="115" s="1" nd="1"/>
-        <i x="89" s="1" nd="1"/>
-        <i x="116" s="1" nd="1"/>
-        <i x="167" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="142" s="1" nd="1"/>
-        <i x="136" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="129" s="1" nd="1"/>
-        <i x="105" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="178" s="1" nd="1"/>
-        <i x="85" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="158" s="1" nd="1"/>
-        <i x="90" s="1" nd="1"/>
-        <i x="62" s="1" nd="1"/>
-        <i x="100" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="31" s="1" nd="1"/>
-        <i x="21" s="1" nd="1"/>
-        <i x="47" s="1" nd="1"/>
-        <i x="133" s="1" nd="1"/>
-        <i x="106" s="1" nd="1"/>
-        <i x="122" s="1" nd="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="143" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="159" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="91" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="126" s="1" nd="1"/>
-        <i x="28" s="1" nd="1"/>
-        <i x="117" s="1" nd="1"/>
-        <i x="38" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="46" nd="1"/>
+        <i x="71" nd="1"/>
+        <i x="66" nd="1"/>
+        <i x="6" nd="1"/>
+        <i x="84" nd="1"/>
+        <i x="170" nd="1"/>
+        <i x="42" nd="1"/>
+        <i x="166" nd="1"/>
+        <i x="56" nd="1"/>
+        <i x="51" nd="1"/>
+        <i x="55" nd="1"/>
+        <i x="122" nd="1"/>
+        <i x="150" nd="1"/>
+        <i x="8" nd="1"/>
+        <i x="174" nd="1"/>
+        <i x="109" nd="1"/>
+        <i x="41" nd="1"/>
+        <i x="24" nd="1"/>
+        <i x="72" nd="1"/>
+        <i x="25" nd="1"/>
+        <i x="75" nd="1"/>
+        <i x="132" nd="1"/>
+        <i x="43" nd="1"/>
+        <i x="96" nd="1"/>
+        <i x="162" nd="1"/>
+        <i x="85" nd="1"/>
+        <i x="110" nd="1"/>
+        <i x="88" nd="1"/>
+        <i x="171" nd="1"/>
+        <i x="14" nd="1"/>
+        <i x="156" nd="1"/>
+        <i x="34" nd="1"/>
+        <i x="59" nd="1"/>
+        <i x="52" nd="1"/>
+        <i x="76" nd="1"/>
+        <i x="121" nd="1"/>
+        <i x="172" nd="1"/>
+        <i x="139" nd="1"/>
+        <i x="114" nd="1"/>
+        <i x="35" nd="1"/>
+        <i x="60" nd="1"/>
+        <i x="111" nd="1"/>
+        <i x="36" nd="1"/>
+        <i x="9" nd="1"/>
+        <i x="89" nd="1"/>
+        <i x="22" nd="1"/>
+        <i x="17" nd="1"/>
+        <i x="77" nd="1"/>
+        <i x="173" nd="1"/>
+        <i x="136" nd="1"/>
+        <i x="78" nd="1"/>
+        <i x="175" nd="1"/>
+        <i x="79" nd="1"/>
+        <i x="47" nd="1"/>
+        <i x="157" nd="1"/>
+        <i x="19" nd="1"/>
+        <i x="26" nd="1"/>
+        <i x="31" nd="1"/>
+        <i x="15" nd="1"/>
+        <i x="151" nd="1"/>
+        <i x="61" nd="1"/>
+        <i x="178" nd="1"/>
+        <i x="37" nd="1"/>
+        <i x="133" nd="1"/>
+        <i x="44" nd="1"/>
+        <i x="103" nd="1"/>
+        <i x="116" nd="1"/>
+        <i x="125" nd="1"/>
+        <i x="168" nd="1"/>
+        <i x="104" nd="1"/>
+        <i x="112" nd="1"/>
+        <i x="20" nd="1"/>
+        <i x="134" nd="1"/>
+        <i x="32" nd="1"/>
+        <i x="152" nd="1"/>
+        <i x="120" nd="1"/>
+        <i x="146" nd="1"/>
+        <i x="97" nd="1"/>
+        <i x="101" nd="1"/>
+        <i x="129" nd="1"/>
+        <i x="94" nd="1"/>
+        <i x="27" nd="1"/>
+        <i x="167" nd="1"/>
+        <i x="4" nd="1"/>
+        <i x="90" nd="1"/>
+        <i x="29" nd="1"/>
+        <i x="62" nd="1"/>
+        <i x="38" nd="1"/>
+        <i x="179" nd="1"/>
+        <i x="158" nd="1"/>
+        <i x="67" nd="1"/>
+        <i x="154" nd="1"/>
+        <i x="57" nd="1"/>
+        <i x="147" nd="1"/>
+        <i x="105" nd="1"/>
+        <i x="137" nd="1"/>
+        <i x="80" nd="1"/>
+        <i x="95" nd="1"/>
+        <i x="140" nd="1"/>
+        <i x="163" nd="1"/>
+        <i x="127" nd="1"/>
+        <i x="141" nd="1"/>
+        <i x="98" nd="1"/>
+        <i x="53" nd="1"/>
+        <i x="81" nd="1"/>
+        <i x="176" nd="1"/>
+        <i x="142" nd="1"/>
+        <i x="39" nd="1"/>
+        <i x="148" nd="1"/>
+        <i x="130" nd="1"/>
+        <i x="155" nd="1"/>
+        <i x="86" nd="1"/>
+        <i x="58" nd="1"/>
+        <i x="164" nd="1"/>
+        <i x="126" nd="1"/>
+        <i x="99" nd="1"/>
+        <i x="28" nd="1"/>
+        <i x="106" nd="1"/>
+        <i x="82" nd="1"/>
+        <i x="73" nd="1"/>
+        <i x="3" nd="1"/>
+        <i x="21" nd="1"/>
+        <i x="10" nd="1"/>
+        <i x="83" nd="1"/>
+        <i x="113" nd="1"/>
+        <i x="65" nd="1"/>
+        <i x="153" nd="1"/>
+        <i x="165" nd="1"/>
+        <i x="11" nd="1"/>
+        <i x="159" nd="1"/>
+        <i x="149" nd="1"/>
+        <i x="123" nd="1"/>
+        <i x="115" nd="1"/>
+        <i x="143" nd="1"/>
+        <i x="177" nd="1"/>
+        <i x="100" nd="1"/>
+        <i x="117" nd="1"/>
+        <i x="91" nd="1"/>
+        <i x="118" nd="1"/>
+        <i x="169" nd="1"/>
+        <i x="63" nd="1"/>
+        <i x="18" nd="1"/>
+        <i x="68" nd="1"/>
+        <i x="16" nd="1"/>
+        <i x="48" nd="1"/>
+        <i x="144" nd="1"/>
+        <i x="138" nd="1"/>
+        <i x="69" nd="1"/>
+        <i x="131" nd="1"/>
+        <i x="107" nd="1"/>
+        <i x="74" nd="1"/>
+        <i x="5" nd="1"/>
+        <i x="180" nd="1"/>
+        <i x="87" nd="1"/>
+        <i x="13" nd="1"/>
+        <i x="160" nd="1"/>
+        <i x="92" nd="1"/>
+        <i x="64" nd="1"/>
+        <i x="102" nd="1"/>
+        <i x="12" nd="1"/>
+        <i x="33" nd="1"/>
+        <i x="23" nd="1"/>
+        <i x="49" nd="1"/>
+        <i x="135" nd="1"/>
+        <i x="108" nd="1"/>
+        <i x="124" nd="1"/>
+        <i x="45" nd="1"/>
+        <i x="145" nd="1"/>
+        <i x="54" nd="1"/>
+        <i x="161" nd="1"/>
+        <i x="50" nd="1"/>
+        <i x="93" nd="1"/>
+        <i x="70" nd="1"/>
+        <i x="128" nd="1"/>
+        <i x="30" nd="1"/>
+        <i x="119" nd="1"/>
+        <i x="40" nd="1"/>
+        <i x="7" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6477,8 +6496,9 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="1">
-        <i x="0" s="1"/>
+      <items count="2">
+        <i x="1" s="1"/>
+        <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6493,8 +6513,8 @@
   <data>
     <tabular pivotCacheId="2">
       <items count="2">
+        <i x="1"/>
         <i x="0" s="1"/>
-        <i x="1"/>
       </items>
     </tabular>
   </data>
@@ -6890,7 +6910,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6912,7 +6932,7 @@
       </c>
       <c r="F1" s="4">
         <f>MIN($B:$B)</f>
-        <v>1.31871588528156E-2</v>
+        <v>3.24953813105822E-3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6920,14 +6940,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.9612287878990201E-2</v>
+        <v>4.0237335488200196E-3</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4">
         <f>VLOOKUP(MAX($A:$A),$A:$B,2,FALSE)</f>
-        <v>1.31871588528156E-2</v>
+        <v>3.59822763130069E-3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6935,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2.06098556518555E-2</v>
+        <v>3.8368329405784598E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6943,7 +6963,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1.9641065970063199E-2</v>
+        <v>3.6540711298584899E-3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6951,7 +6971,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1.8915496766567199E-2</v>
+        <v>3.5157108213752499E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6959,7 +6979,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1.8520979210734399E-2</v>
+        <v>3.47778992727399E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6967,7 +6987,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1.8202744424343099E-2</v>
+        <v>3.41971893794835E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6975,7 +6995,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1.7816403880715401E-2</v>
+        <v>3.3973550889640999E-3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,7 +7003,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1.7425937578082099E-2</v>
+        <v>3.3917247783392698E-3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6991,7 +7011,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1.71273350715637E-2</v>
+        <v>3.38736246339977E-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6999,7 +7019,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1.69132873415947E-2</v>
+        <v>3.3852637279778702E-3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7007,7 +7027,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1.6745075583457902E-2</v>
+        <v>3.3826122526079399E-3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7015,7 +7035,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.65931023657322E-2</v>
+        <v>3.3818443771451699E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7023,7 +7043,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.6450785100460101E-2</v>
+        <v>3.37810162454844E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7031,7 +7051,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.6305642202496501E-2</v>
+        <v>3.3748645801097198E-3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7039,7 +7059,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.6170406714081799E-2</v>
+        <v>3.3637979067861999E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7047,7 +7067,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.6063641756772998E-2</v>
+        <v>3.3517221454531002E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7055,7 +7075,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.5996532514691401E-2</v>
+        <v>3.3405574504286099E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7063,7 +7083,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.5957765281200399E-2</v>
+        <v>3.3347005955874898E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7071,7 +7091,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.5917852520942698E-2</v>
+        <v>3.3300472423434301E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7079,7 +7099,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.58628057688475E-2</v>
+        <v>3.3225200604647398E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7087,7 +7107,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1.5785096213221501E-2</v>
+        <v>3.3151437528431398E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7095,7 +7115,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>1.5681013464927701E-2</v>
+        <v>3.3030060585588199E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7103,7 +7123,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>1.5545685775577999E-2</v>
+        <v>3.2958749216049901E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7111,7 +7131,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>1.53756905347109E-2</v>
+        <v>3.2886802218854401E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7119,7 +7139,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>1.5178616158664201E-2</v>
+        <v>3.2848871778696801E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7127,7 +7147,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>1.49705493822694E-2</v>
+        <v>3.2821216154843599E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7135,7 +7155,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>1.47744789719582E-2</v>
+        <v>3.2788882963359399E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7143,7 +7163,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>1.4620117843151099E-2</v>
+        <v>3.2762323971837798E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7151,7 +7171,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1.4512683264911201E-2</v>
+        <v>3.274105489254E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7159,7 +7179,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1.44273331388831E-2</v>
+        <v>3.2715781126171398E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7167,7 +7187,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>1.4341021887957999E-2</v>
+        <v>3.26960743404925E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7175,7 +7195,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>1.4250415377318901E-2</v>
+        <v>3.2677173148840701E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7183,7 +7203,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>1.41776716336608E-2</v>
+        <v>3.26554221101105E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7191,7 +7211,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>1.41749801114202E-2</v>
+        <v>3.2639687415212401E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7199,7 +7219,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>1.42765445634723E-2</v>
+        <v>3.2621894497424399E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7207,7 +7227,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>1.4380438253283501E-2</v>
+        <v>3.26066999696195E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7215,7 +7235,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1.44595960155129E-2</v>
+        <v>3.2594476360827702E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7223,7 +7243,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1.4564007520675701E-2</v>
+        <v>3.2581689301878201E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7231,7 +7251,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>1.46931242197752E-2</v>
+        <v>3.25711793266237E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7239,7 +7259,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>1.4799563214182901E-2</v>
+        <v>3.2561104744672801E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7247,7 +7267,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>1.48293748497963E-2</v>
+        <v>3.2551663462072598E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7255,7 +7275,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>1.4769732952117901E-2</v>
+        <v>3.2543020788580201E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7263,7 +7283,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>1.4639918692409999E-2</v>
+        <v>3.2534652855247298E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7271,7 +7291,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1.4463507570326301E-2</v>
+        <v>3.2527185976505301E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7279,7 +7299,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>1.4290274120867299E-2</v>
+        <v>3.2519982196390598E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7287,7 +7307,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>1.41516253352165E-2</v>
+        <v>3.2513260375708298E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7295,7 +7315,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>1.4036305248737301E-2</v>
+        <v>3.2507032155990601E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7303,7 +7323,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1.39519507065415E-2</v>
+        <v>3.2501004170626402E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7311,7 +7331,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>1.39120882377028E-2</v>
+        <v>3.24953813105822E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7319,7 +7339,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>1.31871588528156E-2</v>
+        <v>3.59822763130069E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7327,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>1.5881391353905202E-2</v>
+        <v>3.3481787145137791E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7348,15 +7368,14 @@
   <dimension ref="A3:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="8" width="7.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
@@ -7395,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>4.1928980195963819E-2</v>
+        <v>0.2772221380361804</v>
       </c>
       <c r="C6" s="1">
-        <v>4.1928980195963819E-2</v>
+        <v>0.2772221380361804</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7406,10 +7425,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0340686032065639E-2</v>
+        <v>0.51226119048617502</v>
       </c>
       <c r="C7" s="1">
-        <v>6.0340686032065639E-2</v>
+        <v>0.51226119048617502</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7417,10 +7436,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>6.0982940263218349E-2</v>
+        <v>0.33369284981378805</v>
       </c>
       <c r="C8" s="1">
-        <v>6.0982940263218349E-2</v>
+        <v>0.33369284981378805</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -7428,10 +7447,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>7.9162700101733194E-2</v>
+        <v>0.10929455532243956</v>
       </c>
       <c r="C9" s="1">
-        <v>7.9162700101733194E-2</v>
+        <v>0.10929455532243956</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -7439,10 +7458,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>6.0603826648245256E-2</v>
+        <v>0.30811768341464579</v>
       </c>
       <c r="C10" s="1">
-        <v>6.0603826648245256E-2</v>
+        <v>0.30811768341464579</v>
       </c>
     </row>
   </sheetData>

--- a/Tester2.xlsx
+++ b/Tester2.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaglion\dev\cudaNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.caglioni\dev\cudaNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,22 +19,18 @@
   <definedNames>
     <definedName name="Query_from_Algo" localSheetId="0" hidden="1">ClientInfo!$A$1:$I$2</definedName>
     <definedName name="Slicer_PROCESSID">#N/A</definedName>
-    <definedName name="Slicer_PROCESSID1">#N/A</definedName>
-    <definedName name="Slicer_SETID">#N/A</definedName>
     <definedName name="Slicer_THREADID">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="60" r:id="rId4"/>
-    <pivotCache cacheId="64" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
         <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
-        <x14:slicerCache r:id="rId8"/>
-        <x14:slicerCache r:id="rId9"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -52,17 +48,17 @@
   <connection id="1" name="Q_ClientInfo" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DSN=Algo;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=F;CSR=F;FWC=F;FBS=64000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT CLIENTINFO.PROCESSID, CLIENTINFO.CLIENTNAME, CLIENTINFO.CLIENTSTART, CLIENTINFO.DURATION, CLIENTINFO.SIMULATIONLEN, CLIENTINFO.SIMULATIONSTART, CLIENTINFO.DOTRAINING, CLIENTINFO.DOTRAINRUN, CLIENTINFO.DOTESTRUN_x000d__x000a_FROM CULOGUSER.CLIENTINFO CLIENTINFO_x000d__x000a_ORDER BY CLIENTINFO.CLIENTSTART DESC"/>
   </connection>
-  <connection id="2" name="Q_MSE" type="1" refreshedVersion="5" savePassword="1" saveData="1">
+  <connection id="2" name="Q_MSE" type="1" refreshedVersion="6" savePassword="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH, TRAINLOG.MSE_T, TRAINLOG.MSE_V_x000d__x000a_FROM CULOGUSER.TRAINLOG TRAINLOG_x000d__x000a_ORDER BY TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH"/>
   </connection>
-  <connection id="3" name="Q_Run" type="1" refreshedVersion="5" savePassword="1" saveData="1">
+  <connection id="3" name="Q_Run" type="1" refreshedVersion="6" savePassword="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.SETID,RUNLOG.NETPROCESSID, RUNLOG.NETTHREADID, RUNLOG.POS, RUNLOG.FEATUREID, RUNLOG.ACTUAL, RUNLOG.PREDICTED, RUNLOG.ERROR, RUNLOG.ACTUALTRS, RUNLOG.PREDICTEDTRS, RUNLOG.ERRORTRS, RUNLOG.BARWIDTH, RUNLOG.ERRORP_x000d__x000a_FROM CULOGUSER.RUNLOG RUNLOG_x000d__x000a_ORDER BY RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.POS, RUNLOG.FEATUREID"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Average of MSE_T</t>
   </si>
@@ -118,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -160,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -172,16 +168,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -502,160 +501,160 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4.0237335488200196E-3</c:v>
+                  <c:v>3.4111250191926949E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8368329405784598E-3</c:v>
+                  <c:v>2.4088085629045949E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6540711298584899E-3</c:v>
+                  <c:v>2.348215831443665E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5157108213752499E-3</c:v>
+                  <c:v>2.3034681100398326E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.47778992727399E-3</c:v>
+                  <c:v>2.2694292012602073E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.41971893794835E-3</c:v>
+                  <c:v>2.2420058958232403E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3973550889640999E-3</c:v>
+                  <c:v>2.2176740691065799E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3917247783392698E-3</c:v>
+                  <c:v>2.194321574643255E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.38736246339977E-3</c:v>
+                  <c:v>2.17086593620479E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3852637279778702E-3</c:v>
+                  <c:v>2.1466628648340674E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3826122526079399E-3</c:v>
+                  <c:v>2.1214990410953774E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3818443771451699E-3</c:v>
+                  <c:v>2.0955292508006075E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.37810162454844E-3</c:v>
+                  <c:v>2.0689600612968199E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.3748645801097198E-3</c:v>
+                  <c:v>2.041755290701985E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3637979067861999E-3</c:v>
+                  <c:v>2.0140225067734701E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3517221454531002E-3</c:v>
+                  <c:v>1.9863531459122875E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3405574504286099E-3</c:v>
+                  <c:v>1.9593862351030097E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3347005955874898E-3</c:v>
+                  <c:v>1.9331811927258975E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3300472423434301E-3</c:v>
+                  <c:v>1.9072594121098525E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3225200604647398E-3</c:v>
+                  <c:v>1.8825931940227726E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3151437528431398E-3</c:v>
+                  <c:v>1.8669262062758228E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3030060585588199E-3</c:v>
+                  <c:v>1.8555552698671797E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2958749216049901E-3</c:v>
+                  <c:v>1.8401373643428073E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2886802218854401E-3</c:v>
+                  <c:v>1.8062548246234648E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2848871778696801E-3</c:v>
+                  <c:v>1.7816427163779749E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2821216154843599E-3</c:v>
+                  <c:v>1.7590460833162076E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.2788882963359399E-3</c:v>
+                  <c:v>1.7375590279698348E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2762323971837798E-3</c:v>
+                  <c:v>1.7168656922876824E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.274105489254E-3</c:v>
+                  <c:v>1.6970157157629721E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.2715781126171398E-3</c:v>
+                  <c:v>1.6782117541879422E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.26960743404925E-3</c:v>
+                  <c:v>1.6602923627942801E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2677173148840701E-3</c:v>
+                  <c:v>1.6436394769698374E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.26554221101105E-3</c:v>
+                  <c:v>1.6317475121468299E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2639687415212401E-3</c:v>
+                  <c:v>1.6259888187050826E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.2621894497424399E-3</c:v>
+                  <c:v>1.6099650412797924E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.26066999696195E-3</c:v>
+                  <c:v>1.5866011148318648E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.2594476360827702E-3</c:v>
+                  <c:v>1.56546051148325E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.2581689301878201E-3</c:v>
+                  <c:v>1.5476828673854449E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.25711793266237E-3</c:v>
+                  <c:v>1.5333409653976575E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2561104744672801E-3</c:v>
+                  <c:v>1.5216717263683675E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.2551663462072598E-3</c:v>
+                  <c:v>1.5121306991204626E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.2543020788580201E-3</c:v>
+                  <c:v>1.503774942830205E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.2534652855247298E-3</c:v>
+                  <c:v>1.4947691466659325E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.2527185976505301E-3</c:v>
+                  <c:v>1.4850208535790449E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.2519982196390598E-3</c:v>
+                  <c:v>1.4752991963177925E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.2513260375708298E-3</c:v>
+                  <c:v>1.4689620351418849E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.2507032155990601E-3</c:v>
+                  <c:v>1.4680151594802723E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.2501004170626402E-3</c:v>
+                  <c:v>1.4749440131708974E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.24953813105822E-3</c:v>
+                  <c:v>1.4864034717902524E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.59822763130069E-3</c:v>
+                  <c:v>1.5931972768157724E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D5F-49E7-99C4-091DC5BE43ED}"/>
             </c:ext>
@@ -822,12 +821,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -836,12 +830,17 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -919,6 +918,9 @@
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -946,6 +948,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1002,6 +1007,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1017,6 +1025,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1032,6 +1043,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1088,6 +1102,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1103,6 +1120,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1118,6 +1138,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1133,6 +1156,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1148,6 +1174,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1163,6 +1192,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1178,6 +1210,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1193,6 +1228,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1208,6 +1246,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1223,6 +1264,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1238,6 +1282,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1253,6 +1300,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1268,6 +1318,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1283,6 +1336,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1298,6 +1354,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1313,6 +1372,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1328,6 +1390,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1343,6 +1408,9 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1358,6 +1426,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1373,6 +1444,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1388,6 +1462,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1403,6 +1480,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1418,6 +1498,9 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1433,6 +1516,9 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1448,6 +1534,9 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1463,6 +1552,9 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1478,6 +1570,9 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1493,6 +1588,9 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1508,6 +1606,9 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1523,6 +1624,9 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1535,95 +1639,755 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="38"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="39"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="40"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="41"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="42"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="43"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="44"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="45"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="46"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="47"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="48"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="49"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Run!$B$3:$B$5</c:f>
+              <c:f>Run!$B$1:$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43024 - 135232</c:v>
+                  <c:v>10108 - 2932</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Run!$A$6:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:multiLvlStrRef>
+              <c:f>Run!$A$4:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$B$6:$B$10</c:f>
+              <c:f>Run!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.2772221380361804</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.51226119048617502</c:v>
-                </c:pt>
+                <c:ptCount val="8"/>
                 <c:pt idx="2">
-                  <c:v>0.33369284981378805</c:v>
+                  <c:v>6.7580254711210722E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10929455532243956</c:v>
+                  <c:v>0.25530025790678335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.673132877796888E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51889725737972181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B19-40FC-8792-B72E388B5F83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run!$C$1:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13468 - 196</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Run!$A$4:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run!$C$4:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="2">
+                  <c:v>6.6199048794805981E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1426734942290932</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7992129400372501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52762532267253848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2993-4210-A146-6E6CD30441FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run!$D$1:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2992 - 11948</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Run!$A$4:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run!$D$4:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.2980411993339664E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16224114974495024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.44884042814374E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43859896069392562</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7469987124204637E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24997914310544733</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4523630216717697E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13761009382084011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2993-4210-A146-6E6CD30441FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run!$E$1:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>584 - 4312</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Run!$A$4:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run!$E$4:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.10348443602211774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10857769584283233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9747606813907602E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12279099874198436</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2993-4210-A146-6E6CD30441FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run!$F$1:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3236 - 2856</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Run!$A$4:$A$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run!$F$4:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2228669207543144E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0613519102334978E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.5816573034971958E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13309023421257735</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9AB-45B0-BD1B-AD807AC9390F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1635,11 +2399,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="-761439488"/>
         <c:axId val="-761438944"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="-761439488"/>
         <c:scaling>
@@ -1755,6 +2518,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1789,19 +2584,20 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -3010,8 +3806,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="THREADID"/>
@@ -3028,7 +3824,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3076,16 +3872,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
+      <xdr:colOff>112057</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>45943</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3104,344 +3900,208 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="PROCESSID 1"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="PROCESSID 1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="12306300" y="581025"/>
-              <a:ext cx="1828800" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="SETID"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="SETID"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3771900" y="2876550"/>
-              <a:ext cx="1828800" cy="2524125"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.037984722221" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="100">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Giacomo Caglioni" refreshedDate="43157.695100925928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="200">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140220" count="179">
-        <n v="43024"/>
-        <n v="140220"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140220" count="183">
+        <n v="584"/>
+        <n v="2992"/>
+        <n v="10108"/>
+        <n v="13468"/>
+        <n v="77464" u="1"/>
+        <n v="36100" u="1"/>
+        <n v="78280" u="1"/>
+        <n v="26432" u="1"/>
+        <n v="2412" u="1"/>
+        <n v="43024" u="1"/>
+        <n v="71240" u="1"/>
+        <n v="81684" u="1"/>
+        <n v="49400" u="1"/>
+        <n v="2192" u="1"/>
+        <n v="69212" u="1"/>
+        <n v="25896" u="1"/>
+        <n v="15344" u="1"/>
+        <n v="30920" u="1"/>
+        <n v="41008" u="1"/>
+        <n v="6648" u="1"/>
+        <n v="84436" u="1"/>
+        <n v="41964" u="1"/>
+        <n v="48340" u="1"/>
+        <n v="65600" u="1"/>
+        <n v="23536" u="1"/>
+        <n v="57572" u="1"/>
+        <n v="33304" u="1"/>
+        <n v="98868" u="1"/>
+        <n v="71336" u="1"/>
+        <n v="62200" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="25652" u="1"/>
+        <n v="58820" u="1"/>
+        <n v="78960" u="1"/>
+        <n v="48108" u="1"/>
+        <n v="78028" u="1"/>
+        <n v="75860" u="1"/>
+        <n v="23216" u="1"/>
+        <n v="76000" u="1"/>
+        <n v="133248" u="1"/>
+        <n v="28712" u="1"/>
+        <n v="59520" u="1"/>
+        <n v="90804" u="1"/>
+        <n v="80640" u="1"/>
+        <n v="32652" u="1"/>
+        <n v="92856" u="1"/>
+        <n v="35660" u="1"/>
+        <n v="80664" u="1"/>
+        <n v="18280" u="1"/>
+        <n v="44892" u="1"/>
+        <n v="68332" u="1"/>
+        <n v="7100" u="1"/>
+        <n v="85840" u="1"/>
+        <n v="76352" u="1"/>
+        <n v="89780" u="1"/>
+        <n v="22628" u="1"/>
+        <n v="76632" u="1"/>
+        <n v="81108" u="1"/>
+        <n v="47620" u="1"/>
+        <n v="49112" u="1"/>
+        <n v="21748" u="1"/>
+        <n v="43552" u="1"/>
+        <n v="34204" u="1"/>
+        <n v="47364" u="1"/>
+        <n v="16120" u="1"/>
+        <n v="77892" u="1"/>
+        <n v="56864" u="1"/>
+        <n v="77776" u="1"/>
+        <n v="22512" u="1"/>
+        <n v="133164" u="1"/>
+        <n v="68172" u="1"/>
+        <n v="91368" u="1"/>
+        <n v="24348" u="1"/>
+        <n v="43192" u="1"/>
+        <n v="21772" u="1"/>
+        <n v="47540" u="1"/>
+        <n v="47272" u="1"/>
+        <n v="15080" u="1"/>
+        <n v="119624" u="1"/>
+        <n v="46736" u="1"/>
+        <n v="90740" u="1"/>
+        <n v="98200" u="1"/>
+        <n v="30736" u="1"/>
+        <n v="69736" u="1"/>
+        <n v="134008" u="1"/>
+        <n v="78152" u="1"/>
+        <n v="59232" u="1"/>
+        <n v="87384" u="1"/>
+        <n v="97828" u="1"/>
+        <n v="5400" u="1"/>
+        <n v="1372" u="1"/>
+        <n v="78992" u="1"/>
+        <n v="120768" u="1"/>
+        <n v="42156" u="1"/>
+        <n v="45140" u="1"/>
+        <n v="77244" u="1"/>
+        <n v="35652" u="1"/>
+        <n v="96524" u="1"/>
+        <n v="17192" u="1"/>
+        <n v="84052" u="1"/>
+        <n v="13364" u="1"/>
+        <n v="43124" u="1"/>
+        <n v="87852" u="1"/>
+        <n v="2800" u="1"/>
+        <n v="59944" u="1"/>
+        <n v="42856" u="1"/>
+        <n v="62252" u="1"/>
+        <n v="48148" u="1"/>
+        <n v="7032" u="1"/>
+        <n v="48964" u="1"/>
+        <n v="2792" u="1"/>
+        <n v="84076" u="1"/>
+        <n v="83400" u="1"/>
+        <n v="33240" u="1"/>
+        <n v="80976" u="1"/>
+        <n v="120584" u="1"/>
+        <n v="73656" u="1"/>
+        <n v="52916" u="1"/>
+        <n v="60516" u="1"/>
+        <n v="50480" u="1"/>
+        <n v="53196" u="1"/>
+        <n v="94568" u="1"/>
+        <n v="54012" u="1"/>
+        <n v="79928" u="1"/>
+        <n v="133364" u="1"/>
+        <n v="39232" u="1"/>
         <n v="42216" u="1"/>
+        <n v="22100" u="1"/>
+        <n v="45748" u="1"/>
+        <n v="66244" u="1"/>
         <n v="82796" u="1"/>
-        <n v="57572" u="1"/>
+        <n v="24204" u="1"/>
+        <n v="58908" u="1"/>
+        <n v="204" u="1"/>
+        <n v="46436" u="1"/>
+        <n v="59188" u="1"/>
+        <n v="140220" u="1"/>
+        <n v="1540" u="1"/>
+        <n v="52544" u="1"/>
+        <n v="80792" u="1"/>
+        <n v="22992" u="1"/>
+        <n v="50516" u="1"/>
+        <n v="78088" u="1"/>
+        <n v="48080" u="1"/>
+        <n v="6888" u="1"/>
+        <n v="40760" u="1"/>
+        <n v="39408" u="1"/>
+        <n v="96972" u="1"/>
+        <n v="123828" u="1"/>
+        <n v="61520" u="1"/>
+        <n v="45516" u="1"/>
+        <n v="31956" u="1"/>
+        <n v="36028" u="1"/>
+        <n v="76784" u="1"/>
+        <n v="80584" u="1"/>
+        <n v="44444" u="1"/>
+        <n v="69744" u="1"/>
+        <n v="20708" u="1"/>
+        <n v="43512" u="1"/>
+        <n v="47720" u="1"/>
+        <n v="86740" u="1"/>
+        <n v="54912" u="1"/>
+        <n v="83896" u="1"/>
         <n v="1932" u="1"/>
-        <n v="7100" u="1"/>
-        <n v="36028" u="1"/>
-        <n v="78088" u="1"/>
-        <n v="84052" u="1"/>
-        <n v="92856" u="1"/>
-        <n v="49112" u="1"/>
-        <n v="120768" u="1"/>
-        <n v="24204" u="1"/>
-        <n v="30736" u="1"/>
-        <n v="44892" u="1"/>
-        <n v="59944" u="1"/>
-        <n v="39232" u="1"/>
-        <n v="43512" u="1"/>
-        <n v="48340" u="1"/>
-        <n v="83400" u="1"/>
-        <n v="16120" u="1"/>
-        <n v="15344" u="1"/>
-        <n v="18280" u="1"/>
-        <n v="43552" u="1"/>
-        <n v="54912" u="1"/>
-        <n v="80640" u="1"/>
-        <n v="58908" u="1"/>
-        <n v="44444" u="1"/>
+        <n v="32516" u="1"/>
+        <n v="96112" u="1"/>
+        <n v="48408" u="1"/>
+        <n v="77532" u="1"/>
+        <n v="39864" u="1"/>
+        <n v="75364" u="1"/>
+        <n v="93268" u="1"/>
+        <n v="5692" u="1"/>
+        <n v="134028" u="1"/>
         <n v="48420" u="1"/>
-        <n v="134028" u="1"/>
-        <n v="32652" u="1"/>
-        <n v="35660" u="1"/>
-        <n v="46736" u="1"/>
-        <n v="59232" u="1"/>
-        <n v="75364" u="1"/>
-        <n v="76784" u="1"/>
-        <n v="15080" u="1"/>
-        <n v="90740" u="1"/>
-        <n v="2792" u="1"/>
-        <n v="21748" u="1"/>
-        <n v="47364" u="1"/>
-        <n v="204" u="1"/>
-        <n v="43124" u="1"/>
-        <n v="6288" u="1"/>
-        <n v="25896" u="1"/>
-        <n v="119624" u="1"/>
-        <n v="73656" u="1"/>
-        <n v="133248" u="1"/>
-        <n v="6648" u="1"/>
-        <n v="5692" u="1"/>
-        <n v="62252" u="1"/>
-        <n v="78280" u="1"/>
-        <n v="25652" u="1"/>
-        <n v="33304" u="1"/>
-        <n v="45516" u="1"/>
-        <n v="98200" u="1"/>
-        <n v="48964" u="1"/>
-        <n v="59188" u="1"/>
-        <n v="133364" u="1"/>
-        <n v="87852" u="1"/>
-        <n v="1540" u="1"/>
-        <n v="61520" u="1"/>
-        <n v="80792" u="1"/>
-        <n v="1372" u="1"/>
-        <n v="17192" u="1"/>
-        <n v="81684" u="1"/>
+        <n v="66576" u="1"/>
+        <n v="133516" u="1"/>
         <n v="20184" u="1"/>
-        <n v="26432" u="1"/>
-        <n v="39408" u="1"/>
-        <n v="41964" u="1"/>
-        <n v="77464" u="1"/>
-        <n v="133844" u="1"/>
-        <n v="42856" u="1"/>
-        <n v="68172" u="1"/>
+        <n v="11232" u="1"/>
         <n v="75272" u="1"/>
         <n v="81520" u="1"/>
-        <n v="84076" u="1"/>
-        <n v="2192" u="1"/>
-        <n v="5400" u="1"/>
-        <n v="22628" u="1"/>
-        <n v="71336" u="1"/>
-        <n v="78152" u="1"/>
-        <n v="33240" u="1"/>
-        <n v="133516" u="1"/>
-        <n v="23216" u="1"/>
-        <n v="36100" u="1"/>
-        <n v="58820" u="1"/>
-        <n v="97828" u="1"/>
-        <n v="54012" u="1"/>
-        <n v="68332" u="1"/>
-        <n v="76000" u="1"/>
-        <n v="22100" u="1"/>
-        <n v="78028" u="1"/>
-        <n v="80584" u="1"/>
-        <n v="52916" u="1"/>
+        <n v="6288" u="1"/>
+        <n v="133844" u="1"/>
         <n v="76648" u="1"/>
-        <n v="41008" u="1"/>
-        <n v="47540" u="1"/>
-        <n v="48108" u="1"/>
-        <n v="78960" u="1"/>
-        <n v="80664" u="1"/>
-        <n v="13364" u="1"/>
-        <n v="22992" u="1"/>
-        <n v="35652" u="1"/>
-        <n v="48148" u="1"/>
-        <n v="84436" u="1"/>
-        <n v="32516" u="1"/>
-        <n v="96972" u="1"/>
-        <n v="47620" u="1"/>
-        <n v="81108" u="1"/>
-        <n v="120584" u="1"/>
-        <n v="50480" u="1"/>
-        <n v="90804" u="1"/>
-        <n v="28712" u="1"/>
-        <n v="96524" u="1"/>
-        <n v="6888" u="1"/>
-        <n v="123828" u="1"/>
-        <n v="47720" u="1"/>
-        <n v="79928" u="1"/>
-        <n v="69744" u="1"/>
-        <n v="91368" u="1"/>
-        <n v="53196" u="1"/>
-        <n v="77776" u="1"/>
-        <n v="77532" u="1"/>
-        <n v="20708" u="1"/>
-        <n v="47272" u="1"/>
-        <n v="48408" u="1"/>
-        <n v="78992" u="1"/>
-        <n v="40760" u="1"/>
-        <n v="66576" u="1"/>
-        <n v="86740" u="1"/>
-        <n v="96112" u="1"/>
-        <n v="31956" u="1"/>
-        <n v="69212" u="1"/>
-        <n v="133164" u="1"/>
-        <n v="71240" u="1"/>
-        <n v="76352" u="1"/>
-        <n v="50516" u="1"/>
-        <n v="65600" u="1"/>
-        <n v="77244" u="1"/>
-        <n v="94568" u="1"/>
-        <n v="7032" u="1"/>
-        <n v="21772" u="1"/>
-        <n v="45140" u="1"/>
-        <n v="49400" u="1"/>
-        <n v="80976" u="1"/>
-        <n v="89780" u="1"/>
-        <n v="98868" u="1"/>
-        <n v="52544" u="1"/>
-        <n v="62200" u="1"/>
-        <n v="77892" u="1"/>
-        <n v="24348" u="1"/>
-        <n v="43192" u="1"/>
-        <n v="45748" u="1"/>
-        <n v="60516" u="1"/>
-        <n v="83896" u="1"/>
-        <n v="93268" u="1"/>
-        <n v="22512" u="1"/>
-        <n v="69736" u="1"/>
-        <n v="78540" u="1"/>
-        <n v="2800" u="1"/>
-        <n v="56864" u="1"/>
-        <n v="87384" u="1"/>
-        <n v="134008" u="1"/>
-        <n v="48080" u="1"/>
-        <n v="76632" u="1"/>
-        <n v="2412" u="1"/>
-        <n v="23536" u="1"/>
-        <n v="30920" u="1"/>
-        <n v="39864" u="1"/>
-        <n v="11232" u="1"/>
-        <n v="34204" u="1"/>
-        <n v="42156" u="1"/>
-        <n v="75860" u="1"/>
-        <n v="46436" u="1"/>
-        <n v="66244" u="1"/>
-        <n v="85840" u="1"/>
-        <n v="59520" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="135232" maxValue="139356" count="2">
-        <n v="135232"/>
-        <n v="139356"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="6">
+        <n v="4312"/>
+        <n v="11948"/>
+        <n v="2932"/>
+        <n v="196"/>
+        <n v="139356" u="1"/>
+        <n v="135232" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="EPOCH" numFmtId="0" sqlType="6">
@@ -4046,7 +4706,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="MSE_T" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.24953813105822E-3" maxValue="2.9612287878990201E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3520760461688E-2" maxValue="3.7795584648847601E-2"/>
     </cacheField>
     <cacheField name="MSE_V" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
@@ -4063,14 +4723,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.040165740742" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="485920">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Giacomo Caglioni" refreshedDate="43157.717955208333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9600">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="15">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="181">
-        <n v="43024"/>
-        <n v="140220"/>
-        <n v="140228"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="186">
+        <n v="584"/>
+        <n v="2992"/>
+        <n v="3236"/>
+        <n v="10108"/>
+        <n v="13468"/>
         <n v="82796" u="1"/>
         <n v="57572" u="1"/>
         <n v="134852" u="1"/>
@@ -4099,6 +4761,7 @@
         <n v="80640" u="1"/>
         <n v="58908" u="1"/>
         <n v="138208" u="1"/>
+        <n v="43024" u="1"/>
         <n v="44444" u="1"/>
         <n v="48420" u="1"/>
         <n v="137152" u="1"/>
@@ -4204,6 +4867,7 @@
         <n v="47272" u="1"/>
         <n v="48408" u="1"/>
         <n v="137388" u="1"/>
+        <n v="140228" u="1"/>
         <n v="40760" u="1"/>
         <n v="66576" u="1"/>
         <n v="134708" u="1"/>
@@ -4222,6 +4886,7 @@
         <n v="45140" u="1"/>
         <n v="49400" u="1"/>
         <n v="89780" u="1"/>
+        <n v="140220" u="1"/>
         <n v="62200" u="1"/>
         <n v="77892" u="1"/>
         <n v="24348" u="1"/>
@@ -4252,47 +4917,56 @@
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="54988" maxValue="139660" count="7">
-        <n v="135232"/>
-        <n v="139356"/>
-        <n v="137012"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139660" count="12">
+        <n v="4312"/>
+        <n v="11948"/>
+        <n v="2856"/>
+        <n v="2932"/>
+        <n v="196"/>
         <n v="54988" u="1"/>
+        <n v="137012" u="1"/>
+        <n v="139356" u="1"/>
         <n v="137352" u="1"/>
         <n v="139660" u="1"/>
+        <n v="135232" u="1"/>
         <n v="138304" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="SETID" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
         <n v="1"/>
-        <n v="0"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETPROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="140228" count="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13468" count="6">
+        <n v="584"/>
         <n v="0"/>
-        <n v="43024"/>
-        <n v="140220"/>
-        <n v="140228"/>
+        <n v="2992"/>
+        <n v="3236"/>
+        <n v="10108"/>
+        <n v="13468"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETTHREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="139356" count="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11948" count="6">
+        <n v="4312"/>
         <n v="0"/>
-        <n v="135232"/>
-        <n v="139356"/>
-        <n v="137012"/>
+        <n v="11948"/>
+        <n v="2856"/>
+        <n v="2932"/>
+        <n v="196"/>
       </sharedItems>
     </cacheField>
     <cacheField name="POS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="59799"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="399"/>
     </cacheField>
     <cacheField name="FEATUREID" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
         <n v="0"/>
+        <n v="3"/>
         <n v="1"/>
         <n v="2"/>
-        <n v="3"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ACTUAL" numFmtId="0" sqlType="6">
@@ -4314,10 +4988,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.00000011920929" maxValue="1"/>
     </cacheField>
     <cacheField name="PREDICTEDTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.98163783550262496" maxValue="0.81332200765609697"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.82484936714172397" maxValue="0.831606864929199"/>
     </cacheField>
     <cacheField name="ERRORTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.2351741790771501E-8" maxValue="1.8223857879638701"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5001506805419896E-6" maxValue="1.2067182064056401"/>
     </cacheField>
     <cacheField name="BARWIDTH" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -4339,197 +5013,205 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="180">
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="78"/>
-        <item h="1" m="1" x="167"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="161"/>
-        <item h="1" m="1" x="79"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="116"/>
-        <item h="1" m="1" x="142"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="171"/>
-        <item h="1" m="1" x="102"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="125"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="143"/>
-        <item h="1" m="1" x="92"/>
-        <item h="1" m="1" x="158"/>
-        <item h="1" m="1" x="80"/>
-        <item h="1" m="1" x="103"/>
-        <item h="1" m="1" x="85"/>
-        <item h="1" m="1" x="168"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="152"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="114"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="169"/>
-        <item h="1" m="1" x="133"/>
-        <item h="1" m="1" x="107"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="83"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="172"/>
-        <item h="1" m="1" x="104"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="86"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="170"/>
-        <item h="1" m="1" x="129"/>
-        <item h="1" m="1" x="97"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="173"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="73"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="153"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="144"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="154"/>
-        <item h="1" m="1" x="175"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="126"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="98"/>
-        <item h="1" m="1" x="109"/>
-        <item h="1" m="1" x="118"/>
-        <item h="1" m="1" x="165"/>
-        <item h="1" m="1" x="99"/>
-        <item h="1" m="1" x="105"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="127"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="145"/>
-        <item h="1" m="1" x="112"/>
-        <item h="1" m="1" x="138"/>
-        <item h="1" m="1" x="149"/>
-        <item h="1" m="1" x="95"/>
-        <item h="1" m="1" x="122"/>
-        <item h="1" m="1" x="89"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="162"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="87"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="178"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="155"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="150"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="139"/>
-        <item h="1" m="1" x="176"/>
-        <item h="1" m="1" x="130"/>
-        <item h="1" m="1" x="74"/>
-        <item h="1" m="1" x="90"/>
-        <item h="1" m="1" x="134"/>
-        <item h="1" m="1" x="159"/>
-        <item h="1" m="1" x="120"/>
-        <item h="1" m="1" x="136"/>
-        <item h="1" m="1" x="81"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="75"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="174"/>
-        <item h="1" m="1" x="91"/>
-        <item h="1" m="1" x="137"/>
-        <item h="1" m="1" x="166"/>
-        <item h="1" m="1" x="96"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="140"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="124"/>
-        <item h="1" m="1" x="123"/>
-        <item h="1" m="1" x="151"/>
-        <item h="1" m="1" x="93"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="82"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="160"/>
-        <item h="1" m="1" x="100"/>
-        <item h="1" m="1" x="128"/>
-        <item h="1" m="1" x="119"/>
-        <item h="1" m="1" x="94"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="101"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="146"/>
-        <item h="1" m="1" x="110"/>
-        <item h="1" m="1" x="76"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="156"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="77"/>
-        <item h="1" m="1" x="106"/>
-        <item h="1" m="1" x="177"/>
-        <item h="1" m="1" x="131"/>
-        <item h="1" m="1" x="163"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="147"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="113"/>
-        <item h="1" m="1" x="121"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="157"/>
-        <item h="1" m="1" x="141"/>
-        <item h="1" m="1" x="132"/>
-        <item h="1" m="1" x="115"/>
-        <item h="1" m="1" x="108"/>
-        <item h="1" m="1" x="88"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="148"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="111"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="117"/>
-        <item h="1" m="1" x="135"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="84"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="164"/>
-        <item h="1" m="1" x="30"/>
+      <items count="184">
+        <item m="1" x="133"/>
+        <item x="0"/>
+        <item m="1" x="90"/>
+        <item m="1" x="137"/>
+        <item m="1" x="163"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="110"/>
+        <item m="1" x="103"/>
         <item x="1"/>
+        <item m="1" x="89"/>
+        <item m="1" x="171"/>
+        <item m="1" x="180"/>
+        <item m="1" x="19"/>
+        <item m="1" x="144"/>
+        <item m="1" x="108"/>
+        <item m="1" x="51"/>
+        <item x="2"/>
+        <item m="1" x="177"/>
+        <item m="1" x="100"/>
+        <item x="3"/>
+        <item m="1" x="77"/>
+        <item m="1" x="16"/>
+        <item m="1" x="64"/>
+        <item m="1" x="98"/>
+        <item m="1" x="48"/>
+        <item m="1" x="176"/>
+        <item m="1" x="157"/>
+        <item m="1" x="60"/>
+        <item m="1" x="74"/>
+        <item m="1" x="127"/>
+        <item m="1" x="68"/>
+        <item m="1" x="55"/>
+        <item m="1" x="140"/>
+        <item m="1" x="37"/>
+        <item m="1" x="24"/>
+        <item m="1" x="131"/>
+        <item m="1" x="72"/>
+        <item m="1" x="31"/>
+        <item m="1" x="15"/>
+        <item m="1" x="7"/>
+        <item m="1" x="40"/>
+        <item m="1" x="82"/>
+        <item m="1" x="17"/>
+        <item m="1" x="151"/>
+        <item m="1" x="164"/>
+        <item m="1" x="44"/>
+        <item m="1" x="113"/>
+        <item m="1" x="26"/>
+        <item m="1" x="62"/>
+        <item m="1" x="96"/>
+        <item m="1" x="46"/>
+        <item m="1" x="152"/>
+        <item m="1" x="5"/>
+        <item m="1" x="125"/>
+        <item m="1" x="146"/>
+        <item m="1" x="168"/>
+        <item m="1" x="145"/>
+        <item m="1" x="18"/>
+        <item m="1" x="21"/>
+        <item m="1" x="93"/>
+        <item m="1" x="126"/>
+        <item m="1" x="105"/>
+        <item m="1" x="9"/>
+        <item m="1" x="101"/>
+        <item m="1" x="73"/>
+        <item m="1" x="158"/>
+        <item m="1" x="61"/>
+        <item m="1" x="155"/>
+        <item m="1" x="49"/>
+        <item m="1" x="94"/>
+        <item m="1" x="150"/>
+        <item m="1" x="128"/>
+        <item m="1" x="134"/>
+        <item m="1" x="79"/>
+        <item m="1" x="76"/>
+        <item m="1" x="63"/>
+        <item m="1" x="75"/>
+        <item m="1" x="58"/>
+        <item m="1" x="159"/>
+        <item m="1" x="143"/>
+        <item m="1" x="34"/>
+        <item m="1" x="107"/>
+        <item m="1" x="22"/>
+        <item m="1" x="166"/>
+        <item m="1" x="173"/>
+        <item m="1" x="109"/>
+        <item m="1" x="59"/>
+        <item m="1" x="12"/>
+        <item m="1" x="119"/>
+        <item m="1" x="141"/>
+        <item m="1" x="138"/>
+        <item m="1" x="117"/>
+        <item m="1" x="120"/>
+        <item m="1" x="122"/>
+        <item m="1" x="161"/>
+        <item m="1" x="66"/>
+        <item m="1" x="25"/>
+        <item m="1" x="32"/>
+        <item m="1" x="132"/>
+        <item m="1" x="135"/>
+        <item m="1" x="86"/>
+        <item m="1" x="41"/>
+        <item m="1" x="104"/>
+        <item m="1" x="118"/>
+        <item m="1" x="149"/>
+        <item m="1" x="29"/>
+        <item m="1" x="106"/>
+        <item m="1" x="23"/>
+        <item m="1" x="129"/>
+        <item m="1" x="174"/>
+        <item m="1" x="70"/>
+        <item m="1" x="50"/>
+        <item m="1" x="14"/>
+        <item m="1" x="83"/>
+        <item m="1" x="156"/>
+        <item m="1" x="10"/>
+        <item m="1" x="28"/>
+        <item m="1" x="116"/>
+        <item m="1" x="178"/>
+        <item m="1" x="169"/>
+        <item m="1" x="36"/>
+        <item m="1" x="38"/>
+        <item m="1" x="53"/>
+        <item m="1" x="56"/>
+        <item m="1" x="182"/>
+        <item m="1" x="153"/>
+        <item m="1" x="95"/>
+        <item m="1" x="4"/>
+        <item m="1" x="167"/>
+        <item m="1" x="67"/>
+        <item m="1" x="65"/>
+        <item m="1" x="35"/>
+        <item m="1" x="142"/>
+        <item m="1" x="85"/>
+        <item m="1" x="6"/>
+        <item m="1" x="30"/>
+        <item m="1" x="33"/>
+        <item m="1" x="91"/>
+        <item m="1" x="123"/>
+        <item m="1" x="154"/>
+        <item m="1" x="43"/>
+        <item m="1" x="47"/>
+        <item m="1" x="139"/>
+        <item m="1" x="114"/>
+        <item m="1" x="57"/>
+        <item m="1" x="179"/>
+        <item m="1" x="11"/>
+        <item m="1" x="130"/>
+        <item m="1" x="112"/>
+        <item m="1" x="162"/>
+        <item m="1" x="99"/>
+        <item m="1" x="111"/>
+        <item m="1" x="20"/>
+        <item m="1" x="52"/>
+        <item m="1" x="160"/>
+        <item m="1" x="87"/>
+        <item m="1" x="102"/>
+        <item m="1" x="54"/>
+        <item m="1" x="80"/>
+        <item m="1" x="42"/>
+        <item m="1" x="71"/>
+        <item m="1" x="45"/>
+        <item m="1" x="170"/>
+        <item m="1" x="121"/>
+        <item m="1" x="165"/>
+        <item m="1" x="97"/>
+        <item m="1" x="147"/>
+        <item m="1" x="88"/>
+        <item m="1" x="81"/>
+        <item m="1" x="27"/>
+        <item m="1" x="78"/>
+        <item m="1" x="115"/>
+        <item m="1" x="92"/>
+        <item m="1" x="148"/>
+        <item m="1" x="69"/>
+        <item m="1" x="39"/>
+        <item m="1" x="124"/>
+        <item m="1" x="175"/>
+        <item m="1" x="181"/>
+        <item m="1" x="84"/>
+        <item m="1" x="172"/>
+        <item m="1" x="136"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="7">
+        <item x="3"/>
+        <item x="2"/>
         <item x="0"/>
         <item x="1"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5323,210 +6005,219 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
-  <location ref="A3:C10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+  <location ref="A1:F16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="181">
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="84"/>
-        <item h="1" m="1" x="170"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="122"/>
-        <item h="1" m="1" x="150"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="132"/>
-        <item h="1" m="1" x="96"/>
-        <item h="1" m="1" x="162"/>
-        <item h="1" m="1" x="85"/>
-        <item h="1" m="1" x="88"/>
-        <item h="1" m="1" x="171"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="148"/>
-        <item h="1" m="1" x="130"/>
-        <item h="1" m="1" x="86"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="166"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="174"/>
-        <item h="1" m="1" x="109"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="75"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="110"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="156"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="76"/>
-        <item h="1" m="1" x="121"/>
-        <item h="1" m="1" x="172"/>
-        <item h="1" m="1" x="139"/>
-        <item h="1" m="1" x="114"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="111"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="89"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="77"/>
-        <item h="1" m="1" x="173"/>
-        <item h="1" m="1" x="136"/>
-        <item h="1" m="1" x="78"/>
-        <item h="1" m="1" x="175"/>
-        <item h="1" m="1" x="79"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="157"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="151"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="178"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="133"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="103"/>
-        <item h="1" m="1" x="116"/>
-        <item h="1" m="1" x="125"/>
-        <item h="1" m="1" x="168"/>
-        <item h="1" m="1" x="104"/>
-        <item h="1" m="1" x="112"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="134"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="152"/>
-        <item h="1" m="1" x="120"/>
-        <item h="1" m="1" x="146"/>
-        <item h="1" m="1" x="101"/>
-        <item h="1" m="1" x="129"/>
-        <item h="1" m="1" x="94"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="167"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="90"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="179"/>
-        <item h="1" m="1" x="158"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="154"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="147"/>
-        <item h="1" m="1" x="137"/>
-        <item h="1" m="1" x="80"/>
-        <item h="1" m="1" x="95"/>
-        <item h="1" m="1" x="140"/>
-        <item h="1" m="1" x="163"/>
-        <item h="1" m="1" x="127"/>
-        <item h="1" m="1" x="141"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="81"/>
-        <item h="1" m="1" x="176"/>
-        <item h="1" m="1" x="142"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="155"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="164"/>
-        <item h="1" m="1" x="126"/>
-        <item h="1" m="1" x="99"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="106"/>
-        <item h="1" m="1" x="82"/>
-        <item h="1" m="1" x="73"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="83"/>
-        <item h="1" m="1" x="113"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="153"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="159"/>
-        <item h="1" m="1" x="149"/>
-        <item h="1" m="1" x="115"/>
-        <item h="1" m="1" x="91"/>
-        <item h="1" m="1" x="177"/>
-        <item h="1" m="1" x="138"/>
-        <item h="1" m="1" x="131"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="144"/>
-        <item h="1" m="1" x="74"/>
-        <item h="1" m="1" x="123"/>
-        <item h="1" m="1" x="118"/>
-        <item h="1" m="1" x="97"/>
-        <item h="1" m="1" x="92"/>
-        <item h="1" m="1" x="160"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="124"/>
-        <item h="1" m="1" x="145"/>
-        <item h="1" m="1" x="119"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="165"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="87"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="169"/>
-        <item h="1" m="1" x="180"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="102"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="93"/>
-        <item h="1" m="1" x="107"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="161"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="143"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="135"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="105"/>
-        <item h="1" m="1" x="98"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="108"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="128"/>
-        <item h="1" m="1" x="100"/>
-        <item h="1" m="1" x="117"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="40"/>
+      <items count="186">
+        <item m="1" x="8"/>
+        <item m="1" x="87"/>
+        <item m="1" x="175"/>
+        <item m="1" x="54"/>
+        <item m="1" x="125"/>
+        <item m="1" x="154"/>
+        <item m="1" x="75"/>
+        <item m="1" x="135"/>
+        <item m="1" x="99"/>
+        <item m="1" x="167"/>
+        <item m="1" x="88"/>
+        <item m="1" x="91"/>
+        <item m="1" x="176"/>
+        <item m="1" x="65"/>
+        <item m="1" x="152"/>
+        <item m="1" x="133"/>
+        <item m="1" x="89"/>
+        <item m="1" x="49"/>
+        <item m="1" x="74"/>
+        <item m="1" x="69"/>
+        <item m="1" x="45"/>
+        <item m="1" x="171"/>
+        <item m="1" x="59"/>
+        <item m="1" x="58"/>
+        <item m="1" x="10"/>
+        <item m="1" x="179"/>
+        <item m="1" x="112"/>
+        <item m="1" x="44"/>
+        <item m="1" x="26"/>
+        <item m="1" x="27"/>
+        <item m="1" x="78"/>
+        <item m="1" x="46"/>
+        <item m="1" x="113"/>
+        <item m="1" x="16"/>
+        <item m="1" x="161"/>
+        <item m="1" x="62"/>
+        <item m="1" x="55"/>
+        <item m="1" x="79"/>
+        <item m="1" x="124"/>
+        <item m="1" x="177"/>
+        <item m="1" x="143"/>
+        <item m="1" x="117"/>
+        <item m="1" x="38"/>
+        <item m="1" x="63"/>
+        <item m="1" x="114"/>
+        <item m="1" x="39"/>
+        <item m="1" x="11"/>
+        <item m="1" x="92"/>
+        <item m="1" x="19"/>
+        <item m="1" x="80"/>
+        <item m="1" x="178"/>
+        <item m="1" x="140"/>
+        <item m="1" x="81"/>
+        <item m="1" x="180"/>
+        <item m="1" x="82"/>
+        <item m="1" x="50"/>
+        <item m="1" x="162"/>
+        <item m="1" x="21"/>
+        <item m="1" x="28"/>
+        <item m="1" x="34"/>
+        <item m="1" x="17"/>
+        <item m="1" x="155"/>
+        <item m="1" x="64"/>
+        <item m="1" x="183"/>
+        <item m="1" x="40"/>
+        <item m="1" x="136"/>
+        <item m="1" x="47"/>
+        <item m="1" x="106"/>
+        <item m="1" x="119"/>
+        <item m="1" x="128"/>
+        <item m="1" x="173"/>
+        <item m="1" x="107"/>
+        <item m="1" x="115"/>
+        <item m="1" x="22"/>
+        <item m="1" x="137"/>
+        <item m="1" x="35"/>
+        <item m="1" x="156"/>
+        <item m="1" x="123"/>
+        <item m="1" x="150"/>
+        <item m="1" x="104"/>
+        <item m="1" x="132"/>
+        <item m="1" x="97"/>
+        <item m="1" x="29"/>
+        <item m="1" x="172"/>
+        <item m="1" x="6"/>
+        <item m="1" x="93"/>
+        <item m="1" x="31"/>
+        <item m="1" x="41"/>
+        <item m="1" x="184"/>
+        <item m="1" x="163"/>
+        <item m="1" x="70"/>
+        <item m="1" x="159"/>
+        <item m="1" x="60"/>
+        <item m="1" x="151"/>
+        <item m="1" x="141"/>
+        <item m="1" x="83"/>
+        <item m="1" x="98"/>
+        <item m="1" x="144"/>
+        <item m="1" x="168"/>
+        <item m="1" x="130"/>
+        <item m="1" x="145"/>
+        <item m="1" x="56"/>
+        <item m="1" x="84"/>
+        <item m="1" x="181"/>
+        <item m="1" x="146"/>
+        <item m="1" x="42"/>
+        <item m="1" x="160"/>
+        <item m="1" x="61"/>
+        <item m="1" x="169"/>
+        <item m="1" x="129"/>
+        <item m="1" x="102"/>
+        <item m="1" x="30"/>
+        <item m="1" x="109"/>
+        <item m="1" x="85"/>
+        <item m="1" x="76"/>
+        <item m="1" x="5"/>
+        <item m="1" x="23"/>
+        <item m="1" x="12"/>
+        <item m="1" x="86"/>
+        <item m="1" x="116"/>
+        <item m="1" x="68"/>
+        <item m="1" x="157"/>
+        <item m="1" x="13"/>
+        <item m="1" x="164"/>
+        <item m="1" x="153"/>
+        <item m="1" x="118"/>
+        <item m="1" x="94"/>
+        <item m="1" x="182"/>
+        <item m="1" x="142"/>
+        <item m="1" x="134"/>
+        <item m="1" x="37"/>
+        <item m="1" x="148"/>
+        <item m="1" x="77"/>
+        <item m="1" x="126"/>
+        <item m="1" x="121"/>
+        <item m="1" x="100"/>
+        <item m="1" x="95"/>
+        <item m="1" x="165"/>
+        <item m="1" x="67"/>
+        <item m="1" x="127"/>
+        <item m="1" x="149"/>
+        <item m="1" x="122"/>
+        <item m="1" x="66"/>
+        <item m="1" x="170"/>
+        <item m="1" x="20"/>
+        <item m="1" x="71"/>
+        <item m="1" x="72"/>
+        <item m="1" x="90"/>
+        <item m="1" x="36"/>
+        <item m="1" x="174"/>
+        <item m="1" x="185"/>
+        <item m="1" x="15"/>
+        <item m="1" x="105"/>
+        <item m="1" x="25"/>
+        <item m="1" x="96"/>
+        <item m="1" x="110"/>
+        <item m="1" x="14"/>
+        <item m="1" x="166"/>
+        <item m="1" x="53"/>
+        <item m="1" x="73"/>
+        <item m="1" x="24"/>
+        <item m="1" x="147"/>
+        <item m="1" x="7"/>
+        <item m="1" x="138"/>
+        <item m="1" x="48"/>
+        <item m="1" x="32"/>
+        <item m="1" x="18"/>
+        <item m="1" x="51"/>
+        <item m="1" x="108"/>
+        <item m="1" x="101"/>
+        <item m="1" x="52"/>
+        <item m="1" x="111"/>
+        <item m="1" x="57"/>
+        <item m="1" x="131"/>
+        <item m="1" x="103"/>
+        <item m="1" x="120"/>
+        <item m="1" x="9"/>
+        <item m="1" x="43"/>
+        <item m="1" x="33"/>
+        <item m="1" x="158"/>
+        <item m="1" x="139"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
         <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="8">
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item m="1" x="11"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="7"/>
         <item m="1" x="6"/>
-        <item m="1" x="5"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item h="1" x="1"/>
-        <item x="0"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
@@ -5535,9 +6226,9 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
-        <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5550,21 +6241,46 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="6"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i>
       <x v="2"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -5574,501 +6290,256 @@
     <field x="0"/>
     <field x="1"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="5">
     <i>
-      <x v="178"/>
-      <x v="4"/>
+      <x v="181"/>
+      <x v="7"/>
     </i>
-    <i t="grand">
-      <x/>
+    <i>
+      <x v="182"/>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="183"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="184"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="185"/>
+      <x v="11"/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Average of ERRORTRS" fld="12" subtotal="average" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="35">
-    <chartFormat chart="0" format="0" series="1">
+  <chartFormats count="14">
+    <chartFormat chart="0" format="36" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
+        <references count="4">
           <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="181"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
             <x v="0"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="37" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="4">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
+          <reference field="0" count="1" selected="0">
+            <x v="182"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="38" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="183"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="39" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="184"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="40" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="183"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
             <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="41" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="4">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
+          <reference field="0" count="1" selected="0">
+            <x v="184"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
+    <chartFormat chart="0" format="42" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="4">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
+          <reference field="0" count="1" selected="0">
+            <x v="181"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
+    <chartFormat chart="0" format="43" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
+        <references count="4">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
+          <reference field="0" count="1" selected="0">
+            <x v="182"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="5" series="1">
+    <chartFormat chart="0" format="44" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="157"/>
+            <x v="184"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
+    <chartFormat chart="0" format="45" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="158"/>
+            <x v="181"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
+    <chartFormat chart="0" format="46" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="151"/>
+            <x v="182"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
+    <chartFormat chart="0" format="47" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="152"/>
+            <x v="183"/>
           </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="154"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="10" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="155"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="157"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="158"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="159"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="149"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="15" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="150"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="154"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="17" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="155"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="18" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="156"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="19" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="158"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="20" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="159"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="21" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="149"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="22" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="152"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="23" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="153"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="24" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="155"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="25" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="156"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="26" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="157"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="27" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="159"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="28" series="1">
+    <chartFormat chart="0" format="48" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="166"/>
+            <x v="184"/>
           </reference>
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="29" series="1">
+    <chartFormat chart="0" format="49" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
           </reference>
           <reference field="0" count="1" selected="0">
-            <x v="168"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="30" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="169"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="31" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="170"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="32" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="171"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="33" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="172"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="34" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="173"/>
+            <x v="185"/>
           </reference>
         </references>
       </pivotArea>
@@ -6108,186 +6579,190 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="179">
-        <i x="0"/>
+      <items count="183">
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="42" nd="1"/>
-        <i x="64" nd="1"/>
-        <i x="61" nd="1"/>
-        <i x="5" nd="1"/>
-        <i x="78" nd="1"/>
-        <i x="167" nd="1"/>
-        <i x="39" nd="1"/>
-        <i x="161" nd="1"/>
-        <i x="79" nd="1"/>
-        <i x="50" nd="1"/>
-        <i x="44" nd="1"/>
-        <i x="49" nd="1"/>
-        <i x="116" nd="1"/>
-        <i x="142" nd="1"/>
-        <i x="6" nd="1"/>
-        <i x="171" nd="1"/>
-        <i x="102" nd="1"/>
-        <i x="37" nd="1"/>
-        <i x="22" nd="1"/>
-        <i x="21" nd="1"/>
-        <i x="65" nd="1"/>
-        <i x="23" nd="1"/>
-        <i x="67" nd="1"/>
-        <i x="125" nd="1"/>
-        <i x="40" nd="1"/>
-        <i x="143" nd="1"/>
-        <i x="92" nd="1"/>
-        <i x="158" nd="1"/>
-        <i x="80" nd="1"/>
-        <i x="103" nd="1"/>
-        <i x="85" nd="1"/>
-        <i x="168" nd="1"/>
-        <i x="13" nd="1"/>
-        <i x="152" nd="1"/>
-        <i x="53" nd="1"/>
-        <i x="45" nd="1"/>
-        <i x="68" nd="1"/>
-        <i x="114" nd="1"/>
-        <i x="14" nd="1"/>
-        <i x="169" nd="1"/>
-        <i x="133" nd="1"/>
-        <i x="107" nd="1"/>
-        <i x="31" nd="1"/>
-        <i x="83" nd="1"/>
-        <i x="54" nd="1"/>
-        <i x="172" nd="1"/>
-        <i x="104" nd="1"/>
-        <i x="32" nd="1"/>
-        <i x="7" nd="1"/>
-        <i x="86" nd="1"/>
-        <i x="17" nd="1"/>
-        <i x="69" nd="1"/>
-        <i x="170" nd="1"/>
-        <i x="129" nd="1"/>
-        <i x="97" nd="1"/>
-        <i x="70" nd="1"/>
-        <i x="173" nd="1"/>
-        <i x="2" nd="1"/>
-        <i x="73" nd="1"/>
-        <i x="43" nd="1"/>
-        <i x="153" nd="1"/>
-        <i x="18" nd="1"/>
-        <i x="24" nd="1"/>
-        <i x="28" nd="1"/>
-        <i x="15" nd="1"/>
-        <i x="144" nd="1"/>
-        <i x="55" nd="1"/>
-        <i x="154" nd="1"/>
-        <i x="175" nd="1"/>
-        <i x="33" nd="1"/>
-        <i x="126" nd="1"/>
-        <i x="41" nd="1"/>
-        <i x="98" nd="1"/>
-        <i x="109" nd="1"/>
-        <i x="118" nd="1"/>
-        <i x="165" nd="1"/>
-        <i x="99" nd="1"/>
-        <i x="105" nd="1"/>
-        <i x="19" nd="1"/>
-        <i x="127" nd="1"/>
-        <i x="29" nd="1"/>
-        <i x="57" nd="1"/>
-        <i x="11" nd="1"/>
-        <i x="145" nd="1"/>
-        <i x="112" nd="1"/>
-        <i x="138" nd="1"/>
-        <i x="149" nd="1"/>
-        <i x="95" nd="1"/>
-        <i x="122" nd="1"/>
-        <i x="89" nd="1"/>
-        <i x="25" nd="1"/>
-        <i x="162" nd="1"/>
-        <i x="4" nd="1"/>
-        <i x="87" nd="1"/>
-        <i x="27" nd="1"/>
-        <i x="58" nd="1"/>
-        <i x="34" nd="1"/>
-        <i x="178" nd="1"/>
-        <i x="16" nd="1"/>
-        <i x="155" nd="1"/>
-        <i x="62" nd="1"/>
-        <i x="150" nd="1"/>
-        <i x="51" nd="1"/>
-        <i x="139" nd="1"/>
-        <i x="176" nd="1"/>
-        <i x="130" nd="1"/>
-        <i x="74" nd="1"/>
-        <i x="90" nd="1"/>
-        <i x="134" nd="1"/>
-        <i x="159" nd="1"/>
-        <i x="120" nd="1"/>
-        <i x="136" nd="1"/>
-        <i x="81" nd="1"/>
-        <i x="47" nd="1"/>
-        <i x="75" nd="1"/>
-        <i x="35" nd="1"/>
-        <i x="174" nd="1"/>
-        <i x="91" nd="1"/>
-        <i x="137" nd="1"/>
-        <i x="166" nd="1"/>
-        <i x="96" nd="1"/>
-        <i x="36" nd="1"/>
-        <i x="140" nd="1"/>
-        <i x="71" nd="1"/>
-        <i x="124" nd="1"/>
-        <i x="123" nd="1"/>
-        <i x="151" nd="1"/>
-        <i x="93" nd="1"/>
-        <i x="8" nd="1"/>
-        <i x="82" nd="1"/>
-        <i x="52" nd="1"/>
-        <i x="160" nd="1"/>
-        <i x="100" nd="1"/>
-        <i x="128" nd="1"/>
-        <i x="119" nd="1"/>
-        <i x="94" nd="1"/>
-        <i x="26" nd="1"/>
-        <i x="101" nd="1"/>
-        <i x="63" nd="1"/>
-        <i x="146" nd="1"/>
-        <i x="110" nd="1"/>
-        <i x="76" nd="1"/>
-        <i x="66" nd="1"/>
-        <i x="3" nd="1"/>
-        <i x="20" nd="1"/>
-        <i x="156" nd="1"/>
-        <i x="9" nd="1"/>
-        <i x="77" nd="1"/>
-        <i x="106" nd="1"/>
-        <i x="177" nd="1"/>
-        <i x="131" nd="1"/>
-        <i x="163" nd="1"/>
-        <i x="60" nd="1"/>
-        <i x="147" nd="1"/>
-        <i x="38" nd="1"/>
-        <i x="113" nd="1"/>
-        <i x="121" nd="1"/>
-        <i x="10" nd="1"/>
-        <i x="157" nd="1"/>
-        <i x="141" nd="1"/>
-        <i x="132" nd="1"/>
-        <i x="115" nd="1"/>
-        <i x="108" nd="1"/>
-        <i x="88" nd="1"/>
-        <i x="56" nd="1"/>
-        <i x="148" nd="1"/>
-        <i x="46" nd="1"/>
-        <i x="111" nd="1"/>
-        <i x="12" nd="1"/>
-        <i x="117" nd="1"/>
-        <i x="135" nd="1"/>
-        <i x="48" nd="1"/>
-        <i x="59" nd="1"/>
-        <i x="84" nd="1"/>
-        <i x="72" nd="1"/>
-        <i x="164" nd="1"/>
-        <i x="30" nd="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="133" s="1" nd="1"/>
+        <i x="90" s="1" nd="1"/>
+        <i x="137" s="1" nd="1"/>
+        <i x="163" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="110" s="1" nd="1"/>
+        <i x="103" s="1" nd="1"/>
+        <i x="89" s="1" nd="1"/>
+        <i x="171" s="1" nd="1"/>
+        <i x="180" s="1" nd="1"/>
+        <i x="19" s="1" nd="1"/>
+        <i x="144" s="1" nd="1"/>
+        <i x="108" s="1" nd="1"/>
+        <i x="51" s="1" nd="1"/>
+        <i x="177" s="1" nd="1"/>
+        <i x="100" s="1" nd="1"/>
+        <i x="77" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="64" s="1" nd="1"/>
+        <i x="98" s="1" nd="1"/>
+        <i x="48" s="1" nd="1"/>
+        <i x="176" s="1" nd="1"/>
+        <i x="157" s="1" nd="1"/>
+        <i x="60" s="1" nd="1"/>
+        <i x="74" s="1" nd="1"/>
+        <i x="127" s="1" nd="1"/>
+        <i x="68" s="1" nd="1"/>
+        <i x="55" s="1" nd="1"/>
+        <i x="140" s="1" nd="1"/>
+        <i x="37" s="1" nd="1"/>
+        <i x="24" s="1" nd="1"/>
+        <i x="131" s="1" nd="1"/>
+        <i x="72" s="1" nd="1"/>
+        <i x="31" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="40" s="1" nd="1"/>
+        <i x="82" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
+        <i x="151" s="1" nd="1"/>
+        <i x="164" s="1" nd="1"/>
+        <i x="44" s="1" nd="1"/>
+        <i x="113" s="1" nd="1"/>
+        <i x="26" s="1" nd="1"/>
+        <i x="62" s="1" nd="1"/>
+        <i x="96" s="1" nd="1"/>
+        <i x="46" s="1" nd="1"/>
+        <i x="152" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="125" s="1" nd="1"/>
+        <i x="146" s="1" nd="1"/>
+        <i x="168" s="1" nd="1"/>
+        <i x="145" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
+        <i x="21" s="1" nd="1"/>
+        <i x="93" s="1" nd="1"/>
+        <i x="126" s="1" nd="1"/>
+        <i x="105" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="101" s="1" nd="1"/>
+        <i x="73" s="1" nd="1"/>
+        <i x="158" s="1" nd="1"/>
+        <i x="61" s="1" nd="1"/>
+        <i x="155" s="1" nd="1"/>
+        <i x="49" s="1" nd="1"/>
+        <i x="94" s="1" nd="1"/>
+        <i x="150" s="1" nd="1"/>
+        <i x="128" s="1" nd="1"/>
+        <i x="134" s="1" nd="1"/>
+        <i x="79" s="1" nd="1"/>
+        <i x="76" s="1" nd="1"/>
+        <i x="63" s="1" nd="1"/>
+        <i x="75" s="1" nd="1"/>
+        <i x="58" s="1" nd="1"/>
+        <i x="159" s="1" nd="1"/>
+        <i x="143" s="1" nd="1"/>
+        <i x="34" s="1" nd="1"/>
+        <i x="107" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
+        <i x="166" s="1" nd="1"/>
+        <i x="173" s="1" nd="1"/>
+        <i x="109" s="1" nd="1"/>
+        <i x="59" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="119" s="1" nd="1"/>
+        <i x="141" s="1" nd="1"/>
+        <i x="138" s="1" nd="1"/>
+        <i x="117" s="1" nd="1"/>
+        <i x="120" s="1" nd="1"/>
+        <i x="122" s="1" nd="1"/>
+        <i x="161" s="1" nd="1"/>
+        <i x="66" s="1" nd="1"/>
+        <i x="25" s="1" nd="1"/>
+        <i x="32" s="1" nd="1"/>
+        <i x="132" s="1" nd="1"/>
+        <i x="135" s="1" nd="1"/>
+        <i x="86" s="1" nd="1"/>
+        <i x="41" s="1" nd="1"/>
+        <i x="104" s="1" nd="1"/>
+        <i x="118" s="1" nd="1"/>
+        <i x="149" s="1" nd="1"/>
+        <i x="29" s="1" nd="1"/>
+        <i x="106" s="1" nd="1"/>
+        <i x="23" s="1" nd="1"/>
+        <i x="129" s="1" nd="1"/>
+        <i x="174" s="1" nd="1"/>
+        <i x="70" s="1" nd="1"/>
+        <i x="50" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="83" s="1" nd="1"/>
+        <i x="156" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="28" s="1" nd="1"/>
+        <i x="116" s="1" nd="1"/>
+        <i x="178" s="1" nd="1"/>
+        <i x="169" s="1" nd="1"/>
+        <i x="36" s="1" nd="1"/>
+        <i x="38" s="1" nd="1"/>
+        <i x="53" s="1" nd="1"/>
+        <i x="56" s="1" nd="1"/>
+        <i x="182" s="1" nd="1"/>
+        <i x="153" s="1" nd="1"/>
+        <i x="95" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="167" s="1" nd="1"/>
+        <i x="67" s="1" nd="1"/>
+        <i x="65" s="1" nd="1"/>
+        <i x="35" s="1" nd="1"/>
+        <i x="142" s="1" nd="1"/>
+        <i x="85" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="30" s="1" nd="1"/>
+        <i x="33" s="1" nd="1"/>
+        <i x="91" s="1" nd="1"/>
+        <i x="123" s="1" nd="1"/>
+        <i x="154" s="1" nd="1"/>
+        <i x="43" s="1" nd="1"/>
+        <i x="47" s="1" nd="1"/>
+        <i x="139" s="1" nd="1"/>
+        <i x="114" s="1" nd="1"/>
+        <i x="57" s="1" nd="1"/>
+        <i x="179" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="130" s="1" nd="1"/>
+        <i x="112" s="1" nd="1"/>
+        <i x="162" s="1" nd="1"/>
+        <i x="99" s="1" nd="1"/>
+        <i x="111" s="1" nd="1"/>
+        <i x="20" s="1" nd="1"/>
+        <i x="52" s="1" nd="1"/>
+        <i x="160" s="1" nd="1"/>
+        <i x="87" s="1" nd="1"/>
+        <i x="102" s="1" nd="1"/>
+        <i x="54" s="1" nd="1"/>
+        <i x="80" s="1" nd="1"/>
+        <i x="42" s="1" nd="1"/>
+        <i x="71" s="1" nd="1"/>
+        <i x="45" s="1" nd="1"/>
+        <i x="170" s="1" nd="1"/>
+        <i x="121" s="1" nd="1"/>
+        <i x="165" s="1" nd="1"/>
+        <i x="97" s="1" nd="1"/>
+        <i x="147" s="1" nd="1"/>
+        <i x="88" s="1" nd="1"/>
+        <i x="81" s="1" nd="1"/>
+        <i x="27" s="1" nd="1"/>
+        <i x="78" s="1" nd="1"/>
+        <i x="115" s="1" nd="1"/>
+        <i x="92" s="1" nd="1"/>
+        <i x="148" s="1" nd="1"/>
+        <i x="69" s="1" nd="1"/>
+        <i x="39" s="1" nd="1"/>
+        <i x="124" s="1" nd="1"/>
+        <i x="175" s="1" nd="1"/>
+        <i x="181" s="1" nd="1"/>
+        <i x="84" s="1" nd="1"/>
+        <i x="172" s="1" nd="1"/>
+        <i x="136" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6295,226 +6770,19 @@
 </file>
 
 <file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_PROCESSID1" sourceName="PROCESSID">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable2"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="2">
-      <items count="181">
-        <i x="0" s="1"/>
-        <i x="1"/>
-        <i x="2"/>
-        <i x="46" nd="1"/>
-        <i x="71" nd="1"/>
-        <i x="66" nd="1"/>
-        <i x="6" nd="1"/>
-        <i x="84" nd="1"/>
-        <i x="170" nd="1"/>
-        <i x="42" nd="1"/>
-        <i x="166" nd="1"/>
-        <i x="56" nd="1"/>
-        <i x="51" nd="1"/>
-        <i x="55" nd="1"/>
-        <i x="122" nd="1"/>
-        <i x="150" nd="1"/>
-        <i x="8" nd="1"/>
-        <i x="174" nd="1"/>
-        <i x="109" nd="1"/>
-        <i x="41" nd="1"/>
-        <i x="24" nd="1"/>
-        <i x="72" nd="1"/>
-        <i x="25" nd="1"/>
-        <i x="75" nd="1"/>
-        <i x="132" nd="1"/>
-        <i x="43" nd="1"/>
-        <i x="96" nd="1"/>
-        <i x="162" nd="1"/>
-        <i x="85" nd="1"/>
-        <i x="110" nd="1"/>
-        <i x="88" nd="1"/>
-        <i x="171" nd="1"/>
-        <i x="14" nd="1"/>
-        <i x="156" nd="1"/>
-        <i x="34" nd="1"/>
-        <i x="59" nd="1"/>
-        <i x="52" nd="1"/>
-        <i x="76" nd="1"/>
-        <i x="121" nd="1"/>
-        <i x="172" nd="1"/>
-        <i x="139" nd="1"/>
-        <i x="114" nd="1"/>
-        <i x="35" nd="1"/>
-        <i x="60" nd="1"/>
-        <i x="111" nd="1"/>
-        <i x="36" nd="1"/>
-        <i x="9" nd="1"/>
-        <i x="89" nd="1"/>
-        <i x="22" nd="1"/>
-        <i x="17" nd="1"/>
-        <i x="77" nd="1"/>
-        <i x="173" nd="1"/>
-        <i x="136" nd="1"/>
-        <i x="78" nd="1"/>
-        <i x="175" nd="1"/>
-        <i x="79" nd="1"/>
-        <i x="47" nd="1"/>
-        <i x="157" nd="1"/>
-        <i x="19" nd="1"/>
-        <i x="26" nd="1"/>
-        <i x="31" nd="1"/>
-        <i x="15" nd="1"/>
-        <i x="151" nd="1"/>
-        <i x="61" nd="1"/>
-        <i x="178" nd="1"/>
-        <i x="37" nd="1"/>
-        <i x="133" nd="1"/>
-        <i x="44" nd="1"/>
-        <i x="103" nd="1"/>
-        <i x="116" nd="1"/>
-        <i x="125" nd="1"/>
-        <i x="168" nd="1"/>
-        <i x="104" nd="1"/>
-        <i x="112" nd="1"/>
-        <i x="20" nd="1"/>
-        <i x="134" nd="1"/>
-        <i x="32" nd="1"/>
-        <i x="152" nd="1"/>
-        <i x="120" nd="1"/>
-        <i x="146" nd="1"/>
-        <i x="97" nd="1"/>
-        <i x="101" nd="1"/>
-        <i x="129" nd="1"/>
-        <i x="94" nd="1"/>
-        <i x="27" nd="1"/>
-        <i x="167" nd="1"/>
-        <i x="4" nd="1"/>
-        <i x="90" nd="1"/>
-        <i x="29" nd="1"/>
-        <i x="62" nd="1"/>
-        <i x="38" nd="1"/>
-        <i x="179" nd="1"/>
-        <i x="158" nd="1"/>
-        <i x="67" nd="1"/>
-        <i x="154" nd="1"/>
-        <i x="57" nd="1"/>
-        <i x="147" nd="1"/>
-        <i x="105" nd="1"/>
-        <i x="137" nd="1"/>
-        <i x="80" nd="1"/>
-        <i x="95" nd="1"/>
-        <i x="140" nd="1"/>
-        <i x="163" nd="1"/>
-        <i x="127" nd="1"/>
-        <i x="141" nd="1"/>
-        <i x="98" nd="1"/>
-        <i x="53" nd="1"/>
-        <i x="81" nd="1"/>
-        <i x="176" nd="1"/>
-        <i x="142" nd="1"/>
-        <i x="39" nd="1"/>
-        <i x="148" nd="1"/>
-        <i x="130" nd="1"/>
-        <i x="155" nd="1"/>
-        <i x="86" nd="1"/>
-        <i x="58" nd="1"/>
-        <i x="164" nd="1"/>
-        <i x="126" nd="1"/>
-        <i x="99" nd="1"/>
-        <i x="28" nd="1"/>
-        <i x="106" nd="1"/>
-        <i x="82" nd="1"/>
-        <i x="73" nd="1"/>
-        <i x="3" nd="1"/>
-        <i x="21" nd="1"/>
-        <i x="10" nd="1"/>
-        <i x="83" nd="1"/>
-        <i x="113" nd="1"/>
-        <i x="65" nd="1"/>
-        <i x="153" nd="1"/>
-        <i x="165" nd="1"/>
-        <i x="11" nd="1"/>
-        <i x="159" nd="1"/>
-        <i x="149" nd="1"/>
-        <i x="123" nd="1"/>
-        <i x="115" nd="1"/>
-        <i x="143" nd="1"/>
-        <i x="177" nd="1"/>
-        <i x="100" nd="1"/>
-        <i x="117" nd="1"/>
-        <i x="91" nd="1"/>
-        <i x="118" nd="1"/>
-        <i x="169" nd="1"/>
-        <i x="63" nd="1"/>
-        <i x="18" nd="1"/>
-        <i x="68" nd="1"/>
-        <i x="16" nd="1"/>
-        <i x="48" nd="1"/>
-        <i x="144" nd="1"/>
-        <i x="138" nd="1"/>
-        <i x="69" nd="1"/>
-        <i x="131" nd="1"/>
-        <i x="107" nd="1"/>
-        <i x="74" nd="1"/>
-        <i x="5" nd="1"/>
-        <i x="180" nd="1"/>
-        <i x="87" nd="1"/>
-        <i x="13" nd="1"/>
-        <i x="160" nd="1"/>
-        <i x="92" nd="1"/>
-        <i x="64" nd="1"/>
-        <i x="102" nd="1"/>
-        <i x="12" nd="1"/>
-        <i x="33" nd="1"/>
-        <i x="23" nd="1"/>
-        <i x="49" nd="1"/>
-        <i x="135" nd="1"/>
-        <i x="108" nd="1"/>
-        <i x="124" nd="1"/>
-        <i x="45" nd="1"/>
-        <i x="145" nd="1"/>
-        <i x="54" nd="1"/>
-        <i x="161" nd="1"/>
-        <i x="50" nd="1"/>
-        <i x="93" nd="1"/>
-        <i x="70" nd="1"/>
-        <i x="128" nd="1"/>
-        <i x="30" nd="1"/>
-        <i x="119" nd="1"/>
-        <i x="40" nd="1"/>
-        <i x="7" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_THREADID" sourceName="THREADID">
   <pivotTables>
     <pivotTable tabId="1" name="PivotTable1"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="2">
+      <items count="6">
+        <i x="3" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
         <i x="1" s="1"/>
-        <i x="0" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_SETID" sourceName="SETID">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable2"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="2">
-      <items count="2">
-        <i x="1"/>
-        <i x="0" s="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6525,13 +6793,6 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <slicer name="PROCESSID" cache="Slicer_PROCESSID" caption="PROCESSID" rowHeight="241300"/>
   <slicer name="THREADID" cache="Slicer_THREADID" caption="THREADID" rowHeight="241300"/>
-</slicers>
-</file>
-
-<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="PROCESSID 1" cache="Slicer_PROCESSID1" caption="PROCESSID" rowHeight="241300"/>
-  <slicer name="SETID" cache="Slicer_SETID" caption="SETID" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -6910,7 +7171,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6932,7 +7193,7 @@
       </c>
       <c r="F1" s="4">
         <f>MIN($B:$B)</f>
-        <v>3.24953813105822E-3</v>
+        <v>1.4680151594802723E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6940,14 +7201,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>4.0237335488200196E-3</v>
+        <v>3.4111250191926949E-2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4">
         <f>VLOOKUP(MAX($A:$A),$A:$B,2,FALSE)</f>
-        <v>3.59822763130069E-3</v>
+        <v>1.5931972768157724E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6955,7 +7216,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>3.8368329405784598E-3</v>
+        <v>2.4088085629045949E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6963,7 +7224,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>3.6540711298584899E-3</v>
+        <v>2.348215831443665E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6971,7 +7232,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3.5157108213752499E-3</v>
+        <v>2.3034681100398326E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6979,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>3.47778992727399E-3</v>
+        <v>2.2694292012602073E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6987,7 +7248,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>3.41971893794835E-3</v>
+        <v>2.2420058958232403E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6995,7 +7256,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>3.3973550889640999E-3</v>
+        <v>2.2176740691065799E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7003,7 +7264,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>3.3917247783392698E-3</v>
+        <v>2.194321574643255E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7011,7 +7272,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>3.38736246339977E-3</v>
+        <v>2.17086593620479E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7019,7 +7280,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3.3852637279778702E-3</v>
+        <v>2.1466628648340674E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7027,7 +7288,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>3.3826122526079399E-3</v>
+        <v>2.1214990410953774E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7035,7 +7296,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3.3818443771451699E-3</v>
+        <v>2.0955292508006075E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7043,7 +7304,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>3.37810162454844E-3</v>
+        <v>2.0689600612968199E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7051,7 +7312,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>3.3748645801097198E-3</v>
+        <v>2.041755290701985E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,7 +7320,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>3.3637979067861999E-3</v>
+        <v>2.0140225067734701E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7067,7 +7328,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>3.3517221454531002E-3</v>
+        <v>1.9863531459122875E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7075,7 +7336,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>3.3405574504286099E-3</v>
+        <v>1.9593862351030097E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7083,7 +7344,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>3.3347005955874898E-3</v>
+        <v>1.9331811927258975E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7091,7 +7352,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>3.3300472423434301E-3</v>
+        <v>1.9072594121098525E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7099,7 +7360,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>3.3225200604647398E-3</v>
+        <v>1.8825931940227726E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7107,7 +7368,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>3.3151437528431398E-3</v>
+        <v>1.8669262062758228E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7115,7 +7376,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>3.3030060585588199E-3</v>
+        <v>1.8555552698671797E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7123,7 +7384,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>3.2958749216049901E-3</v>
+        <v>1.8401373643428073E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7131,7 +7392,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>3.2886802218854401E-3</v>
+        <v>1.8062548246234648E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7139,7 +7400,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>3.2848871778696801E-3</v>
+        <v>1.7816427163779749E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7147,7 +7408,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>3.2821216154843599E-3</v>
+        <v>1.7590460833162076E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7155,7 +7416,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>3.2788882963359399E-3</v>
+        <v>1.7375590279698348E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7163,7 +7424,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>3.2762323971837798E-3</v>
+        <v>1.7168656922876824E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7171,7 +7432,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>3.274105489254E-3</v>
+        <v>1.6970157157629721E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7179,7 +7440,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>3.2715781126171398E-3</v>
+        <v>1.6782117541879422E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7187,7 +7448,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>3.26960743404925E-3</v>
+        <v>1.6602923627942801E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7195,7 +7456,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>3.2677173148840701E-3</v>
+        <v>1.6436394769698374E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7203,7 +7464,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>3.26554221101105E-3</v>
+        <v>1.6317475121468299E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7211,7 +7472,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>3.2639687415212401E-3</v>
+        <v>1.6259888187050826E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7219,7 +7480,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>3.2621894497424399E-3</v>
+        <v>1.6099650412797924E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7227,7 +7488,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>3.26066999696195E-3</v>
+        <v>1.5866011148318648E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7235,7 +7496,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>3.2594476360827702E-3</v>
+        <v>1.56546051148325E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7243,7 +7504,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>3.2581689301878201E-3</v>
+        <v>1.5476828673854449E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7251,7 +7512,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>3.25711793266237E-3</v>
+        <v>1.5333409653976575E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7520,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>3.2561104744672801E-3</v>
+        <v>1.5216717263683675E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7267,7 +7528,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>3.2551663462072598E-3</v>
+        <v>1.5121306991204626E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7275,7 +7536,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>3.2543020788580201E-3</v>
+        <v>1.503774942830205E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7283,7 +7544,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>3.2534652855247298E-3</v>
+        <v>1.4947691466659325E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7291,7 +7552,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>3.2527185976505301E-3</v>
+        <v>1.4850208535790449E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7299,7 +7560,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>3.2519982196390598E-3</v>
+        <v>1.4752991963177925E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7307,7 +7568,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>3.2513260375708298E-3</v>
+        <v>1.4689620351418849E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7315,7 +7576,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>3.2507032155990601E-3</v>
+        <v>1.4680151594802723E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7323,7 +7584,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>3.2501004170626402E-3</v>
+        <v>1.4749440131708974E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7331,7 +7592,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>3.24953813105822E-3</v>
+        <v>1.4864034717902524E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7339,7 +7600,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>3.59822763130069E-3</v>
+        <v>1.5931972768157724E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7347,7 +7608,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>3.3481787145137791E-3</v>
+        <v>1.8470247648656367E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7365,114 +7626,287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="12" width="7.5703125" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" customWidth="1"/>
-    <col min="14" max="32" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="32" width="7.5703125" customWidth="1"/>
     <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>10108</v>
+      </c>
+      <c r="C2">
+        <v>13468</v>
+      </c>
+      <c r="D2">
+        <v>2992</v>
+      </c>
+      <c r="E2">
+        <v>584</v>
+      </c>
+      <c r="F2">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2932</v>
+      </c>
+      <c r="C3">
+        <v>196</v>
+      </c>
+      <c r="D3">
+        <v>11948</v>
+      </c>
+      <c r="E3">
+        <v>4312</v>
+      </c>
+      <c r="F3">
+        <v>2856</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>43024</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.12261078086914495</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.10603106593247504</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.6421094154939058E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>8.2980411993339664E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.10348443602211774</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3.2228669207543144E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>135232</v>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.16224114974495024</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.10857769584283233</v>
+      </c>
+      <c r="F6" s="1">
+        <v>6.0613519102334978E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.2772221380361804</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.2772221380361804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>0.51226119048617502</v>
+        <v>0.16144025630899703</v>
       </c>
       <c r="C7" s="1">
-        <v>0.51226119048617502</v>
-      </c>
+        <v>0.1044362715119496</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.2515436824876815</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.7580254711210722E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.6199048794805981E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6.44884042814374E-2</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.25530025790678335</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.1426734942290932</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.43859896069392562</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.33369284981378805</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.33369284981378805</v>
-      </c>
+      <c r="B10" s="1">
+        <v>0.30281429307884539</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.30780872603645548</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.16372456511482597</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>8.673132877796888E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.7992129400372501E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.7469987124204637E-2</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.51889725737972181</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.52762532267253848</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.24997914310544733</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.10929455532243956</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.10929455532243956</v>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>0.1160668620187789</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.106269302777946</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.11445340362377465</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>9.4523630216717697E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>8.9747606813907602E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.5816573034971958E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.13761009382084011</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.12279099874198436</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.13309023421257735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.30811768341464579</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.30811768341464579</v>
+      <c r="B16" s="1">
+        <v>0.23212727469392117</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.20612249877420255</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.16348647262260785</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.10615018435521051</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.0437248889356855E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Tester2.xlsx
+++ b/Tester2.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.caglioni\dev\cudaNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaglion\dev\cudaNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Run" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Query_from_Algo" localSheetId="0" hidden="1">ClientInfo!$A$1:$I$2</definedName>
+    <definedName name="Query_from_Algo" localSheetId="0" hidden="1">ClientInfo!$A$1:$I$15</definedName>
     <definedName name="Slicer_PROCESSID">#N/A</definedName>
     <definedName name="Slicer_THREADID">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="34" r:id="rId4"/>
+    <pivotCache cacheId="36" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -48,17 +48,17 @@
   <connection id="1" name="Q_ClientInfo" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DSN=Algo;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=F;CSR=F;FWC=F;FBS=64000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT CLIENTINFO.PROCESSID, CLIENTINFO.CLIENTNAME, CLIENTINFO.CLIENTSTART, CLIENTINFO.DURATION, CLIENTINFO.SIMULATIONLEN, CLIENTINFO.SIMULATIONSTART, CLIENTINFO.DOTRAINING, CLIENTINFO.DOTRAINRUN, CLIENTINFO.DOTESTRUN_x000d__x000a_FROM CULOGUSER.CLIENTINFO CLIENTINFO_x000d__x000a_ORDER BY CLIENTINFO.CLIENTSTART DESC"/>
   </connection>
-  <connection id="2" name="Q_MSE" type="1" refreshedVersion="6" savePassword="1" saveData="1">
+  <connection id="2" name="Q_MSE" type="1" refreshedVersion="5" savePassword="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH, TRAINLOG.MSE_T, TRAINLOG.MSE_V_x000d__x000a_FROM CULOGUSER.TRAINLOG TRAINLOG_x000d__x000a_ORDER BY TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH"/>
   </connection>
-  <connection id="3" name="Q_Run" type="1" refreshedVersion="6" savePassword="1" saveData="1">
-    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.SETID,RUNLOG.NETPROCESSID, RUNLOG.NETTHREADID, RUNLOG.POS, RUNLOG.FEATUREID, RUNLOG.ACTUAL, RUNLOG.PREDICTED, RUNLOG.ERROR, RUNLOG.ACTUALTRS, RUNLOG.PREDICTEDTRS, RUNLOG.ERRORTRS, RUNLOG.BARWIDTH, RUNLOG.ERRORP_x000d__x000a_FROM CULOGUSER.RUNLOG RUNLOG_x000d__x000a_ORDER BY RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.POS, RUNLOG.FEATUREID"/>
+  <connection id="3" name="Q_Run" type="1" refreshedVersion="5" savePassword="1" saveData="1">
+    <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT RUNLOG.PROCESSID, RUNLOG.THREADID, decode(RUNLOG.SETID,0,'IN-SAMPLE','OUT-OF-SAMPLE') RunSet,RUNLOG.NETPROCESSID, RUNLOG.NETTHREADID, RUNLOG.POS, decode(RUNLOG.FEATUREID,0,'OPEN',1,'HIGH',2,'LOW',3,'CLOSE',4,'VOLUME','UNKNOWN') Feature, RUNLOG.ACTUAL, RUNLOG.PREDICTED, RUNLOG.ERROR, RUNLOG.ACTUALTRS, RUNLOG.PREDICTEDTRS, RUNLOG.ERRORTRS, RUNLOG.BARWIDTH, RUNLOG.ERRORP_x000d__x000a_FROM CULOGUSER.RUNLOG RUNLOG_x000d__x000a_ORDER BY RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.POS, RUNLOG.FEATUREID"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
   <si>
     <t>Average of MSE_T</t>
   </si>
@@ -110,11 +110,29 @@
   <si>
     <t>DOTESTRUN</t>
   </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>IN-SAMPLE</t>
+  </si>
+  <si>
+    <t>OUT-OF-SAMPLE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -156,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -171,16 +189,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -196,7 +220,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -501,160 +525,160 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>3.4111250191926949E-2</c:v>
+                  <c:v>5.6256738025695096E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4088085629045949E-2</c:v>
+                  <c:v>5.6256382958963503E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.348215831443665E-2</c:v>
+                  <c:v>5.6255492381751505E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3034681100398326E-2</c:v>
+                  <c:v>5.6250579655170397E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2694292012602073E-2</c:v>
+                  <c:v>5.3907325491309198E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2420058958232403E-2</c:v>
+                  <c:v>5.0377042498439605E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2176740691065799E-2</c:v>
+                  <c:v>4.82220842968673E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.194321574643255E-2</c:v>
+                  <c:v>4.3072368134744498E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.17086593620479E-2</c:v>
+                  <c:v>4.0127505781129003E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1466628648340674E-2</c:v>
+                  <c:v>3.9367115823552002E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1214990410953774E-2</c:v>
+                  <c:v>3.8941993261687501E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0955292508006075E-2</c:v>
+                  <c:v>3.86329367756844E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0689600612968199E-2</c:v>
+                  <c:v>3.8394314469769602E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.041755290701985E-2</c:v>
+                  <c:v>3.8203908479772497E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.0140225067734701E-2</c:v>
+                  <c:v>3.8047868292778698E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.9863531459122875E-2</c:v>
+                  <c:v>3.79165954655036E-4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9593862351030097E-2</c:v>
+                  <c:v>3.7803107989020602E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.9331811927258975E-2</c:v>
+                  <c:v>3.7701294058933897E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9072594121098525E-2</c:v>
+                  <c:v>3.76048556063324E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8825931940227726E-2</c:v>
+                  <c:v>3.7504063220694699E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8669262062758228E-2</c:v>
+                  <c:v>3.7375412648543699E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8555552698671797E-2</c:v>
+                  <c:v>3.7112561403773698E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8401373643428073E-2</c:v>
+                  <c:v>3.4274830250069499E-4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.8062548246234648E-2</c:v>
+                  <c:v>1.71775667695329E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7816427163779749E-2</c:v>
+                  <c:v>1.32821267470717E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7590460833162076E-2</c:v>
+                  <c:v>1.2514081026893101E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7375590279698348E-2</c:v>
+                  <c:v>1.2246731785126001E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7168656922876824E-2</c:v>
+                  <c:v>1.21120778203476E-4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6970157157629721E-2</c:v>
+                  <c:v>1.20350494398735E-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6782117541879422E-2</c:v>
+                  <c:v>1.1988649930572101E-4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.6602923627942801E-2</c:v>
+                  <c:v>1.19586002256256E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6436394769698374E-2</c:v>
+                  <c:v>1.1937501403735999E-4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6317475121468299E-2</c:v>
+                  <c:v>1.1921628174604801E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6259888187050826E-2</c:v>
+                  <c:v>1.19089614599943E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6099650412797924E-2</c:v>
+                  <c:v>1.18983225547709E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5866011148318648E-2</c:v>
+                  <c:v>1.18890711746644E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.56546051148325E-2</c:v>
+                  <c:v>1.18807802209631E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5476828673854449E-2</c:v>
+                  <c:v>1.18731819384266E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5333409653976575E-2</c:v>
+                  <c:v>1.1866090790135799E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5216717263683675E-2</c:v>
+                  <c:v>1.1859396181535E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5121306991204626E-2</c:v>
+                  <c:v>1.18529933388345E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.503774942830205E-2</c:v>
+                  <c:v>1.18468422442675E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.4947691466659325E-2</c:v>
+                  <c:v>1.18408621347044E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.4850208535790449E-2</c:v>
+                  <c:v>1.18350602861028E-4</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.4752991963177925E-2</c:v>
+                  <c:v>1.1829385039163799E-4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.4689620351418849E-2</c:v>
+                  <c:v>1.1823801469290601E-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.4680151594802723E-2</c:v>
+                  <c:v>1.1818326311185999E-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.4749440131708974E-2</c:v>
+                  <c:v>1.1812929005827799E-4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.4864034717902524E-2</c:v>
+                  <c:v>1.18075891805347E-4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.5931972768157724E-2</c:v>
+                  <c:v>1.1641189485089899E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D5F-49E7-99C4-091DC5BE43ED}"/>
             </c:ext>
@@ -669,11 +693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-761442208"/>
-        <c:axId val="-761441120"/>
+        <c:axId val="1156260368"/>
+        <c:axId val="1156262544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-761442208"/>
+        <c:axId val="1156260368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -716,7 +740,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-761441120"/>
+        <c:crossAx val="1156262544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -724,7 +748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-761441120"/>
+        <c:axId val="1156262544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +799,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-761442208"/>
+        <c:crossAx val="1156260368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -821,7 +845,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -830,17 +859,12 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -999,7 +1023,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1094,7 +1118,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1877,6 +1901,141 @@
           <c:symbol val="none"/>
         </c:marker>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="50"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="51"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="52"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="53"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="54"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="55"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="56"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="57"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="58"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1889,11 +2048,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Run!$B$1:$B$3</c:f>
+              <c:f>Run!$B$1:$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10108 - 2932</c:v>
+                  <c:v>CLOSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1910,47 +2069,174 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$4:$A$16</c:f>
+              <c:f>Run!$A$3:$A$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1</c:v>
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>76312</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1</c:v>
+                    <c:v>135232</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2</c:v>
+                    <c:v>77828</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>59804</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3</c:v>
+                    <c:v>78464</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>78540</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76884</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>78648</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78776</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>139356</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>137012</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>78428</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20328</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>76168</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50312</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>76116</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>77480</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77672</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>77812</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>140220</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>140228</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51744</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20328</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>76168</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>77480</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77672</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>77812</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>140220</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>140228</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51744</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1958,26 +2244,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$B$4:$B$16</c:f>
+              <c:f>Run!$B$3:$B$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.5265727080404761E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12922550974413752</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7580254711210722E-2</c:v>
+                  <c:v>7.9162700101733194E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25530025790678335</c:v>
+                  <c:v>0.10929455532243956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.673132877796888E-2</c:v>
+                  <c:v>4.48887443613218E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51889725737972181</c:v>
+                  <c:v>8.1232607848942262E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11439413315356893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2765183188021188E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21863705562427641</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26618990518538094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9638277105987069E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14113583331927657</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.6009755209088337E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.1987430068281137E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.58448916681110863</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.045412633188044E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2562267018784769</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3878556673983521E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13650736008366818</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B19-40FC-8792-B72E388B5F83}"/>
             </c:ext>
@@ -1988,11 +2319,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Run!$C$1:$C$3</c:f>
+              <c:f>Run!$C$1:$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13468 - 196</c:v>
+                  <c:v>HIGH</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2009,47 +2340,174 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$4:$A$16</c:f>
+              <c:f>Run!$A$3:$A$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1</c:v>
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>76312</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1</c:v>
+                    <c:v>135232</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2</c:v>
+                    <c:v>77828</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>59804</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3</c:v>
+                    <c:v>78464</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>78540</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76884</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>78648</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78776</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>139356</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>137012</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>78428</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20328</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>76168</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50312</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>76116</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>77480</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77672</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>77812</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>140220</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>140228</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51744</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20328</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>76168</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>77480</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77672</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>77812</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>140220</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>140228</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51744</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2057,41 +2515,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$C$4:$C$16</c:f>
+              <c:f>Run!$C$3:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>6.3643049672245974E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43970631968230012</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6199048794805981E-2</c:v>
+                  <c:v>6.0340686032065639E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1426734942290932</c:v>
+                  <c:v>0.51226119048617502</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.7992129400372501E-2</c:v>
+                  <c:v>4.2935788993077095E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52762532267253848</c:v>
+                  <c:v>0.36615520339459179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17186086509250062</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19890761971473686</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30815202594445695</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0942909866571424E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42752240207977593</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8477020710706715E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0827699283271852E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17598958466202019</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3963097101420064E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50211572088301182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6802175589613302E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17555324752659437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2993-4210-A146-6E6CD30441FD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Run!$D$1:$D$3</c:f>
+              <c:f>Run!$D$1:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2992 - 11948</c:v>
+                  <c:v>LOW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2108,47 +2603,174 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$4:$A$16</c:f>
+              <c:f>Run!$A$3:$A$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1</c:v>
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>76312</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1</c:v>
+                    <c:v>135232</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2</c:v>
+                    <c:v>77828</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>59804</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3</c:v>
+                    <c:v>78464</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>78540</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76884</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>78648</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78776</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>139356</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>137012</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>78428</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20328</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>76168</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50312</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>76116</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>77480</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77672</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>77812</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>140220</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>140228</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51744</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20328</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>76168</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>77480</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77672</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>77812</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>140220</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>140228</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51744</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2156,53 +2778,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$D$4:$D$16</c:f>
+              <c:f>Run!$D$3:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>8.2980411993339664E-2</c:v>
+                  <c:v>7.7056866250932221E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16224114974495024</c:v>
+                  <c:v>0.24346237195655704</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.44884042814374E-2</c:v>
+                  <c:v>6.0982940263218349E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43859896069392562</c:v>
+                  <c:v>0.33369284981378805</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7469987124204637E-2</c:v>
+                  <c:v>3.9200294861199712E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.24997914310544733</c:v>
+                  <c:v>0.21535950221121311</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4523630216717697E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13761009382084011</c:v>
+                  <c:v>0.15577352716486498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19627886868547648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32719102724423182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4457853399217131E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22319352371618151</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6819714531302458E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5231589622523818E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0045834995806218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2709915256524849E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0304429163038731</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8072193229784182E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19962422202965879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2993-4210-A146-6E6CD30441FD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Run!$E$1:$E$3</c:f>
+              <c:f>Run!$E$1:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>584 - 4312</c:v>
+                  <c:v>OPEN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2219,47 +2866,174 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$4:$A$16</c:f>
+              <c:f>Run!$A$3:$A$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1</c:v>
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>IN-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>76312</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1</c:v>
+                    <c:v>135232</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2</c:v>
+                    <c:v>77828</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>59804</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3</c:v>
+                    <c:v>78464</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>78540</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>76884</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>78648</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78776</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>139356</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>137012</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>78428</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20328</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>76168</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>50312</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>76116</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>77480</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77672</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>77812</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>140220</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>140228</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51744</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>20328</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>43024</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>76168</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>77480</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>77672</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>77812</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>78500</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>140220</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>140228</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>51744</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2267,129 +3041,70 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$E$4:$E$16</c:f>
+              <c:f>Run!$E$3:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.10348443602211774</c:v>
+                  <c:v>0.10068114893510938</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10857769584283233</c:v>
+                  <c:v>0.18725175800733268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1928980195963826E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2772221380361804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8151216474553405E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12596547059714794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.9747606813907602E-2</c:v>
+                  <c:v>0.11205239438807151</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12279099874198436</c:v>
+                  <c:v>7.9272040044888858E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14581008725799621</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15773187500328339</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9465148597955679E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14464764477685096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2140893936157223E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3234250883448768E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72862250924110417</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3439763554814389E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2125879409909248</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0171900294990191E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12567888814789743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2993-4210-A146-6E6CD30441FD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run!$F$1:$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3236 - 2856</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Run!$A$4:$A$16</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run!$F$4:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>3.2228669207543144E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0613519102334978E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.5816573034971958E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13309023421257735</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A9AB-45B0-BD1B-AD807AC9390F}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2400,11 +3115,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-761439488"/>
-        <c:axId val="-761438944"/>
+        <c:axId val="1156265808"/>
+        <c:axId val="1156268528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-761439488"/>
+        <c:axId val="1156265808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2447,7 +3162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-761438944"/>
+        <c:crossAx val="1156268528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2455,7 +3170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-761438944"/>
+        <c:axId val="1156268528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2506,7 +3221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-761439488"/>
+        <c:crossAx val="1156265808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,7 +3299,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -2593,11 +3313,6 @@
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -3873,15 +4588,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>713815</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>172010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>112057</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>45943</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>150718</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3904,204 +4619,224 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Giacomo Caglioni" refreshedDate="43157.695100925928" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="200">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.958373958332" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="576">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140220" count="183">
-        <n v="584"/>
-        <n v="2992"/>
-        <n v="10108"/>
-        <n v="13468"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="193">
+        <n v="1848"/>
+        <n v="20328"/>
+        <n v="43024"/>
+        <n v="51744"/>
+        <n v="76168"/>
+        <n v="77480"/>
+        <n v="77492"/>
+        <n v="77672"/>
+        <n v="77812"/>
+        <n v="78500"/>
+        <n v="140220"/>
+        <n v="140228"/>
+        <n v="42216" u="1"/>
+        <n v="82796" u="1"/>
+        <n v="57572" u="1"/>
+        <n v="1932" u="1"/>
+        <n v="7100" u="1"/>
+        <n v="36028" u="1"/>
+        <n v="78088" u="1"/>
+        <n v="84052" u="1"/>
+        <n v="92856" u="1"/>
+        <n v="13468" u="1"/>
+        <n v="49112" u="1"/>
+        <n v="120768" u="1"/>
+        <n v="24204" u="1"/>
+        <n v="30736" u="1"/>
+        <n v="44892" u="1"/>
+        <n v="59944" u="1"/>
+        <n v="39232" u="1"/>
+        <n v="43512" u="1"/>
+        <n v="48340" u="1"/>
+        <n v="83400" u="1"/>
+        <n v="16120" u="1"/>
+        <n v="15344" u="1"/>
+        <n v="18280" u="1"/>
+        <n v="43552" u="1"/>
+        <n v="54912" u="1"/>
+        <n v="80640" u="1"/>
+        <n v="58908" u="1"/>
+        <n v="44444" u="1"/>
+        <n v="48420" u="1"/>
+        <n v="134028" u="1"/>
+        <n v="32652" u="1"/>
+        <n v="35660" u="1"/>
+        <n v="46736" u="1"/>
+        <n v="59232" u="1"/>
+        <n v="75364" u="1"/>
+        <n v="76784" u="1"/>
+        <n v="15080" u="1"/>
+        <n v="90740" u="1"/>
+        <n v="2792" u="1"/>
+        <n v="21748" u="1"/>
+        <n v="47364" u="1"/>
+        <n v="204" u="1"/>
+        <n v="43124" u="1"/>
+        <n v="6288" u="1"/>
+        <n v="25896" u="1"/>
+        <n v="119624" u="1"/>
+        <n v="73656" u="1"/>
+        <n v="133248" u="1"/>
+        <n v="6648" u="1"/>
+        <n v="5692" u="1"/>
+        <n v="62252" u="1"/>
+        <n v="78280" u="1"/>
+        <n v="25652" u="1"/>
+        <n v="33304" u="1"/>
+        <n v="45516" u="1"/>
+        <n v="98200" u="1"/>
+        <n v="48964" u="1"/>
+        <n v="59188" u="1"/>
+        <n v="133364" u="1"/>
+        <n v="87852" u="1"/>
+        <n v="1540" u="1"/>
+        <n v="61520" u="1"/>
+        <n v="80792" u="1"/>
+        <n v="1372" u="1"/>
+        <n v="17192" u="1"/>
+        <n v="81684" u="1"/>
+        <n v="20184" u="1"/>
+        <n v="26432" u="1"/>
+        <n v="39408" u="1"/>
+        <n v="41964" u="1"/>
         <n v="77464" u="1"/>
+        <n v="133844" u="1"/>
+        <n v="42856" u="1"/>
+        <n v="68172" u="1"/>
+        <n v="75272" u="1"/>
+        <n v="81520" u="1"/>
+        <n v="84076" u="1"/>
+        <n v="2192" u="1"/>
+        <n v="5400" u="1"/>
+        <n v="22628" u="1"/>
+        <n v="71336" u="1"/>
+        <n v="78152" u="1"/>
+        <n v="2992" u="1"/>
+        <n v="33240" u="1"/>
+        <n v="133516" u="1"/>
+        <n v="23216" u="1"/>
         <n v="36100" u="1"/>
-        <n v="78280" u="1"/>
-        <n v="26432" u="1"/>
-        <n v="2412" u="1"/>
-        <n v="43024" u="1"/>
+        <n v="58820" u="1"/>
+        <n v="97828" u="1"/>
+        <n v="54012" u="1"/>
+        <n v="68332" u="1"/>
+        <n v="76000" u="1"/>
+        <n v="22100" u="1"/>
+        <n v="78028" u="1"/>
+        <n v="80584" u="1"/>
+        <n v="584" u="1"/>
+        <n v="52916" u="1"/>
+        <n v="76648" u="1"/>
+        <n v="41008" u="1"/>
+        <n v="47540" u="1"/>
+        <n v="48108" u="1"/>
+        <n v="78960" u="1"/>
+        <n v="80664" u="1"/>
+        <n v="13364" u="1"/>
+        <n v="22992" u="1"/>
+        <n v="35652" u="1"/>
+        <n v="48148" u="1"/>
+        <n v="84436" u="1"/>
+        <n v="10108" u="1"/>
+        <n v="32516" u="1"/>
+        <n v="96972" u="1"/>
+        <n v="47620" u="1"/>
+        <n v="81108" u="1"/>
+        <n v="120584" u="1"/>
+        <n v="50480" u="1"/>
+        <n v="90804" u="1"/>
+        <n v="28712" u="1"/>
+        <n v="96524" u="1"/>
+        <n v="6888" u="1"/>
+        <n v="123828" u="1"/>
+        <n v="47720" u="1"/>
+        <n v="79928" u="1"/>
+        <n v="69744" u="1"/>
+        <n v="91368" u="1"/>
+        <n v="53196" u="1"/>
+        <n v="77776" u="1"/>
+        <n v="77532" u="1"/>
+        <n v="20708" u="1"/>
+        <n v="47272" u="1"/>
+        <n v="48408" u="1"/>
+        <n v="78992" u="1"/>
+        <n v="40760" u="1"/>
+        <n v="66576" u="1"/>
+        <n v="86740" u="1"/>
+        <n v="96112" u="1"/>
+        <n v="31956" u="1"/>
+        <n v="69212" u="1"/>
+        <n v="133164" u="1"/>
         <n v="71240" u="1"/>
-        <n v="81684" u="1"/>
+        <n v="76352" u="1"/>
+        <n v="50516" u="1"/>
+        <n v="65600" u="1"/>
+        <n v="77244" u="1"/>
+        <n v="94568" u="1"/>
+        <n v="7032" u="1"/>
+        <n v="21772" u="1"/>
+        <n v="45140" u="1"/>
         <n v="49400" u="1"/>
-        <n v="2192" u="1"/>
-        <n v="69212" u="1"/>
-        <n v="25896" u="1"/>
-        <n v="15344" u="1"/>
-        <n v="30920" u="1"/>
-        <n v="41008" u="1"/>
-        <n v="6648" u="1"/>
-        <n v="84436" u="1"/>
-        <n v="41964" u="1"/>
-        <n v="48340" u="1"/>
-        <n v="65600" u="1"/>
-        <n v="23536" u="1"/>
-        <n v="57572" u="1"/>
-        <n v="33304" u="1"/>
+        <n v="80976" u="1"/>
+        <n v="89780" u="1"/>
         <n v="98868" u="1"/>
-        <n v="71336" u="1"/>
+        <n v="52544" u="1"/>
         <n v="62200" u="1"/>
-        <n v="78540" u="1"/>
-        <n v="25652" u="1"/>
-        <n v="58820" u="1"/>
-        <n v="78960" u="1"/>
-        <n v="48108" u="1"/>
-        <n v="78028" u="1"/>
-        <n v="75860" u="1"/>
-        <n v="23216" u="1"/>
-        <n v="76000" u="1"/>
-        <n v="133248" u="1"/>
-        <n v="28712" u="1"/>
-        <n v="59520" u="1"/>
-        <n v="90804" u="1"/>
-        <n v="80640" u="1"/>
-        <n v="32652" u="1"/>
-        <n v="92856" u="1"/>
-        <n v="35660" u="1"/>
-        <n v="80664" u="1"/>
-        <n v="18280" u="1"/>
-        <n v="44892" u="1"/>
-        <n v="68332" u="1"/>
-        <n v="7100" u="1"/>
-        <n v="85840" u="1"/>
-        <n v="76352" u="1"/>
-        <n v="89780" u="1"/>
-        <n v="22628" u="1"/>
-        <n v="76632" u="1"/>
-        <n v="81108" u="1"/>
-        <n v="47620" u="1"/>
-        <n v="49112" u="1"/>
-        <n v="21748" u="1"/>
-        <n v="43552" u="1"/>
-        <n v="34204" u="1"/>
-        <n v="47364" u="1"/>
-        <n v="16120" u="1"/>
         <n v="77892" u="1"/>
-        <n v="56864" u="1"/>
-        <n v="77776" u="1"/>
-        <n v="22512" u="1"/>
-        <n v="133164" u="1"/>
-        <n v="68172" u="1"/>
-        <n v="91368" u="1"/>
         <n v="24348" u="1"/>
         <n v="43192" u="1"/>
-        <n v="21772" u="1"/>
-        <n v="47540" u="1"/>
-        <n v="47272" u="1"/>
-        <n v="15080" u="1"/>
-        <n v="119624" u="1"/>
-        <n v="46736" u="1"/>
-        <n v="90740" u="1"/>
-        <n v="98200" u="1"/>
-        <n v="30736" u="1"/>
+        <n v="45748" u="1"/>
+        <n v="60516" u="1"/>
+        <n v="83896" u="1"/>
+        <n v="93268" u="1"/>
+        <n v="22512" u="1"/>
         <n v="69736" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="2800" u="1"/>
+        <n v="56864" u="1"/>
+        <n v="87384" u="1"/>
         <n v="134008" u="1"/>
-        <n v="78152" u="1"/>
-        <n v="59232" u="1"/>
-        <n v="87384" u="1"/>
-        <n v="97828" u="1"/>
-        <n v="5400" u="1"/>
-        <n v="1372" u="1"/>
-        <n v="78992" u="1"/>
-        <n v="120768" u="1"/>
+        <n v="48080" u="1"/>
+        <n v="76632" u="1"/>
+        <n v="2412" u="1"/>
+        <n v="23536" u="1"/>
+        <n v="30920" u="1"/>
+        <n v="39864" u="1"/>
+        <n v="11232" u="1"/>
+        <n v="34204" u="1"/>
         <n v="42156" u="1"/>
-        <n v="45140" u="1"/>
-        <n v="77244" u="1"/>
-        <n v="35652" u="1"/>
-        <n v="96524" u="1"/>
-        <n v="17192" u="1"/>
-        <n v="84052" u="1"/>
-        <n v="13364" u="1"/>
-        <n v="43124" u="1"/>
-        <n v="87852" u="1"/>
-        <n v="2800" u="1"/>
-        <n v="59944" u="1"/>
-        <n v="42856" u="1"/>
-        <n v="62252" u="1"/>
-        <n v="48148" u="1"/>
-        <n v="7032" u="1"/>
-        <n v="48964" u="1"/>
-        <n v="2792" u="1"/>
-        <n v="84076" u="1"/>
-        <n v="83400" u="1"/>
-        <n v="33240" u="1"/>
-        <n v="80976" u="1"/>
-        <n v="120584" u="1"/>
-        <n v="73656" u="1"/>
-        <n v="52916" u="1"/>
-        <n v="60516" u="1"/>
-        <n v="50480" u="1"/>
-        <n v="53196" u="1"/>
-        <n v="94568" u="1"/>
-        <n v="54012" u="1"/>
-        <n v="79928" u="1"/>
-        <n v="133364" u="1"/>
-        <n v="39232" u="1"/>
-        <n v="42216" u="1"/>
-        <n v="22100" u="1"/>
-        <n v="45748" u="1"/>
+        <n v="75860" u="1"/>
+        <n v="46436" u="1"/>
         <n v="66244" u="1"/>
-        <n v="82796" u="1"/>
-        <n v="24204" u="1"/>
-        <n v="58908" u="1"/>
-        <n v="204" u="1"/>
-        <n v="46436" u="1"/>
-        <n v="59188" u="1"/>
-        <n v="140220" u="1"/>
-        <n v="1540" u="1"/>
-        <n v="52544" u="1"/>
-        <n v="80792" u="1"/>
-        <n v="22992" u="1"/>
-        <n v="50516" u="1"/>
-        <n v="78088" u="1"/>
-        <n v="48080" u="1"/>
-        <n v="6888" u="1"/>
-        <n v="40760" u="1"/>
-        <n v="39408" u="1"/>
-        <n v="96972" u="1"/>
-        <n v="123828" u="1"/>
-        <n v="61520" u="1"/>
-        <n v="45516" u="1"/>
-        <n v="31956" u="1"/>
-        <n v="36028" u="1"/>
-        <n v="76784" u="1"/>
-        <n v="80584" u="1"/>
-        <n v="44444" u="1"/>
-        <n v="69744" u="1"/>
-        <n v="20708" u="1"/>
-        <n v="43512" u="1"/>
-        <n v="47720" u="1"/>
-        <n v="86740" u="1"/>
-        <n v="54912" u="1"/>
-        <n v="83896" u="1"/>
-        <n v="1932" u="1"/>
-        <n v="32516" u="1"/>
-        <n v="96112" u="1"/>
-        <n v="48408" u="1"/>
-        <n v="77532" u="1"/>
-        <n v="39864" u="1"/>
-        <n v="75364" u="1"/>
-        <n v="93268" u="1"/>
-        <n v="5692" u="1"/>
-        <n v="134028" u="1"/>
-        <n v="48420" u="1"/>
-        <n v="66576" u="1"/>
-        <n v="133516" u="1"/>
-        <n v="20184" u="1"/>
-        <n v="11232" u="1"/>
-        <n v="75272" u="1"/>
-        <n v="81520" u="1"/>
-        <n v="6288" u="1"/>
-        <n v="133844" u="1"/>
-        <n v="76648" u="1"/>
+        <n v="85840" u="1"/>
+        <n v="59520" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="6">
-        <n v="4312"/>
-        <n v="11948"/>
-        <n v="2932"/>
-        <n v="196"/>
-        <n v="139356" u="1"/>
-        <n v="135232" u="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="16">
+        <n v="75456"/>
+        <n v="76312"/>
+        <n v="135232"/>
+        <n v="78428"/>
+        <n v="77828"/>
+        <n v="78540"/>
+        <n v="20260"/>
+        <n v="76884"/>
+        <n v="78648"/>
+        <n v="78776"/>
+        <n v="139356"/>
+        <n v="137012"/>
+        <n v="196" u="1"/>
+        <n v="4312" u="1"/>
+        <n v="11948" u="1"/>
+        <n v="2932" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="EPOCH" numFmtId="0" sqlType="6">
@@ -4706,7 +5441,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="MSE_T" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3520760461688E-2" maxValue="3.7795584648847601E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.02098892966751E-4" maxValue="0.31467604637146002"/>
     </cacheField>
     <cacheField name="MSE_V" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
@@ -4723,26 +5458,35 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Giacomo Caglioni" refreshedDate="43157.717955208333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9600">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.963595949077" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="1295760">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="15">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="186">
-        <n v="584"/>
-        <n v="2992"/>
-        <n v="3236"/>
-        <n v="10108"/>
-        <n v="13468"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="197">
+        <n v="20328"/>
+        <n v="43024"/>
+        <n v="50312"/>
+        <n v="51744"/>
+        <n v="76116"/>
+        <n v="76168"/>
+        <n v="77480"/>
+        <n v="77672"/>
+        <n v="77812"/>
+        <n v="78500"/>
+        <n v="140220"/>
+        <n v="140228"/>
         <n v="82796" u="1"/>
         <n v="57572" u="1"/>
         <n v="134852" u="1"/>
         <n v="1932" u="1"/>
+        <n v="3236" u="1"/>
         <n v="139476" u="1"/>
         <n v="7100" u="1"/>
         <n v="36028" u="1"/>
         <n v="84052" u="1"/>
         <n v="92856" u="1"/>
         <n v="137000" u="1"/>
+        <n v="13468" u="1"/>
         <n v="136024" u="1"/>
         <n v="24204" u="1"/>
         <n v="44892" u="1"/>
@@ -4761,7 +5505,6 @@
         <n v="80640" u="1"/>
         <n v="58908" u="1"/>
         <n v="138208" u="1"/>
-        <n v="43024" u="1"/>
         <n v="44444" u="1"/>
         <n v="48420" u="1"/>
         <n v="137152" u="1"/>
@@ -4818,6 +5561,7 @@
         <n v="2192" u="1"/>
         <n v="22628" u="1"/>
         <n v="78152" u="1"/>
+        <n v="2992" u="1"/>
         <n v="135220" u="1"/>
         <n v="23216" u="1"/>
         <n v="36100" u="1"/>
@@ -4832,6 +5576,8 @@
         <n v="73200" u="1"/>
         <n v="80584" u="1"/>
         <n v="123752" u="1"/>
+        <n v="584" u="1"/>
+        <n v="1848" u="1"/>
         <n v="52916" u="1"/>
         <n v="136960" u="1"/>
         <n v="47540" u="1"/>
@@ -4845,6 +5591,7 @@
         <n v="35652" u="1"/>
         <n v="48148" u="1"/>
         <n v="84436" u="1"/>
+        <n v="10108" u="1"/>
         <n v="32516" u="1"/>
         <n v="96972" u="1"/>
         <n v="47620" u="1"/>
@@ -4861,13 +5608,13 @@
         <n v="69744" u="1"/>
         <n v="138204" u="1"/>
         <n v="53196" u="1"/>
+        <n v="77492" u="1"/>
         <n v="77532" u="1"/>
         <n v="134752" u="1"/>
         <n v="20708" u="1"/>
         <n v="47272" u="1"/>
         <n v="48408" u="1"/>
         <n v="137388" u="1"/>
-        <n v="140228" u="1"/>
         <n v="40760" u="1"/>
         <n v="66576" u="1"/>
         <n v="134708" u="1"/>
@@ -4886,7 +5633,6 @@
         <n v="45140" u="1"/>
         <n v="49400" u="1"/>
         <n v="89780" u="1"/>
-        <n v="140220" u="1"/>
         <n v="62200" u="1"/>
         <n v="77892" u="1"/>
         <n v="24348" u="1"/>
@@ -4917,56 +5663,65 @@
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139660" count="12">
-        <n v="4312"/>
-        <n v="11948"/>
-        <n v="2856"/>
-        <n v="2932"/>
-        <n v="196"/>
-        <n v="54988" u="1"/>
-        <n v="137012" u="1"/>
-        <n v="139356" u="1"/>
-        <n v="137352" u="1"/>
-        <n v="139660" u="1"/>
-        <n v="135232" u="1"/>
-        <n v="138304" u="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="59804" maxValue="139356" count="12">
+        <n v="76312"/>
+        <n v="135232"/>
+        <n v="59804"/>
+        <n v="78428"/>
+        <n v="78464"/>
+        <n v="77828"/>
+        <n v="78540"/>
+        <n v="76884"/>
+        <n v="78648"/>
+        <n v="78776"/>
+        <n v="139356"/>
+        <n v="137012"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="SETID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="0"/>
-        <n v="1"/>
+    <cacheField name="RUNSET" numFmtId="0" sqlType="12">
+      <sharedItems count="2">
+        <s v="IN-SAMPLE"/>
+        <s v="OUT-OF-SAMPLE"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETPROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13468" count="6">
-        <n v="584"/>
-        <n v="0"/>
-        <n v="2992"/>
-        <n v="3236"/>
-        <n v="10108"/>
-        <n v="13468"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="140228" count="11">
+        <n v="20328"/>
+        <n v="43024"/>
+        <n v="76168"/>
+        <n v="51744"/>
+        <n v="77480"/>
+        <n v="77672"/>
+        <n v="77812"/>
+        <n v="78500"/>
+        <n v="140220"/>
+        <n v="140228"/>
+        <n v="0" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETTHREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="11948" count="6">
-        <n v="4312"/>
-        <n v="0"/>
-        <n v="11948"/>
-        <n v="2856"/>
-        <n v="2932"/>
-        <n v="196"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="76312" maxValue="139356" count="10">
+        <n v="76312"/>
+        <n v="135232"/>
+        <n v="77828"/>
+        <n v="78428"/>
+        <n v="78540"/>
+        <n v="76884"/>
+        <n v="78648"/>
+        <n v="78776"/>
+        <n v="139356"/>
+        <n v="137012"/>
       </sharedItems>
     </cacheField>
     <cacheField name="POS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="399"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="59799"/>
     </cacheField>
-    <cacheField name="FEATUREID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="3" count="4">
-        <n v="0"/>
-        <n v="3"/>
-        <n v="1"/>
-        <n v="2"/>
+    <cacheField name="FEATURE" numFmtId="0" sqlType="12">
+      <sharedItems count="4">
+        <s v="OPEN"/>
+        <s v="HIGH"/>
+        <s v="LOW"/>
+        <s v="CLOSE"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ACTUAL" numFmtId="0" sqlType="6">
@@ -4988,10 +5743,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.00000011920929" maxValue="1"/>
     </cacheField>
     <cacheField name="PREDICTEDTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.82484936714172397" maxValue="0.831606864929199"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.98163783550262496" maxValue="0.81332200765609697"/>
     </cacheField>
     <cacheField name="ERRORTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5001506805419896E-6" maxValue="1.2067182064056401"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.2351741790771501E-8" maxValue="1.8223857879638701"/>
     </cacheField>
     <cacheField name="BARWIDTH" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -5013,205 +5768,225 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="184">
-        <item m="1" x="133"/>
-        <item x="0"/>
-        <item m="1" x="90"/>
-        <item m="1" x="137"/>
-        <item m="1" x="163"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="110"/>
-        <item m="1" x="103"/>
-        <item x="1"/>
-        <item m="1" x="89"/>
-        <item m="1" x="171"/>
-        <item m="1" x="180"/>
-        <item m="1" x="19"/>
-        <item m="1" x="144"/>
-        <item m="1" x="108"/>
-        <item m="1" x="51"/>
-        <item x="2"/>
-        <item m="1" x="177"/>
-        <item m="1" x="100"/>
+      <items count="194">
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="107"/>
+        <item h="1" m="1" x="75"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="89"/>
+        <item h="1" m="1" x="181"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="175"/>
+        <item h="1" m="1" x="94"/>
+        <item h="1" m="1" x="90"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="130"/>
+        <item h="1" m="1" x="156"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="120"/>
+        <item h="1" m="1" x="185"/>
+        <item h="1" m="1" x="115"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="76"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="78"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="139"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="157"/>
+        <item h="1" m="1" x="104"/>
+        <item h="1" m="1" x="172"/>
+        <item h="1" m="1" x="91"/>
+        <item h="1" m="1" x="116"/>
+        <item h="1" m="1" x="97"/>
+        <item h="1" m="1" x="182"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="166"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="79"/>
+        <item h="1" m="1" x="128"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="183"/>
+        <item h="1" m="1" x="147"/>
+        <item h="1" m="1" x="121"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="95"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="186"/>
+        <item h="1" m="1" x="117"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="98"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="80"/>
+        <item h="1" m="1" x="184"/>
+        <item h="1" m="1" x="143"/>
+        <item h="1" m="1" x="110"/>
+        <item h="1" m="1" x="81"/>
+        <item h="1" m="1" x="187"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="84"/>
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="167"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="158"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="168"/>
+        <item h="1" m="1" x="189"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="140"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="111"/>
+        <item h="1" m="1" x="123"/>
+        <item h="1" m="1" x="132"/>
+        <item h="1" m="1" x="179"/>
+        <item h="1" m="1" x="112"/>
+        <item h="1" m="1" x="118"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="141"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="159"/>
+        <item h="1" m="1" x="126"/>
+        <item h="1" m="1" x="152"/>
         <item x="3"/>
-        <item m="1" x="77"/>
-        <item m="1" x="16"/>
-        <item m="1" x="64"/>
-        <item m="1" x="98"/>
-        <item m="1" x="48"/>
-        <item m="1" x="176"/>
-        <item m="1" x="157"/>
-        <item m="1" x="60"/>
-        <item m="1" x="74"/>
-        <item m="1" x="127"/>
-        <item m="1" x="68"/>
-        <item m="1" x="55"/>
-        <item m="1" x="140"/>
-        <item m="1" x="37"/>
-        <item m="1" x="24"/>
-        <item m="1" x="131"/>
-        <item m="1" x="72"/>
-        <item m="1" x="31"/>
-        <item m="1" x="15"/>
-        <item m="1" x="7"/>
-        <item m="1" x="40"/>
-        <item m="1" x="82"/>
-        <item m="1" x="17"/>
-        <item m="1" x="151"/>
-        <item m="1" x="164"/>
-        <item m="1" x="44"/>
-        <item m="1" x="113"/>
-        <item m="1" x="26"/>
-        <item m="1" x="62"/>
-        <item m="1" x="96"/>
-        <item m="1" x="46"/>
-        <item m="1" x="152"/>
-        <item m="1" x="5"/>
-        <item m="1" x="125"/>
-        <item m="1" x="146"/>
-        <item m="1" x="168"/>
-        <item m="1" x="145"/>
-        <item m="1" x="18"/>
-        <item m="1" x="21"/>
-        <item m="1" x="93"/>
-        <item m="1" x="126"/>
-        <item m="1" x="105"/>
-        <item m="1" x="9"/>
-        <item m="1" x="101"/>
-        <item m="1" x="73"/>
-        <item m="1" x="158"/>
-        <item m="1" x="61"/>
-        <item m="1" x="155"/>
-        <item m="1" x="49"/>
-        <item m="1" x="94"/>
-        <item m="1" x="150"/>
-        <item m="1" x="128"/>
-        <item m="1" x="134"/>
-        <item m="1" x="79"/>
-        <item m="1" x="76"/>
-        <item m="1" x="63"/>
-        <item m="1" x="75"/>
-        <item m="1" x="58"/>
-        <item m="1" x="159"/>
-        <item m="1" x="143"/>
-        <item m="1" x="34"/>
-        <item m="1" x="107"/>
-        <item m="1" x="22"/>
-        <item m="1" x="166"/>
-        <item m="1" x="173"/>
-        <item m="1" x="109"/>
-        <item m="1" x="59"/>
-        <item m="1" x="12"/>
-        <item m="1" x="119"/>
-        <item m="1" x="141"/>
-        <item m="1" x="138"/>
-        <item m="1" x="117"/>
-        <item m="1" x="120"/>
-        <item m="1" x="122"/>
-        <item m="1" x="161"/>
-        <item m="1" x="66"/>
-        <item m="1" x="25"/>
-        <item m="1" x="32"/>
-        <item m="1" x="132"/>
-        <item m="1" x="135"/>
-        <item m="1" x="86"/>
-        <item m="1" x="41"/>
-        <item m="1" x="104"/>
-        <item m="1" x="118"/>
-        <item m="1" x="149"/>
-        <item m="1" x="29"/>
-        <item m="1" x="106"/>
-        <item m="1" x="23"/>
-        <item m="1" x="129"/>
-        <item m="1" x="174"/>
-        <item m="1" x="70"/>
-        <item m="1" x="50"/>
-        <item m="1" x="14"/>
-        <item m="1" x="83"/>
-        <item m="1" x="156"/>
-        <item m="1" x="10"/>
-        <item m="1" x="28"/>
-        <item m="1" x="116"/>
-        <item m="1" x="178"/>
-        <item m="1" x="169"/>
-        <item m="1" x="36"/>
-        <item m="1" x="38"/>
-        <item m="1" x="53"/>
-        <item m="1" x="56"/>
-        <item m="1" x="182"/>
-        <item m="1" x="153"/>
-        <item m="1" x="95"/>
-        <item m="1" x="4"/>
-        <item m="1" x="167"/>
-        <item m="1" x="67"/>
-        <item m="1" x="65"/>
-        <item m="1" x="35"/>
-        <item m="1" x="142"/>
-        <item m="1" x="85"/>
-        <item m="1" x="6"/>
-        <item m="1" x="30"/>
-        <item m="1" x="33"/>
-        <item m="1" x="91"/>
-        <item m="1" x="123"/>
-        <item m="1" x="154"/>
-        <item m="1" x="43"/>
-        <item m="1" x="47"/>
-        <item m="1" x="139"/>
-        <item m="1" x="114"/>
-        <item m="1" x="57"/>
-        <item m="1" x="179"/>
-        <item m="1" x="11"/>
-        <item m="1" x="130"/>
-        <item m="1" x="112"/>
-        <item m="1" x="162"/>
-        <item m="1" x="99"/>
-        <item m="1" x="111"/>
-        <item m="1" x="20"/>
-        <item m="1" x="52"/>
-        <item m="1" x="160"/>
-        <item m="1" x="87"/>
-        <item m="1" x="102"/>
-        <item m="1" x="54"/>
-        <item m="1" x="80"/>
-        <item m="1" x="42"/>
-        <item m="1" x="71"/>
-        <item m="1" x="45"/>
-        <item m="1" x="170"/>
-        <item m="1" x="121"/>
-        <item m="1" x="165"/>
-        <item m="1" x="97"/>
-        <item m="1" x="147"/>
-        <item m="1" x="88"/>
-        <item m="1" x="81"/>
-        <item m="1" x="27"/>
-        <item m="1" x="78"/>
-        <item m="1" x="115"/>
-        <item m="1" x="92"/>
-        <item m="1" x="148"/>
-        <item m="1" x="69"/>
-        <item m="1" x="39"/>
-        <item m="1" x="124"/>
-        <item m="1" x="175"/>
-        <item m="1" x="181"/>
-        <item m="1" x="84"/>
-        <item m="1" x="172"/>
-        <item m="1" x="136"/>
+        <item h="1" m="1" x="163"/>
+        <item h="1" m="1" x="108"/>
+        <item h="1" m="1" x="136"/>
+        <item h="1" m="1" x="101"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="176"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="99"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="192"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="169"/>
+        <item h="1" m="1" x="73"/>
+        <item h="1" m="1" x="164"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="153"/>
+        <item h="1" m="1" x="190"/>
+        <item h="1" m="1" x="144"/>
+        <item h="1" m="1" x="85"/>
+        <item h="1" m="1" x="102"/>
+        <item h="1" m="1" x="148"/>
+        <item h="1" m="1" x="173"/>
+        <item h="1" m="1" x="134"/>
+        <item h="1" m="1" x="150"/>
+        <item h="1" m="1" x="92"/>
+        <item h="1" m="1" x="58"/>
+        <item h="1" m="1" x="86"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="188"/>
+        <item h="1" m="1" x="103"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="151"/>
+        <item h="1" m="1" x="180"/>
+        <item h="1" m="1" x="109"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="154"/>
+        <item h="1" m="1" x="82"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" m="1" x="138"/>
+        <item h="1" x="7"/>
+        <item h="1" m="1" x="137"/>
+        <item h="1" x="8"/>
+        <item h="1" m="1" x="165"/>
+        <item h="1" m="1" x="105"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="93"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" x="9"/>
+        <item h="1" m="1" x="174"/>
+        <item h="1" m="1" x="113"/>
+        <item h="1" m="1" x="142"/>
+        <item h="1" m="1" x="133"/>
+        <item h="1" m="1" x="106"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="114"/>
+        <item h="1" m="1" x="74"/>
+        <item h="1" m="1" x="160"/>
+        <item h="1" m="1" x="124"/>
+        <item h="1" m="1" x="87"/>
+        <item h="1" m="1" x="77"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="170"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="88"/>
+        <item h="1" m="1" x="119"/>
+        <item h="1" m="1" x="191"/>
+        <item h="1" m="1" x="145"/>
+        <item h="1" m="1" x="177"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="161"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="127"/>
+        <item h="1" m="1" x="135"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="171"/>
+        <item h="1" m="1" x="155"/>
+        <item h="1" m="1" x="146"/>
+        <item h="1" m="1" x="129"/>
+        <item h="1" m="1" x="122"/>
+        <item h="1" m="1" x="100"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="162"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="125"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="131"/>
+        <item h="1" m="1" x="149"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="96"/>
+        <item h="1" m="1" x="83"/>
+        <item h="1" m="1" x="178"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="7">
-        <item x="3"/>
-        <item x="2"/>
+      <items count="17">
+        <item m="1" x="12"/>
+        <item m="1" x="15"/>
+        <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item x="6"/>
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6005,213 +6780,224 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
-  <location ref="A1:F16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+  <location ref="A1:E56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
-    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="186">
-        <item m="1" x="8"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="197">
+        <item m="1" x="15"/>
+        <item m="1" x="95"/>
+        <item m="1" x="186"/>
+        <item m="1" x="62"/>
+        <item m="1" x="137"/>
+        <item m="1" x="166"/>
+        <item m="1" x="83"/>
+        <item m="1" x="148"/>
+        <item m="1" x="108"/>
+        <item m="1" x="178"/>
+        <item m="1" x="96"/>
+        <item m="1" x="100"/>
+        <item m="1" x="187"/>
+        <item m="1" x="73"/>
+        <item m="1" x="164"/>
+        <item m="1" x="146"/>
+        <item m="1" x="97"/>
+        <item m="1" x="57"/>
+        <item m="1" x="82"/>
+        <item m="1" x="77"/>
+        <item m="1" x="53"/>
+        <item m="1" x="182"/>
+        <item m="1" x="67"/>
+        <item m="1" x="66"/>
+        <item m="1" x="18"/>
+        <item m="1" x="190"/>
+        <item m="1" x="123"/>
+        <item m="1" x="52"/>
+        <item m="1" x="35"/>
+        <item m="1" x="36"/>
+        <item m="1" x="86"/>
+        <item m="1" x="54"/>
+        <item m="1" x="124"/>
+        <item m="1" x="25"/>
+        <item m="1" x="172"/>
+        <item m="1" x="70"/>
+        <item m="1" x="63"/>
         <item m="1" x="87"/>
+        <item m="1" x="136"/>
+        <item m="1" x="188"/>
+        <item m="1" x="155"/>
+        <item m="1" x="129"/>
+        <item m="1" x="46"/>
+        <item m="1" x="71"/>
+        <item m="1" x="125"/>
+        <item m="1" x="47"/>
+        <item m="1" x="19"/>
+        <item m="1" x="101"/>
+        <item m="1" x="28"/>
+        <item m="1" x="88"/>
+        <item m="1" x="189"/>
+        <item m="1" x="152"/>
+        <item m="1" x="89"/>
+        <item m="1" x="191"/>
+        <item m="1" x="90"/>
+        <item m="1" x="58"/>
+        <item m="1" x="173"/>
+        <item m="1" x="30"/>
+        <item m="1" x="37"/>
+        <item m="1" x="42"/>
+        <item m="1" x="26"/>
+        <item m="1" x="167"/>
+        <item m="1" x="72"/>
+        <item m="1" x="194"/>
+        <item m="1" x="48"/>
+        <item m="1" x="149"/>
+        <item m="1" x="55"/>
+        <item m="1" x="117"/>
+        <item m="1" x="131"/>
+        <item m="1" x="140"/>
+        <item m="1" x="184"/>
+        <item m="1" x="118"/>
+        <item m="1" x="126"/>
+        <item m="1" x="31"/>
+        <item m="1" x="150"/>
+        <item m="1" x="43"/>
+        <item m="1" x="168"/>
+        <item m="1" x="135"/>
+        <item m="1" x="162"/>
+        <item m="1" x="115"/>
+        <item m="1" x="144"/>
+        <item m="1" x="106"/>
+        <item m="1" x="38"/>
+        <item m="1" x="183"/>
+        <item m="1" x="13"/>
+        <item m="1" x="102"/>
+        <item m="1" x="40"/>
+        <item m="1" x="49"/>
+        <item m="1" x="195"/>
+        <item m="1" x="174"/>
+        <item m="1" x="78"/>
+        <item m="1" x="170"/>
+        <item m="1" x="68"/>
+        <item m="1" x="163"/>
+        <item m="1" x="153"/>
+        <item m="1" x="91"/>
+        <item m="1" x="107"/>
+        <item m="1" x="156"/>
+        <item m="1" x="179"/>
+        <item m="1" x="142"/>
+        <item m="1" x="157"/>
+        <item m="1" x="64"/>
+        <item m="1" x="92"/>
+        <item m="1" x="192"/>
+        <item m="1" x="158"/>
+        <item m="1" x="50"/>
+        <item m="1" x="171"/>
+        <item m="1" x="69"/>
+        <item m="1" x="180"/>
+        <item m="1" x="141"/>
+        <item m="1" x="111"/>
+        <item m="1" x="39"/>
+        <item m="1" x="120"/>
+        <item m="1" x="93"/>
+        <item m="1" x="84"/>
+        <item m="1" x="12"/>
+        <item m="1" x="32"/>
+        <item m="1" x="20"/>
+        <item m="1" x="94"/>
+        <item m="1" x="127"/>
+        <item m="1" x="76"/>
+        <item m="1" x="169"/>
+        <item m="1" x="21"/>
         <item m="1" x="175"/>
-        <item m="1" x="54"/>
-        <item m="1" x="125"/>
+        <item m="1" x="165"/>
+        <item m="1" x="130"/>
+        <item m="1" x="103"/>
+        <item m="1" x="193"/>
         <item m="1" x="154"/>
+        <item m="1" x="147"/>
+        <item m="1" x="45"/>
+        <item m="1" x="160"/>
+        <item m="1" x="85"/>
+        <item m="1" x="138"/>
+        <item m="1" x="133"/>
+        <item m="1" x="109"/>
+        <item m="1" x="104"/>
+        <item m="1" x="176"/>
         <item m="1" x="75"/>
-        <item m="1" x="135"/>
+        <item m="1" x="139"/>
+        <item m="1" x="161"/>
+        <item m="1" x="134"/>
+        <item m="1" x="74"/>
+        <item m="1" x="181"/>
+        <item m="1" x="29"/>
+        <item m="1" x="79"/>
+        <item m="1" x="80"/>
         <item m="1" x="99"/>
-        <item m="1" x="167"/>
-        <item m="1" x="88"/>
-        <item m="1" x="91"/>
-        <item m="1" x="176"/>
+        <item m="1" x="44"/>
+        <item m="1" x="185"/>
+        <item m="1" x="196"/>
+        <item m="1" x="24"/>
+        <item m="1" x="116"/>
+        <item m="1" x="34"/>
+        <item m="1" x="105"/>
+        <item m="1" x="121"/>
+        <item m="1" x="22"/>
+        <item m="1" x="177"/>
+        <item m="1" x="61"/>
+        <item m="1" x="81"/>
+        <item m="1" x="33"/>
+        <item m="1" x="159"/>
+        <item m="1" x="14"/>
+        <item m="1" x="151"/>
+        <item m="1" x="56"/>
+        <item m="1" x="41"/>
+        <item m="1" x="27"/>
+        <item m="1" x="59"/>
+        <item m="1" x="119"/>
+        <item m="1" x="110"/>
+        <item m="1" x="60"/>
+        <item m="1" x="122"/>
         <item m="1" x="65"/>
-        <item m="1" x="152"/>
-        <item m="1" x="133"/>
-        <item m="1" x="89"/>
-        <item m="1" x="49"/>
-        <item m="1" x="74"/>
-        <item m="1" x="69"/>
-        <item m="1" x="45"/>
-        <item m="1" x="171"/>
-        <item m="1" x="59"/>
-        <item m="1" x="58"/>
-        <item m="1" x="10"/>
-        <item m="1" x="179"/>
+        <item m="1" x="143"/>
         <item m="1" x="112"/>
-        <item m="1" x="44"/>
-        <item m="1" x="26"/>
-        <item m="1" x="27"/>
-        <item m="1" x="78"/>
-        <item m="1" x="46"/>
+        <item m="1" x="132"/>
+        <item m="1" x="17"/>
+        <item m="1" x="51"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item m="1" x="128"/>
+        <item m="1" x="23"/>
+        <item m="1" x="98"/>
         <item m="1" x="113"/>
         <item m="1" x="16"/>
-        <item m="1" x="161"/>
-        <item m="1" x="62"/>
-        <item m="1" x="55"/>
-        <item m="1" x="79"/>
-        <item m="1" x="124"/>
-        <item m="1" x="177"/>
-        <item m="1" x="143"/>
-        <item m="1" x="117"/>
-        <item m="1" x="38"/>
-        <item m="1" x="63"/>
+        <item x="6"/>
         <item m="1" x="114"/>
-        <item m="1" x="39"/>
-        <item m="1" x="11"/>
-        <item m="1" x="92"/>
-        <item m="1" x="19"/>
-        <item m="1" x="80"/>
-        <item m="1" x="178"/>
-        <item m="1" x="140"/>
-        <item m="1" x="81"/>
-        <item m="1" x="180"/>
-        <item m="1" x="82"/>
-        <item m="1" x="50"/>
-        <item m="1" x="162"/>
-        <item m="1" x="21"/>
-        <item m="1" x="28"/>
-        <item m="1" x="34"/>
-        <item m="1" x="17"/>
-        <item m="1" x="155"/>
-        <item m="1" x="64"/>
-        <item m="1" x="183"/>
-        <item m="1" x="40"/>
-        <item m="1" x="136"/>
-        <item m="1" x="47"/>
-        <item m="1" x="106"/>
-        <item m="1" x="119"/>
-        <item m="1" x="128"/>
-        <item m="1" x="173"/>
-        <item m="1" x="107"/>
-        <item m="1" x="115"/>
-        <item m="1" x="22"/>
-        <item m="1" x="137"/>
-        <item m="1" x="35"/>
-        <item m="1" x="156"/>
-        <item m="1" x="123"/>
-        <item m="1" x="150"/>
-        <item m="1" x="104"/>
-        <item m="1" x="132"/>
-        <item m="1" x="97"/>
-        <item m="1" x="29"/>
-        <item m="1" x="172"/>
-        <item m="1" x="6"/>
-        <item m="1" x="93"/>
-        <item m="1" x="31"/>
-        <item m="1" x="41"/>
-        <item m="1" x="184"/>
-        <item m="1" x="163"/>
-        <item m="1" x="70"/>
-        <item m="1" x="159"/>
-        <item m="1" x="60"/>
-        <item m="1" x="151"/>
-        <item m="1" x="141"/>
-        <item m="1" x="83"/>
-        <item m="1" x="98"/>
-        <item m="1" x="144"/>
-        <item m="1" x="168"/>
-        <item m="1" x="130"/>
         <item m="1" x="145"/>
-        <item m="1" x="56"/>
-        <item m="1" x="84"/>
-        <item m="1" x="181"/>
-        <item m="1" x="146"/>
-        <item m="1" x="42"/>
-        <item m="1" x="160"/>
-        <item m="1" x="61"/>
-        <item m="1" x="169"/>
-        <item m="1" x="129"/>
-        <item m="1" x="102"/>
-        <item m="1" x="30"/>
-        <item m="1" x="109"/>
-        <item m="1" x="85"/>
-        <item m="1" x="76"/>
-        <item m="1" x="5"/>
-        <item m="1" x="23"/>
-        <item m="1" x="12"/>
-        <item m="1" x="86"/>
-        <item m="1" x="116"/>
-        <item m="1" x="68"/>
-        <item m="1" x="157"/>
-        <item m="1" x="13"/>
-        <item m="1" x="164"/>
-        <item m="1" x="153"/>
-        <item m="1" x="118"/>
-        <item m="1" x="94"/>
-        <item m="1" x="182"/>
-        <item m="1" x="142"/>
-        <item m="1" x="134"/>
-        <item m="1" x="37"/>
-        <item m="1" x="148"/>
-        <item m="1" x="77"/>
-        <item m="1" x="126"/>
-        <item m="1" x="121"/>
-        <item m="1" x="100"/>
-        <item m="1" x="95"/>
-        <item m="1" x="165"/>
-        <item m="1" x="67"/>
-        <item m="1" x="127"/>
-        <item m="1" x="149"/>
-        <item m="1" x="122"/>
-        <item m="1" x="66"/>
-        <item m="1" x="170"/>
-        <item m="1" x="20"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="90"/>
-        <item m="1" x="36"/>
-        <item m="1" x="174"/>
-        <item m="1" x="185"/>
-        <item m="1" x="15"/>
-        <item m="1" x="105"/>
-        <item m="1" x="25"/>
-        <item m="1" x="96"/>
-        <item m="1" x="110"/>
-        <item m="1" x="14"/>
-        <item m="1" x="166"/>
-        <item m="1" x="53"/>
-        <item m="1" x="73"/>
-        <item m="1" x="24"/>
-        <item m="1" x="147"/>
-        <item m="1" x="7"/>
-        <item m="1" x="138"/>
-        <item m="1" x="48"/>
-        <item m="1" x="32"/>
-        <item m="1" x="18"/>
-        <item m="1" x="51"/>
-        <item m="1" x="108"/>
-        <item m="1" x="101"/>
-        <item m="1" x="52"/>
-        <item m="1" x="111"/>
-        <item m="1" x="57"/>
-        <item m="1" x="131"/>
-        <item m="1" x="103"/>
-        <item m="1" x="120"/>
-        <item m="1" x="9"/>
-        <item m="1" x="43"/>
-        <item m="1" x="33"/>
-        <item m="1" x="158"/>
-        <item m="1" x="139"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="12">
-        <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item m="1" x="11"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="4"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -6220,16 +7006,30 @@
         <item x="1"/>
       </items>
     </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item m="1" x="10"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="4">
         <item x="3"/>
         <item x="1"/>
-        <item t="default"/>
+        <item x="2"/>
+        <item x="0"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
@@ -6241,285 +7041,197 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="6"/>
+  <rowFields count="4">
+    <field x="3"/>
+    <field x="0"/>
+    <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="13">
+  <rowItems count="54">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="190"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="178"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="191"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="194"/>
+    </i>
+    <i r="2">
+      <x v="9"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="195"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="186"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="192"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="193"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="189"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="179"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="180"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="196"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="6"/>
+  </colFields>
+  <colItems count="4">
     <i>
       <x/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
     <i>
       <x v="1"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
     <i>
       <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x v="181"/>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="182"/>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="183"/>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="184"/>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="185"/>
-      <x v="11"/>
     </i>
   </colItems>
   <dataFields count="1">
     <dataField name="Average of ERRORTRS" fld="12" subtotal="average" baseField="4" baseItem="0" numFmtId="164"/>
   </dataFields>
-  <chartFormats count="14">
-    <chartFormat chart="0" format="36" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="181"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="37" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="182"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="38" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="183"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="39" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="184"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="40" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="183"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="41" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="184"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="10"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="42" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="181"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="43" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="4">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="182"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="44" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="184"/>
-          </reference>
-          <reference field="2" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="45" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="181"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="46" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="182"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="47" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="183"/>
-          </reference>
-          <reference field="1" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
+  <chartFormats count="5">
     <chartFormat chart="0" format="48" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -6540,6 +7252,39 @@
           </reference>
           <reference field="0" count="1" selected="0">
             <x v="185"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="54" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="186"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="57" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="189"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="58" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -6579,190 +7324,200 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="183">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
+      <items count="193">
+        <i x="0"/>
+        <i x="1"/>
+        <i x="2"/>
         <i x="3" s="1"/>
-        <i x="133" s="1" nd="1"/>
-        <i x="90" s="1" nd="1"/>
-        <i x="137" s="1" nd="1"/>
-        <i x="163" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="110" s="1" nd="1"/>
-        <i x="103" s="1" nd="1"/>
-        <i x="89" s="1" nd="1"/>
-        <i x="171" s="1" nd="1"/>
-        <i x="180" s="1" nd="1"/>
-        <i x="19" s="1" nd="1"/>
-        <i x="144" s="1" nd="1"/>
-        <i x="108" s="1" nd="1"/>
-        <i x="51" s="1" nd="1"/>
-        <i x="177" s="1" nd="1"/>
-        <i x="100" s="1" nd="1"/>
-        <i x="77" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="64" s="1" nd="1"/>
-        <i x="98" s="1" nd="1"/>
-        <i x="48" s="1" nd="1"/>
-        <i x="176" s="1" nd="1"/>
-        <i x="157" s="1" nd="1"/>
-        <i x="60" s="1" nd="1"/>
-        <i x="74" s="1" nd="1"/>
-        <i x="127" s="1" nd="1"/>
-        <i x="68" s="1" nd="1"/>
-        <i x="55" s="1" nd="1"/>
-        <i x="140" s="1" nd="1"/>
-        <i x="37" s="1" nd="1"/>
-        <i x="24" s="1" nd="1"/>
-        <i x="131" s="1" nd="1"/>
-        <i x="72" s="1" nd="1"/>
-        <i x="31" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="40" s="1" nd="1"/>
-        <i x="82" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
-        <i x="151" s="1" nd="1"/>
-        <i x="164" s="1" nd="1"/>
-        <i x="44" s="1" nd="1"/>
-        <i x="113" s="1" nd="1"/>
-        <i x="26" s="1" nd="1"/>
-        <i x="62" s="1" nd="1"/>
-        <i x="96" s="1" nd="1"/>
-        <i x="46" s="1" nd="1"/>
-        <i x="152" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="125" s="1" nd="1"/>
-        <i x="146" s="1" nd="1"/>
-        <i x="168" s="1" nd="1"/>
-        <i x="145" s="1" nd="1"/>
-        <i x="18" s="1" nd="1"/>
-        <i x="21" s="1" nd="1"/>
-        <i x="93" s="1" nd="1"/>
-        <i x="126" s="1" nd="1"/>
-        <i x="105" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="101" s="1" nd="1"/>
-        <i x="73" s="1" nd="1"/>
-        <i x="158" s="1" nd="1"/>
-        <i x="61" s="1" nd="1"/>
-        <i x="155" s="1" nd="1"/>
-        <i x="49" s="1" nd="1"/>
-        <i x="94" s="1" nd="1"/>
-        <i x="150" s="1" nd="1"/>
-        <i x="128" s="1" nd="1"/>
-        <i x="134" s="1" nd="1"/>
-        <i x="79" s="1" nd="1"/>
-        <i x="76" s="1" nd="1"/>
-        <i x="63" s="1" nd="1"/>
-        <i x="75" s="1" nd="1"/>
-        <i x="58" s="1" nd="1"/>
-        <i x="159" s="1" nd="1"/>
-        <i x="143" s="1" nd="1"/>
-        <i x="34" s="1" nd="1"/>
-        <i x="107" s="1" nd="1"/>
-        <i x="22" s="1" nd="1"/>
-        <i x="166" s="1" nd="1"/>
-        <i x="173" s="1" nd="1"/>
-        <i x="109" s="1" nd="1"/>
-        <i x="59" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="119" s="1" nd="1"/>
-        <i x="141" s="1" nd="1"/>
-        <i x="138" s="1" nd="1"/>
-        <i x="117" s="1" nd="1"/>
-        <i x="120" s="1" nd="1"/>
-        <i x="122" s="1" nd="1"/>
-        <i x="161" s="1" nd="1"/>
-        <i x="66" s="1" nd="1"/>
-        <i x="25" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
-        <i x="132" s="1" nd="1"/>
-        <i x="135" s="1" nd="1"/>
-        <i x="86" s="1" nd="1"/>
-        <i x="41" s="1" nd="1"/>
-        <i x="104" s="1" nd="1"/>
-        <i x="118" s="1" nd="1"/>
-        <i x="149" s="1" nd="1"/>
-        <i x="29" s="1" nd="1"/>
-        <i x="106" s="1" nd="1"/>
-        <i x="23" s="1" nd="1"/>
-        <i x="129" s="1" nd="1"/>
-        <i x="174" s="1" nd="1"/>
-        <i x="70" s="1" nd="1"/>
-        <i x="50" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
-        <i x="83" s="1" nd="1"/>
-        <i x="156" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="28" s="1" nd="1"/>
-        <i x="116" s="1" nd="1"/>
-        <i x="178" s="1" nd="1"/>
-        <i x="169" s="1" nd="1"/>
-        <i x="36" s="1" nd="1"/>
-        <i x="38" s="1" nd="1"/>
-        <i x="53" s="1" nd="1"/>
-        <i x="56" s="1" nd="1"/>
-        <i x="182" s="1" nd="1"/>
-        <i x="153" s="1" nd="1"/>
-        <i x="95" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="167" s="1" nd="1"/>
-        <i x="67" s="1" nd="1"/>
-        <i x="65" s="1" nd="1"/>
-        <i x="35" s="1" nd="1"/>
-        <i x="142" s="1" nd="1"/>
-        <i x="85" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="30" s="1" nd="1"/>
-        <i x="33" s="1" nd="1"/>
-        <i x="91" s="1" nd="1"/>
-        <i x="123" s="1" nd="1"/>
-        <i x="154" s="1" nd="1"/>
-        <i x="43" s="1" nd="1"/>
-        <i x="47" s="1" nd="1"/>
-        <i x="139" s="1" nd="1"/>
-        <i x="114" s="1" nd="1"/>
-        <i x="57" s="1" nd="1"/>
-        <i x="179" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="130" s="1" nd="1"/>
-        <i x="112" s="1" nd="1"/>
-        <i x="162" s="1" nd="1"/>
-        <i x="99" s="1" nd="1"/>
-        <i x="111" s="1" nd="1"/>
-        <i x="20" s="1" nd="1"/>
-        <i x="52" s="1" nd="1"/>
-        <i x="160" s="1" nd="1"/>
-        <i x="87" s="1" nd="1"/>
-        <i x="102" s="1" nd="1"/>
-        <i x="54" s="1" nd="1"/>
-        <i x="80" s="1" nd="1"/>
-        <i x="42" s="1" nd="1"/>
-        <i x="71" s="1" nd="1"/>
-        <i x="45" s="1" nd="1"/>
-        <i x="170" s="1" nd="1"/>
-        <i x="121" s="1" nd="1"/>
-        <i x="165" s="1" nd="1"/>
-        <i x="97" s="1" nd="1"/>
-        <i x="147" s="1" nd="1"/>
-        <i x="88" s="1" nd="1"/>
-        <i x="81" s="1" nd="1"/>
-        <i x="27" s="1" nd="1"/>
-        <i x="78" s="1" nd="1"/>
-        <i x="115" s="1" nd="1"/>
-        <i x="92" s="1" nd="1"/>
-        <i x="148" s="1" nd="1"/>
-        <i x="69" s="1" nd="1"/>
-        <i x="39" s="1" nd="1"/>
-        <i x="124" s="1" nd="1"/>
-        <i x="175" s="1" nd="1"/>
-        <i x="181" s="1" nd="1"/>
-        <i x="84" s="1" nd="1"/>
-        <i x="172" s="1" nd="1"/>
-        <i x="136" s="1" nd="1"/>
+        <i x="4"/>
+        <i x="5"/>
+        <i x="6"/>
+        <i x="7"/>
+        <i x="8"/>
+        <i x="9"/>
+        <i x="10"/>
+        <i x="11"/>
+        <i x="53" nd="1"/>
+        <i x="107" nd="1"/>
+        <i x="75" nd="1"/>
+        <i x="72" nd="1"/>
+        <i x="15" nd="1"/>
+        <i x="89" nd="1"/>
+        <i x="181" nd="1"/>
+        <i x="50" nd="1"/>
+        <i x="175" nd="1"/>
+        <i x="94" nd="1"/>
+        <i x="90" nd="1"/>
+        <i x="61" nd="1"/>
+        <i x="55" nd="1"/>
+        <i x="60" nd="1"/>
+        <i x="130" nd="1"/>
+        <i x="156" nd="1"/>
+        <i x="16" nd="1"/>
+        <i x="120" nd="1"/>
+        <i x="185" nd="1"/>
+        <i x="115" nd="1"/>
+        <i x="21" nd="1"/>
+        <i x="48" nd="1"/>
+        <i x="33" nd="1"/>
+        <i x="32" nd="1"/>
+        <i x="76" nd="1"/>
+        <i x="34" nd="1"/>
+        <i x="78" nd="1"/>
+        <i x="139" nd="1"/>
+        <i x="51" nd="1"/>
+        <i x="157" nd="1"/>
+        <i x="104" nd="1"/>
+        <i x="172" nd="1"/>
+        <i x="91" nd="1"/>
+        <i x="116" nd="1"/>
+        <i x="97" nd="1"/>
+        <i x="182" nd="1"/>
+        <i x="24" nd="1"/>
+        <i x="166" nd="1"/>
+        <i x="64" nd="1"/>
+        <i x="56" nd="1"/>
+        <i x="79" nd="1"/>
+        <i x="128" nd="1"/>
+        <i x="25" nd="1"/>
+        <i x="183" nd="1"/>
+        <i x="147" nd="1"/>
+        <i x="121" nd="1"/>
+        <i x="42" nd="1"/>
+        <i x="95" nd="1"/>
+        <i x="65" nd="1"/>
+        <i x="186" nd="1"/>
+        <i x="117" nd="1"/>
+        <i x="43" nd="1"/>
+        <i x="17" nd="1"/>
+        <i x="98" nd="1"/>
+        <i x="28" nd="1"/>
+        <i x="80" nd="1"/>
+        <i x="184" nd="1"/>
+        <i x="143" nd="1"/>
+        <i x="110" nd="1"/>
+        <i x="81" nd="1"/>
+        <i x="187" nd="1"/>
+        <i x="12" nd="1"/>
+        <i x="84" nd="1"/>
+        <i x="54" nd="1"/>
+        <i x="167" nd="1"/>
+        <i x="29" nd="1"/>
+        <i x="35" nd="1"/>
+        <i x="39" nd="1"/>
+        <i x="26" nd="1"/>
+        <i x="158" nd="1"/>
+        <i x="66" nd="1"/>
+        <i x="168" nd="1"/>
+        <i x="189" nd="1"/>
+        <i x="44" nd="1"/>
+        <i x="140" nd="1"/>
+        <i x="52" nd="1"/>
+        <i x="111" nd="1"/>
+        <i x="123" nd="1"/>
+        <i x="132" nd="1"/>
+        <i x="179" nd="1"/>
+        <i x="112" nd="1"/>
+        <i x="118" nd="1"/>
+        <i x="30" nd="1"/>
+        <i x="141" nd="1"/>
+        <i x="40" nd="1"/>
+        <i x="68" nd="1"/>
+        <i x="22" nd="1"/>
+        <i x="159" nd="1"/>
+        <i x="126" nd="1"/>
+        <i x="152" nd="1"/>
+        <i x="163" nd="1"/>
+        <i x="108" nd="1"/>
+        <i x="136" nd="1"/>
+        <i x="101" nd="1"/>
+        <i x="36" nd="1"/>
+        <i x="176" nd="1"/>
+        <i x="14" nd="1"/>
+        <i x="99" nd="1"/>
+        <i x="38" nd="1"/>
+        <i x="69" nd="1"/>
+        <i x="45" nd="1"/>
+        <i x="192" nd="1"/>
+        <i x="27" nd="1"/>
+        <i x="169" nd="1"/>
+        <i x="73" nd="1"/>
+        <i x="164" nd="1"/>
+        <i x="62" nd="1"/>
+        <i x="153" nd="1"/>
+        <i x="190" nd="1"/>
+        <i x="144" nd="1"/>
+        <i x="85" nd="1"/>
+        <i x="102" nd="1"/>
+        <i x="148" nd="1"/>
+        <i x="173" nd="1"/>
+        <i x="134" nd="1"/>
+        <i x="150" nd="1"/>
+        <i x="92" nd="1"/>
+        <i x="58" nd="1"/>
+        <i x="86" nd="1"/>
+        <i x="46" nd="1"/>
+        <i x="188" nd="1"/>
+        <i x="103" nd="1"/>
+        <i x="151" nd="1"/>
+        <i x="180" nd="1"/>
+        <i x="109" nd="1"/>
+        <i x="47" nd="1"/>
+        <i x="154" nd="1"/>
+        <i x="82" nd="1"/>
+        <i x="138" nd="1"/>
+        <i x="137" nd="1"/>
+        <i x="165" nd="1"/>
+        <i x="105" nd="1"/>
+        <i x="18" nd="1"/>
+        <i x="93" nd="1"/>
+        <i x="63" nd="1"/>
+        <i x="174" nd="1"/>
+        <i x="113" nd="1"/>
+        <i x="142" nd="1"/>
+        <i x="133" nd="1"/>
+        <i x="106" nd="1"/>
+        <i x="37" nd="1"/>
+        <i x="114" nd="1"/>
+        <i x="74" nd="1"/>
+        <i x="160" nd="1"/>
+        <i x="124" nd="1"/>
+        <i x="87" nd="1"/>
+        <i x="77" nd="1"/>
+        <i x="13" nd="1"/>
+        <i x="31" nd="1"/>
+        <i x="170" nd="1"/>
+        <i x="19" nd="1"/>
+        <i x="88" nd="1"/>
+        <i x="119" nd="1"/>
+        <i x="191" nd="1"/>
+        <i x="145" nd="1"/>
+        <i x="177" nd="1"/>
+        <i x="71" nd="1"/>
+        <i x="161" nd="1"/>
+        <i x="49" nd="1"/>
+        <i x="127" nd="1"/>
+        <i x="135" nd="1"/>
+        <i x="20" nd="1"/>
+        <i x="171" nd="1"/>
+        <i x="155" nd="1"/>
+        <i x="146" nd="1"/>
+        <i x="129" nd="1"/>
+        <i x="122" nd="1"/>
+        <i x="100" nd="1"/>
+        <i x="67" nd="1"/>
+        <i x="162" nd="1"/>
+        <i x="57" nd="1"/>
+        <i x="125" nd="1"/>
+        <i x="23" nd="1"/>
+        <i x="131" nd="1"/>
+        <i x="149" nd="1"/>
+        <i x="59" nd="1"/>
+        <i x="70" nd="1"/>
+        <i x="96" nd="1"/>
+        <i x="83" nd="1"/>
+        <i x="178" nd="1"/>
+        <i x="41" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6776,13 +7531,23 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="6">
+      <items count="16">
         <i x="3" s="1"/>
-        <i x="2" s="1"/>
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
         <i x="5" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -6797,9 +7562,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Query_from_Algo" displayName="Table_Query_from_Algo" ref="A1:I2" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I2"/>
-  <sortState ref="A2:I2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Query_from_Algo" displayName="Table_Query_from_Algo" ref="A1:I15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I15"/>
+  <sortState ref="A2:I15">
     <sortCondition descending="1" ref="C1:C26"/>
   </sortState>
   <tableColumns count="9">
@@ -7080,17 +7845,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -7131,22 +7896,22 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>43024</v>
+        <v>51744</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="6">
-        <v>43157.029699074075</v>
+        <v>43157.957303240742</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>442</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="6">
-        <v>42368</v>
+        <v>43099</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -7155,6 +7920,383 @@
         <v>1</v>
       </c>
       <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>76116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6">
+        <v>43157.949363425927</v>
+      </c>
+      <c r="D3">
+        <v>49</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>43099</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50312</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="6">
+        <v>43157.945335648146</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>43099</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>76168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>43157.942962962959</v>
+      </c>
+      <c r="D5">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>43099</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>77672</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>43157.939305555556</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>77812</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6">
+        <v>43157.909768518519</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20328</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43157.900335648148</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>78500</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43157.898715277777</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>77492</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6">
+        <v>43157.898564814815</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1848</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43157.898298611108</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>77480</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="6">
+        <v>43157.89638888889</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>140228</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6">
+        <v>43157.039803240739</v>
+      </c>
+      <c r="D13">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>140220</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43157.037731481483</v>
+      </c>
+      <c r="D14">
+        <v>230</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>43024</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43157.029699074075</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>42368</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>1</v>
       </c>
     </row>
@@ -7171,7 +8313,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7193,7 +8335,7 @@
       </c>
       <c r="F1" s="4">
         <f>MIN($B:$B)</f>
-        <v>1.4680151594802723E-2</v>
+        <v>1.1641189485089899E-4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7201,14 +8343,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3.4111250191926949E-2</v>
+        <v>5.6256738025695096E-4</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4">
         <f>VLOOKUP(MAX($A:$A),$A:$B,2,FALSE)</f>
-        <v>1.5931972768157724E-2</v>
+        <v>1.1641189485089899E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7216,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2.4088085629045949E-2</v>
+        <v>5.6256382958963503E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7224,7 +8366,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2.348215831443665E-2</v>
+        <v>5.6255492381751505E-4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7232,7 +8374,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>2.3034681100398326E-2</v>
+        <v>5.6250579655170397E-4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7240,7 +8382,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>2.2694292012602073E-2</v>
+        <v>5.3907325491309198E-4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7248,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2.2420058958232403E-2</v>
+        <v>5.0377042498439605E-4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7256,7 +8398,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>2.2176740691065799E-2</v>
+        <v>4.82220842968673E-4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7264,7 +8406,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>2.194321574643255E-2</v>
+        <v>4.3072368134744498E-4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7272,7 +8414,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>2.17086593620479E-2</v>
+        <v>4.0127505781129003E-4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7280,7 +8422,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>2.1466628648340674E-2</v>
+        <v>3.9367115823552002E-4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -7288,7 +8430,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>2.1214990410953774E-2</v>
+        <v>3.8941993261687501E-4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7296,7 +8438,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0955292508006075E-2</v>
+        <v>3.86329367756844E-4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7304,7 +8446,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>2.0689600612968199E-2</v>
+        <v>3.8394314469769602E-4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -7312,7 +8454,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>2.041755290701985E-2</v>
+        <v>3.8203908479772497E-4</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -7320,7 +8462,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>2.0140225067734701E-2</v>
+        <v>3.8047868292778698E-4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7328,7 +8470,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.9863531459122875E-2</v>
+        <v>3.79165954655036E-4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7336,7 +8478,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.9593862351030097E-2</v>
+        <v>3.7803107989020602E-4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7344,7 +8486,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.9331811927258975E-2</v>
+        <v>3.7701294058933897E-4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7352,7 +8494,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.9072594121098525E-2</v>
+        <v>3.76048556063324E-4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7360,7 +8502,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.8825931940227726E-2</v>
+        <v>3.7504063220694699E-4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7368,7 +8510,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1.8669262062758228E-2</v>
+        <v>3.7375412648543699E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7376,7 +8518,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>1.8555552698671797E-2</v>
+        <v>3.7112561403773698E-4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7384,7 +8526,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>1.8401373643428073E-2</v>
+        <v>3.4274830250069499E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7392,7 +8534,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>1.8062548246234648E-2</v>
+        <v>1.71775667695329E-4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7400,7 +8542,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>1.7816427163779749E-2</v>
+        <v>1.32821267470717E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7408,7 +8550,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>1.7590460833162076E-2</v>
+        <v>1.2514081026893101E-4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7416,7 +8558,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>1.7375590279698348E-2</v>
+        <v>1.2246731785126001E-4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7424,7 +8566,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>1.7168656922876824E-2</v>
+        <v>1.21120778203476E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7432,7 +8574,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1.6970157157629721E-2</v>
+        <v>1.20350494398735E-4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7440,7 +8582,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1.6782117541879422E-2</v>
+        <v>1.1988649930572101E-4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7448,7 +8590,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>1.6602923627942801E-2</v>
+        <v>1.19586002256256E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7456,7 +8598,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>1.6436394769698374E-2</v>
+        <v>1.1937501403735999E-4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7464,7 +8606,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>1.6317475121468299E-2</v>
+        <v>1.1921628174604801E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7472,7 +8614,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>1.6259888187050826E-2</v>
+        <v>1.19089614599943E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7480,7 +8622,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>1.6099650412797924E-2</v>
+        <v>1.18983225547709E-4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7488,7 +8630,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>1.5866011148318648E-2</v>
+        <v>1.18890711746644E-4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7496,7 +8638,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1.56546051148325E-2</v>
+        <v>1.18807802209631E-4</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7504,7 +8646,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1.5476828673854449E-2</v>
+        <v>1.18731819384266E-4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7512,7 +8654,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>1.5333409653976575E-2</v>
+        <v>1.1866090790135799E-4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7520,7 +8662,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>1.5216717263683675E-2</v>
+        <v>1.1859396181535E-4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7528,7 +8670,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>1.5121306991204626E-2</v>
+        <v>1.18529933388345E-4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7536,7 +8678,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>1.503774942830205E-2</v>
+        <v>1.18468422442675E-4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7544,7 +8686,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>1.4947691466659325E-2</v>
+        <v>1.18408621347044E-4</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7552,7 +8694,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1.4850208535790449E-2</v>
+        <v>1.18350602861028E-4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7560,7 +8702,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>1.4752991963177925E-2</v>
+        <v>1.1829385039163799E-4</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7568,7 +8710,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>1.4689620351418849E-2</v>
+        <v>1.1823801469290601E-4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7576,7 +8718,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>1.4680151594802723E-2</v>
+        <v>1.1818326311185999E-4</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7584,7 +8726,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1.4749440131708974E-2</v>
+        <v>1.1812929005827799E-4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7592,7 +8734,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>1.4864034717902524E-2</v>
+        <v>1.18075891805347E-4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7600,7 +8742,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>1.5931972768157724E-2</v>
+        <v>1.1641189485089899E-4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7608,7 +8750,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>1.8470247648656367E-2</v>
+        <v>2.6361303462181241E-4</v>
       </c>
     </row>
   </sheetData>
@@ -7626,29 +8768,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="32" width="7.5703125" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="13" width="7.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="21" width="7.5703125" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" customWidth="1"/>
+    <col min="23" max="25" width="7.5703125" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="7.5703125" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" customWidth="1"/>
+    <col min="29" max="31" width="7.5703125" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" customWidth="1"/>
+    <col min="33" max="35" width="7.5703125" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -7656,253 +8807,739 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>10108</v>
-      </c>
-      <c r="C2">
-        <v>13468</v>
-      </c>
-      <c r="D2">
-        <v>2992</v>
-      </c>
-      <c r="E2">
-        <v>584</v>
-      </c>
-      <c r="F2">
-        <v>3236</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>2932</v>
-      </c>
-      <c r="C3">
-        <v>196</v>
-      </c>
-      <c r="D3">
-        <v>11948</v>
-      </c>
-      <c r="E3">
-        <v>4312</v>
-      </c>
-      <c r="F3">
-        <v>2856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>20328</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.11224561841227114</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.251674684677273</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.16025961910374462</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.14396645347122103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>20328</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>0.12261078086914495</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.10603106593247504</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.6421094154939058E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>0</v>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>76312</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>8.2980411993339664E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.10348443602211774</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3.2228669207543144E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9.5265727080404761E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.3643049672245974E-2</v>
+      </c>
       <c r="D6" s="1">
-        <v>0.16224114974495024</v>
+        <v>7.7056866250932221E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.10857769584283233</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6.0613519102334978E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
+        <v>0.10068114893510938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>0.16144025630899703</v>
+        <v>0.12922550974413752</v>
       </c>
       <c r="C7" s="1">
-        <v>0.1044362715119496</v>
+        <v>0.43970631968230012</v>
       </c>
       <c r="D7" s="1">
-        <v>0.2515436824876815</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>0</v>
+        <v>0.24346237195655704</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.18725175800733268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43024</v>
       </c>
       <c r="B8" s="1">
-        <v>6.7580254711210722E-2</v>
+        <v>9.4228627712086399E-2</v>
       </c>
       <c r="C8" s="1">
-        <v>6.6199048794805981E-2</v>
+        <v>0.28630093825912034</v>
       </c>
       <c r="D8" s="1">
-        <v>6.44884042814374E-2</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.19733789503850319</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.15957555911607213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.25530025790678335</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.1426734942290932</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.43859896069392562</v>
-      </c>
+        <v>43024</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.30281429307884539</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.30780872603645548</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.16372456511482597</v>
-      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>135232</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>0</v>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B11" s="1">
-        <v>8.673132877796888E-2</v>
+        <v>7.9162700101733194E-2</v>
       </c>
       <c r="C11" s="1">
-        <v>8.7992129400372501E-2</v>
+        <v>6.0340686032065639E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>7.7469987124204637E-2</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>1</v>
+        <v>6.0982940263218349E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.1928980195963826E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>0.51889725737972181</v>
+        <v>0.10929455532243956</v>
       </c>
       <c r="C12" s="1">
-        <v>0.52762532267253848</v>
+        <v>0.51226119048617502</v>
       </c>
       <c r="D12" s="1">
-        <v>0.24997914310544733</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.33369284981378805</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.2772221380361804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+        <v>76168</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.9647803433811351E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.10843335454819608</v>
+      </c>
       <c r="D13" s="1">
-        <v>0.1160668620187789</v>
+        <v>9.7958401377825063E-2</v>
       </c>
       <c r="E13" s="1">
-        <v>0.106269302777946</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.11445340362377465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.5305260091975801E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>0</v>
+        <v>76168</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>9.4523630216717697E-2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8.9747606813907602E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>9.5816573034971958E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>1</v>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>77828</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>0.13761009382084011</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.12279099874198436</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.13309023421257735</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4.48887443613218E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4.2935788993077095E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3.9200294861199712E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3.8151216474553405E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>50312</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>59804</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.1232607848942262E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.36615520339459179</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.21535950221121311</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.12596547059714794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>76116</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>78464</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.11439413315356893</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.17186086509250062</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.15577352716486498</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.11205239438807151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>77480</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.2765183188021188E-2</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>7.9272040044888858E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>77480</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>78540</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8.2765183188021188E-2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>7.9272040044888858E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>77672</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.26042592342039855</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.29491027973479389</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.31132288681286752</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.15628680982203647</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>77672</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <v>76884</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.21863705562427641</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.19890761971473686</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.19627886868547648</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.14581008725799621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.26618990518538094</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.30815202594445695</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.32719102724423182</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.15773187500328339</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>77812</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.11538705521263182</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.24923265597317365</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.15382568855769932</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.11705639668740332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>77812</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <v>78648</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <v>8.9638277105987069E-2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7.0942909866571424E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8.4457853399217131E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8.9465148597955679E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.14113583331927657</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.42752240207977593</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.22319352371618151</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.14464764477685096</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>78500</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8.6009755209088337E-2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.8477020710706715E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.6819714531302458E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9.2140893936157223E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>78500</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>78776</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="1">
+        <v>8.6009755209088337E-2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6.8477020710706715E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>7.6819714531302458E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>9.2140893936157223E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>140220</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4.5592092770891282E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4.1725784900406397E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4.1672466100650715E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1.7987661237984686E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>140220</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>139356</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4.1987430068281137E-2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4.0827699283271852E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.5231589622523818E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.3234250883448768E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.58448916681110863</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.17598958466202019</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.0045834995806218</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.72862250924110417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>140228</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4.188783115278806E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.7073745764420671E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.9339370412985637E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2.1407525531134061E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>140228</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <v>137012</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4.045412633188044E-2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3.3963097101420064E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.2709915256524849E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1.3439763554814389E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.2562267018784769</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.50211572088301182</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.0304429163038731</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.2125879409909248</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>51744</v>
+      </c>
+      <c r="B51" s="1">
+        <v>9.0192958378825849E-2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.10617771155810385</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.11884820762972149</v>
+      </c>
+      <c r="E51" s="1">
+        <v>6.7925394221443808E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>51744</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
+        <v>78428</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4.3878556673983521E-2</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.6802175589613302E-2</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3.8072193229784182E-2</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1.0171900294990191E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.13650736008366818</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.17555324752659437</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.19962422202965879</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.12567888814789743</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.23212727469392117</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.20612249877420255</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.16348647262260785</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.10615018435521051</v>
-      </c>
-      <c r="F16" s="1">
-        <v>8.0437248889356855E-2</v>
+      <c r="B56" s="1">
+        <v>7.014732695675624E-2</v>
+      </c>
+      <c r="C56" s="1">
+        <v>8.3691634493046257E-2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.4050869029787575E-2</v>
+      </c>
+      <c r="E56" s="1">
+        <v>5.3126303045602369E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tester2.xlsx
+++ b/Tester2.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaglion\dev\cudaNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.caglioni\dev\cudaNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,10 @@
     <definedName name="Slicer_PROCESSID">#N/A</definedName>
     <definedName name="Slicer_THREADID">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId4"/>
-    <pivotCache cacheId="36" r:id="rId5"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="6" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -48,17 +48,17 @@
   <connection id="1" name="Q_ClientInfo" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DSN=Algo;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=F;CSR=F;FWC=F;FBS=64000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT CLIENTINFO.PROCESSID, CLIENTINFO.CLIENTNAME, CLIENTINFO.CLIENTSTART, CLIENTINFO.DURATION, CLIENTINFO.SIMULATIONLEN, CLIENTINFO.SIMULATIONSTART, CLIENTINFO.DOTRAINING, CLIENTINFO.DOTRAINRUN, CLIENTINFO.DOTESTRUN_x000d__x000a_FROM CULOGUSER.CLIENTINFO CLIENTINFO_x000d__x000a_ORDER BY CLIENTINFO.CLIENTSTART DESC"/>
   </connection>
-  <connection id="2" name="Q_MSE" type="1" refreshedVersion="5" savePassword="1" saveData="1">
+  <connection id="2" name="Q_MSE" type="1" refreshedVersion="6" savePassword="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH, TRAINLOG.MSE_T, TRAINLOG.MSE_V_x000d__x000a_FROM CULOGUSER.TRAINLOG TRAINLOG_x000d__x000a_ORDER BY TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH"/>
   </connection>
-  <connection id="3" name="Q_Run" type="1" refreshedVersion="5" savePassword="1" saveData="1">
+  <connection id="3" name="Q_Run" type="1" refreshedVersion="6" savePassword="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT RUNLOG.PROCESSID, RUNLOG.THREADID, decode(RUNLOG.SETID,0,'IN-SAMPLE','OUT-OF-SAMPLE') RunSet,RUNLOG.NETPROCESSID, RUNLOG.NETTHREADID, RUNLOG.POS, decode(RUNLOG.FEATUREID,0,'OPEN',1,'HIGH',2,'LOW',3,'CLOSE',4,'VOLUME','UNKNOWN') Feature, RUNLOG.ACTUAL, RUNLOG.PREDICTED, RUNLOG.ERROR, RUNLOG.ACTUALTRS, RUNLOG.PREDICTEDTRS, RUNLOG.ERRORTRS, RUNLOG.BARWIDTH, RUNLOG.ERRORP_x000d__x000a_FROM CULOGUSER.RUNLOG RUNLOG_x000d__x000a_ORDER BY RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.POS, RUNLOG.FEATUREID"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>Average of MSE_T</t>
   </si>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -201,10 +201,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -525,160 +525,160 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>5.6256738025695096E-4</c:v>
+                  <c:v>2.4173477664589899E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6256382958963503E-4</c:v>
+                  <c:v>1.8782664090395002E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6255492381751505E-4</c:v>
+                  <c:v>1.8569238483905799E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6250579655170397E-4</c:v>
+                  <c:v>1.8355628475546799E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3907325491309198E-4</c:v>
+                  <c:v>1.81380938738585E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0377042498439605E-4</c:v>
+                  <c:v>1.79133601486683E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.82220842968673E-4</c:v>
+                  <c:v>1.7678784206509601E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.3072368134744498E-4</c:v>
+                  <c:v>1.7432754859328301E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0127505781129003E-4</c:v>
+                  <c:v>1.7175218090415001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9367115823552002E-4</c:v>
+                  <c:v>1.6908166930079498E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8941993261687501E-4</c:v>
+                  <c:v>1.6635760664939901E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.86329367756844E-4</c:v>
+                  <c:v>1.63637306541204E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8394314469769602E-4</c:v>
+                  <c:v>1.6098072752356501E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8203908479772497E-4</c:v>
+                  <c:v>1.5843661502003701E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8047868292778698E-4</c:v>
+                  <c:v>1.5603618696332E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.79165954655036E-4</c:v>
+                  <c:v>1.53795778751373E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.7803107989020602E-4</c:v>
+                  <c:v>1.5171991661191001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7701294058933897E-4</c:v>
+                  <c:v>1.4980305917561099E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.76048556063324E-4</c:v>
+                  <c:v>1.48032922297716E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7504063220694699E-4</c:v>
+                  <c:v>1.46394912153482E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.7375412648543699E-4</c:v>
+                  <c:v>1.44875030964613E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7112561403773698E-4</c:v>
+                  <c:v>1.43460929393768E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4274830250069499E-4</c:v>
+                  <c:v>1.42141133546829E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.71775667695329E-4</c:v>
+                  <c:v>1.4090212062001201E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.32821267470717E-4</c:v>
+                  <c:v>1.3972711749374899E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.2514081026893101E-4</c:v>
+                  <c:v>1.3859662227332601E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2246731785126001E-4</c:v>
+                  <c:v>1.37491868808866E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.21120778203476E-4</c:v>
+                  <c:v>1.3639764860272401E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.20350494398735E-4</c:v>
+                  <c:v>1.35303810238838E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1988649930572101E-4</c:v>
+                  <c:v>1.3420577161014101E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.19586002256256E-4</c:v>
+                  <c:v>1.33104249835014E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.1937501403735999E-4</c:v>
+                  <c:v>1.32004199549556E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1921628174604801E-4</c:v>
+                  <c:v>1.3091283850371799E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.19089614599943E-4</c:v>
+                  <c:v>1.2983731925487499E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.18983225547709E-4</c:v>
+                  <c:v>1.28782466053963E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.18890711746644E-4</c:v>
+                  <c:v>1.27749713137746E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.18807802209631E-4</c:v>
+                  <c:v>1.2673666700720799E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.18731819384266E-4</c:v>
+                  <c:v>1.25737963244319E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1866090790135799E-4</c:v>
+                  <c:v>1.24746579676867E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1859396181535E-4</c:v>
+                  <c:v>1.2375633232295499E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.18529933388345E-4</c:v>
+                  <c:v>1.2276383116841301E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.18468422442675E-4</c:v>
+                  <c:v>1.21769802644849E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.18408621347044E-4</c:v>
+                  <c:v>1.20778428390622E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.18350602861028E-4</c:v>
+                  <c:v>1.19796227663755E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1829385039163799E-4</c:v>
+                  <c:v>1.18829701095819E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1823801469290601E-4</c:v>
+                  <c:v>1.17885489016771E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1818326311185999E-4</c:v>
+                  <c:v>1.16970930248499E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1812929005827799E-4</c:v>
+                  <c:v>1.1609522625803901E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.18075891805347E-4</c:v>
+                  <c:v>1.1526857502758499E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1641189485089899E-4</c:v>
+                  <c:v>1.34582994505763E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D5F-49E7-99C4-091DC5BE43ED}"/>
             </c:ext>
@@ -845,12 +845,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -859,12 +854,17 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1023,7 +1023,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1118,7 +1118,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2069,30 +2069,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$3:$A$56</c:f>
+              <c:f>Run!$A$3:$A$44</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>IN-SAMPLE</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>IN-SAMPLE</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>IN-SAMPLE</c:v>
@@ -2101,142 +2101,106 @@
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>76312</c:v>
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>196</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>135232</c:v>
+                    <c:v>11948</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4312</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>77828</c:v>
+                    <c:v>2856</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>59804</c:v>
+                    <c:v>4312</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>78464</c:v>
+                    <c:v>11948</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>78540</c:v>
+                    <c:v>2856</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>76884</c:v>
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>196</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>78648</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78776</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>139356</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>137012</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>78428</c:v>
+                    <c:v>17600</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20328</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43024</c:v>
+                    <c:v>2992</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>584</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>76168</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>50312</c:v>
+                    <c:v>584</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>76116</c:v>
+                    <c:v>2992</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>77480</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>77672</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>77812</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78500</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>140220</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>140228</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>51744</c:v>
+                    <c:v>18724</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20328</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>43024</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>76168</c:v>
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>584</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2992</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>77480</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>77672</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>77812</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78500</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>140220</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>140228</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>51744</c:v>
+                    <c:v>18724</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2244,71 +2208,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$B$3:$B$56</c:f>
+              <c:f>Run!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>9.5265727080404761E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.12922550974413752</c:v>
-                </c:pt>
+                <c:ptCount val="12"/>
                 <c:pt idx="2">
-                  <c:v>7.9162700101733194E-2</c:v>
+                  <c:v>0.13761009382084011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10929455532243956</c:v>
+                  <c:v>0.12279099874198436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.48887443613218E-2</c:v>
+                  <c:v>0.13309023421257735</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1232607848942262E-2</c:v>
+                  <c:v>8.9747606813907602E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11439413315356893</c:v>
+                  <c:v>9.4523630216717697E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.2765183188021188E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.21863705562427641</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.26618990518538094</c:v>
+                  <c:v>9.5816573034971958E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9638277105987069E-2</c:v>
+                  <c:v>8.9834346678107982E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14113583331927657</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.6009755209088337E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.1987430068281137E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.58448916681110863</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.045412633188044E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.2562267018784769</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.3878556673983521E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.13650736008366818</c:v>
+                  <c:v>8.8640998769551518E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B19-40FC-8792-B72E388B5F83}"/>
             </c:ext>
@@ -2340,30 +2271,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$3:$A$56</c:f>
+              <c:f>Run!$A$3:$A$44</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>IN-SAMPLE</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>IN-SAMPLE</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>IN-SAMPLE</c:v>
@@ -2372,142 +2303,106 @@
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>76312</c:v>
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>196</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>135232</c:v>
+                    <c:v>11948</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4312</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>77828</c:v>
+                    <c:v>2856</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>59804</c:v>
+                    <c:v>4312</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>78464</c:v>
+                    <c:v>11948</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>78540</c:v>
+                    <c:v>2856</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>76884</c:v>
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>196</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>78648</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78776</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>139356</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>137012</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>78428</c:v>
+                    <c:v>17600</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20328</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43024</c:v>
+                    <c:v>2992</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>584</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>76168</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>50312</c:v>
+                    <c:v>584</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>76116</c:v>
+                    <c:v>2992</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>77480</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>77672</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>77812</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78500</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>140220</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>140228</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>51744</c:v>
+                    <c:v>18724</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20328</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>43024</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>76168</c:v>
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>584</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2992</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>77480</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>77672</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>77812</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78500</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>140220</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>140228</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>51744</c:v>
+                    <c:v>18724</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2515,67 +2410,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$C$3:$C$56</c:f>
+              <c:f>Run!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.3643049672245974E-2</c:v>
+                  <c:v>0.25530025790678335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43970631968230012</c:v>
+                  <c:v>0.1426734942290932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0340686032065639E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51226119048617502</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.2935788993077095E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.36615520339459179</c:v>
+                  <c:v>0.43859896069392562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17186086509250062</c:v>
+                  <c:v>6.44884042814374E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19890761971473686</c:v>
+                  <c:v>6.7580254711210722E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30815202594445695</c:v>
+                  <c:v>6.6199048794805981E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0942909866571424E-2</c:v>
+                  <c:v>5.9473988655954602E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42752240207977593</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.8477020710706715E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.0827699283271852E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.17598958466202019</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.3963097101420064E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.50211572088301182</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.6802175589613302E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.17555324752659437</c:v>
+                  <c:v>5.8950792420655478E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BBD2-4C70-87E5-5D2B9F673739}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2603,30 +2473,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$3:$A$56</c:f>
+              <c:f>Run!$A$3:$A$44</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>IN-SAMPLE</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>IN-SAMPLE</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>IN-SAMPLE</c:v>
@@ -2635,142 +2505,106 @@
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>76312</c:v>
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>196</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>135232</c:v>
+                    <c:v>11948</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4312</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>77828</c:v>
+                    <c:v>2856</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>59804</c:v>
+                    <c:v>4312</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>78464</c:v>
+                    <c:v>11948</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>78540</c:v>
+                    <c:v>2856</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>76884</c:v>
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>196</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>78648</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78776</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>139356</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>137012</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>78428</c:v>
+                    <c:v>17600</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20328</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43024</c:v>
+                    <c:v>2992</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>584</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>76168</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>50312</c:v>
+                    <c:v>584</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>76116</c:v>
+                    <c:v>2992</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>77480</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>77672</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>77812</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78500</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>140220</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>140228</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>51744</c:v>
+                    <c:v>18724</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20328</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>43024</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>76168</c:v>
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>584</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2992</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>77480</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>77672</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>77812</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78500</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>140220</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>140228</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>51744</c:v>
+                    <c:v>18724</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2778,67 +2612,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$D$3:$D$56</c:f>
+              <c:f>Run!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>7.7056866250932221E-2</c:v>
+                  <c:v>0.51889725737972181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24346237195655704</c:v>
+                  <c:v>0.52762532267253848</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0982940263218349E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33369284981378805</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9200294861199712E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.21535950221121311</c:v>
+                  <c:v>0.24997914310544733</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15577352716486498</c:v>
+                  <c:v>7.7469987124204637E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19627886868547648</c:v>
+                  <c:v>8.673132877796888E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32719102724423182</c:v>
+                  <c:v>8.7992129400372501E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.4457853399217131E-2</c:v>
+                  <c:v>7.0713040670379992E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22319352371618151</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.6819714531302458E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5231589622523818E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0045834995806218</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2709915256524849E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0304429163038731</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8072193229784182E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19962422202965879</c:v>
+                  <c:v>7.0749491062015293E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BBD2-4C70-87E5-5D2B9F673739}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2866,30 +2675,30 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$3:$A$56</c:f>
+              <c:f>Run!$A$3:$A$44</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="12"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>IN-SAMPLE</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>IN-SAMPLE</c:v>
+                    <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
+                    <c:v>OUT-OF-SAMPLE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
-                  <c:pt idx="5">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
                   <c:pt idx="6">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
                     <c:v>IN-SAMPLE</c:v>
@@ -2898,142 +2707,106 @@
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="10">
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>OUT-OF-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>76312</c:v>
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>196</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>135232</c:v>
+                    <c:v>11948</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4312</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>77828</c:v>
+                    <c:v>2856</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>59804</c:v>
+                    <c:v>4312</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>78464</c:v>
+                    <c:v>11948</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>78540</c:v>
+                    <c:v>2856</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>76884</c:v>
+                    <c:v>2932</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>196</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>78648</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78776</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>139356</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>137012</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>78428</c:v>
+                    <c:v>17600</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20328</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>43024</c:v>
+                    <c:v>2992</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>584</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>76168</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>50312</c:v>
+                    <c:v>584</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>76116</c:v>
+                    <c:v>2992</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>77480</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>77672</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>77812</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78500</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>140220</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>140228</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>51744</c:v>
+                    <c:v>18724</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>20328</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>43024</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>76168</c:v>
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>584</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2992</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>77480</c:v>
+                    <c:v>3236</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>77672</c:v>
+                    <c:v>10108</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>13468</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>77812</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>78500</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>140220</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>140228</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>51744</c:v>
+                    <c:v>18724</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3041,70 +2814,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$E$3:$E$56</c:f>
+              <c:f>Run!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0.10068114893510938</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18725175800733268</c:v>
-                </c:pt>
+                <c:ptCount val="12"/>
                 <c:pt idx="2">
-                  <c:v>4.1928980195963826E-2</c:v>
+                  <c:v>0.16224114974495024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2772221380361804</c:v>
+                  <c:v>0.10857769584283233</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8151216474553405E-2</c:v>
+                  <c:v>6.0613519102334978E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12596547059714794</c:v>
+                  <c:v>0.10348443602211774</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11205239438807151</c:v>
+                  <c:v>8.2980411993339664E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.9272040044888858E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14581008725799621</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15773187500328339</c:v>
+                  <c:v>3.2228669207543144E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.9465148597955679E-2</c:v>
+                  <c:v>4.0446828207932412E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14464764477685096</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.2140893936157223E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3234250883448768E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.72862250924110417</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3439763554814389E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.2125879409909248</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0171900294990191E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.12567888814789743</c:v>
+                  <c:v>4.096555562224239E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BBD2-4C70-87E5-5D2B9F673739}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3299,12 +3044,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
+  <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3313,6 +3053,11 @@
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -4619,224 +4364,228 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.958373958332" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="576">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Giacomo Caglioni" refreshedDate="43160.595981134262" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="500">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="193">
-        <n v="1848"/>
-        <n v="20328"/>
-        <n v="43024"/>
-        <n v="51744"/>
-        <n v="76168"/>
-        <n v="77480"/>
-        <n v="77492"/>
-        <n v="77672"/>
-        <n v="77812"/>
-        <n v="78500"/>
-        <n v="140220"/>
-        <n v="140228"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="195">
+        <n v="584"/>
+        <n v="2992"/>
+        <n v="3236"/>
+        <n v="10108"/>
+        <n v="13468"/>
+        <n v="18724"/>
+        <n v="77464" u="1"/>
+        <n v="36100" u="1"/>
+        <n v="78280" u="1"/>
+        <n v="26432" u="1"/>
+        <n v="2412" u="1"/>
+        <n v="43024" u="1"/>
+        <n v="71240" u="1"/>
+        <n v="81684" u="1"/>
+        <n v="49400" u="1"/>
+        <n v="2192" u="1"/>
+        <n v="69212" u="1"/>
+        <n v="25896" u="1"/>
+        <n v="15344" u="1"/>
+        <n v="30920" u="1"/>
+        <n v="41008" u="1"/>
+        <n v="6648" u="1"/>
+        <n v="84436" u="1"/>
+        <n v="41964" u="1"/>
+        <n v="48340" u="1"/>
+        <n v="65600" u="1"/>
+        <n v="23536" u="1"/>
+        <n v="57572" u="1"/>
+        <n v="51744" u="1"/>
+        <n v="33304" u="1"/>
+        <n v="98868" u="1"/>
+        <n v="71336" u="1"/>
+        <n v="62200" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="25652" u="1"/>
+        <n v="58820" u="1"/>
+        <n v="78960" u="1"/>
+        <n v="48108" u="1"/>
+        <n v="78028" u="1"/>
+        <n v="75860" u="1"/>
+        <n v="23216" u="1"/>
+        <n v="76000" u="1"/>
+        <n v="77492" u="1"/>
+        <n v="133248" u="1"/>
+        <n v="28712" u="1"/>
+        <n v="59520" u="1"/>
+        <n v="90804" u="1"/>
+        <n v="80640" u="1"/>
+        <n v="32652" u="1"/>
+        <n v="92856" u="1"/>
+        <n v="35660" u="1"/>
+        <n v="80664" u="1"/>
+        <n v="18280" u="1"/>
+        <n v="44892" u="1"/>
+        <n v="68332" u="1"/>
+        <n v="7100" u="1"/>
+        <n v="85840" u="1"/>
+        <n v="76352" u="1"/>
+        <n v="89780" u="1"/>
+        <n v="1848" u="1"/>
+        <n v="22628" u="1"/>
+        <n v="76632" u="1"/>
+        <n v="81108" u="1"/>
+        <n v="47620" u="1"/>
+        <n v="49112" u="1"/>
+        <n v="21748" u="1"/>
+        <n v="43552" u="1"/>
+        <n v="34204" u="1"/>
+        <n v="47364" u="1"/>
+        <n v="16120" u="1"/>
+        <n v="77892" u="1"/>
+        <n v="56864" u="1"/>
+        <n v="77776" u="1"/>
+        <n v="22512" u="1"/>
+        <n v="76168" u="1"/>
+        <n v="133164" u="1"/>
+        <n v="68172" u="1"/>
+        <n v="91368" u="1"/>
+        <n v="24348" u="1"/>
+        <n v="43192" u="1"/>
+        <n v="21772" u="1"/>
+        <n v="78500" u="1"/>
+        <n v="47540" u="1"/>
+        <n v="47272" u="1"/>
+        <n v="15080" u="1"/>
+        <n v="119624" u="1"/>
+        <n v="46736" u="1"/>
+        <n v="90740" u="1"/>
+        <n v="98200" u="1"/>
+        <n v="30736" u="1"/>
+        <n v="69736" u="1"/>
+        <n v="134008" u="1"/>
+        <n v="78152" u="1"/>
+        <n v="59232" u="1"/>
+        <n v="87384" u="1"/>
+        <n v="97828" u="1"/>
+        <n v="5400" u="1"/>
+        <n v="1372" u="1"/>
+        <n v="78992" u="1"/>
+        <n v="120768" u="1"/>
+        <n v="42156" u="1"/>
+        <n v="45140" u="1"/>
+        <n v="77244" u="1"/>
+        <n v="35652" u="1"/>
+        <n v="96524" u="1"/>
+        <n v="17192" u="1"/>
+        <n v="84052" u="1"/>
+        <n v="13364" u="1"/>
+        <n v="43124" u="1"/>
+        <n v="87852" u="1"/>
+        <n v="2800" u="1"/>
+        <n v="59944" u="1"/>
+        <n v="42856" u="1"/>
+        <n v="62252" u="1"/>
+        <n v="48148" u="1"/>
+        <n v="7032" u="1"/>
+        <n v="48964" u="1"/>
+        <n v="2792" u="1"/>
+        <n v="84076" u="1"/>
+        <n v="83400" u="1"/>
+        <n v="33240" u="1"/>
+        <n v="80976" u="1"/>
+        <n v="120584" u="1"/>
+        <n v="73656" u="1"/>
+        <n v="52916" u="1"/>
+        <n v="20328" u="1"/>
+        <n v="60516" u="1"/>
+        <n v="50480" u="1"/>
+        <n v="53196" u="1"/>
+        <n v="94568" u="1"/>
+        <n v="77480" u="1"/>
+        <n v="54012" u="1"/>
+        <n v="79928" u="1"/>
+        <n v="133364" u="1"/>
+        <n v="39232" u="1"/>
         <n v="42216" u="1"/>
+        <n v="22100" u="1"/>
+        <n v="45748" u="1"/>
+        <n v="66244" u="1"/>
         <n v="82796" u="1"/>
-        <n v="57572" u="1"/>
+        <n v="24204" u="1"/>
+        <n v="58908" u="1"/>
+        <n v="204" u="1"/>
+        <n v="46436" u="1"/>
+        <n v="59188" u="1"/>
+        <n v="140220" u="1"/>
+        <n v="1540" u="1"/>
+        <n v="52544" u="1"/>
+        <n v="80792" u="1"/>
+        <n v="22992" u="1"/>
+        <n v="50516" u="1"/>
+        <n v="78088" u="1"/>
+        <n v="48080" u="1"/>
+        <n v="6888" u="1"/>
+        <n v="40760" u="1"/>
+        <n v="39408" u="1"/>
+        <n v="96972" u="1"/>
+        <n v="123828" u="1"/>
+        <n v="61520" u="1"/>
+        <n v="45516" u="1"/>
+        <n v="31956" u="1"/>
+        <n v="36028" u="1"/>
+        <n v="76784" u="1"/>
+        <n v="80584" u="1"/>
+        <n v="44444" u="1"/>
+        <n v="69744" u="1"/>
+        <n v="20708" u="1"/>
+        <n v="43512" u="1"/>
+        <n v="47720" u="1"/>
+        <n v="86740" u="1"/>
+        <n v="54912" u="1"/>
+        <n v="83896" u="1"/>
         <n v="1932" u="1"/>
-        <n v="7100" u="1"/>
-        <n v="36028" u="1"/>
-        <n v="78088" u="1"/>
-        <n v="84052" u="1"/>
-        <n v="92856" u="1"/>
-        <n v="13468" u="1"/>
-        <n v="49112" u="1"/>
-        <n v="120768" u="1"/>
-        <n v="24204" u="1"/>
-        <n v="30736" u="1"/>
-        <n v="44892" u="1"/>
-        <n v="59944" u="1"/>
-        <n v="39232" u="1"/>
-        <n v="43512" u="1"/>
-        <n v="48340" u="1"/>
-        <n v="83400" u="1"/>
-        <n v="16120" u="1"/>
-        <n v="15344" u="1"/>
-        <n v="18280" u="1"/>
-        <n v="43552" u="1"/>
-        <n v="54912" u="1"/>
-        <n v="80640" u="1"/>
-        <n v="58908" u="1"/>
-        <n v="44444" u="1"/>
+        <n v="32516" u="1"/>
+        <n v="96112" u="1"/>
+        <n v="140228" u="1"/>
+        <n v="48408" u="1"/>
+        <n v="77532" u="1"/>
+        <n v="39864" u="1"/>
+        <n v="75364" u="1"/>
+        <n v="93268" u="1"/>
+        <n v="77672" u="1"/>
+        <n v="77812" u="1"/>
+        <n v="5692" u="1"/>
+        <n v="134028" u="1"/>
         <n v="48420" u="1"/>
-        <n v="134028" u="1"/>
-        <n v="32652" u="1"/>
-        <n v="35660" u="1"/>
-        <n v="46736" u="1"/>
-        <n v="59232" u="1"/>
-        <n v="75364" u="1"/>
-        <n v="76784" u="1"/>
-        <n v="15080" u="1"/>
-        <n v="90740" u="1"/>
-        <n v="2792" u="1"/>
-        <n v="21748" u="1"/>
-        <n v="47364" u="1"/>
-        <n v="204" u="1"/>
-        <n v="43124" u="1"/>
-        <n v="6288" u="1"/>
-        <n v="25896" u="1"/>
-        <n v="119624" u="1"/>
-        <n v="73656" u="1"/>
-        <n v="133248" u="1"/>
-        <n v="6648" u="1"/>
-        <n v="5692" u="1"/>
-        <n v="62252" u="1"/>
-        <n v="78280" u="1"/>
-        <n v="25652" u="1"/>
-        <n v="33304" u="1"/>
-        <n v="45516" u="1"/>
-        <n v="98200" u="1"/>
-        <n v="48964" u="1"/>
-        <n v="59188" u="1"/>
-        <n v="133364" u="1"/>
-        <n v="87852" u="1"/>
-        <n v="1540" u="1"/>
-        <n v="61520" u="1"/>
-        <n v="80792" u="1"/>
-        <n v="1372" u="1"/>
-        <n v="17192" u="1"/>
-        <n v="81684" u="1"/>
+        <n v="66576" u="1"/>
+        <n v="133516" u="1"/>
         <n v="20184" u="1"/>
-        <n v="26432" u="1"/>
-        <n v="39408" u="1"/>
-        <n v="41964" u="1"/>
-        <n v="77464" u="1"/>
-        <n v="133844" u="1"/>
-        <n v="42856" u="1"/>
-        <n v="68172" u="1"/>
+        <n v="11232" u="1"/>
         <n v="75272" u="1"/>
         <n v="81520" u="1"/>
-        <n v="84076" u="1"/>
-        <n v="2192" u="1"/>
-        <n v="5400" u="1"/>
-        <n v="22628" u="1"/>
-        <n v="71336" u="1"/>
-        <n v="78152" u="1"/>
-        <n v="2992" u="1"/>
-        <n v="33240" u="1"/>
-        <n v="133516" u="1"/>
-        <n v="23216" u="1"/>
-        <n v="36100" u="1"/>
-        <n v="58820" u="1"/>
-        <n v="97828" u="1"/>
-        <n v="54012" u="1"/>
-        <n v="68332" u="1"/>
-        <n v="76000" u="1"/>
-        <n v="22100" u="1"/>
-        <n v="78028" u="1"/>
-        <n v="80584" u="1"/>
-        <n v="584" u="1"/>
-        <n v="52916" u="1"/>
+        <n v="6288" u="1"/>
+        <n v="133844" u="1"/>
         <n v="76648" u="1"/>
-        <n v="41008" u="1"/>
-        <n v="47540" u="1"/>
-        <n v="48108" u="1"/>
-        <n v="78960" u="1"/>
-        <n v="80664" u="1"/>
-        <n v="13364" u="1"/>
-        <n v="22992" u="1"/>
-        <n v="35652" u="1"/>
-        <n v="48148" u="1"/>
-        <n v="84436" u="1"/>
-        <n v="10108" u="1"/>
-        <n v="32516" u="1"/>
-        <n v="96972" u="1"/>
-        <n v="47620" u="1"/>
-        <n v="81108" u="1"/>
-        <n v="120584" u="1"/>
-        <n v="50480" u="1"/>
-        <n v="90804" u="1"/>
-        <n v="28712" u="1"/>
-        <n v="96524" u="1"/>
-        <n v="6888" u="1"/>
-        <n v="123828" u="1"/>
-        <n v="47720" u="1"/>
-        <n v="79928" u="1"/>
-        <n v="69744" u="1"/>
-        <n v="91368" u="1"/>
-        <n v="53196" u="1"/>
-        <n v="77776" u="1"/>
-        <n v="77532" u="1"/>
-        <n v="20708" u="1"/>
-        <n v="47272" u="1"/>
-        <n v="48408" u="1"/>
-        <n v="78992" u="1"/>
-        <n v="40760" u="1"/>
-        <n v="66576" u="1"/>
-        <n v="86740" u="1"/>
-        <n v="96112" u="1"/>
-        <n v="31956" u="1"/>
-        <n v="69212" u="1"/>
-        <n v="133164" u="1"/>
-        <n v="71240" u="1"/>
-        <n v="76352" u="1"/>
-        <n v="50516" u="1"/>
-        <n v="65600" u="1"/>
-        <n v="77244" u="1"/>
-        <n v="94568" u="1"/>
-        <n v="7032" u="1"/>
-        <n v="21772" u="1"/>
-        <n v="45140" u="1"/>
-        <n v="49400" u="1"/>
-        <n v="80976" u="1"/>
-        <n v="89780" u="1"/>
-        <n v="98868" u="1"/>
-        <n v="52544" u="1"/>
-        <n v="62200" u="1"/>
-        <n v="77892" u="1"/>
-        <n v="24348" u="1"/>
-        <n v="43192" u="1"/>
-        <n v="45748" u="1"/>
-        <n v="60516" u="1"/>
-        <n v="83896" u="1"/>
-        <n v="93268" u="1"/>
-        <n v="22512" u="1"/>
-        <n v="69736" u="1"/>
-        <n v="78540" u="1"/>
-        <n v="2800" u="1"/>
-        <n v="56864" u="1"/>
-        <n v="87384" u="1"/>
-        <n v="134008" u="1"/>
-        <n v="48080" u="1"/>
-        <n v="76632" u="1"/>
-        <n v="2412" u="1"/>
-        <n v="23536" u="1"/>
-        <n v="30920" u="1"/>
-        <n v="39864" u="1"/>
-        <n v="11232" u="1"/>
-        <n v="34204" u="1"/>
-        <n v="42156" u="1"/>
-        <n v="75860" u="1"/>
-        <n v="46436" u="1"/>
-        <n v="66244" u="1"/>
-        <n v="85840" u="1"/>
-        <n v="59520" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="16">
-        <n v="75456"/>
-        <n v="76312"/>
-        <n v="135232"/>
-        <n v="78428"/>
-        <n v="77828"/>
-        <n v="78540"/>
-        <n v="20260"/>
-        <n v="76884"/>
-        <n v="78648"/>
-        <n v="78776"/>
-        <n v="139356"/>
-        <n v="137012"/>
-        <n v="196" u="1"/>
-        <n v="4312" u="1"/>
-        <n v="11948" u="1"/>
-        <n v="2932" u="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="18">
+        <n v="4312"/>
+        <n v="11948"/>
+        <n v="2856"/>
+        <n v="2932"/>
+        <n v="196"/>
+        <n v="17600"/>
+        <n v="78776" u="1"/>
+        <n v="78648" u="1"/>
+        <n v="137012" u="1"/>
+        <n v="77828" u="1"/>
+        <n v="139356" u="1"/>
+        <n v="78428" u="1"/>
+        <n v="76884" u="1"/>
+        <n v="76312" u="1"/>
+        <n v="135232" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="75456" u="1"/>
+        <n v="20260" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="EPOCH" numFmtId="0" sqlType="6">
@@ -4891,557 +4640,557 @@
         <n v="47"/>
         <n v="48"/>
         <n v="49"/>
+        <n v="50"/>
+        <n v="51"/>
+        <n v="52"/>
+        <n v="53"/>
+        <n v="54"/>
+        <n v="55"/>
+        <n v="56"/>
+        <n v="57"/>
+        <n v="58"/>
+        <n v="59"/>
+        <n v="60"/>
+        <n v="61"/>
+        <n v="62"/>
+        <n v="63"/>
+        <n v="64"/>
+        <n v="65"/>
+        <n v="66"/>
+        <n v="67"/>
+        <n v="68"/>
+        <n v="69"/>
+        <n v="70"/>
+        <n v="71"/>
+        <n v="72"/>
+        <n v="73"/>
+        <n v="74"/>
+        <n v="75"/>
+        <n v="76"/>
+        <n v="77"/>
+        <n v="78"/>
+        <n v="79"/>
+        <n v="80"/>
+        <n v="81"/>
+        <n v="82"/>
+        <n v="83"/>
+        <n v="84"/>
+        <n v="85"/>
+        <n v="86"/>
+        <n v="87"/>
+        <n v="88"/>
+        <n v="89"/>
+        <n v="90"/>
+        <n v="91"/>
+        <n v="92"/>
+        <n v="93"/>
+        <n v="94"/>
+        <n v="95"/>
+        <n v="96"/>
+        <n v="97"/>
+        <n v="98"/>
+        <n v="99"/>
+        <n v="100"/>
+        <n v="101"/>
+        <n v="102"/>
+        <n v="103"/>
+        <n v="104"/>
+        <n v="105"/>
+        <n v="106"/>
+        <n v="107"/>
+        <n v="108"/>
+        <n v="109"/>
+        <n v="110"/>
+        <n v="111"/>
+        <n v="112"/>
+        <n v="113"/>
+        <n v="114"/>
+        <n v="115"/>
+        <n v="116"/>
+        <n v="117"/>
+        <n v="118"/>
+        <n v="119"/>
+        <n v="120"/>
+        <n v="121"/>
+        <n v="122"/>
+        <n v="123"/>
+        <n v="124"/>
+        <n v="125"/>
+        <n v="126"/>
+        <n v="127"/>
+        <n v="128"/>
+        <n v="129"/>
+        <n v="130"/>
+        <n v="131"/>
+        <n v="132"/>
+        <n v="133"/>
+        <n v="134"/>
+        <n v="135"/>
+        <n v="136"/>
+        <n v="137"/>
+        <n v="138"/>
+        <n v="139"/>
+        <n v="140"/>
+        <n v="141"/>
+        <n v="142"/>
+        <n v="143"/>
+        <n v="144"/>
+        <n v="145"/>
+        <n v="146"/>
+        <n v="147"/>
+        <n v="148"/>
+        <n v="149"/>
+        <n v="150"/>
+        <n v="151"/>
+        <n v="152"/>
+        <n v="153"/>
+        <n v="154"/>
+        <n v="155"/>
+        <n v="156"/>
+        <n v="157"/>
+        <n v="158"/>
+        <n v="159"/>
+        <n v="160"/>
+        <n v="161"/>
+        <n v="162"/>
+        <n v="163"/>
+        <n v="164"/>
+        <n v="165"/>
+        <n v="166"/>
+        <n v="167"/>
+        <n v="168"/>
+        <n v="169"/>
+        <n v="170"/>
+        <n v="171"/>
+        <n v="172"/>
+        <n v="173"/>
+        <n v="174"/>
+        <n v="175"/>
+        <n v="176"/>
+        <n v="177"/>
+        <n v="178"/>
+        <n v="179"/>
+        <n v="180"/>
+        <n v="181"/>
+        <n v="182"/>
+        <n v="183"/>
+        <n v="184"/>
+        <n v="185"/>
+        <n v="186"/>
+        <n v="187"/>
+        <n v="188"/>
+        <n v="189"/>
+        <n v="190"/>
+        <n v="191"/>
+        <n v="192"/>
+        <n v="193"/>
+        <n v="194"/>
+        <n v="195"/>
+        <n v="196"/>
+        <n v="197"/>
+        <n v="198"/>
+        <n v="199"/>
+        <n v="200"/>
+        <n v="201"/>
+        <n v="202"/>
+        <n v="203"/>
+        <n v="204"/>
+        <n v="205"/>
+        <n v="206"/>
+        <n v="207"/>
+        <n v="208"/>
+        <n v="209"/>
+        <n v="210"/>
+        <n v="211"/>
+        <n v="212"/>
+        <n v="213"/>
+        <n v="214"/>
+        <n v="215"/>
+        <n v="216"/>
+        <n v="217"/>
+        <n v="218"/>
+        <n v="219"/>
+        <n v="220"/>
+        <n v="221"/>
+        <n v="222"/>
+        <n v="223"/>
+        <n v="224"/>
+        <n v="225"/>
+        <n v="226"/>
+        <n v="227"/>
+        <n v="228"/>
+        <n v="229"/>
+        <n v="230"/>
+        <n v="231"/>
+        <n v="232"/>
+        <n v="233"/>
+        <n v="234"/>
+        <n v="235"/>
+        <n v="236"/>
+        <n v="237"/>
+        <n v="238"/>
+        <n v="239"/>
+        <n v="240"/>
+        <n v="241"/>
+        <n v="242"/>
+        <n v="243"/>
+        <n v="244"/>
+        <n v="245"/>
+        <n v="246"/>
+        <n v="247"/>
+        <n v="248"/>
+        <n v="249"/>
         <n v="582" u="1"/>
         <n v="517" u="1"/>
         <n v="482" u="1"/>
         <n v="417" u="1"/>
-        <n v="94" u="1"/>
         <n v="352" u="1"/>
         <n v="287" u="1"/>
-        <n v="239" u="1"/>
-        <n v="174" u="1"/>
         <n v="583" u="1"/>
         <n v="518" u="1"/>
         <n v="450" u="1"/>
         <n v="385" u="1"/>
-        <n v="86" u="1"/>
         <n v="320" u="1"/>
-        <n v="223" u="1"/>
-        <n v="158" u="1"/>
         <n v="584" u="1"/>
         <n v="519" u="1"/>
         <n v="483" u="1"/>
         <n v="418" u="1"/>
         <n v="353" u="1"/>
-        <n v="78" u="1"/>
         <n v="288" u="1"/>
-        <n v="207" u="1"/>
         <n v="585" u="1"/>
-        <n v="142" u="1"/>
         <n v="520" u="1"/>
         <n v="451" u="1"/>
         <n v="386" u="1"/>
         <n v="321" u="1"/>
-        <n v="70" u="1"/>
         <n v="256" u="1"/>
-        <n v="191" u="1"/>
         <n v="586" u="1"/>
         <n v="521" u="1"/>
-        <n v="127" u="1"/>
         <n v="484" u="1"/>
         <n v="419" u="1"/>
         <n v="354" u="1"/>
         <n v="289" u="1"/>
-        <n v="63" u="1"/>
-        <n v="240" u="1"/>
-        <n v="175" u="1"/>
         <n v="587" u="1"/>
         <n v="522" u="1"/>
-        <n v="119" u="1"/>
         <n v="452" u="1"/>
         <n v="387" u="1"/>
         <n v="322" u="1"/>
         <n v="257" u="1"/>
-        <n v="59" u="1"/>
-        <n v="224" u="1"/>
-        <n v="159" u="1"/>
         <n v="588" u="1"/>
         <n v="523" u="1"/>
         <n v="485" u="1"/>
-        <n v="111" u="1"/>
         <n v="420" u="1"/>
         <n v="355" u="1"/>
         <n v="290" u="1"/>
-        <n v="55" u="1"/>
-        <n v="208" u="1"/>
         <n v="589" u="1"/>
-        <n v="143" u="1"/>
         <n v="524" u="1"/>
         <n v="453" u="1"/>
-        <n v="103" u="1"/>
         <n v="388" u="1"/>
         <n v="323" u="1"/>
         <n v="258" u="1"/>
-        <n v="51" u="1"/>
-        <n v="192" u="1"/>
         <n v="590" u="1"/>
         <n v="525" u="1"/>
         <n v="486" u="1"/>
         <n v="421" u="1"/>
-        <n v="95" u="1"/>
         <n v="356" u="1"/>
         <n v="291" u="1"/>
-        <n v="241" u="1"/>
-        <n v="176" u="1"/>
         <n v="591" u="1"/>
         <n v="526" u="1"/>
         <n v="454" u="1"/>
         <n v="389" u="1"/>
-        <n v="87" u="1"/>
         <n v="324" u="1"/>
         <n v="259" u="1"/>
-        <n v="225" u="1"/>
-        <n v="160" u="1"/>
         <n v="592" u="1"/>
         <n v="527" u="1"/>
         <n v="487" u="1"/>
         <n v="422" u="1"/>
         <n v="357" u="1"/>
-        <n v="79" u="1"/>
         <n v="292" u="1"/>
-        <n v="209" u="1"/>
         <n v="593" u="1"/>
-        <n v="144" u="1"/>
         <n v="528" u="1"/>
         <n v="455" u="1"/>
         <n v="390" u="1"/>
         <n v="325" u="1"/>
-        <n v="71" u="1"/>
         <n v="260" u="1"/>
-        <n v="193" u="1"/>
         <n v="594" u="1"/>
         <n v="529" u="1"/>
-        <n v="128" u="1"/>
         <n v="488" u="1"/>
         <n v="423" u="1"/>
         <n v="358" u="1"/>
         <n v="293" u="1"/>
-        <n v="242" u="1"/>
-        <n v="177" u="1"/>
         <n v="595" u="1"/>
         <n v="530" u="1"/>
-        <n v="120" u="1"/>
         <n v="456" u="1"/>
         <n v="391" u="1"/>
         <n v="326" u="1"/>
         <n v="261" u="1"/>
-        <n v="226" u="1"/>
-        <n v="161" u="1"/>
         <n v="596" u="1"/>
         <n v="531" u="1"/>
         <n v="489" u="1"/>
-        <n v="112" u="1"/>
         <n v="424" u="1"/>
         <n v="359" u="1"/>
         <n v="294" u="1"/>
-        <n v="210" u="1"/>
-        <n v="145" u="1"/>
         <n v="532" u="1"/>
         <n v="457" u="1"/>
-        <n v="104" u="1"/>
         <n v="392" u="1"/>
         <n v="327" u="1"/>
         <n v="262" u="1"/>
-        <n v="194" u="1"/>
         <n v="533" u="1"/>
-        <n v="129" u="1"/>
         <n v="490" u="1"/>
         <n v="425" u="1"/>
-        <n v="96" u="1"/>
         <n v="360" u="1"/>
         <n v="295" u="1"/>
-        <n v="243" u="1"/>
-        <n v="178" u="1"/>
         <n v="534" u="1"/>
         <n v="458" u="1"/>
         <n v="393" u="1"/>
-        <n v="88" u="1"/>
         <n v="328" u="1"/>
         <n v="263" u="1"/>
-        <n v="227" u="1"/>
-        <n v="162" u="1"/>
         <n v="535" u="1"/>
         <n v="491" u="1"/>
         <n v="426" u="1"/>
         <n v="361" u="1"/>
-        <n v="80" u="1"/>
         <n v="296" u="1"/>
-        <n v="211" u="1"/>
-        <n v="146" u="1"/>
         <n v="536" u="1"/>
         <n v="459" u="1"/>
         <n v="394" u="1"/>
         <n v="329" u="1"/>
-        <n v="72" u="1"/>
         <n v="264" u="1"/>
-        <n v="195" u="1"/>
         <n v="537" u="1"/>
-        <n v="130" u="1"/>
         <n v="492" u="1"/>
         <n v="427" u="1"/>
         <n v="362" u="1"/>
         <n v="297" u="1"/>
-        <n v="64" u="1"/>
-        <n v="244" u="1"/>
-        <n v="179" u="1"/>
         <n v="538" u="1"/>
-        <n v="121" u="1"/>
         <n v="460" u="1"/>
         <n v="395" u="1"/>
         <n v="330" u="1"/>
         <n v="265" u="1"/>
-        <n v="60" u="1"/>
-        <n v="228" u="1"/>
-        <n v="163" u="1"/>
         <n v="539" u="1"/>
         <n v="493" u="1"/>
-        <n v="113" u="1"/>
         <n v="428" u="1"/>
         <n v="363" u="1"/>
         <n v="298" u="1"/>
-        <n v="56" u="1"/>
-        <n v="212" u="1"/>
-        <n v="147" u="1"/>
         <n v="540" u="1"/>
         <n v="461" u="1"/>
-        <n v="105" u="1"/>
         <n v="396" u="1"/>
         <n v="331" u="1"/>
         <n v="266" u="1"/>
-        <n v="52" u="1"/>
-        <n v="196" u="1"/>
         <n v="541" u="1"/>
-        <n v="131" u="1"/>
         <n v="494" u="1"/>
         <n v="429" u="1"/>
-        <n v="97" u="1"/>
         <n v="364" u="1"/>
         <n v="299" u="1"/>
-        <n v="245" u="1"/>
-        <n v="180" u="1"/>
         <n v="542" u="1"/>
         <n v="462" u="1"/>
         <n v="397" u="1"/>
-        <n v="89" u="1"/>
         <n v="332" u="1"/>
         <n v="267" u="1"/>
-        <n v="229" u="1"/>
-        <n v="164" u="1"/>
         <n v="543" u="1"/>
         <n v="495" u="1"/>
         <n v="430" u="1"/>
         <n v="365" u="1"/>
-        <n v="81" u="1"/>
         <n v="300" u="1"/>
-        <n v="213" u="1"/>
-        <n v="148" u="1"/>
         <n v="544" u="1"/>
         <n v="463" u="1"/>
         <n v="398" u="1"/>
         <n v="333" u="1"/>
-        <n v="73" u="1"/>
         <n v="268" u="1"/>
-        <n v="197" u="1"/>
         <n v="545" u="1"/>
-        <n v="132" u="1"/>
         <n v="496" u="1"/>
         <n v="431" u="1"/>
         <n v="366" u="1"/>
         <n v="301" u="1"/>
-        <n v="65" u="1"/>
-        <n v="246" u="1"/>
-        <n v="181" u="1"/>
         <n v="546" u="1"/>
-        <n v="122" u="1"/>
         <n v="464" u="1"/>
         <n v="399" u="1"/>
         <n v="334" u="1"/>
         <n v="269" u="1"/>
-        <n v="230" u="1"/>
-        <n v="165" u="1"/>
         <n v="547" u="1"/>
         <n v="497" u="1"/>
-        <n v="114" u="1"/>
         <n v="432" u="1"/>
         <n v="367" u="1"/>
         <n v="302" u="1"/>
-        <n v="214" u="1"/>
-        <n v="149" u="1"/>
         <n v="548" u="1"/>
         <n v="465" u="1"/>
-        <n v="106" u="1"/>
         <n v="400" u="1"/>
         <n v="335" u="1"/>
         <n v="270" u="1"/>
-        <n v="198" u="1"/>
         <n v="549" u="1"/>
-        <n v="133" u="1"/>
         <n v="498" u="1"/>
         <n v="433" u="1"/>
-        <n v="98" u="1"/>
         <n v="368" u="1"/>
         <n v="303" u="1"/>
-        <n v="247" u="1"/>
-        <n v="182" u="1"/>
         <n v="550" u="1"/>
         <n v="466" u="1"/>
         <n v="401" u="1"/>
-        <n v="90" u="1"/>
         <n v="336" u="1"/>
         <n v="271" u="1"/>
-        <n v="231" u="1"/>
-        <n v="166" u="1"/>
         <n v="551" u="1"/>
         <n v="499" u="1"/>
         <n v="434" u="1"/>
         <n v="369" u="1"/>
-        <n v="82" u="1"/>
         <n v="304" u="1"/>
-        <n v="215" u="1"/>
-        <n v="150" u="1"/>
         <n v="552" u="1"/>
         <n v="467" u="1"/>
         <n v="402" u="1"/>
         <n v="337" u="1"/>
-        <n v="74" u="1"/>
         <n v="272" u="1"/>
-        <n v="199" u="1"/>
         <n v="553" u="1"/>
-        <n v="134" u="1"/>
         <n v="500" u="1"/>
         <n v="435" u="1"/>
         <n v="370" u="1"/>
         <n v="305" u="1"/>
-        <n v="66" u="1"/>
-        <n v="248" u="1"/>
-        <n v="183" u="1"/>
         <n v="554" u="1"/>
-        <n v="123" u="1"/>
         <n v="468" u="1"/>
         <n v="403" u="1"/>
         <n v="338" u="1"/>
         <n v="273" u="1"/>
-        <n v="61" u="1"/>
-        <n v="232" u="1"/>
-        <n v="167" u="1"/>
         <n v="555" u="1"/>
         <n v="501" u="1"/>
-        <n v="115" u="1"/>
         <n v="436" u="1"/>
         <n v="371" u="1"/>
         <n v="306" u="1"/>
-        <n v="57" u="1"/>
-        <n v="216" u="1"/>
-        <n v="151" u="1"/>
         <n v="556" u="1"/>
         <n v="469" u="1"/>
-        <n v="107" u="1"/>
         <n v="404" u="1"/>
         <n v="339" u="1"/>
         <n v="274" u="1"/>
-        <n v="53" u="1"/>
-        <n v="200" u="1"/>
         <n v="557" u="1"/>
-        <n v="135" u="1"/>
         <n v="502" u="1"/>
         <n v="437" u="1"/>
-        <n v="99" u="1"/>
         <n v="372" u="1"/>
         <n v="307" u="1"/>
-        <n v="249" u="1"/>
-        <n v="184" u="1"/>
         <n v="558" u="1"/>
         <n v="470" u="1"/>
         <n v="405" u="1"/>
-        <n v="91" u="1"/>
         <n v="340" u="1"/>
         <n v="275" u="1"/>
-        <n v="233" u="1"/>
-        <n v="168" u="1"/>
         <n v="559" u="1"/>
         <n v="503" u="1"/>
         <n v="438" u="1"/>
         <n v="373" u="1"/>
-        <n v="83" u="1"/>
         <n v="308" u="1"/>
-        <n v="217" u="1"/>
-        <n v="152" u="1"/>
         <n v="560" u="1"/>
         <n v="471" u="1"/>
         <n v="406" u="1"/>
         <n v="341" u="1"/>
-        <n v="75" u="1"/>
         <n v="276" u="1"/>
-        <n v="201" u="1"/>
         <n v="561" u="1"/>
-        <n v="136" u="1"/>
         <n v="504" u="1"/>
         <n v="439" u="1"/>
         <n v="374" u="1"/>
         <n v="309" u="1"/>
-        <n v="67" u="1"/>
         <n v="250" u="1"/>
-        <n v="185" u="1"/>
         <n v="562" u="1"/>
-        <n v="124" u="1"/>
         <n v="472" u="1"/>
         <n v="407" u="1"/>
         <n v="342" u="1"/>
         <n v="277" u="1"/>
-        <n v="234" u="1"/>
-        <n v="169" u="1"/>
         <n v="563" u="1"/>
         <n v="505" u="1"/>
-        <n v="116" u="1"/>
         <n v="440" u="1"/>
         <n v="375" u="1"/>
         <n v="310" u="1"/>
-        <n v="218" u="1"/>
-        <n v="153" u="1"/>
         <n v="564" u="1"/>
         <n v="473" u="1"/>
-        <n v="108" u="1"/>
         <n v="408" u="1"/>
         <n v="343" u="1"/>
         <n v="278" u="1"/>
-        <n v="202" u="1"/>
         <n v="565" u="1"/>
-        <n v="137" u="1"/>
         <n v="506" u="1"/>
         <n v="441" u="1"/>
-        <n v="100" u="1"/>
         <n v="376" u="1"/>
         <n v="311" u="1"/>
         <n v="251" u="1"/>
-        <n v="186" u="1"/>
         <n v="566" u="1"/>
         <n v="474" u="1"/>
         <n v="409" u="1"/>
-        <n v="92" u="1"/>
         <n v="344" u="1"/>
         <n v="279" u="1"/>
-        <n v="235" u="1"/>
-        <n v="170" u="1"/>
         <n v="567" u="1"/>
         <n v="507" u="1"/>
         <n v="442" u="1"/>
         <n v="377" u="1"/>
-        <n v="84" u="1"/>
         <n v="312" u="1"/>
-        <n v="219" u="1"/>
-        <n v="154" u="1"/>
         <n v="568" u="1"/>
         <n v="475" u="1"/>
         <n v="410" u="1"/>
         <n v="345" u="1"/>
-        <n v="76" u="1"/>
         <n v="280" u="1"/>
-        <n v="203" u="1"/>
         <n v="569" u="1"/>
-        <n v="138" u="1"/>
         <n v="508" u="1"/>
         <n v="443" u="1"/>
         <n v="378" u="1"/>
         <n v="313" u="1"/>
-        <n v="68" u="1"/>
         <n v="252" u="1"/>
-        <n v="187" u="1"/>
         <n v="570" u="1"/>
-        <n v="125" u="1"/>
         <n v="476" u="1"/>
         <n v="411" u="1"/>
         <n v="346" u="1"/>
         <n v="281" u="1"/>
-        <n v="62" u="1"/>
-        <n v="236" u="1"/>
-        <n v="171" u="1"/>
         <n v="571" u="1"/>
         <n v="509" u="1"/>
-        <n v="117" u="1"/>
         <n v="444" u="1"/>
         <n v="379" u="1"/>
         <n v="314" u="1"/>
-        <n v="58" u="1"/>
-        <n v="220" u="1"/>
-        <n v="155" u="1"/>
         <n v="572" u="1"/>
         <n v="477" u="1"/>
-        <n v="109" u="1"/>
         <n v="412" u="1"/>
         <n v="347" u="1"/>
         <n v="282" u="1"/>
-        <n v="54" u="1"/>
-        <n v="204" u="1"/>
         <n v="573" u="1"/>
-        <n v="139" u="1"/>
         <n v="510" u="1"/>
         <n v="445" u="1"/>
-        <n v="101" u="1"/>
         <n v="380" u="1"/>
         <n v="315" u="1"/>
         <n v="253" u="1"/>
-        <n v="50" u="1"/>
-        <n v="188" u="1"/>
         <n v="574" u="1"/>
         <n v="478" u="1"/>
         <n v="413" u="1"/>
-        <n v="93" u="1"/>
         <n v="348" u="1"/>
         <n v="283" u="1"/>
-        <n v="237" u="1"/>
-        <n v="172" u="1"/>
         <n v="575" u="1"/>
         <n v="511" u="1"/>
         <n v="446" u="1"/>
         <n v="381" u="1"/>
-        <n v="85" u="1"/>
         <n v="316" u="1"/>
-        <n v="221" u="1"/>
-        <n v="156" u="1"/>
         <n v="576" u="1"/>
         <n v="479" u="1"/>
         <n v="414" u="1"/>
         <n v="349" u="1"/>
-        <n v="77" u="1"/>
         <n v="284" u="1"/>
-        <n v="205" u="1"/>
         <n v="577" u="1"/>
-        <n v="140" u="1"/>
         <n v="512" u="1"/>
         <n v="447" u="1"/>
         <n v="382" u="1"/>
         <n v="317" u="1"/>
-        <n v="69" u="1"/>
         <n v="254" u="1"/>
-        <n v="189" u="1"/>
         <n v="578" u="1"/>
         <n v="513" u="1"/>
-        <n v="126" u="1"/>
         <n v="480" u="1"/>
         <n v="415" u="1"/>
         <n v="350" u="1"/>
         <n v="285" u="1"/>
-        <n v="238" u="1"/>
-        <n v="173" u="1"/>
         <n v="579" u="1"/>
         <n v="514" u="1"/>
-        <n v="118" u="1"/>
         <n v="448" u="1"/>
         <n v="383" u="1"/>
         <n v="318" u="1"/>
-        <n v="222" u="1"/>
-        <n v="157" u="1"/>
         <n v="580" u="1"/>
         <n v="515" u="1"/>
         <n v="481" u="1"/>
-        <n v="110" u="1"/>
         <n v="416" u="1"/>
         <n v="351" u="1"/>
         <n v="286" u="1"/>
-        <n v="206" u="1"/>
         <n v="581" u="1"/>
-        <n v="141" u="1"/>
         <n v="516" u="1"/>
         <n v="449" u="1"/>
-        <n v="102" u="1"/>
         <n v="384" u="1"/>
         <n v="319" u="1"/>
         <n v="255" u="1"/>
-        <n v="190" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="MSE_T" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.02098892966751E-4" maxValue="0.31467604637146002"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1526857502758499E-2" maxValue="3.7795584648847601E-2"/>
     </cacheField>
     <cacheField name="MSE_V" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
@@ -5458,270 +5207,280 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43157.963595949077" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="1295760">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Giacomo Caglioni" refreshedDate="43160.596121875002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12800">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="15">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="197">
-        <n v="20328"/>
-        <n v="43024"/>
-        <n v="50312"/>
-        <n v="51744"/>
-        <n v="76116"/>
-        <n v="76168"/>
-        <n v="77480"/>
-        <n v="77672"/>
-        <n v="77812"/>
-        <n v="78500"/>
-        <n v="140220"/>
-        <n v="140228"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="198">
+        <n v="584"/>
+        <n v="2992"/>
+        <n v="3236"/>
+        <n v="10108"/>
+        <n v="13468"/>
+        <n v="18724"/>
+        <n v="36100" u="1"/>
+        <n v="78280" u="1"/>
+        <n v="137388" u="1"/>
+        <n v="26432" u="1"/>
+        <n v="2412" u="1"/>
+        <n v="43024" u="1"/>
+        <n v="71240" u="1"/>
+        <n v="81684" u="1"/>
+        <n v="49400" u="1"/>
+        <n v="2192" u="1"/>
+        <n v="69212" u="1"/>
+        <n v="94576" u="1"/>
+        <n v="134172" u="1"/>
+        <n v="133100" u="1"/>
+        <n v="25896" u="1"/>
+        <n v="137856" u="1"/>
+        <n v="133520" u="1"/>
+        <n v="15344" u="1"/>
+        <n v="30920" u="1"/>
+        <n v="6648" u="1"/>
+        <n v="84436" u="1"/>
+        <n v="41964" u="1"/>
+        <n v="48340" u="1"/>
+        <n v="65600" u="1"/>
+        <n v="73200" u="1"/>
+        <n v="24416" u="1"/>
+        <n v="23536" u="1"/>
+        <n v="57572" u="1"/>
+        <n v="51744" u="1"/>
+        <n v="133384" u="1"/>
+        <n v="33304" u="1"/>
+        <n v="62200" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="25652" u="1"/>
+        <n v="58820" u="1"/>
+        <n v="76116" u="1"/>
+        <n v="48108" u="1"/>
+        <n v="75860" u="1"/>
+        <n v="23216" u="1"/>
+        <n v="77492" u="1"/>
+        <n v="134740" u="1"/>
+        <n v="28712" u="1"/>
+        <n v="137864" u="1"/>
+        <n v="59520" u="1"/>
+        <n v="80640" u="1"/>
+        <n v="32652" u="1"/>
+        <n v="92856" u="1"/>
+        <n v="35660" u="1"/>
+        <n v="50312" u="1"/>
+        <n v="80664" u="1"/>
+        <n v="137680" u="1"/>
+        <n v="18280" u="1"/>
+        <n v="134976" u="1"/>
+        <n v="44892" u="1"/>
+        <n v="68332" u="1"/>
+        <n v="7100" u="1"/>
+        <n v="139220" u="1"/>
+        <n v="76352" u="1"/>
+        <n v="89780" u="1"/>
+        <n v="1848" u="1"/>
+        <n v="22628" u="1"/>
+        <n v="47620" u="1"/>
+        <n v="21748" u="1"/>
+        <n v="43552" u="1"/>
+        <n v="47364" u="1"/>
+        <n v="137824" u="1"/>
+        <n v="77892" u="1"/>
+        <n v="91320" u="1"/>
+        <n v="56864" u="1"/>
+        <n v="22512" u="1"/>
+        <n v="76168" u="1"/>
+        <n v="68172" u="1"/>
+        <n v="24348" u="1"/>
+        <n v="137268" u="1"/>
+        <n v="43192" u="1"/>
+        <n v="78500" u="1"/>
+        <n v="47540" u="1"/>
+        <n v="133912" u="1"/>
+        <n v="47272" u="1"/>
+        <n v="15080" u="1"/>
+        <n v="134752" u="1"/>
+        <n v="46736" u="1"/>
+        <n v="136152" u="1"/>
+        <n v="69736" u="1"/>
+        <n v="135220" u="1"/>
+        <n v="138204" u="1"/>
+        <n v="78152" u="1"/>
+        <n v="59232" u="1"/>
+        <n v="134428" u="1"/>
+        <n v="134708" u="1"/>
+        <n v="1372" u="1"/>
+        <n v="123752" u="1"/>
+        <n v="42156" u="1"/>
+        <n v="45140" u="1"/>
+        <n v="77244" u="1"/>
+        <n v="35652" u="1"/>
+        <n v="134664" u="1"/>
+        <n v="133312" u="1"/>
+        <n v="137788" u="1"/>
+        <n v="17192" u="1"/>
+        <n v="138208" u="1"/>
+        <n v="84052" u="1"/>
+        <n v="13364" u="1"/>
+        <n v="43124" u="1"/>
+        <n v="87852" u="1"/>
+        <n v="2800" u="1"/>
+        <n v="65612" u="1"/>
+        <n v="42856" u="1"/>
+        <n v="62252" u="1"/>
+        <n v="136204" u="1"/>
+        <n v="48148" u="1"/>
+        <n v="134852" u="1"/>
+        <n v="137836" u="1"/>
+        <n v="7032" u="1"/>
+        <n v="2792" u="1"/>
+        <n v="84076" u="1"/>
+        <n v="83400" u="1"/>
+        <n v="73656" u="1"/>
+        <n v="52916" u="1"/>
+        <n v="137792" u="1"/>
+        <n v="20328" u="1"/>
+        <n v="38136" u="1"/>
+        <n v="60516" u="1"/>
+        <n v="50480" u="1"/>
+        <n v="138212" u="1"/>
+        <n v="137000" u="1"/>
+        <n v="53196" u="1"/>
+        <n v="94568" u="1"/>
+        <n v="77480" u="1"/>
+        <n v="54012" u="1"/>
+        <n v="79928" u="1"/>
+        <n v="39232" u="1"/>
+        <n v="22100" u="1"/>
         <n v="82796" u="1"/>
-        <n v="57572" u="1"/>
-        <n v="134852" u="1"/>
+        <n v="24204" u="1"/>
+        <n v="58908" u="1"/>
+        <n v="137608" u="1"/>
+        <n v="204" u="1"/>
+        <n v="46436" u="1"/>
+        <n v="120656" u="1"/>
+        <n v="59188" u="1"/>
+        <n v="140220" u="1"/>
+        <n v="1540" u="1"/>
+        <n v="136024" u="1"/>
+        <n v="51192" u="1"/>
+        <n v="22992" u="1"/>
+        <n v="50516" u="1"/>
+        <n v="48080" u="1"/>
+        <n v="6888" u="1"/>
+        <n v="139476" u="1"/>
+        <n v="40760" u="1"/>
+        <n v="133648" u="1"/>
+        <n v="39408" u="1"/>
+        <n v="96972" u="1"/>
+        <n v="61520" u="1"/>
+        <n v="136120" u="1"/>
+        <n v="45516" u="1"/>
+        <n v="134768" u="1"/>
+        <n v="31956" u="1"/>
+        <n v="123572" u="1"/>
+        <n v="136960" u="1"/>
+        <n v="36028" u="1"/>
+        <n v="76784" u="1"/>
+        <n v="80584" u="1"/>
+        <n v="44444" u="1"/>
+        <n v="69744" u="1"/>
+        <n v="20708" u="1"/>
+        <n v="43512" u="1"/>
+        <n v="137196" u="1"/>
+        <n v="47720" u="1"/>
+        <n v="137756" u="1"/>
+        <n v="54912" u="1"/>
         <n v="1932" u="1"/>
-        <n v="3236" u="1"/>
-        <n v="139476" u="1"/>
-        <n v="7100" u="1"/>
-        <n v="36028" u="1"/>
-        <n v="84052" u="1"/>
-        <n v="92856" u="1"/>
-        <n v="137000" u="1"/>
-        <n v="13468" u="1"/>
-        <n v="136024" u="1"/>
-        <n v="24204" u="1"/>
-        <n v="44892" u="1"/>
+        <n v="32516" u="1"/>
+        <n v="140228" u="1"/>
+        <n v="48408" u="1"/>
+        <n v="77532" u="1"/>
         <n v="134400" u="1"/>
-        <n v="39232" u="1"/>
-        <n v="133912" u="1"/>
-        <n v="43512" u="1"/>
-        <n v="48340" u="1"/>
-        <n v="83400" u="1"/>
-        <n v="38136" u="1"/>
-        <n v="137196" u="1"/>
-        <n v="15344" u="1"/>
-        <n v="18280" u="1"/>
-        <n v="43552" u="1"/>
-        <n v="54912" u="1"/>
-        <n v="80640" u="1"/>
-        <n v="58908" u="1"/>
-        <n v="138208" u="1"/>
-        <n v="44444" u="1"/>
+        <n v="39864" u="1"/>
+        <n v="93268" u="1"/>
+        <n v="77672" u="1"/>
+        <n v="134820" u="1"/>
+        <n v="77812" u="1"/>
+        <n v="5692" u="1"/>
+        <n v="137152" u="1"/>
         <n v="48420" u="1"/>
-        <n v="137152" u="1"/>
-        <n v="24416" u="1"/>
-        <n v="32652" u="1"/>
-        <n v="35660" u="1"/>
-        <n v="46736" u="1"/>
-        <n v="59232" u="1"/>
-        <n v="76784" u="1"/>
-        <n v="139220" u="1"/>
-        <n v="15080" u="1"/>
-        <n v="2792" u="1"/>
-        <n v="21748" u="1"/>
-        <n v="47364" u="1"/>
-        <n v="137756" u="1"/>
-        <n v="204" u="1"/>
-        <n v="43124" u="1"/>
-        <n v="134428" u="1"/>
-        <n v="137268" u="1"/>
-        <n v="137836" u="1"/>
-        <n v="6288" u="1"/>
-        <n v="25896" u="1"/>
-        <n v="73656" u="1"/>
-        <n v="137792" u="1"/>
-        <n v="6648" u="1"/>
-        <n v="5692" u="1"/>
-        <n v="62252" u="1"/>
-        <n v="78280" u="1"/>
-        <n v="25652" u="1"/>
-        <n v="33304" u="1"/>
-        <n v="45516" u="1"/>
-        <n v="59188" u="1"/>
-        <n v="133648" u="1"/>
-        <n v="136204" u="1"/>
-        <n v="87852" u="1"/>
-        <n v="1540" u="1"/>
-        <n v="61520" u="1"/>
-        <n v="134172" u="1"/>
-        <n v="134740" u="1"/>
-        <n v="137864" u="1"/>
-        <n v="1372" u="1"/>
-        <n v="17192" u="1"/>
-        <n v="81684" u="1"/>
-        <n v="134820" u="1"/>
+        <n v="66576" u="1"/>
         <n v="20184" u="1"/>
-        <n v="26432" u="1"/>
-        <n v="39408" u="1"/>
-        <n v="41964" u="1"/>
-        <n v="42856" u="1"/>
-        <n v="68172" u="1"/>
+        <n v="11232" u="1"/>
         <n v="75272" u="1"/>
         <n v="81520" u="1"/>
-        <n v="84076" u="1"/>
-        <n v="2192" u="1"/>
-        <n v="22628" u="1"/>
-        <n v="78152" u="1"/>
-        <n v="2992" u="1"/>
-        <n v="135220" u="1"/>
-        <n v="23216" u="1"/>
-        <n v="36100" u="1"/>
-        <n v="58820" u="1"/>
-        <n v="133312" u="1"/>
-        <n v="136152" u="1"/>
-        <n v="137856" u="1"/>
-        <n v="54012" u="1"/>
-        <n v="68332" u="1"/>
-        <n v="22100" u="1"/>
-        <n v="51192" u="1"/>
-        <n v="73200" u="1"/>
-        <n v="80584" u="1"/>
-        <n v="123752" u="1"/>
-        <n v="584" u="1"/>
-        <n v="1848" u="1"/>
-        <n v="52916" u="1"/>
-        <n v="136960" u="1"/>
-        <n v="47540" u="1"/>
-        <n v="48108" u="1"/>
-        <n v="65612" u="1"/>
-        <n v="80664" u="1"/>
-        <n v="134768" u="1"/>
-        <n v="137608" u="1"/>
-        <n v="13364" u="1"/>
-        <n v="22992" u="1"/>
-        <n v="35652" u="1"/>
-        <n v="48148" u="1"/>
-        <n v="84436" u="1"/>
-        <n v="10108" u="1"/>
-        <n v="32516" u="1"/>
-        <n v="96972" u="1"/>
-        <n v="47620" u="1"/>
-        <n v="133100" u="1"/>
-        <n v="133384" u="1"/>
-        <n v="138212" u="1"/>
-        <n v="50480" u="1"/>
-        <n v="28712" u="1"/>
-        <n v="6888" u="1"/>
-        <n v="94576" u="1"/>
-        <n v="137680" u="1"/>
-        <n v="47720" u="1"/>
-        <n v="79928" u="1"/>
-        <n v="69744" u="1"/>
-        <n v="138204" u="1"/>
-        <n v="53196" u="1"/>
-        <n v="77492" u="1"/>
-        <n v="77532" u="1"/>
-        <n v="134752" u="1"/>
-        <n v="20708" u="1"/>
-        <n v="47272" u="1"/>
-        <n v="48408" u="1"/>
-        <n v="137388" u="1"/>
-        <n v="40760" u="1"/>
-        <n v="66576" u="1"/>
-        <n v="134708" u="1"/>
-        <n v="31956" u="1"/>
-        <n v="69212" u="1"/>
-        <n v="71240" u="1"/>
-        <n v="76352" u="1"/>
-        <n v="120656" u="1"/>
-        <n v="134664" u="1"/>
-        <n v="137788" u="1"/>
-        <n v="50516" u="1"/>
-        <n v="65600" u="1"/>
-        <n v="77244" u="1"/>
-        <n v="94568" u="1"/>
-        <n v="7032" u="1"/>
-        <n v="45140" u="1"/>
-        <n v="49400" u="1"/>
-        <n v="89780" u="1"/>
-        <n v="62200" u="1"/>
-        <n v="77892" u="1"/>
-        <n v="24348" u="1"/>
-        <n v="43192" u="1"/>
-        <n v="60516" u="1"/>
-        <n v="93268" u="1"/>
-        <n v="136120" u="1"/>
-        <n v="137824" u="1"/>
-        <n v="22512" u="1"/>
-        <n v="69736" u="1"/>
-        <n v="78540" u="1"/>
-        <n v="91320" u="1"/>
-        <n v="2800" u="1"/>
-        <n v="56864" u="1"/>
-        <n v="48080" u="1"/>
-        <n v="133520" u="1"/>
-        <n v="2412" u="1"/>
-        <n v="23536" u="1"/>
-        <n v="30920" u="1"/>
-        <n v="39864" u="1"/>
-        <n v="11232" u="1"/>
-        <n v="42156" u="1"/>
-        <n v="75860" u="1"/>
-        <n v="123572" u="1"/>
-        <n v="46436" u="1"/>
-        <n v="59520" u="1"/>
-        <n v="134976" u="1"/>
+        <n v="6288" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="59804" maxValue="139356" count="12">
-        <n v="76312"/>
-        <n v="135232"/>
-        <n v="59804"/>
-        <n v="78428"/>
-        <n v="78464"/>
-        <n v="77828"/>
-        <n v="78540"/>
-        <n v="76884"/>
-        <n v="78648"/>
-        <n v="78776"/>
-        <n v="139356"/>
-        <n v="137012"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="18">
+        <n v="4312"/>
+        <n v="11948"/>
+        <n v="2856"/>
+        <n v="2932"/>
+        <n v="196"/>
+        <n v="17600"/>
+        <n v="76312" u="1"/>
+        <n v="78776" u="1"/>
+        <n v="137012" u="1"/>
+        <n v="139356" u="1"/>
+        <n v="59804" u="1"/>
+        <n v="76884" u="1"/>
+        <n v="78464" u="1"/>
+        <n v="135232" u="1"/>
+        <n v="78428" u="1"/>
+        <n v="78648" u="1"/>
+        <n v="77828" u="1"/>
+        <n v="78540" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="RUNSET" numFmtId="0" sqlType="12">
       <sharedItems count="2">
+        <s v="OUT-OF-SAMPLE"/>
         <s v="IN-SAMPLE"/>
-        <s v="OUT-OF-SAMPLE"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETPROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="140228" count="11">
-        <n v="20328"/>
-        <n v="43024"/>
-        <n v="76168"/>
-        <n v="51744"/>
-        <n v="77480"/>
-        <n v="77672"/>
-        <n v="77812"/>
-        <n v="78500"/>
-        <n v="140220"/>
-        <n v="140228"/>
-        <n v="0" u="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="140228" count="17">
+        <n v="0"/>
+        <n v="584"/>
+        <n v="2992"/>
+        <n v="3236"/>
+        <n v="10108"/>
+        <n v="13468"/>
+        <n v="18724"/>
+        <n v="20328" u="1"/>
+        <n v="77672" u="1"/>
+        <n v="77480" u="1"/>
+        <n v="78500" u="1"/>
+        <n v="43024" u="1"/>
+        <n v="51744" u="1"/>
+        <n v="76168" u="1"/>
+        <n v="140228" u="1"/>
+        <n v="77812" u="1"/>
+        <n v="140220" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETTHREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="76312" maxValue="139356" count="10">
-        <n v="76312"/>
-        <n v="135232"/>
-        <n v="77828"/>
-        <n v="78428"/>
-        <n v="78540"/>
-        <n v="76884"/>
-        <n v="78648"/>
-        <n v="78776"/>
-        <n v="139356"/>
-        <n v="137012"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="17600" count="7">
+        <n v="0"/>
+        <n v="4312"/>
+        <n v="11948"/>
+        <n v="2856"/>
+        <n v="2932"/>
+        <n v="196"/>
+        <n v="17600"/>
       </sharedItems>
     </cacheField>
     <cacheField name="POS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="59799"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="399"/>
     </cacheField>
     <cacheField name="FEATURE" numFmtId="0" sqlType="12">
       <sharedItems count="4">
         <s v="OPEN"/>
+        <s v="CLOSE"/>
         <s v="HIGH"/>
         <s v="LOW"/>
-        <s v="CLOSE"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ACTUAL" numFmtId="0" sqlType="6">
@@ -5743,10 +5502,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.00000011920929" maxValue="1"/>
     </cacheField>
     <cacheField name="PREDICTEDTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.98163783550262496" maxValue="0.81332200765609697"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.82484936714172397" maxValue="0.831606864929199"/>
     </cacheField>
     <cacheField name="ERRORTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.2351741790771501E-8" maxValue="1.8223857879638701"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5001506805419896E-6" maxValue="1.2067182064056401"/>
     </cacheField>
     <cacheField name="BARWIDTH" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -5768,225 +5527,229 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
   <location ref="A1:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="194">
+      <items count="196">
+        <item h="1" m="1" x="142"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="97"/>
+        <item h="1" m="1" x="146"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="172"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="117"/>
+        <item h="1" m="1" x="110"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="96"/>
+        <item h="1" m="1" x="183"/>
+        <item h="1" m="1" x="192"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="153"/>
+        <item h="1" m="1" x="115"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="189"/>
+        <item h="1" m="1" x="107"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="84"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="105"/>
+        <item h="1" m="1" x="52"/>
+        <item x="5"/>
+        <item h="1" m="1" x="188"/>
+        <item h="1" m="1" x="125"/>
+        <item h="1" m="1" x="166"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="80"/>
+        <item h="1" m="1" x="136"/>
+        <item h="1" m="1" x="73"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="149"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="140"/>
+        <item h="1" m="1" x="78"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="89"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="160"/>
+        <item h="1" m="1" x="173"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="120"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="103"/>
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="161"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="134"/>
+        <item h="1" m="1" x="155"/>
+        <item h="1" m="1" x="178"/>
+        <item h="1" m="1" x="154"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="100"/>
+        <item h="1" m="1" x="135"/>
+        <item h="1" m="1" x="112"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="108"/>
+        <item h="1" m="1" x="79"/>
+        <item h="1" m="1" x="167"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="164"/>
         <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="107"/>
-        <item h="1" m="1" x="75"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="15"/>
-        <item h="1" m="1" x="89"/>
-        <item h="1" m="1" x="181"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="175"/>
-        <item h="1" m="1" x="94"/>
-        <item h="1" m="1" x="90"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="130"/>
-        <item h="1" m="1" x="156"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="120"/>
-        <item h="1" m="1" x="185"/>
-        <item h="1" m="1" x="115"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="76"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="78"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="139"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="157"/>
-        <item h="1" m="1" x="104"/>
-        <item h="1" m="1" x="172"/>
-        <item h="1" m="1" x="91"/>
-        <item h="1" m="1" x="116"/>
-        <item h="1" m="1" x="97"/>
-        <item h="1" m="1" x="182"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="166"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="79"/>
-        <item h="1" m="1" x="128"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="183"/>
-        <item h="1" m="1" x="147"/>
-        <item h="1" m="1" x="121"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="95"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="186"/>
-        <item h="1" m="1" x="117"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="98"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="80"/>
-        <item h="1" m="1" x="184"/>
+        <item h="1" m="1" x="101"/>
+        <item h="1" m="1" x="159"/>
+        <item h="1" m="1" x="137"/>
         <item h="1" m="1" x="143"/>
-        <item h="1" m="1" x="110"/>
-        <item h="1" m="1" x="81"/>
-        <item h="1" m="1" x="187"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="84"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="167"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="26"/>
-        <item h="1" m="1" x="158"/>
-        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="86"/>
+        <item h="1" m="1" x="83"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="82"/>
+        <item h="1" m="1" x="63"/>
         <item h="1" m="1" x="168"/>
-        <item h="1" m="1" x="189"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="140"/>
-        <item h="1" m="1" x="52"/>
-        <item h="1" m="1" x="111"/>
-        <item h="1" m="1" x="123"/>
-        <item h="1" m="1" x="132"/>
-        <item h="1" m="1" x="179"/>
-        <item h="1" m="1" x="112"/>
-        <item h="1" m="1" x="118"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="141"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="22"/>
-        <item h="1" m="1" x="159"/>
-        <item h="1" m="1" x="126"/>
         <item h="1" m="1" x="152"/>
-        <item x="3"/>
-        <item h="1" m="1" x="163"/>
-        <item h="1" m="1" x="108"/>
-        <item h="1" m="1" x="136"/>
-        <item h="1" m="1" x="101"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="176"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="99"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="192"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="169"/>
-        <item h="1" m="1" x="73"/>
-        <item h="1" m="1" x="164"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="153"/>
-        <item h="1" m="1" x="190"/>
-        <item h="1" m="1" x="144"/>
-        <item h="1" m="1" x="85"/>
-        <item h="1" m="1" x="102"/>
-        <item h="1" m="1" x="148"/>
-        <item h="1" m="1" x="173"/>
-        <item h="1" m="1" x="134"/>
-        <item h="1" m="1" x="150"/>
-        <item h="1" m="1" x="92"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="86"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="188"/>
-        <item h="1" m="1" x="103"/>
-        <item h="1" x="4"/>
-        <item h="1" m="1" x="151"/>
-        <item h="1" m="1" x="180"/>
-        <item h="1" m="1" x="109"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="154"/>
-        <item h="1" m="1" x="82"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" m="1" x="138"/>
-        <item h="1" x="7"/>
-        <item h="1" m="1" x="137"/>
-        <item h="1" x="8"/>
-        <item h="1" m="1" x="165"/>
-        <item h="1" m="1" x="105"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="93"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" x="9"/>
-        <item h="1" m="1" x="174"/>
-        <item h="1" m="1" x="113"/>
-        <item h="1" m="1" x="142"/>
-        <item h="1" m="1" x="133"/>
-        <item h="1" m="1" x="106"/>
         <item h="1" m="1" x="37"/>
         <item h="1" m="1" x="114"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="176"/>
+        <item h="1" m="1" x="185"/>
+        <item h="1" m="1" x="116"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="127"/>
+        <item h="1" m="1" x="150"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="147"/>
+        <item h="1" m="1" x="124"/>
+        <item h="1" m="1" x="128"/>
+        <item h="1" m="1" x="131"/>
+        <item h="1" m="1" x="170"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="141"/>
+        <item h="1" m="1" x="144"/>
+        <item h="1" m="1" x="93"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="111"/>
+        <item h="1" m="1" x="126"/>
+        <item h="1" m="1" x="158"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="113"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="138"/>
+        <item h="1" m="1" x="186"/>
+        <item h="1" m="1" x="76"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="90"/>
+        <item h="1" m="1" x="165"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="123"/>
+        <item h="1" m="1" x="190"/>
+        <item h="1" m="1" x="179"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="41"/>
         <item h="1" m="1" x="74"/>
-        <item h="1" m="1" x="160"/>
-        <item h="1" m="1" x="124"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="194"/>
+        <item h="1" m="1" x="162"/>
+        <item h="1" m="1" x="102"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="130"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="177"/>
+        <item h="1" m="1" x="181"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="182"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="151"/>
+        <item h="1" m="1" x="92"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="81"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="98"/>
+        <item h="1" m="1" x="132"/>
+        <item h="1" m="1" x="163"/>
+        <item h="1" m="1" x="47"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="148"/>
+        <item h="1" m="1" x="121"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="191"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="139"/>
+        <item h="1" m="1" x="119"/>
+        <item h="1" m="1" x="171"/>
+        <item h="1" m="1" x="106"/>
+        <item h="1" m="1" x="118"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="56"/>
+        <item h="1" m="1" x="169"/>
+        <item h="1" m="1" x="94"/>
+        <item h="1" m="1" x="109"/>
+        <item h="1" m="1" x="58"/>
         <item h="1" m="1" x="87"/>
+        <item h="1" m="1" x="46"/>
         <item h="1" m="1" x="77"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="170"/>
-        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="180"/>
+        <item h="1" m="1" x="129"/>
+        <item h="1" m="1" x="174"/>
+        <item h="1" m="1" x="104"/>
+        <item h="1" m="1" x="156"/>
+        <item h="1" m="1" x="95"/>
         <item h="1" m="1" x="88"/>
-        <item h="1" m="1" x="119"/>
-        <item h="1" m="1" x="191"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="85"/>
+        <item h="1" m="1" x="122"/>
+        <item h="1" m="1" x="99"/>
+        <item h="1" m="1" x="157"/>
+        <item h="1" m="1" x="75"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="133"/>
+        <item h="1" m="1" x="187"/>
+        <item h="1" m="1" x="193"/>
+        <item h="1" m="1" x="91"/>
+        <item h="1" m="1" x="184"/>
         <item h="1" m="1" x="145"/>
-        <item h="1" m="1" x="177"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="161"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="127"/>
-        <item h="1" m="1" x="135"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="171"/>
-        <item h="1" m="1" x="155"/>
-        <item h="1" m="1" x="146"/>
-        <item h="1" m="1" x="129"/>
-        <item h="1" m="1" x="122"/>
-        <item h="1" m="1" x="100"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="162"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="125"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="131"/>
-        <item h="1" m="1" x="149"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="96"/>
-        <item h="1" m="1" x="83"/>
-        <item h="1" m="1" x="178"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
+        <item h="1" m="1" x="175"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="17">
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="13"/>
-        <item m="1" x="14"/>
-        <item x="6"/>
+      <items count="19">
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
         <item x="1"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="3"/>
         <item x="5"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="10"/>
+        <item m="1" x="17"/>
+        <item m="1" x="16"/>
+        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item m="1" x="15"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item m="1" x="14"/>
+        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6042,553 +5805,553 @@
         <item x="47"/>
         <item x="48"/>
         <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item m="1" x="489"/>
+        <item m="1" x="510"/>
+        <item m="1" x="531"/>
+        <item m="1" x="552"/>
+        <item m="1" x="573"/>
+        <item m="1" x="596"/>
+        <item m="1" x="272"/>
+        <item m="1" x="284"/>
+        <item m="1" x="296"/>
+        <item m="1" x="308"/>
+        <item m="1" x="320"/>
+        <item m="1" x="332"/>
+        <item m="1" x="343"/>
+        <item m="1" x="353"/>
+        <item m="1" x="363"/>
+        <item m="1" x="373"/>
+        <item m="1" x="383"/>
+        <item m="1" x="393"/>
+        <item m="1" x="403"/>
+        <item m="1" x="413"/>
+        <item m="1" x="423"/>
+        <item m="1" x="433"/>
+        <item m="1" x="443"/>
+        <item m="1" x="453"/>
+        <item m="1" x="463"/>
+        <item m="1" x="473"/>
+        <item m="1" x="483"/>
+        <item m="1" x="494"/>
+        <item m="1" x="504"/>
+        <item m="1" x="515"/>
+        <item m="1" x="525"/>
+        <item m="1" x="536"/>
+        <item m="1" x="546"/>
+        <item m="1" x="557"/>
+        <item m="1" x="567"/>
+        <item m="1" x="579"/>
+        <item m="1" x="590"/>
+        <item m="1" x="255"/>
+        <item m="1" x="266"/>
+        <item m="1" x="278"/>
+        <item m="1" x="290"/>
+        <item m="1" x="302"/>
+        <item m="1" x="314"/>
+        <item m="1" x="326"/>
+        <item m="1" x="338"/>
+        <item m="1" x="348"/>
+        <item m="1" x="358"/>
+        <item m="1" x="368"/>
+        <item m="1" x="378"/>
+        <item m="1" x="388"/>
+        <item m="1" x="398"/>
+        <item m="1" x="408"/>
+        <item m="1" x="418"/>
+        <item m="1" x="428"/>
+        <item m="1" x="438"/>
+        <item m="1" x="448"/>
+        <item m="1" x="458"/>
+        <item m="1" x="468"/>
+        <item m="1" x="478"/>
+        <item m="1" x="488"/>
+        <item m="1" x="499"/>
+        <item m="1" x="509"/>
+        <item m="1" x="520"/>
+        <item m="1" x="530"/>
+        <item m="1" x="541"/>
+        <item m="1" x="551"/>
+        <item m="1" x="562"/>
+        <item m="1" x="572"/>
+        <item m="1" x="584"/>
+        <item m="1" x="595"/>
+        <item m="1" x="260"/>
+        <item m="1" x="271"/>
+        <item m="1" x="283"/>
+        <item m="1" x="295"/>
+        <item m="1" x="307"/>
+        <item m="1" x="319"/>
+        <item m="1" x="331"/>
+        <item m="1" x="342"/>
+        <item m="1" x="352"/>
+        <item m="1" x="362"/>
+        <item m="1" x="372"/>
+        <item m="1" x="382"/>
+        <item m="1" x="392"/>
+        <item m="1" x="402"/>
+        <item m="1" x="412"/>
+        <item m="1" x="422"/>
+        <item m="1" x="432"/>
+        <item m="1" x="442"/>
+        <item m="1" x="452"/>
+        <item m="1" x="462"/>
+        <item m="1" x="472"/>
+        <item m="1" x="482"/>
+        <item m="1" x="493"/>
+        <item m="1" x="503"/>
+        <item m="1" x="514"/>
+        <item m="1" x="524"/>
+        <item m="1" x="535"/>
+        <item m="1" x="545"/>
+        <item m="1" x="556"/>
+        <item m="1" x="566"/>
+        <item m="1" x="578"/>
+        <item m="1" x="589"/>
+        <item m="1" x="254"/>
+        <item m="1" x="265"/>
+        <item m="1" x="277"/>
+        <item m="1" x="289"/>
+        <item m="1" x="301"/>
+        <item m="1" x="313"/>
+        <item m="1" x="325"/>
+        <item m="1" x="337"/>
+        <item m="1" x="347"/>
+        <item m="1" x="357"/>
+        <item m="1" x="367"/>
+        <item m="1" x="377"/>
+        <item m="1" x="387"/>
+        <item m="1" x="397"/>
+        <item m="1" x="407"/>
+        <item m="1" x="417"/>
+        <item m="1" x="427"/>
+        <item m="1" x="437"/>
+        <item m="1" x="447"/>
+        <item m="1" x="457"/>
+        <item m="1" x="467"/>
+        <item m="1" x="477"/>
+        <item m="1" x="487"/>
+        <item m="1" x="498"/>
+        <item m="1" x="508"/>
+        <item m="1" x="519"/>
         <item m="1" x="529"/>
-        <item m="1" x="121"/>
+        <item m="1" x="540"/>
+        <item m="1" x="550"/>
+        <item m="1" x="561"/>
+        <item m="1" x="571"/>
+        <item m="1" x="583"/>
+        <item m="1" x="594"/>
+        <item m="1" x="259"/>
+        <item m="1" x="270"/>
+        <item m="1" x="282"/>
+        <item m="1" x="294"/>
+        <item m="1" x="306"/>
+        <item m="1" x="318"/>
+        <item m="1" x="330"/>
+        <item m="1" x="341"/>
+        <item m="1" x="351"/>
+        <item m="1" x="361"/>
+        <item m="1" x="371"/>
+        <item m="1" x="381"/>
+        <item m="1" x="391"/>
+        <item m="1" x="401"/>
+        <item m="1" x="411"/>
+        <item m="1" x="421"/>
+        <item m="1" x="431"/>
+        <item m="1" x="441"/>
+        <item m="1" x="451"/>
+        <item m="1" x="461"/>
+        <item m="1" x="471"/>
+        <item m="1" x="481"/>
+        <item m="1" x="492"/>
+        <item m="1" x="502"/>
+        <item m="1" x="513"/>
+        <item m="1" x="523"/>
+        <item m="1" x="534"/>
+        <item m="1" x="544"/>
+        <item m="1" x="555"/>
+        <item m="1" x="565"/>
+        <item m="1" x="577"/>
+        <item m="1" x="588"/>
+        <item m="1" x="253"/>
+        <item m="1" x="264"/>
+        <item m="1" x="276"/>
+        <item m="1" x="288"/>
+        <item m="1" x="300"/>
+        <item m="1" x="312"/>
+        <item m="1" x="324"/>
+        <item m="1" x="336"/>
+        <item m="1" x="346"/>
+        <item m="1" x="356"/>
+        <item m="1" x="366"/>
+        <item m="1" x="376"/>
+        <item m="1" x="386"/>
+        <item m="1" x="396"/>
+        <item m="1" x="406"/>
+        <item m="1" x="416"/>
+        <item m="1" x="426"/>
+        <item m="1" x="436"/>
+        <item m="1" x="446"/>
+        <item m="1" x="456"/>
+        <item m="1" x="466"/>
+        <item m="1" x="476"/>
+        <item m="1" x="486"/>
+        <item m="1" x="497"/>
+        <item m="1" x="507"/>
+        <item m="1" x="518"/>
+        <item m="1" x="528"/>
+        <item m="1" x="539"/>
+        <item m="1" x="549"/>
+        <item m="1" x="560"/>
+        <item m="1" x="570"/>
+        <item m="1" x="582"/>
+        <item m="1" x="593"/>
+        <item m="1" x="258"/>
+        <item m="1" x="269"/>
+        <item m="1" x="281"/>
+        <item m="1" x="293"/>
+        <item m="1" x="305"/>
+        <item m="1" x="317"/>
+        <item m="1" x="329"/>
+        <item m="1" x="340"/>
+        <item m="1" x="350"/>
+        <item m="1" x="360"/>
+        <item m="1" x="370"/>
+        <item m="1" x="380"/>
+        <item m="1" x="390"/>
+        <item m="1" x="400"/>
+        <item m="1" x="410"/>
+        <item m="1" x="420"/>
+        <item m="1" x="430"/>
+        <item m="1" x="440"/>
+        <item m="1" x="450"/>
+        <item m="1" x="460"/>
+        <item m="1" x="470"/>
+        <item m="1" x="480"/>
+        <item m="1" x="491"/>
+        <item m="1" x="501"/>
+        <item m="1" x="512"/>
+        <item m="1" x="522"/>
+        <item m="1" x="533"/>
+        <item m="1" x="543"/>
+        <item m="1" x="554"/>
+        <item m="1" x="564"/>
+        <item m="1" x="576"/>
+        <item m="1" x="587"/>
+        <item m="1" x="252"/>
+        <item m="1" x="263"/>
+        <item m="1" x="275"/>
+        <item m="1" x="287"/>
+        <item m="1" x="299"/>
+        <item m="1" x="311"/>
+        <item m="1" x="323"/>
+        <item m="1" x="335"/>
+        <item m="1" x="345"/>
+        <item m="1" x="355"/>
+        <item m="1" x="365"/>
+        <item m="1" x="375"/>
+        <item m="1" x="385"/>
+        <item m="1" x="395"/>
+        <item m="1" x="405"/>
+        <item m="1" x="415"/>
+        <item m="1" x="425"/>
+        <item m="1" x="435"/>
+        <item m="1" x="445"/>
+        <item m="1" x="455"/>
+        <item m="1" x="465"/>
+        <item m="1" x="475"/>
+        <item m="1" x="485"/>
+        <item m="1" x="496"/>
+        <item m="1" x="506"/>
+        <item m="1" x="517"/>
+        <item m="1" x="527"/>
+        <item m="1" x="538"/>
+        <item m="1" x="548"/>
+        <item m="1" x="559"/>
+        <item m="1" x="569"/>
+        <item m="1" x="575"/>
+        <item m="1" x="581"/>
+        <item m="1" x="586"/>
+        <item m="1" x="592"/>
+        <item m="1" x="251"/>
         <item m="1" x="257"/>
-        <item m="1" x="388"/>
-        <item m="1" x="519"/>
-        <item m="1" x="111"/>
-        <item m="1" x="248"/>
+        <item m="1" x="262"/>
+        <item m="1" x="268"/>
+        <item m="1" x="274"/>
+        <item m="1" x="280"/>
+        <item m="1" x="286"/>
+        <item m="1" x="292"/>
+        <item m="1" x="298"/>
+        <item m="1" x="304"/>
+        <item m="1" x="310"/>
+        <item m="1" x="316"/>
+        <item m="1" x="322"/>
+        <item m="1" x="328"/>
+        <item m="1" x="334"/>
+        <item m="1" x="339"/>
+        <item m="1" x="344"/>
+        <item m="1" x="349"/>
+        <item m="1" x="354"/>
+        <item m="1" x="359"/>
+        <item m="1" x="364"/>
+        <item m="1" x="369"/>
+        <item m="1" x="374"/>
         <item m="1" x="379"/>
-        <item m="1" x="510"/>
-        <item m="1" x="101"/>
-        <item m="1" x="239"/>
-        <item m="1" x="370"/>
-        <item m="1" x="501"/>
-        <item m="1" x="91"/>
-        <item m="1" x="230"/>
+        <item m="1" x="384"/>
+        <item m="1" x="389"/>
+        <item m="1" x="394"/>
+        <item m="1" x="399"/>
+        <item m="1" x="404"/>
+        <item m="1" x="409"/>
+        <item m="1" x="414"/>
+        <item m="1" x="419"/>
+        <item m="1" x="424"/>
+        <item m="1" x="429"/>
+        <item m="1" x="434"/>
+        <item m="1" x="439"/>
+        <item m="1" x="444"/>
+        <item m="1" x="449"/>
+        <item m="1" x="454"/>
+        <item m="1" x="459"/>
+        <item m="1" x="464"/>
+        <item m="1" x="469"/>
+        <item m="1" x="474"/>
+        <item m="1" x="479"/>
+        <item m="1" x="484"/>
+        <item m="1" x="490"/>
+        <item m="1" x="495"/>
+        <item m="1" x="500"/>
+        <item m="1" x="505"/>
+        <item m="1" x="511"/>
+        <item m="1" x="516"/>
+        <item m="1" x="521"/>
+        <item m="1" x="526"/>
+        <item m="1" x="532"/>
+        <item m="1" x="537"/>
+        <item m="1" x="542"/>
+        <item m="1" x="547"/>
+        <item m="1" x="553"/>
+        <item m="1" x="558"/>
+        <item m="1" x="563"/>
+        <item m="1" x="568"/>
+        <item m="1" x="574"/>
+        <item m="1" x="580"/>
+        <item m="1" x="585"/>
+        <item m="1" x="591"/>
+        <item m="1" x="250"/>
+        <item m="1" x="256"/>
+        <item m="1" x="261"/>
+        <item m="1" x="267"/>
+        <item m="1" x="273"/>
+        <item m="1" x="279"/>
+        <item m="1" x="285"/>
+        <item m="1" x="291"/>
         <item m="1" x="297"/>
-        <item m="1" x="361"/>
-        <item m="1" x="428"/>
-        <item m="1" x="492"/>
-        <item m="1" x="560"/>
-        <item m="1" x="81"/>
-        <item m="1" x="155"/>
-        <item m="1" x="221"/>
-        <item m="1" x="288"/>
-        <item m="1" x="352"/>
-        <item m="1" x="419"/>
-        <item m="1" x="483"/>
-        <item m="1" x="551"/>
-        <item m="1" x="72"/>
-        <item m="1" x="146"/>
-        <item m="1" x="213"/>
-        <item m="1" x="280"/>
-        <item m="1" x="344"/>
-        <item m="1" x="411"/>
-        <item m="1" x="475"/>
-        <item m="1" x="543"/>
-        <item m="1" x="63"/>
-        <item m="1" x="136"/>
-        <item m="1" x="204"/>
-        <item m="1" x="271"/>
-        <item m="1" x="335"/>
-        <item m="1" x="402"/>
-        <item m="1" x="466"/>
-        <item m="1" x="534"/>
-        <item m="1" x="54"/>
-        <item m="1" x="127"/>
-        <item m="1" x="196"/>
-        <item m="1" x="263"/>
+        <item m="1" x="303"/>
+        <item m="1" x="309"/>
+        <item m="1" x="315"/>
+        <item m="1" x="321"/>
         <item m="1" x="327"/>
-        <item m="1" x="394"/>
-        <item m="1" x="458"/>
-        <item m="1" x="525"/>
-        <item m="1" x="592"/>
-        <item m="1" x="117"/>
-        <item m="1" x="187"/>
-        <item m="1" x="253"/>
-        <item m="1" x="318"/>
-        <item m="1" x="384"/>
-        <item m="1" x="449"/>
-        <item m="1" x="515"/>
-        <item m="1" x="583"/>
-        <item m="1" x="107"/>
-        <item m="1" x="179"/>
-        <item m="1" x="244"/>
-        <item m="1" x="310"/>
-        <item m="1" x="375"/>
-        <item m="1" x="441"/>
-        <item m="1" x="506"/>
-        <item m="1" x="574"/>
-        <item m="1" x="96"/>
-        <item m="1" x="169"/>
-        <item m="1" x="234"/>
-        <item m="1" x="301"/>
-        <item m="1" x="365"/>
-        <item m="1" x="432"/>
-        <item m="1" x="496"/>
-        <item m="1" x="565"/>
-        <item m="1" x="86"/>
-        <item m="1" x="160"/>
-        <item m="1" x="193"/>
-        <item m="1" x="225"/>
-        <item m="1" x="260"/>
-        <item m="1" x="292"/>
-        <item m="1" x="324"/>
-        <item m="1" x="356"/>
-        <item m="1" x="391"/>
-        <item m="1" x="423"/>
-        <item m="1" x="455"/>
-        <item m="1" x="487"/>
-        <item m="1" x="522"/>
-        <item m="1" x="555"/>
-        <item m="1" x="589"/>
-        <item m="1" x="76"/>
-        <item m="1" x="114"/>
-        <item m="1" x="150"/>
-        <item m="1" x="184"/>
-        <item m="1" x="216"/>
-        <item m="1" x="250"/>
-        <item m="1" x="283"/>
-        <item m="1" x="315"/>
-        <item m="1" x="347"/>
-        <item m="1" x="381"/>
-        <item m="1" x="414"/>
-        <item m="1" x="446"/>
-        <item m="1" x="478"/>
-        <item m="1" x="512"/>
-        <item m="1" x="546"/>
-        <item m="1" x="579"/>
-        <item m="1" x="66"/>
-        <item m="1" x="103"/>
-        <item m="1" x="140"/>
-        <item m="1" x="175"/>
-        <item m="1" x="208"/>
-        <item m="1" x="241"/>
-        <item m="1" x="275"/>
-        <item m="1" x="307"/>
-        <item m="1" x="339"/>
-        <item m="1" x="372"/>
-        <item m="1" x="406"/>
-        <item m="1" x="438"/>
-        <item m="1" x="470"/>
-        <item m="1" x="503"/>
-        <item m="1" x="538"/>
-        <item m="1" x="571"/>
-        <item m="1" x="58"/>
-        <item m="1" x="93"/>
-        <item m="1" x="131"/>
-        <item m="1" x="166"/>
-        <item m="1" x="200"/>
-        <item m="1" x="232"/>
-        <item m="1" x="267"/>
-        <item m="1" x="299"/>
-        <item m="1" x="331"/>
-        <item m="1" x="363"/>
-        <item m="1" x="398"/>
-        <item m="1" x="430"/>
-        <item m="1" x="462"/>
-        <item m="1" x="494"/>
-        <item m="1" x="530"/>
-        <item m="1" x="562"/>
-        <item m="1" x="596"/>
-        <item m="1" x="83"/>
-        <item m="1" x="122"/>
-        <item m="1" x="157"/>
-        <item m="1" x="191"/>
-        <item m="1" x="223"/>
-        <item m="1" x="258"/>
-        <item m="1" x="290"/>
-        <item m="1" x="322"/>
-        <item m="1" x="354"/>
-        <item m="1" x="389"/>
-        <item m="1" x="421"/>
-        <item m="1" x="453"/>
-        <item m="1" x="485"/>
-        <item m="1" x="520"/>
-        <item m="1" x="553"/>
-        <item m="1" x="587"/>
-        <item m="1" x="74"/>
-        <item m="1" x="112"/>
-        <item m="1" x="148"/>
-        <item m="1" x="183"/>
-        <item m="1" x="215"/>
-        <item m="1" x="249"/>
-        <item m="1" x="282"/>
-        <item m="1" x="314"/>
-        <item m="1" x="346"/>
-        <item m="1" x="380"/>
-        <item m="1" x="413"/>
-        <item m="1" x="445"/>
-        <item m="1" x="477"/>
-        <item m="1" x="511"/>
-        <item m="1" x="545"/>
-        <item m="1" x="578"/>
-        <item m="1" x="65"/>
-        <item m="1" x="102"/>
-        <item m="1" x="139"/>
-        <item m="1" x="174"/>
-        <item m="1" x="207"/>
-        <item m="1" x="240"/>
-        <item m="1" x="274"/>
-        <item m="1" x="306"/>
-        <item m="1" x="338"/>
-        <item m="1" x="371"/>
-        <item m="1" x="405"/>
-        <item m="1" x="437"/>
-        <item m="1" x="469"/>
-        <item m="1" x="502"/>
-        <item m="1" x="537"/>
-        <item m="1" x="570"/>
-        <item m="1" x="57"/>
-        <item m="1" x="92"/>
-        <item m="1" x="130"/>
-        <item m="1" x="165"/>
-        <item m="1" x="199"/>
-        <item m="1" x="231"/>
-        <item m="1" x="266"/>
-        <item m="1" x="298"/>
-        <item m="1" x="330"/>
-        <item m="1" x="362"/>
-        <item m="1" x="397"/>
-        <item m="1" x="429"/>
-        <item m="1" x="461"/>
-        <item m="1" x="493"/>
-        <item m="1" x="528"/>
-        <item m="1" x="561"/>
-        <item m="1" x="595"/>
-        <item m="1" x="82"/>
-        <item m="1" x="100"/>
-        <item m="1" x="120"/>
-        <item m="1" x="138"/>
-        <item m="1" x="156"/>
-        <item m="1" x="173"/>
-        <item m="1" x="190"/>
-        <item m="1" x="206"/>
-        <item m="1" x="222"/>
-        <item m="1" x="238"/>
-        <item m="1" x="256"/>
-        <item m="1" x="273"/>
-        <item m="1" x="289"/>
-        <item m="1" x="305"/>
-        <item m="1" x="321"/>
-        <item m="1" x="337"/>
-        <item m="1" x="353"/>
-        <item m="1" x="369"/>
-        <item m="1" x="387"/>
-        <item m="1" x="404"/>
-        <item m="1" x="420"/>
-        <item m="1" x="436"/>
-        <item m="1" x="452"/>
-        <item m="1" x="468"/>
-        <item m="1" x="484"/>
-        <item m="1" x="500"/>
-        <item m="1" x="518"/>
-        <item m="1" x="536"/>
-        <item m="1" x="552"/>
-        <item m="1" x="569"/>
-        <item m="1" x="586"/>
-        <item m="1" x="56"/>
-        <item m="1" x="73"/>
-        <item m="1" x="90"/>
-        <item m="1" x="110"/>
-        <item m="1" x="129"/>
-        <item m="1" x="147"/>
-        <item m="1" x="164"/>
-        <item m="1" x="182"/>
-        <item m="1" x="198"/>
-        <item m="1" x="214"/>
-        <item m="1" x="229"/>
-        <item m="1" x="247"/>
-        <item m="1" x="265"/>
-        <item m="1" x="281"/>
-        <item m="1" x="296"/>
-        <item m="1" x="313"/>
-        <item m="1" x="329"/>
-        <item m="1" x="345"/>
-        <item m="1" x="360"/>
-        <item m="1" x="378"/>
-        <item m="1" x="396"/>
-        <item m="1" x="412"/>
-        <item m="1" x="427"/>
-        <item m="1" x="444"/>
-        <item m="1" x="460"/>
-        <item m="1" x="476"/>
-        <item m="1" x="491"/>
-        <item m="1" x="509"/>
-        <item m="1" x="527"/>
-        <item m="1" x="544"/>
-        <item m="1" x="559"/>
-        <item m="1" x="577"/>
-        <item m="1" x="594"/>
-        <item m="1" x="64"/>
-        <item m="1" x="80"/>
-        <item m="1" x="99"/>
-        <item m="1" x="119"/>
-        <item m="1" x="137"/>
-        <item m="1" x="154"/>
-        <item m="1" x="172"/>
-        <item m="1" x="189"/>
-        <item m="1" x="205"/>
-        <item m="1" x="220"/>
-        <item m="1" x="237"/>
-        <item m="1" x="255"/>
-        <item m="1" x="272"/>
-        <item m="1" x="287"/>
-        <item m="1" x="304"/>
-        <item m="1" x="320"/>
-        <item m="1" x="336"/>
-        <item m="1" x="351"/>
-        <item m="1" x="368"/>
-        <item m="1" x="386"/>
-        <item m="1" x="403"/>
-        <item m="1" x="418"/>
-        <item m="1" x="435"/>
-        <item m="1" x="451"/>
-        <item m="1" x="467"/>
-        <item m="1" x="482"/>
-        <item m="1" x="499"/>
-        <item m="1" x="517"/>
-        <item m="1" x="535"/>
-        <item m="1" x="550"/>
-        <item m="1" x="568"/>
-        <item m="1" x="585"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="89"/>
-        <item m="1" x="109"/>
-        <item m="1" x="128"/>
-        <item m="1" x="145"/>
-        <item m="1" x="163"/>
-        <item m="1" x="181"/>
-        <item m="1" x="197"/>
-        <item m="1" x="212"/>
-        <item m="1" x="228"/>
-        <item m="1" x="246"/>
-        <item m="1" x="264"/>
-        <item m="1" x="279"/>
-        <item m="1" x="295"/>
-        <item m="1" x="312"/>
-        <item m="1" x="328"/>
-        <item m="1" x="343"/>
-        <item m="1" x="359"/>
-        <item m="1" x="377"/>
-        <item m="1" x="395"/>
-        <item m="1" x="410"/>
-        <item m="1" x="426"/>
-        <item m="1" x="443"/>
-        <item m="1" x="459"/>
-        <item m="1" x="474"/>
-        <item m="1" x="490"/>
-        <item m="1" x="508"/>
-        <item m="1" x="526"/>
-        <item m="1" x="542"/>
-        <item m="1" x="558"/>
-        <item m="1" x="576"/>
-        <item m="1" x="593"/>
-        <item m="1" x="62"/>
-        <item m="1" x="79"/>
-        <item m="1" x="98"/>
-        <item m="1" x="118"/>
-        <item m="1" x="135"/>
-        <item m="1" x="153"/>
-        <item m="1" x="171"/>
-        <item m="1" x="188"/>
-        <item m="1" x="203"/>
-        <item m="1" x="219"/>
-        <item m="1" x="236"/>
-        <item m="1" x="254"/>
-        <item m="1" x="270"/>
-        <item m="1" x="286"/>
-        <item m="1" x="303"/>
-        <item m="1" x="319"/>
-        <item m="1" x="334"/>
-        <item m="1" x="350"/>
-        <item m="1" x="367"/>
-        <item m="1" x="385"/>
-        <item m="1" x="401"/>
-        <item m="1" x="417"/>
-        <item m="1" x="434"/>
-        <item m="1" x="450"/>
-        <item m="1" x="465"/>
-        <item m="1" x="481"/>
-        <item m="1" x="498"/>
-        <item m="1" x="516"/>
-        <item m="1" x="533"/>
-        <item m="1" x="549"/>
-        <item m="1" x="567"/>
-        <item m="1" x="584"/>
-        <item m="1" x="53"/>
-        <item m="1" x="70"/>
-        <item m="1" x="88"/>
-        <item m="1" x="108"/>
-        <item m="1" x="126"/>
-        <item m="1" x="144"/>
-        <item m="1" x="162"/>
-        <item m="1" x="180"/>
-        <item m="1" x="195"/>
-        <item m="1" x="211"/>
-        <item m="1" x="227"/>
-        <item m="1" x="245"/>
-        <item m="1" x="262"/>
-        <item m="1" x="278"/>
-        <item m="1" x="294"/>
-        <item m="1" x="311"/>
-        <item m="1" x="326"/>
-        <item m="1" x="342"/>
-        <item m="1" x="358"/>
-        <item m="1" x="376"/>
-        <item m="1" x="393"/>
-        <item m="1" x="409"/>
-        <item m="1" x="425"/>
-        <item m="1" x="442"/>
-        <item m="1" x="457"/>
-        <item m="1" x="473"/>
-        <item m="1" x="489"/>
-        <item m="1" x="507"/>
-        <item m="1" x="524"/>
-        <item m="1" x="541"/>
-        <item m="1" x="557"/>
-        <item m="1" x="575"/>
-        <item m="1" x="591"/>
-        <item m="1" x="61"/>
-        <item m="1" x="78"/>
-        <item m="1" x="97"/>
-        <item m="1" x="116"/>
-        <item m="1" x="134"/>
-        <item m="1" x="152"/>
-        <item m="1" x="170"/>
-        <item m="1" x="186"/>
-        <item m="1" x="202"/>
-        <item m="1" x="218"/>
-        <item m="1" x="235"/>
-        <item m="1" x="252"/>
-        <item m="1" x="269"/>
-        <item m="1" x="285"/>
-        <item m="1" x="302"/>
-        <item m="1" x="317"/>
         <item m="1" x="333"/>
-        <item m="1" x="349"/>
-        <item m="1" x="366"/>
-        <item m="1" x="383"/>
-        <item m="1" x="400"/>
-        <item m="1" x="416"/>
-        <item m="1" x="433"/>
-        <item m="1" x="448"/>
-        <item m="1" x="464"/>
-        <item m="1" x="480"/>
-        <item m="1" x="497"/>
-        <item m="1" x="514"/>
-        <item m="1" x="532"/>
-        <item m="1" x="548"/>
-        <item m="1" x="566"/>
-        <item m="1" x="582"/>
-        <item m="1" x="52"/>
-        <item m="1" x="69"/>
-        <item m="1" x="87"/>
-        <item m="1" x="106"/>
-        <item m="1" x="125"/>
-        <item m="1" x="143"/>
-        <item m="1" x="161"/>
-        <item m="1" x="178"/>
-        <item m="1" x="194"/>
-        <item m="1" x="210"/>
-        <item m="1" x="226"/>
-        <item m="1" x="243"/>
-        <item m="1" x="261"/>
-        <item m="1" x="277"/>
-        <item m="1" x="293"/>
-        <item m="1" x="309"/>
-        <item m="1" x="325"/>
-        <item m="1" x="341"/>
-        <item m="1" x="357"/>
-        <item m="1" x="374"/>
-        <item m="1" x="392"/>
-        <item m="1" x="408"/>
-        <item m="1" x="424"/>
-        <item m="1" x="440"/>
-        <item m="1" x="456"/>
-        <item m="1" x="472"/>
-        <item m="1" x="488"/>
-        <item m="1" x="505"/>
-        <item m="1" x="523"/>
-        <item m="1" x="540"/>
-        <item m="1" x="556"/>
-        <item m="1" x="564"/>
-        <item m="1" x="573"/>
-        <item m="1" x="581"/>
-        <item m="1" x="590"/>
-        <item m="1" x="51"/>
-        <item m="1" x="60"/>
-        <item m="1" x="68"/>
-        <item m="1" x="77"/>
-        <item m="1" x="85"/>
-        <item m="1" x="95"/>
-        <item m="1" x="105"/>
-        <item m="1" x="115"/>
-        <item m="1" x="124"/>
-        <item m="1" x="133"/>
-        <item m="1" x="142"/>
-        <item m="1" x="151"/>
-        <item m="1" x="159"/>
-        <item m="1" x="168"/>
-        <item m="1" x="177"/>
-        <item m="1" x="185"/>
-        <item m="1" x="192"/>
-        <item m="1" x="201"/>
-        <item m="1" x="209"/>
-        <item m="1" x="217"/>
-        <item m="1" x="224"/>
-        <item m="1" x="233"/>
-        <item m="1" x="242"/>
-        <item m="1" x="251"/>
-        <item m="1" x="259"/>
-        <item m="1" x="268"/>
-        <item m="1" x="276"/>
-        <item m="1" x="284"/>
-        <item m="1" x="291"/>
-        <item m="1" x="300"/>
-        <item m="1" x="308"/>
-        <item m="1" x="316"/>
-        <item m="1" x="323"/>
-        <item m="1" x="332"/>
-        <item m="1" x="340"/>
-        <item m="1" x="348"/>
-        <item m="1" x="355"/>
-        <item m="1" x="364"/>
-        <item m="1" x="373"/>
-        <item m="1" x="382"/>
-        <item m="1" x="390"/>
-        <item m="1" x="399"/>
-        <item m="1" x="407"/>
-        <item m="1" x="415"/>
-        <item m="1" x="422"/>
-        <item m="1" x="431"/>
-        <item m="1" x="439"/>
-        <item m="1" x="447"/>
-        <item m="1" x="454"/>
-        <item m="1" x="463"/>
-        <item m="1" x="471"/>
-        <item m="1" x="479"/>
-        <item m="1" x="486"/>
-        <item m="1" x="495"/>
-        <item m="1" x="504"/>
-        <item m="1" x="513"/>
-        <item m="1" x="521"/>
-        <item m="1" x="531"/>
-        <item m="1" x="539"/>
-        <item m="1" x="547"/>
-        <item m="1" x="554"/>
-        <item m="1" x="563"/>
-        <item m="1" x="572"/>
-        <item m="1" x="580"/>
-        <item m="1" x="588"/>
-        <item m="1" x="50"/>
-        <item m="1" x="59"/>
-        <item m="1" x="67"/>
-        <item m="1" x="75"/>
-        <item m="1" x="84"/>
-        <item m="1" x="94"/>
-        <item m="1" x="104"/>
-        <item m="1" x="113"/>
-        <item m="1" x="123"/>
-        <item m="1" x="132"/>
-        <item m="1" x="141"/>
-        <item m="1" x="149"/>
-        <item m="1" x="158"/>
-        <item m="1" x="167"/>
-        <item m="1" x="176"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6780,245 +6543,258 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
-  <location ref="A1:E56" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+  <location ref="A1:E44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="197">
+      <items count="198">
+        <item m="1" x="178"/>
         <item m="1" x="15"/>
-        <item m="1" x="95"/>
-        <item m="1" x="186"/>
-        <item m="1" x="62"/>
+        <item m="1" x="10"/>
+        <item m="1" x="197"/>
+        <item m="1" x="154"/>
+        <item m="1" x="119"/>
+        <item m="1" x="105"/>
+        <item m="1" x="172"/>
+        <item m="1" x="138"/>
+        <item m="1" x="75"/>
+        <item m="1" x="66"/>
+        <item m="1" x="44"/>
+        <item m="1" x="32"/>
+        <item m="1" x="146"/>
+        <item m="1" x="100"/>
+        <item m="1" x="182"/>
+        <item m="1" x="92"/>
+        <item m="1" x="143"/>
+        <item m="1" x="96"/>
+        <item m="1" x="148"/>
+        <item m="1" x="120"/>
+        <item m="1" x="111"/>
+        <item m="1" x="189"/>
+        <item m="1" x="25"/>
+        <item m="1" x="61"/>
+        <item m="1" x="194"/>
+        <item m="1" x="108"/>
+        <item m="1" x="85"/>
+        <item m="1" x="23"/>
+        <item m="1" x="57"/>
+        <item m="1" x="193"/>
+        <item m="1" x="68"/>
+        <item m="1" x="151"/>
+        <item m="1" x="140"/>
+        <item m="1" x="78"/>
+        <item m="1" x="39"/>
+        <item m="1" x="20"/>
+        <item m="1" x="9"/>
+        <item m="1" x="47"/>
+        <item m="1" x="24"/>
+        <item m="1" x="164"/>
+        <item m="1" x="179"/>
+        <item m="1" x="51"/>
+        <item m="1" x="36"/>
+        <item m="1" x="101"/>
+        <item m="1" x="53"/>
+        <item m="1" x="167"/>
+        <item m="1" x="6"/>
         <item m="1" x="137"/>
-        <item m="1" x="166"/>
-        <item m="1" x="83"/>
-        <item m="1" x="148"/>
-        <item m="1" x="108"/>
-        <item m="1" x="178"/>
-        <item m="1" x="96"/>
-        <item m="1" x="100"/>
-        <item m="1" x="187"/>
-        <item m="1" x="73"/>
-        <item m="1" x="164"/>
-        <item m="1" x="146"/>
-        <item m="1" x="97"/>
-        <item m="1" x="57"/>
-        <item m="1" x="82"/>
-        <item m="1" x="77"/>
-        <item m="1" x="53"/>
-        <item m="1" x="182"/>
-        <item m="1" x="67"/>
-        <item m="1" x="66"/>
-        <item m="1" x="18"/>
-        <item m="1" x="190"/>
-        <item m="1" x="123"/>
-        <item m="1" x="52"/>
-        <item m="1" x="35"/>
-        <item m="1" x="36"/>
-        <item m="1" x="86"/>
-        <item m="1" x="54"/>
-        <item m="1" x="124"/>
-        <item m="1" x="25"/>
-        <item m="1" x="172"/>
-        <item m="1" x="70"/>
-        <item m="1" x="63"/>
-        <item m="1" x="87"/>
-        <item m="1" x="136"/>
-        <item m="1" x="188"/>
-        <item m="1" x="155"/>
-        <item m="1" x="129"/>
-        <item m="1" x="46"/>
-        <item m="1" x="71"/>
-        <item m="1" x="125"/>
-        <item m="1" x="47"/>
-        <item m="1" x="19"/>
-        <item m="1" x="101"/>
-        <item m="1" x="28"/>
-        <item m="1" x="88"/>
-        <item m="1" x="189"/>
-        <item m="1" x="152"/>
-        <item m="1" x="89"/>
-        <item m="1" x="191"/>
-        <item m="1" x="90"/>
-        <item m="1" x="58"/>
-        <item m="1" x="173"/>
-        <item m="1" x="30"/>
-        <item m="1" x="37"/>
-        <item m="1" x="42"/>
-        <item m="1" x="26"/>
-        <item m="1" x="167"/>
-        <item m="1" x="72"/>
-        <item m="1" x="194"/>
-        <item m="1" x="48"/>
-        <item m="1" x="149"/>
-        <item m="1" x="55"/>
-        <item m="1" x="117"/>
-        <item m="1" x="131"/>
-        <item m="1" x="140"/>
+        <item m="1" x="158"/>
         <item m="1" x="184"/>
-        <item m="1" x="118"/>
-        <item m="1" x="126"/>
-        <item m="1" x="31"/>
-        <item m="1" x="150"/>
-        <item m="1" x="43"/>
-        <item m="1" x="168"/>
-        <item m="1" x="135"/>
-        <item m="1" x="162"/>
-        <item m="1" x="115"/>
-        <item m="1" x="144"/>
-        <item m="1" x="106"/>
-        <item m="1" x="38"/>
-        <item m="1" x="183"/>
-        <item m="1" x="13"/>
-        <item m="1" x="102"/>
-        <item m="1" x="40"/>
-        <item m="1" x="49"/>
-        <item m="1" x="195"/>
-        <item m="1" x="174"/>
-        <item m="1" x="78"/>
-        <item m="1" x="170"/>
-        <item m="1" x="68"/>
-        <item m="1" x="163"/>
-        <item m="1" x="153"/>
-        <item m="1" x="91"/>
-        <item m="1" x="107"/>
         <item m="1" x="156"/>
-        <item m="1" x="179"/>
-        <item m="1" x="142"/>
-        <item m="1" x="157"/>
-        <item m="1" x="64"/>
-        <item m="1" x="92"/>
-        <item m="1" x="192"/>
-        <item m="1" x="158"/>
-        <item m="1" x="50"/>
-        <item m="1" x="171"/>
-        <item m="1" x="69"/>
-        <item m="1" x="180"/>
-        <item m="1" x="141"/>
-        <item m="1" x="111"/>
-        <item m="1" x="39"/>
-        <item m="1" x="120"/>
-        <item m="1" x="93"/>
-        <item m="1" x="84"/>
-        <item m="1" x="12"/>
-        <item m="1" x="32"/>
-        <item m="1" x="20"/>
-        <item m="1" x="94"/>
-        <item m="1" x="127"/>
-        <item m="1" x="76"/>
-        <item m="1" x="169"/>
-        <item m="1" x="21"/>
-        <item m="1" x="175"/>
-        <item m="1" x="165"/>
-        <item m="1" x="130"/>
-        <item m="1" x="103"/>
-        <item m="1" x="193"/>
-        <item m="1" x="154"/>
-        <item m="1" x="147"/>
-        <item m="1" x="45"/>
-        <item m="1" x="160"/>
-        <item m="1" x="85"/>
-        <item m="1" x="138"/>
-        <item m="1" x="133"/>
-        <item m="1" x="109"/>
-        <item m="1" x="104"/>
-        <item m="1" x="176"/>
-        <item m="1" x="75"/>
-        <item m="1" x="139"/>
-        <item m="1" x="161"/>
-        <item m="1" x="134"/>
-        <item m="1" x="74"/>
-        <item m="1" x="181"/>
-        <item m="1" x="29"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item m="1" x="99"/>
-        <item m="1" x="44"/>
-        <item m="1" x="185"/>
-        <item m="1" x="196"/>
-        <item m="1" x="24"/>
-        <item m="1" x="116"/>
-        <item m="1" x="34"/>
-        <item m="1" x="105"/>
-        <item m="1" x="121"/>
-        <item m="1" x="22"/>
-        <item m="1" x="177"/>
-        <item m="1" x="61"/>
-        <item m="1" x="81"/>
-        <item m="1" x="33"/>
-        <item m="1" x="159"/>
-        <item m="1" x="14"/>
-        <item m="1" x="151"/>
-        <item m="1" x="56"/>
-        <item m="1" x="41"/>
         <item m="1" x="27"/>
-        <item m="1" x="59"/>
-        <item m="1" x="119"/>
-        <item m="1" x="110"/>
-        <item m="1" x="60"/>
-        <item m="1" x="122"/>
-        <item m="1" x="65"/>
-        <item m="1" x="143"/>
-        <item m="1" x="112"/>
-        <item m="1" x="132"/>
-        <item m="1" x="17"/>
-        <item m="1" x="51"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item m="1" x="128"/>
-        <item m="1" x="23"/>
         <item m="1" x="98"/>
         <item m="1" x="113"/>
+        <item m="1" x="109"/>
+        <item m="1" x="80"/>
+        <item m="1" x="173"/>
+        <item m="1" x="69"/>
+        <item m="1" x="170"/>
+        <item m="1" x="59"/>
+        <item m="1" x="99"/>
+        <item m="1" x="162"/>
+        <item m="1" x="144"/>
+        <item m="1" x="87"/>
+        <item m="1" x="84"/>
+        <item m="1" x="70"/>
+        <item m="1" x="82"/>
+        <item m="1" x="67"/>
+        <item m="1" x="175"/>
+        <item m="1" x="153"/>
+        <item m="1" x="42"/>
+        <item m="1" x="116"/>
+        <item m="1" x="28"/>
+        <item m="1" x="181"/>
+        <item m="1" x="191"/>
+        <item m="1" x="14"/>
+        <item m="1" x="129"/>
+        <item m="1" x="152"/>
+        <item m="1" x="124"/>
+        <item m="1" x="132"/>
+        <item m="1" x="135"/>
+        <item m="1" x="177"/>
+        <item m="1" x="74"/>
+        <item m="1" x="33"/>
+        <item m="1" x="40"/>
+        <item m="1" x="141"/>
+        <item m="1" x="93"/>
+        <item m="1" x="49"/>
+        <item m="1" x="128"/>
+        <item m="1" x="160"/>
+        <item m="1" x="37"/>
+        <item m="1" x="114"/>
+        <item m="1" x="29"/>
+        <item m="1" x="192"/>
+        <item m="1" x="77"/>
+        <item m="1" x="60"/>
         <item m="1" x="16"/>
-        <item x="6"/>
-        <item m="1" x="114"/>
+        <item m="1" x="89"/>
+        <item m="1" x="171"/>
+        <item m="1" x="12"/>
+        <item m="1" x="123"/>
+        <item m="1" x="195"/>
+        <item m="1" x="43"/>
+        <item m="1" x="63"/>
+        <item m="1" x="168"/>
+        <item m="1" x="72"/>
+        <item m="1" x="7"/>
+        <item m="1" x="38"/>
+        <item m="1" x="136"/>
+        <item m="1" x="169"/>
+        <item m="1" x="50"/>
+        <item m="1" x="55"/>
+        <item m="1" x="196"/>
+        <item m="1" x="13"/>
+        <item m="1" x="139"/>
+        <item m="1" x="122"/>
+        <item m="1" x="107"/>
+        <item m="1" x="121"/>
+        <item m="1" x="26"/>
+        <item m="1" x="110"/>
+        <item m="1" x="64"/>
+        <item m="1" x="52"/>
+        <item m="1" x="185"/>
+        <item m="1" x="133"/>
+        <item m="1" x="159"/>
+        <item m="1" x="103"/>
+        <item m="1" x="165"/>
+        <item m="1" x="95"/>
+        <item m="1" x="86"/>
+        <item m="1" x="31"/>
+        <item m="1" x="102"/>
+        <item m="1" x="187"/>
+        <item m="1" x="17"/>
+        <item m="1" x="35"/>
+        <item m="1" x="150"/>
+        <item m="1" x="88"/>
+        <item m="1" x="161"/>
+        <item m="1" x="115"/>
+        <item m="1" x="56"/>
+        <item m="1" x="104"/>
+        <item m="1" x="130"/>
+        <item m="1" x="157"/>
+        <item m="1" x="73"/>
+        <item m="1" x="83"/>
+        <item m="1" x="18"/>
+        <item m="1" x="46"/>
+        <item m="1" x="90"/>
+        <item m="1" x="190"/>
+        <item m="1" x="22"/>
+        <item m="1" x="58"/>
+        <item m="1" x="149"/>
+        <item m="1" x="166"/>
+        <item m="1" x="174"/>
+        <item m="1" x="21"/>
+        <item m="1" x="163"/>
+        <item m="1" x="131"/>
+        <item m="1" x="71"/>
+        <item m="1" x="118"/>
+        <item m="1" x="48"/>
+        <item m="1" x="127"/>
         <item m="1" x="145"/>
-        <item x="9"/>
+        <item m="1" x="117"/>
+        <item m="1" x="8"/>
+        <item m="1" x="176"/>
+        <item m="1" x="106"/>
+        <item m="1" x="183"/>
+        <item m="1" x="94"/>
+        <item m="1" x="112"/>
+        <item m="1" x="30"/>
+        <item m="1" x="79"/>
+        <item m="1" x="142"/>
+        <item m="1" x="125"/>
+        <item m="1" x="91"/>
+        <item m="1" x="97"/>
+        <item m="1" x="19"/>
+        <item m="1" x="155"/>
+        <item m="1" x="62"/>
+        <item m="1" x="11"/>
+        <item m="1" x="147"/>
+        <item m="1" x="180"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
         <item x="0"/>
+        <item x="2"/>
+        <item m="1" x="134"/>
+        <item m="1" x="65"/>
+        <item m="1" x="45"/>
+        <item m="1" x="81"/>
+        <item m="1" x="126"/>
+        <item m="1" x="76"/>
+        <item m="1" x="186"/>
+        <item m="1" x="188"/>
+        <item m="1" x="54"/>
+        <item m="1" x="41"/>
+        <item m="1" x="34"/>
         <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="12">
+      <items count="18">
+        <item m="1" x="6"/>
+        <item m="1" x="11"/>
+        <item m="1" x="16"/>
+        <item m="1" x="17"/>
+        <item m="1" x="15"/>
+        <item m="1" x="7"/>
+        <item m="1" x="13"/>
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
+        <item m="1" x="10"/>
+        <item m="1" x="12"/>
+        <item m="1" x="14"/>
         <item x="0"/>
-        <item x="7"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item x="5"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="2">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="18">
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="11"/>
+        <item m="1" x="13"/>
+        <item m="1" x="9"/>
+        <item m="1" x="8"/>
+        <item m="1" x="15"/>
         <item m="1" x="10"/>
-        <item x="0"/>
+        <item m="1" x="16"/>
+        <item m="1" x="14"/>
+        <item m="1" x="12"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -7026,9 +6802,9 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
       <items count="4">
-        <item x="3"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="3"/>
         <item x="0"/>
       </items>
     </pivotField>
@@ -7047,159 +6823,123 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="54">
+  <rowItems count="42">
     <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="181"/>
+    </i>
+    <i r="2">
+      <x v="15"/>
+    </i>
+    <i r="3">
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="190"/>
+      <x v="182"/>
     </i>
     <i r="2">
-      <x/>
+      <x v="16"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="183"/>
+    </i>
+    <i r="2">
+      <x v="13"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="184"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="185"/>
+    </i>
+    <i r="2">
+      <x v="14"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="184"/>
+    </i>
+    <i r="2">
+      <x v="12"/>
     </i>
     <i r="3">
       <x/>
     </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
     <i>
-      <x v="2"/>
+      <x v="12"/>
     </i>
     <i r="1">
-      <x v="178"/>
+      <x v="183"/>
     </i>
     <i r="2">
-      <x v="6"/>
+      <x v="13"/>
     </i>
     <i r="3">
       <x/>
     </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
     <i>
-      <x v="3"/>
+      <x v="13"/>
     </i>
     <i r="1">
-      <x v="191"/>
+      <x v="185"/>
     </i>
     <i r="2">
-      <x v="2"/>
+      <x v="14"/>
     </i>
     <i r="3">
       <x/>
     </i>
+    <i>
+      <x v="14"/>
+    </i>
     <i r="1">
-      <x v="194"/>
+      <x v="181"/>
     </i>
     <i r="2">
-      <x v="9"/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="195"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="186"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
+      <x v="15"/>
     </i>
     <i r="3">
       <x/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="15"/>
     </i>
     <i r="1">
-      <x v="192"/>
+      <x v="182"/>
     </i>
     <i r="2">
-      <x v="1"/>
+      <x v="16"/>
     </i>
     <i r="3">
       <x/>
     </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
     <i>
-      <x v="6"/>
+      <x v="16"/>
     </i>
     <i r="1">
-      <x v="193"/>
+      <x v="197"/>
     </i>
     <i r="2">
-      <x v="4"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="189"/>
-    </i>
-    <i r="2">
-      <x v="5"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="179"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="180"/>
-    </i>
-    <i r="2">
-      <x v="7"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="196"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
+      <x v="17"/>
     </i>
     <i r="3">
       <x/>
@@ -7324,200 +7064,202 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="193">
+      <items count="195">
         <i x="0"/>
         <i x="1"/>
         <i x="2"/>
-        <i x="3" s="1"/>
+        <i x="3"/>
         <i x="4"/>
-        <i x="5"/>
-        <i x="6"/>
-        <i x="7"/>
-        <i x="8"/>
-        <i x="9"/>
-        <i x="10"/>
-        <i x="11"/>
+        <i x="5" s="1"/>
+        <i x="142" nd="1"/>
+        <i x="97" nd="1"/>
+        <i x="146" nd="1"/>
+        <i x="59" nd="1"/>
+        <i x="172" nd="1"/>
+        <i x="15" nd="1"/>
+        <i x="10" nd="1"/>
+        <i x="117" nd="1"/>
+        <i x="110" nd="1"/>
+        <i x="96" nd="1"/>
+        <i x="183" nd="1"/>
+        <i x="192" nd="1"/>
+        <i x="21" nd="1"/>
+        <i x="153" nd="1"/>
+        <i x="115" nd="1"/>
+        <i x="55" nd="1"/>
+        <i x="189" nd="1"/>
+        <i x="107" nd="1"/>
+        <i x="84" nd="1"/>
+        <i x="18" nd="1"/>
+        <i x="69" nd="1"/>
+        <i x="105" nd="1"/>
+        <i x="52" nd="1"/>
+        <i x="188" nd="1"/>
+        <i x="125" nd="1"/>
+        <i x="166" nd="1"/>
+        <i x="65" nd="1"/>
+        <i x="80" nd="1"/>
+        <i x="136" nd="1"/>
+        <i x="73" nd="1"/>
+        <i x="60" nd="1"/>
+        <i x="149" nd="1"/>
+        <i x="40" nd="1"/>
+        <i x="26" nd="1"/>
+        <i x="140" nd="1"/>
+        <i x="78" nd="1"/>
+        <i x="34" nd="1"/>
+        <i x="17" nd="1"/>
+        <i x="9" nd="1"/>
+        <i x="44" nd="1"/>
+        <i x="89" nd="1"/>
+        <i x="19" nd="1"/>
+        <i x="160" nd="1"/>
+        <i x="173" nd="1"/>
+        <i x="48" nd="1"/>
+        <i x="120" nd="1"/>
+        <i x="29" nd="1"/>
+        <i x="67" nd="1"/>
+        <i x="103" nd="1"/>
+        <i x="50" nd="1"/>
+        <i x="161" nd="1"/>
+        <i x="7" nd="1"/>
+        <i x="134" nd="1"/>
+        <i x="155" nd="1"/>
+        <i x="178" nd="1"/>
+        <i x="154" nd="1"/>
+        <i x="20" nd="1"/>
+        <i x="23" nd="1"/>
+        <i x="100" nd="1"/>
+        <i x="135" nd="1"/>
+        <i x="112" nd="1"/>
+        <i x="11" nd="1"/>
+        <i x="108" nd="1"/>
+        <i x="79" nd="1"/>
+        <i x="167" nd="1"/>
+        <i x="66" nd="1"/>
+        <i x="164" nd="1"/>
         <i x="53" nd="1"/>
-        <i x="107" nd="1"/>
-        <i x="75" nd="1"/>
-        <i x="72" nd="1"/>
-        <i x="15" nd="1"/>
-        <i x="89" nd="1"/>
-        <i x="181" nd="1"/>
-        <i x="50" nd="1"/>
-        <i x="175" nd="1"/>
-        <i x="94" nd="1"/>
-        <i x="90" nd="1"/>
-        <i x="61" nd="1"/>
-        <i x="55" nd="1"/>
-        <i x="60" nd="1"/>
-        <i x="130" nd="1"/>
-        <i x="156" nd="1"/>
-        <i x="16" nd="1"/>
-        <i x="120" nd="1"/>
-        <i x="185" nd="1"/>
-        <i x="115" nd="1"/>
-        <i x="21" nd="1"/>
-        <i x="48" nd="1"/>
-        <i x="33" nd="1"/>
-        <i x="32" nd="1"/>
-        <i x="76" nd="1"/>
-        <i x="34" nd="1"/>
-        <i x="78" nd="1"/>
-        <i x="139" nd="1"/>
-        <i x="51" nd="1"/>
-        <i x="157" nd="1"/>
-        <i x="104" nd="1"/>
-        <i x="172" nd="1"/>
-        <i x="91" nd="1"/>
-        <i x="116" nd="1"/>
-        <i x="97" nd="1"/>
-        <i x="182" nd="1"/>
-        <i x="24" nd="1"/>
-        <i x="166" nd="1"/>
-        <i x="64" nd="1"/>
-        <i x="56" nd="1"/>
-        <i x="79" nd="1"/>
-        <i x="128" nd="1"/>
-        <i x="25" nd="1"/>
-        <i x="183" nd="1"/>
-        <i x="147" nd="1"/>
-        <i x="121" nd="1"/>
-        <i x="42" nd="1"/>
-        <i x="95" nd="1"/>
-        <i x="65" nd="1"/>
-        <i x="186" nd="1"/>
-        <i x="117" nd="1"/>
-        <i x="43" nd="1"/>
-        <i x="17" nd="1"/>
-        <i x="98" nd="1"/>
-        <i x="28" nd="1"/>
-        <i x="80" nd="1"/>
-        <i x="184" nd="1"/>
+        <i x="101" nd="1"/>
+        <i x="159" nd="1"/>
+        <i x="137" nd="1"/>
         <i x="143" nd="1"/>
-        <i x="110" nd="1"/>
-        <i x="81" nd="1"/>
-        <i x="187" nd="1"/>
-        <i x="12" nd="1"/>
-        <i x="84" nd="1"/>
-        <i x="54" nd="1"/>
-        <i x="167" nd="1"/>
-        <i x="29" nd="1"/>
-        <i x="35" nd="1"/>
-        <i x="39" nd="1"/>
-        <i x="26" nd="1"/>
-        <i x="158" nd="1"/>
-        <i x="66" nd="1"/>
+        <i x="86" nd="1"/>
+        <i x="83" nd="1"/>
+        <i x="68" nd="1"/>
+        <i x="82" nd="1"/>
+        <i x="63" nd="1"/>
         <i x="168" nd="1"/>
-        <i x="189" nd="1"/>
-        <i x="44" nd="1"/>
-        <i x="140" nd="1"/>
-        <i x="52" nd="1"/>
-        <i x="111" nd="1"/>
-        <i x="123" nd="1"/>
-        <i x="132" nd="1"/>
-        <i x="179" nd="1"/>
-        <i x="112" nd="1"/>
-        <i x="118" nd="1"/>
-        <i x="30" nd="1"/>
-        <i x="141" nd="1"/>
-        <i x="40" nd="1"/>
-        <i x="68" nd="1"/>
-        <i x="22" nd="1"/>
-        <i x="159" nd="1"/>
-        <i x="126" nd="1"/>
         <i x="152" nd="1"/>
-        <i x="163" nd="1"/>
-        <i x="108" nd="1"/>
-        <i x="136" nd="1"/>
-        <i x="101" nd="1"/>
-        <i x="36" nd="1"/>
-        <i x="176" nd="1"/>
-        <i x="14" nd="1"/>
-        <i x="99" nd="1"/>
-        <i x="38" nd="1"/>
-        <i x="69" nd="1"/>
-        <i x="45" nd="1"/>
-        <i x="192" nd="1"/>
-        <i x="27" nd="1"/>
-        <i x="169" nd="1"/>
-        <i x="73" nd="1"/>
-        <i x="164" nd="1"/>
-        <i x="62" nd="1"/>
-        <i x="153" nd="1"/>
-        <i x="190" nd="1"/>
-        <i x="144" nd="1"/>
-        <i x="85" nd="1"/>
-        <i x="102" nd="1"/>
-        <i x="148" nd="1"/>
-        <i x="173" nd="1"/>
-        <i x="134" nd="1"/>
-        <i x="150" nd="1"/>
-        <i x="92" nd="1"/>
-        <i x="58" nd="1"/>
-        <i x="86" nd="1"/>
-        <i x="46" nd="1"/>
-        <i x="188" nd="1"/>
-        <i x="103" nd="1"/>
-        <i x="151" nd="1"/>
-        <i x="180" nd="1"/>
-        <i x="109" nd="1"/>
-        <i x="47" nd="1"/>
-        <i x="154" nd="1"/>
-        <i x="82" nd="1"/>
-        <i x="138" nd="1"/>
-        <i x="137" nd="1"/>
-        <i x="165" nd="1"/>
-        <i x="105" nd="1"/>
-        <i x="18" nd="1"/>
-        <i x="93" nd="1"/>
-        <i x="63" nd="1"/>
-        <i x="174" nd="1"/>
-        <i x="113" nd="1"/>
-        <i x="142" nd="1"/>
-        <i x="133" nd="1"/>
-        <i x="106" nd="1"/>
         <i x="37" nd="1"/>
         <i x="114" nd="1"/>
+        <i x="24" nd="1"/>
+        <i x="176" nd="1"/>
+        <i x="185" nd="1"/>
+        <i x="116" nd="1"/>
+        <i x="64" nd="1"/>
+        <i x="14" nd="1"/>
+        <i x="127" nd="1"/>
+        <i x="150" nd="1"/>
+        <i x="28" nd="1"/>
+        <i x="147" nd="1"/>
+        <i x="124" nd="1"/>
+        <i x="128" nd="1"/>
+        <i x="131" nd="1"/>
+        <i x="170" nd="1"/>
+        <i x="71" nd="1"/>
+        <i x="27" nd="1"/>
+        <i x="35" nd="1"/>
+        <i x="141" nd="1"/>
+        <i x="144" nd="1"/>
+        <i x="93" nd="1"/>
+        <i x="45" nd="1"/>
+        <i x="111" nd="1"/>
+        <i x="126" nd="1"/>
+        <i x="158" nd="1"/>
+        <i x="32" nd="1"/>
+        <i x="113" nd="1"/>
+        <i x="25" nd="1"/>
+        <i x="138" nd="1"/>
+        <i x="186" nd="1"/>
+        <i x="76" nd="1"/>
+        <i x="54" nd="1"/>
+        <i x="16" nd="1"/>
+        <i x="90" nd="1"/>
+        <i x="165" nd="1"/>
+        <i x="12" nd="1"/>
+        <i x="31" nd="1"/>
+        <i x="123" nd="1"/>
+        <i x="190" nd="1"/>
+        <i x="179" nd="1"/>
+        <i x="39" nd="1"/>
+        <i x="41" nd="1"/>
         <i x="74" nd="1"/>
-        <i x="160" nd="1"/>
-        <i x="124" nd="1"/>
+        <i x="57" nd="1"/>
+        <i x="61" nd="1"/>
+        <i x="194" nd="1"/>
+        <i x="162" nd="1"/>
+        <i x="102" nd="1"/>
+        <i x="6" nd="1"/>
+        <i x="130" nd="1"/>
+        <i x="42" nd="1"/>
+        <i x="177" nd="1"/>
+        <i x="181" nd="1"/>
+        <i x="72" nd="1"/>
+        <i x="182" nd="1"/>
+        <i x="70" nd="1"/>
+        <i x="38" nd="1"/>
+        <i x="151" nd="1"/>
+        <i x="92" nd="1"/>
+        <i x="8" nd="1"/>
+        <i x="81" nd="1"/>
+        <i x="33" nd="1"/>
+        <i x="36" nd="1"/>
+        <i x="98" nd="1"/>
+        <i x="132" nd="1"/>
+        <i x="163" nd="1"/>
+        <i x="47" nd="1"/>
+        <i x="51" nd="1"/>
+        <i x="148" nd="1"/>
+        <i x="121" nd="1"/>
+        <i x="62" nd="1"/>
+        <i x="191" nd="1"/>
+        <i x="13" nd="1"/>
+        <i x="139" nd="1"/>
+        <i x="119" nd="1"/>
+        <i x="171" nd="1"/>
+        <i x="106" nd="1"/>
+        <i x="118" nd="1"/>
+        <i x="22" nd="1"/>
+        <i x="56" nd="1"/>
+        <i x="169" nd="1"/>
+        <i x="94" nd="1"/>
+        <i x="109" nd="1"/>
+        <i x="58" nd="1"/>
         <i x="87" nd="1"/>
+        <i x="46" nd="1"/>
         <i x="77" nd="1"/>
-        <i x="13" nd="1"/>
-        <i x="31" nd="1"/>
-        <i x="170" nd="1"/>
-        <i x="19" nd="1"/>
+        <i x="49" nd="1"/>
+        <i x="180" nd="1"/>
+        <i x="129" nd="1"/>
+        <i x="174" nd="1"/>
+        <i x="104" nd="1"/>
+        <i x="156" nd="1"/>
+        <i x="95" nd="1"/>
         <i x="88" nd="1"/>
-        <i x="119" nd="1"/>
-        <i x="191" nd="1"/>
+        <i x="30" nd="1"/>
+        <i x="85" nd="1"/>
+        <i x="122" nd="1"/>
+        <i x="99" nd="1"/>
+        <i x="157" nd="1"/>
+        <i x="75" nd="1"/>
+        <i x="43" nd="1"/>
+        <i x="133" nd="1"/>
+        <i x="187" nd="1"/>
+        <i x="193" nd="1"/>
+        <i x="91" nd="1"/>
+        <i x="184" nd="1"/>
         <i x="145" nd="1"/>
-        <i x="177" nd="1"/>
-        <i x="71" nd="1"/>
-        <i x="161" nd="1"/>
-        <i x="49" nd="1"/>
-        <i x="127" nd="1"/>
-        <i x="135" nd="1"/>
-        <i x="20" nd="1"/>
-        <i x="171" nd="1"/>
-        <i x="155" nd="1"/>
-        <i x="146" nd="1"/>
-        <i x="129" nd="1"/>
-        <i x="122" nd="1"/>
-        <i x="100" nd="1"/>
-        <i x="67" nd="1"/>
-        <i x="162" nd="1"/>
-        <i x="57" nd="1"/>
-        <i x="125" nd="1"/>
-        <i x="23" nd="1"/>
-        <i x="131" nd="1"/>
-        <i x="149" nd="1"/>
-        <i x="59" nd="1"/>
-        <i x="70" nd="1"/>
-        <i x="96" nd="1"/>
-        <i x="83" nd="1"/>
-        <i x="178" nd="1"/>
-        <i x="41" nd="1"/>
+        <i x="175" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7531,22 +7273,24 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="16">
-        <i x="3" s="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
+      <items count="18">
+        <i x="5" s="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
         <i x="1" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="11" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
         <i x="7" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
         <i x="8" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
         <i x="10" s="1" nd="1"/>
       </items>
     </tabular>
@@ -8313,7 +8057,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8335,7 +8079,7 @@
       </c>
       <c r="F1" s="4">
         <f>MIN($B:$B)</f>
-        <v>1.1641189485089899E-4</v>
+        <v>1.1526857502758499E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8343,14 +8087,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5.6256738025695096E-4</v>
+        <v>2.4173477664589899E-2</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4">
         <f>VLOOKUP(MAX($A:$A),$A:$B,2,FALSE)</f>
-        <v>1.1641189485089899E-4</v>
+        <v>1.34582994505763E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8358,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>5.6256382958963503E-4</v>
+        <v>1.8782664090395002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8366,7 +8110,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>5.6255492381751505E-4</v>
+        <v>1.8569238483905799E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8374,7 +8118,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>5.6250579655170397E-4</v>
+        <v>1.8355628475546799E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8382,7 +8126,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>5.3907325491309198E-4</v>
+        <v>1.81380938738585E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8390,7 +8134,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0377042498439605E-4</v>
+        <v>1.79133601486683E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8398,7 +8142,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>4.82220842968673E-4</v>
+        <v>1.7678784206509601E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8406,7 +8150,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>4.3072368134744498E-4</v>
+        <v>1.7432754859328301E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8414,7 +8158,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>4.0127505781129003E-4</v>
+        <v>1.7175218090415001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8422,7 +8166,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>3.9367115823552002E-4</v>
+        <v>1.6908166930079498E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8430,7 +8174,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>3.8941993261687501E-4</v>
+        <v>1.6635760664939901E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8438,7 +8182,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>3.86329367756844E-4</v>
+        <v>1.63637306541204E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8446,7 +8190,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>3.8394314469769602E-4</v>
+        <v>1.6098072752356501E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8454,7 +8198,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>3.8203908479772497E-4</v>
+        <v>1.5843661502003701E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8462,7 +8206,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>3.8047868292778698E-4</v>
+        <v>1.5603618696332E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8470,7 +8214,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>3.79165954655036E-4</v>
+        <v>1.53795778751373E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8478,7 +8222,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>3.7803107989020602E-4</v>
+        <v>1.5171991661191001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8486,7 +8230,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>3.7701294058933897E-4</v>
+        <v>1.4980305917561099E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8494,7 +8238,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>3.76048556063324E-4</v>
+        <v>1.48032922297716E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8502,7 +8246,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>3.7504063220694699E-4</v>
+        <v>1.46394912153482E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8510,7 +8254,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>3.7375412648543699E-4</v>
+        <v>1.44875030964613E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8518,7 +8262,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>3.7112561403773698E-4</v>
+        <v>1.43460929393768E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8526,7 +8270,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>3.4274830250069499E-4</v>
+        <v>1.42141133546829E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8534,7 +8278,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>1.71775667695329E-4</v>
+        <v>1.4090212062001201E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8542,7 +8286,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>1.32821267470717E-4</v>
+        <v>1.3972711749374899E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8550,7 +8294,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>1.2514081026893101E-4</v>
+        <v>1.3859662227332601E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8558,7 +8302,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>1.2246731785126001E-4</v>
+        <v>1.37491868808866E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8566,7 +8310,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>1.21120778203476E-4</v>
+        <v>1.3639764860272401E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8574,7 +8318,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1.20350494398735E-4</v>
+        <v>1.35303810238838E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8582,7 +8326,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1.1988649930572101E-4</v>
+        <v>1.3420577161014101E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8590,7 +8334,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>1.19586002256256E-4</v>
+        <v>1.33104249835014E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8598,7 +8342,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>1.1937501403735999E-4</v>
+        <v>1.32004199549556E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8606,7 +8350,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>1.1921628174604801E-4</v>
+        <v>1.3091283850371799E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8614,7 +8358,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>1.19089614599943E-4</v>
+        <v>1.2983731925487499E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8622,7 +8366,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>1.18983225547709E-4</v>
+        <v>1.28782466053963E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8630,7 +8374,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>1.18890711746644E-4</v>
+        <v>1.27749713137746E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8638,7 +8382,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1.18807802209631E-4</v>
+        <v>1.2673666700720799E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8646,7 +8390,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1.18731819384266E-4</v>
+        <v>1.25737963244319E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8654,7 +8398,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>1.1866090790135799E-4</v>
+        <v>1.24746579676867E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8662,7 +8406,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>1.1859396181535E-4</v>
+        <v>1.2375633232295499E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8670,7 +8414,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>1.18529933388345E-4</v>
+        <v>1.2276383116841301E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8678,7 +8422,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>1.18468422442675E-4</v>
+        <v>1.21769802644849E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8686,7 +8430,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>1.18408621347044E-4</v>
+        <v>1.20778428390622E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8694,7 +8438,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1.18350602861028E-4</v>
+        <v>1.19796227663755E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8702,7 +8446,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>1.1829385039163799E-4</v>
+        <v>1.18829701095819E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8710,7 +8454,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>1.1823801469290601E-4</v>
+        <v>1.17885489016771E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8718,7 +8462,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>1.1818326311185999E-4</v>
+        <v>1.16970930248499E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8726,7 +8470,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1.1812929005827799E-4</v>
+        <v>1.1609522625803901E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8734,7 +8478,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>1.18075891805347E-4</v>
+        <v>1.1526857502758499E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8742,7 +8486,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>1.1641189485089899E-4</v>
+        <v>1.34582994505763E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8750,7 +8494,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1">
-        <v>2.6361303462181241E-4</v>
+        <v>1.4575360976159574E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8512,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8826,24 +8570,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>20328</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>0.11224561841227114</v>
+        <v>0.13116377559180062</v>
       </c>
       <c r="C3" s="1">
-        <v>0.251674684677273</v>
+        <v>0.27885757094326741</v>
       </c>
       <c r="D3" s="1">
-        <v>0.16025961910374462</v>
+        <v>0.43216724105256921</v>
       </c>
       <c r="E3" s="1">
-        <v>0.14396645347122103</v>
+        <v>0.11047745489670585</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>20328</v>
+        <v>10108</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8852,7 +8596,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>76312</v>
+        <v>2932</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8861,67 +8605,51 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1">
-        <v>9.5265727080404761E-2</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1">
-        <v>6.3643049672245974E-2</v>
+        <v>0.25530025790678335</v>
       </c>
       <c r="D6" s="1">
-        <v>7.7056866250932221E-2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.10068114893510938</v>
-      </c>
+        <v>0.51889725737972181</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7">
+        <v>13468</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>196</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.12922550974413752</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.43970631968230012</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.24346237195655704</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.18725175800733268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>43024</v>
-      </c>
-      <c r="B8" s="1">
-        <v>9.4228627712086399E-2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.28630093825912034</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.19733789503850319</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.15957555911607213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>43024</v>
-      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>0.1426734942290932</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.52762532267253848</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>135232</v>
+      <c r="A10" s="7">
+        <v>2992</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -8929,59 +8657,43 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7.9162700101733194E-2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6.0340686032065639E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6.0982940263218349E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4.1928980195963826E-2</v>
-      </c>
+      <c r="A11" s="8">
+        <v>11948</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1">
-        <v>0.10929455532243956</v>
+        <v>0.13761009382084011</v>
       </c>
       <c r="C12" s="1">
-        <v>0.51226119048617502</v>
+        <v>0.43859896069392562</v>
       </c>
       <c r="D12" s="1">
-        <v>0.33369284981378805</v>
+        <v>0.24997914310544733</v>
       </c>
       <c r="E12" s="1">
-        <v>0.2772221380361804</v>
+        <v>0.16224114974495024</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>76168</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7.9647803433811351E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.10843335454819608</v>
-      </c>
-      <c r="D13" s="1">
-        <v>9.7958401377825063E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7.5305260091975801E-2</v>
-      </c>
+      <c r="A13" s="7">
+        <v>584</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>76168</v>
+      <c r="A14" s="8">
+        <v>4312</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8989,34 +8701,30 @@
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>77828</v>
-      </c>
-      <c r="B15" s="1"/>
+      <c r="A15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.12279099874198436</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>0.10857769584283233</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4.48887443613218E-2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.2935788993077095E-2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.9200294861199712E-2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3.8151216474553405E-2</v>
-      </c>
+      <c r="A16" s="7">
+        <v>3236</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>50312</v>
+      <c r="A17" s="8">
+        <v>2856</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -9024,34 +8732,34 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>59804</v>
-      </c>
-      <c r="B18" s="1"/>
+      <c r="A18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.13309023421257735</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>6.0613519102334978E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>22</v>
+      <c r="A19" s="3">
+        <v>584</v>
       </c>
       <c r="B19" s="1">
-        <v>8.1232607848942262E-2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.36615520339459179</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.21535950221121311</v>
-      </c>
+        <v>8.9747606813907602E-2</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>0.12596547059714794</v>
+        <v>0.10348443602211774</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>76116</v>
+        <v>584</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -9060,7 +8768,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
-        <v>78464</v>
+        <v>4312</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -9069,37 +8777,37 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0.11439413315356893</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0.17186086509250062</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.15577352716486498</v>
-      </c>
+        <v>8.9747606813907602E-2</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>0.11205239438807151</v>
+        <v>0.10348443602211774</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>77480</v>
+        <v>2992</v>
       </c>
       <c r="B23" s="1">
-        <v>8.2765183188021188E-2</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+        <v>9.4523630216717697E-2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6.44884042814374E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.7469987124204637E-2</v>
+      </c>
       <c r="E23" s="1">
-        <v>7.9272040044888858E-2</v>
+        <v>8.2980411993339664E-2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>77480</v>
+        <v>2992</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -9108,7 +8816,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
-        <v>78540</v>
+        <v>11948</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -9120,34 +8828,34 @@
         <v>21</v>
       </c>
       <c r="B26" s="1">
-        <v>8.2765183188021188E-2</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+        <v>9.4523630216717697E-2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6.44884042814374E-2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.7469987124204637E-2</v>
+      </c>
       <c r="E26" s="1">
-        <v>7.9272040044888858E-2</v>
+        <v>8.2980411993339664E-2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>77672</v>
+        <v>3236</v>
       </c>
       <c r="B27" s="1">
-        <v>0.26042592342039855</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.29491027973479389</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.31132288681286752</v>
-      </c>
+        <v>9.5816573034971958E-2</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>0.15628680982203647</v>
+        <v>3.2228669207543144E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>77672</v>
+        <v>3236</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -9156,7 +8864,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>76884</v>
+        <v>2856</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -9168,55 +8876,39 @@
         <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>0.21863705562427641</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0.19890761971473686</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.19627886868547648</v>
-      </c>
+        <v>9.5816573034971958E-2</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>0.14581008725799621</v>
+        <v>3.2228669207543144E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.26618990518538094</v>
-      </c>
+      <c r="A31" s="3">
+        <v>10108</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1">
-        <v>0.30815202594445695</v>
+        <v>6.7580254711210722E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>0.32719102724423182</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.15773187500328339</v>
-      </c>
+        <v>8.673132877796888E-2</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>77812</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.11538705521263182</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0.24923265597317365</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.15382568855769932</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.11705639668740332</v>
-      </c>
+      <c r="A32" s="7">
+        <v>10108</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>77812</v>
+      <c r="A33" s="8">
+        <v>2932</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -9224,322 +8916,146 @@
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>78648</v>
+      <c r="A34" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C34" s="1">
+        <v>6.7580254711210722E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8.673132877796888E-2</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="3">
+        <v>13468</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
+        <v>6.6199048794805981E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8.7992129400372501E-2</v>
+      </c>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>13468</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <v>196</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="1">
-        <v>8.9638277105987069E-2</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7.0942909866571424E-2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>8.4457853399217131E-2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>8.9465148597955679E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1">
+        <v>6.6199048794805981E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.7992129400372501E-2</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>18724</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8.923767272382975E-2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5.9212390538305043E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>7.0731265866197643E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4.0706191915087404E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>18724</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>17600</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" s="1">
+        <v>8.9834346678107982E-2</v>
+      </c>
+      <c r="C42" s="1">
+        <v>5.9473988655954602E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7.0713040670379992E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4.0446828207932412E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="1">
-        <v>0.14113583331927657</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.42752240207977593</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.22319352371618151</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.14464764477685096</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>78500</v>
-      </c>
-      <c r="B37" s="1">
-        <v>8.6009755209088337E-2</v>
-      </c>
-      <c r="C37" s="1">
-        <v>6.8477020710706715E-2</v>
-      </c>
-      <c r="D37" s="1">
-        <v>7.6819714531302458E-2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>9.2140893936157223E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>78500</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>78776</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="1">
-        <v>8.6009755209088337E-2</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6.8477020710706715E-2</v>
-      </c>
-      <c r="D40" s="1">
-        <v>7.6819714531302458E-2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>9.2140893936157223E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>140220</v>
-      </c>
-      <c r="B41" s="1">
-        <v>4.5592092770891282E-2</v>
-      </c>
-      <c r="C41" s="1">
-        <v>4.1725784900406397E-2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4.1672466100650715E-2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1.7987661237984686E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>140220</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>139356</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="1">
+        <v>8.8640998769551518E-2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.8950792420655478E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>7.0749491062015293E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4.096555562224239E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>21</v>
+      <c r="A44" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B44" s="1">
-        <v>4.1987430068281137E-2</v>
+        <v>0.10650681028608233</v>
       </c>
       <c r="C44" s="1">
-        <v>4.0827699283271852E-2</v>
+        <v>0.14415815021173331</v>
       </c>
       <c r="D44" s="1">
-        <v>3.5231589622523818E-2</v>
+        <v>0.21126971252408111</v>
       </c>
       <c r="E44" s="1">
-        <v>1.3234250883448768E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.58448916681110863</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.17598958466202019</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1.0045834995806218</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.72862250924110417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>140228</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4.188783115278806E-2</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3.7073745764420671E-2</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3.9339370412985637E-2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2.1407525531134061E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>140228</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>137012</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="1">
-        <v>4.045412633188044E-2</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3.3963097101420064E-2</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3.2709915256524849E-2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1.3439763554814389E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0.2562267018784769</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0.50211572088301182</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1.0304429163038731</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1.2125879409909248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>51744</v>
-      </c>
-      <c r="B51" s="1">
-        <v>9.0192958378825849E-2</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.10617771155810385</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.11884820762972149</v>
-      </c>
-      <c r="E51" s="1">
-        <v>6.7925394221443808E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>51744</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
-        <v>78428</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="1">
-        <v>4.3878556673983521E-2</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3.6802175589613302E-2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3.8072193229784182E-2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>1.0171900294990191E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0.13650736008366818</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.17555324752659437</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.19962422202965879</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.12567888814789743</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1">
-        <v>7.014732695675624E-2</v>
-      </c>
-      <c r="C56" s="1">
-        <v>8.3691634493046257E-2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>8.4050869029787575E-2</v>
-      </c>
-      <c r="E56" s="1">
-        <v>5.3126303045602369E-2</v>
+        <v>7.8942283217911607E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Tester2.xlsx
+++ b/Tester2.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giacomo.caglioni\dev\cudaNN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcaglion\dev\cudaNN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ClientInfo" sheetId="3" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <definedName name="Slicer_PROCESSID">#N/A</definedName>
     <definedName name="Slicer_THREADID">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -48,17 +48,17 @@
   <connection id="1" name="Q_ClientInfo" type="1" refreshedVersion="5" savePassword="1" background="1" saveData="1">
     <dbPr connection="DSN=Algo;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=F;CSR=F;FWC=F;FBS=64000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT CLIENTINFO.PROCESSID, CLIENTINFO.CLIENTNAME, CLIENTINFO.CLIENTSTART, CLIENTINFO.DURATION, CLIENTINFO.SIMULATIONLEN, CLIENTINFO.SIMULATIONSTART, CLIENTINFO.DOTRAINING, CLIENTINFO.DOTRAINRUN, CLIENTINFO.DOTESTRUN_x000d__x000a_FROM CULOGUSER.CLIENTINFO CLIENTINFO_x000d__x000a_ORDER BY CLIENTINFO.CLIENTSTART DESC"/>
   </connection>
-  <connection id="2" name="Q_MSE" type="1" refreshedVersion="6" savePassword="1" saveData="1">
+  <connection id="2" name="Q_MSE" type="1" refreshedVersion="5" savePassword="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH, TRAINLOG.MSE_T, TRAINLOG.MSE_V_x000d__x000a_FROM CULOGUSER.TRAINLOG TRAINLOG_x000d__x000a_ORDER BY TRAINLOG.PROCESSID, TRAINLOG.THREADID, TRAINLOG.EPOCH"/>
   </connection>
-  <connection id="3" name="Q_Run" type="1" refreshedVersion="6" savePassword="1" saveData="1">
+  <connection id="3" name="Q_Run" type="1" refreshedVersion="5" savePassword="1" saveData="1">
     <dbPr connection="DRIVER={Oracle in OraDB12Home1};SERVER=ALGO;UID=cuLogUser;PWD=LogPwd;DBQ=ALGO;DBA=W;APA=T;EXC=F;XSM=Default;FEN=T;QTO=T;FRC=10;FDL=10;LOB=T;RST=T;BTD=F;BNF=F;BAM=IfAllSuccessful;NUM=NLS;DPM=F;MTS=T;MDI=Me;CSR=F;FWC=F;FBS=60000;TLO=O;MLD=0;ODA=F;STE=F;TSZ=8192;AST=FLOAT;" command="SELECT RUNLOG.PROCESSID, RUNLOG.THREADID, decode(RUNLOG.SETID,0,'IN-SAMPLE','OUT-OF-SAMPLE') RunSet,RUNLOG.NETPROCESSID, RUNLOG.NETTHREADID, RUNLOG.POS, decode(RUNLOG.FEATUREID,0,'OPEN',1,'HIGH',2,'LOW',3,'CLOSE',4,'VOLUME','UNKNOWN') Feature, RUNLOG.ACTUAL, RUNLOG.PREDICTED, RUNLOG.ERROR, RUNLOG.ACTUALTRS, RUNLOG.PREDICTEDTRS, RUNLOG.ERRORTRS, RUNLOG.BARWIDTH, RUNLOG.ERRORP_x000d__x000a_FROM CULOGUSER.RUNLOG RUNLOG_x000d__x000a_ORDER BY RUNLOG.PROCESSID, RUNLOG.THREADID, RUNLOG.POS, RUNLOG.FEATUREID"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Average of MSE_T</t>
   </si>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -201,10 +201,10 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="yyyy/mm/dd\ h:mm"/>
+      <numFmt numFmtId="27" formatCode="yyyy/mm/dd\ h:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -362,9 +362,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Train!$A$2:$A$52</c:f>
+              <c:f>Train!$A$2:$A$252</c:f>
               <c:strCache>
-                <c:ptCount val="50"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -514,171 +514,1371 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Train!$B$2:$B$52</c:f>
+              <c:f>Train!$B$2:$B$252</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="250"/>
                 <c:pt idx="0">
-                  <c:v>2.4173477664589899E-2</c:v>
+                  <c:v>0.11448063701391201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8782664090395002E-2</c:v>
+                  <c:v>0.114448986947536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8569238483905799E-2</c:v>
+                  <c:v>0.114408418536186</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8355628475546799E-2</c:v>
+                  <c:v>0.114347375929356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.81380938738585E-2</c:v>
+                  <c:v>0.114240065217018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.79133601486683E-2</c:v>
+                  <c:v>0.114011541008949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7678784206509601E-2</c:v>
+                  <c:v>0.113340176641941</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7432754859328301E-2</c:v>
+                  <c:v>0.108749330043793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7175218090415001E-2</c:v>
+                  <c:v>6.0663145035505302E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.6908166930079498E-2</c:v>
+                  <c:v>4.8797100782394402E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6635760664939901E-2</c:v>
+                  <c:v>4.8623703420162201E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.63637306541204E-2</c:v>
+                  <c:v>4.8454787582159001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6098072752356501E-2</c:v>
+                  <c:v>4.8287346959114102E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5843661502003701E-2</c:v>
+                  <c:v>4.8119083046913098E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5603618696332E-2</c:v>
+                  <c:v>4.7948017716407797E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.53795778751373E-2</c:v>
+                  <c:v>4.7772590070962899E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5171991661191001E-2</c:v>
+                  <c:v>4.7591559588909101E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.4980305917561099E-2</c:v>
+                  <c:v>4.7404304146766697E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.48032922297716E-2</c:v>
+                  <c:v>4.7211032360792202E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.46394912153482E-2</c:v>
+                  <c:v>4.7013185918331098E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.44875030964613E-2</c:v>
+                  <c:v>4.6813912689685801E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.43460929393768E-2</c:v>
+                  <c:v>4.6618379652500201E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.42141133546829E-2</c:v>
+                  <c:v>4.6433828771114301E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4090212062001201E-2</c:v>
+                  <c:v>4.6268373727798497E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3972711749374899E-2</c:v>
+                  <c:v>4.6129066497087499E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3859662227332601E-2</c:v>
+                  <c:v>4.6019256114959703E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.37491868808866E-2</c:v>
+                  <c:v>4.5937508344650303E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3639764860272401E-2</c:v>
+                  <c:v>4.5878447592258502E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.35303810238838E-2</c:v>
+                  <c:v>4.5835386961698497E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3420577161014101E-2</c:v>
+                  <c:v>4.5802488923072801E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.33104249835014E-2</c:v>
+                  <c:v>4.5775700360536603E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.32004199549556E-2</c:v>
+                  <c:v>4.5752611011266701E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3091283850371799E-2</c:v>
+                  <c:v>4.5731913298368503E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2983731925487499E-2</c:v>
+                  <c:v>4.5712910592556E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.28782466053963E-2</c:v>
+                  <c:v>4.5695215463638299E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.27749713137746E-2</c:v>
+                  <c:v>4.5678585767745999E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.2673666700720799E-2</c:v>
+                  <c:v>4.5662838965654401E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.25737963244319E-2</c:v>
+                  <c:v>4.5647867023944903E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.24746579676867E-2</c:v>
+                  <c:v>4.56335358321667E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2375633232295499E-2</c:v>
+                  <c:v>4.5619785785675E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.2276383116841301E-2</c:v>
+                  <c:v>4.56065163016319E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.21769802644849E-2</c:v>
+                  <c:v>4.5593671500682803E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.20778428390622E-2</c:v>
+                  <c:v>4.5581188052892699E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.19796227663755E-2</c:v>
+                  <c:v>4.55690585076809E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.18829701095819E-2</c:v>
+                  <c:v>4.55572232604027E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.17885489016771E-2</c:v>
+                  <c:v>4.5545674860477399E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.16970930248499E-2</c:v>
+                  <c:v>4.5534379780292497E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1609522625803901E-2</c:v>
+                  <c:v>4.5523330569267301E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1526857502758499E-2</c:v>
+                  <c:v>4.5512497425079297E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.34582994505763E-2</c:v>
+                  <c:v>4.5501887798309298E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5491483062505701E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.5481283217668499E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5471265912055997E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.5461446046829203E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.5451812446117401E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.5442357659339898E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.5433074235916103E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.5423977077007301E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.5415028929710402E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.54062484204769E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.5397642999887501E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.5389182865619701E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.53808829188347E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.5372746884822797E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.5364752411842298E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.5356906950473799E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5349214226007503E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.53416630625725E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.5334242284297901E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.5326948165893603E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.5319803059101098E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.5312780886888497E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.5305889099836301E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.5299120247364003E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.5292474329471602E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.5285947620868697E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.5279528945684398E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.5273225754499401E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.5267045497894301E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.5260965824127197E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.5254986733198201E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4.5249119400978102E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.52433452010155E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.5237679034471498E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.5232094824314097E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.5226611196994802E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5221216976642602E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.5215897262096398E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.5210685580968898E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.5205537229776403E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.5200496912002598E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.5195512473583201E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.5190617442131001E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.51858080923557E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.5181054621934898E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.5176375657320002E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.5171774923801401E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.5167237520217902E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.5162759721279103E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.5158356428146397E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.5154016464948703E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.5149736106395701E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.51455116271973E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.51413616538048E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.5137248933315298E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.5133195817470599E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.5129202306270599E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.5125260949134799E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.5121368020772899E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.5117527246475199E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.5113734900951399E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.5109990984201397E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.5106295496225399E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.5102640986442601E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5099023729562801E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.5095469802617999E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.50919345021248E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.50884439051151E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.50850017368793E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.5081600546836902E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.5078225433826398E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.5074898749589899E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.50715906918049E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.5068331062793697E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.5065101236105E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.5061908662319197E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.5058742165565498E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.5055612921714797E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.5052494853734998E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.5049425214529003E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.5046381652355201E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.5043367892503697E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.5040365308523199E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.5037403702735901E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.5034464448690401E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.5031536370515803E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.5028660446405397E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>4.5025788247585297E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.5022934675216703E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.5020122081041301E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>4.5017324388027198E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.5014541596174198E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.5011784881353399E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.5009039342403398E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.5006323605775798E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.50036153197289E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.5000929385423702E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.4998265802860302E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.4995613396167797E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.4992975890636402E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.4990357011556598E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.4987745583057397E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.49851565063E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.4982571154832798E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.49800193309784E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.4977478682994801E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.4974930584430702E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.4972401112317997E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.4969893991947202E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.4967390596866601E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.49649021029472E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.4962413609027897E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.4959940016269698E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.4957481324672699E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>4.4955026358365999E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>4.4952578842639902E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.4950142502784701E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.4947713613510097E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4.4945292174816097E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.4942885637283297E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.4940464198589297E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.4938061386346803E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.4935666024684899E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.49332743883133E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.4930886477232E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4.4928494840860402E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.4926114380359601E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>4.49237450957298E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.4921372085809701E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.4919006526470198E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4.4916626065969502E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.4914267957210499E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.4911898672580698E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.4909529387950897E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>4.4907171279191999E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4.4904813170433003E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4.4902451336383799E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>4.4900085777044303E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4.4897716492414502E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>4.48953583836555E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.4892989099025699E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.48906309902668E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>4.4888250529766097E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>4.4885866343975102E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>4.4883497059345197E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4.4881109148263897E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>4.4878732413053499E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4.48763407766819E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>4.4873949140310301E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>4.48715463280678E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4.4869143515825299E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>4.4866733253002201E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>4.4864322990179097E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4.4861890375614201E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.4859457761049298E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>4.48570139706135E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>4.4854573905468001E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>4.4852111488580697E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>4.4849641621112803E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.4847168028354603E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>4.48446795344353E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>4.4842183589935303E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.4839672744274098E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>4.48371544480324E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.4834636151790598E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.4832076877355603E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4.4829525053501101E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>4.48269471526146E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.4824369251728099E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>4.4821772724390002E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.48191463947296E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.4816508889198303E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.4813860207796097E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.48111891746521E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.4808503240346902E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.4805787503719302E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.4803064316511203E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.4800326228141799E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.4797550886869403E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.4794756919145598E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.4791951775550801E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.47891131043434E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.4786252081394202E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.4783364981412901E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.4780440628528602E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.47775050997734E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.47745323181152E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.4771533459425E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.4768489897251101E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.47654277086258E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.4762335717678098E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.47591990232468E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.4756021350622198E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.4752806425094598E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.4749561697244603E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.4746272265911102E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.4742938131094E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4.4739559292793302E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.4736135751009001E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.5225996524095501E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D5F-49E7-99C4-091DC5BE43ED}"/>
             </c:ext>
@@ -693,11 +1893,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1156260368"/>
-        <c:axId val="1156262544"/>
+        <c:axId val="667280848"/>
+        <c:axId val="667294992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1156260368"/>
+        <c:axId val="667280848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -740,7 +1940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1156262544"/>
+        <c:crossAx val="667294992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -748,7 +1948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1156262544"/>
+        <c:axId val="667294992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,7 +1999,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1156260368"/>
+        <c:crossAx val="667280848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -845,7 +2045,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -854,17 +2059,12 @@
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
   </c:extLst>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1023,7 +2223,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -1118,7 +2318,7 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
@@ -2069,21 +3269,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$3:$A$44</c:f>
+              <c:f>Run!$A$3:$A$26</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>OUT-OF-SAMPLE</c:v>
@@ -2095,112 +3295,58 @@
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2932</c:v>
+                    <c:v>91720</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11948</c:v>
+                    <c:v>49124</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4312</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2856</c:v>
+                    <c:v>73488</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4312</c:v>
+                    <c:v>76992</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>11948</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2856</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2932</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>17600</c:v>
+                    <c:v>58020</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>10108</c:v>
+                    <c:v>42336</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2992</c:v>
+                    <c:v>47036</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>584</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3236</c:v>
+                    <c:v>61028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>584</c:v>
+                    <c:v>73624</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2992</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3236</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10108</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18724</c:v>
+                    <c:v>89824</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>42336</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>47036</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>61028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>584</c:v>
+                    <c:v>73624</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2992</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3236</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10108</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18724</c:v>
+                    <c:v>89824</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2208,38 +3354,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$B$3:$B$44</c:f>
+              <c:f>Run!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.12591803558170794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0424441516320998E-2</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13761009382084011</c:v>
+                  <c:v>0.14699835766106845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12279099874198436</c:v>
+                  <c:v>4.0356546505233029E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13309023421257735</c:v>
+                  <c:v>0.15118904177099465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9747606813907602E-2</c:v>
+                  <c:v>0.15978404376655819</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.4523630216717697E-2</c:v>
+                  <c:v>0.90231489914572072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5816573034971958E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.9834346678107982E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.8640998769551518E-2</c:v>
+                  <c:v>0.81763218879699706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B19-40FC-8792-B72E388B5F83}"/>
             </c:ext>
@@ -2271,21 +3417,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$3:$A$44</c:f>
+              <c:f>Run!$A$3:$A$26</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>OUT-OF-SAMPLE</c:v>
@@ -2297,112 +3443,58 @@
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2932</c:v>
+                    <c:v>91720</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11948</c:v>
+                    <c:v>49124</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4312</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2856</c:v>
+                    <c:v>73488</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4312</c:v>
+                    <c:v>76992</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>11948</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2856</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2932</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>17600</c:v>
+                    <c:v>58020</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>10108</c:v>
+                    <c:v>42336</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2992</c:v>
+                    <c:v>47036</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>584</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3236</c:v>
+                    <c:v>61028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>584</c:v>
+                    <c:v>73624</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2992</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3236</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10108</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18724</c:v>
+                    <c:v>89824</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>42336</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>47036</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>61028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>584</c:v>
+                    <c:v>73624</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2992</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3236</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10108</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18724</c:v>
+                    <c:v>89824</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2410,38 +3502,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$C$3:$C$44</c:f>
+              <c:f>Run!$C$3:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.25530025790678335</c:v>
+                  <c:v>7.7573341630632051E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1426734942290932</c:v>
+                  <c:v>3.6572422469576038E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43859896069392562</c:v>
+                  <c:v>7.5672238022089E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5838002602314067E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4015476703643798E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.44884042814374E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.7580254711210722E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.6199048794805981E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9473988655954602E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.8950792420655478E-2</c:v>
+                  <c:v>0.83725219790945071</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63770417004823687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BBD2-4C70-87E5-5D2B9F673739}"/>
             </c:ext>
@@ -2473,21 +3562,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$3:$A$44</c:f>
+              <c:f>Run!$A$3:$A$26</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>OUT-OF-SAMPLE</c:v>
@@ -2499,112 +3588,58 @@
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2932</c:v>
+                    <c:v>91720</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11948</c:v>
+                    <c:v>49124</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4312</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2856</c:v>
+                    <c:v>73488</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4312</c:v>
+                    <c:v>76992</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>11948</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2856</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2932</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>17600</c:v>
+                    <c:v>58020</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>10108</c:v>
+                    <c:v>42336</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2992</c:v>
+                    <c:v>47036</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>584</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3236</c:v>
+                    <c:v>61028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>584</c:v>
+                    <c:v>73624</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2992</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3236</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10108</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18724</c:v>
+                    <c:v>89824</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>42336</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>47036</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>61028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>584</c:v>
+                    <c:v>73624</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2992</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3236</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10108</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18724</c:v>
+                    <c:v>89824</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2612,38 +3647,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$D$3:$D$44</c:f>
+              <c:f>Run!$D$3:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.51889725737972181</c:v>
+                  <c:v>7.8333137869776692E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52762532267253848</c:v>
+                  <c:v>3.2665016535886063E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24997914310544733</c:v>
+                  <c:v>0.11766050398349762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2351496499293073E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13640686362981794</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7469987124204637E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.673132877796888E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.7992129400372501E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0713040670379992E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.0749491062015293E-2</c:v>
+                  <c:v>0.87479284423744985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.81561366945505143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BBD2-4C70-87E5-5D2B9F673739}"/>
             </c:ext>
@@ -2675,21 +3707,21 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Run!$A$3:$A$44</c:f>
+              <c:f>Run!$A$3:$A$26</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>OUT-OF-SAMPLE</c:v>
+                    <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>OUT-OF-SAMPLE</c:v>
@@ -2701,112 +3733,58 @@
                     <c:v>IN-SAMPLE</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>IN-SAMPLE</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
                     <c:v>OUT-OF-SAMPLE</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>2932</c:v>
+                    <c:v>91720</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>11948</c:v>
+                    <c:v>49124</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>4312</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>2856</c:v>
+                    <c:v>73488</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4312</c:v>
+                    <c:v>76992</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>11948</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>2856</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>2932</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>196</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>17600</c:v>
+                    <c:v>58020</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>10108</c:v>
+                    <c:v>42336</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2992</c:v>
+                    <c:v>47036</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>584</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3236</c:v>
+                    <c:v>61028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>584</c:v>
+                    <c:v>73624</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2992</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3236</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10108</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18724</c:v>
+                    <c:v>89824</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>42336</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>47036</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>61028</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>584</c:v>
+                    <c:v>73624</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>2992</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>3236</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>10108</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>13468</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>18724</c:v>
+                    <c:v>89824</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2814,38 +3792,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Run!$E$3:$E$44</c:f>
+              <c:f>Run!$E$3:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.005893656052649E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5171217609622434E-2</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16224114974495024</c:v>
+                  <c:v>0.13320346850901843</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10857769584283233</c:v>
+                  <c:v>3.5011274480262776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0613519102334978E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10348443602211774</c:v>
+                  <c:v>0.13635349484160542</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2980411993339664E-2</c:v>
+                  <c:v>0.9082315266920713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2228669207543144E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0446828207932412E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.096555562224239E-2</c:v>
+                  <c:v>0.82112044528126715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-BBD2-4C70-87E5-5D2B9F673739}"/>
             </c:ext>
@@ -2860,11 +3835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1156265808"/>
-        <c:axId val="1156268528"/>
+        <c:axId val="667290640"/>
+        <c:axId val="667285200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1156265808"/>
+        <c:axId val="667290640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,7 +3882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1156268528"/>
+        <c:crossAx val="667285200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2915,7 +3890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1156268528"/>
+        <c:axId val="667285200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +3941,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1156265808"/>
+        <c:crossAx val="667290640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3044,7 +4019,12 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:extLst>
+  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
         <c14:dropZoneFilter val="1"/>
@@ -3053,11 +4033,6 @@
         <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
 </c:chartSpace>
@@ -4364,223 +5339,233 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Giacomo Caglioni" refreshedDate="43160.595981134262" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="500">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43161.933517361111" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="428">
   <cacheSource type="external" connectionId="2"/>
   <cacheFields count="5">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="195">
-        <n v="584"/>
-        <n v="2992"/>
-        <n v="3236"/>
-        <n v="10108"/>
-        <n v="13468"/>
-        <n v="18724"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="200">
+        <n v="42336"/>
+        <n v="47036"/>
+        <n v="61028"/>
+        <n v="73624"/>
+        <n v="89824"/>
+        <n v="42216" u="1"/>
+        <n v="82796" u="1"/>
+        <n v="57572" u="1"/>
+        <n v="1932" u="1"/>
+        <n v="3236" u="1"/>
+        <n v="77480" u="1"/>
+        <n v="7100" u="1"/>
+        <n v="36028" u="1"/>
+        <n v="78088" u="1"/>
+        <n v="84052" u="1"/>
+        <n v="92856" u="1"/>
+        <n v="13468" u="1"/>
+        <n v="49112" u="1"/>
+        <n v="120768" u="1"/>
+        <n v="24204" u="1"/>
+        <n v="30736" u="1"/>
+        <n v="44892" u="1"/>
+        <n v="59944" u="1"/>
+        <n v="39232" u="1"/>
+        <n v="43512" u="1"/>
+        <n v="48340" u="1"/>
+        <n v="83400" u="1"/>
+        <n v="16120" u="1"/>
+        <n v="15344" u="1"/>
+        <n v="18280" u="1"/>
+        <n v="43552" u="1"/>
+        <n v="54912" u="1"/>
+        <n v="80640" u="1"/>
+        <n v="58908" u="1"/>
+        <n v="43024" u="1"/>
+        <n v="44444" u="1"/>
+        <n v="48420" u="1"/>
+        <n v="134028" u="1"/>
+        <n v="32652" u="1"/>
+        <n v="35660" u="1"/>
+        <n v="46736" u="1"/>
+        <n v="59232" u="1"/>
+        <n v="75364" u="1"/>
+        <n v="76784" u="1"/>
+        <n v="15080" u="1"/>
+        <n v="90740" u="1"/>
+        <n v="2792" u="1"/>
+        <n v="20328" u="1"/>
+        <n v="21748" u="1"/>
+        <n v="47364" u="1"/>
+        <n v="204" u="1"/>
+        <n v="43124" u="1"/>
+        <n v="6288" u="1"/>
+        <n v="25896" u="1"/>
+        <n v="119624" u="1"/>
+        <n v="73656" u="1"/>
+        <n v="133248" u="1"/>
+        <n v="6648" u="1"/>
+        <n v="77672" u="1"/>
+        <n v="5692" u="1"/>
+        <n v="51744" u="1"/>
+        <n v="62252" u="1"/>
+        <n v="78280" u="1"/>
+        <n v="25652" u="1"/>
+        <n v="33304" u="1"/>
+        <n v="45516" u="1"/>
+        <n v="98200" u="1"/>
+        <n v="48964" u="1"/>
+        <n v="59188" u="1"/>
+        <n v="133364" u="1"/>
+        <n v="18724" u="1"/>
+        <n v="76168" u="1"/>
+        <n v="87852" u="1"/>
+        <n v="1540" u="1"/>
+        <n v="61520" u="1"/>
+        <n v="80792" u="1"/>
+        <n v="1372" u="1"/>
+        <n v="17192" u="1"/>
+        <n v="81684" u="1"/>
+        <n v="20184" u="1"/>
+        <n v="26432" u="1"/>
+        <n v="39408" u="1"/>
+        <n v="41964" u="1"/>
         <n v="77464" u="1"/>
+        <n v="133844" u="1"/>
+        <n v="42856" u="1"/>
+        <n v="68172" u="1"/>
+        <n v="75272" u="1"/>
+        <n v="81520" u="1"/>
+        <n v="84076" u="1"/>
+        <n v="2192" u="1"/>
+        <n v="5400" u="1"/>
+        <n v="22628" u="1"/>
+        <n v="71336" u="1"/>
+        <n v="78152" u="1"/>
+        <n v="2992" u="1"/>
+        <n v="33240" u="1"/>
+        <n v="133516" u="1"/>
+        <n v="23216" u="1"/>
         <n v="36100" u="1"/>
-        <n v="78280" u="1"/>
-        <n v="26432" u="1"/>
-        <n v="2412" u="1"/>
-        <n v="43024" u="1"/>
+        <n v="58820" u="1"/>
+        <n v="97828" u="1"/>
+        <n v="54012" u="1"/>
+        <n v="68332" u="1"/>
+        <n v="76000" u="1"/>
+        <n v="22100" u="1"/>
+        <n v="78028" u="1"/>
+        <n v="80584" u="1"/>
+        <n v="584" u="1"/>
+        <n v="1848" u="1"/>
+        <n v="52916" u="1"/>
+        <n v="76648" u="1"/>
+        <n v="41008" u="1"/>
+        <n v="47540" u="1"/>
+        <n v="48108" u="1"/>
+        <n v="78960" u="1"/>
+        <n v="80664" u="1"/>
+        <n v="13364" u="1"/>
+        <n v="22992" u="1"/>
+        <n v="35652" u="1"/>
+        <n v="48148" u="1"/>
+        <n v="84436" u="1"/>
+        <n v="10108" u="1"/>
+        <n v="32516" u="1"/>
+        <n v="96972" u="1"/>
+        <n v="47620" u="1"/>
+        <n v="81108" u="1"/>
+        <n v="120584" u="1"/>
+        <n v="50480" u="1"/>
+        <n v="90804" u="1"/>
+        <n v="28712" u="1"/>
+        <n v="96524" u="1"/>
+        <n v="6888" u="1"/>
+        <n v="123828" u="1"/>
+        <n v="47720" u="1"/>
+        <n v="79928" u="1"/>
+        <n v="69744" u="1"/>
+        <n v="91368" u="1"/>
+        <n v="53196" u="1"/>
+        <n v="77492" u="1"/>
+        <n v="77776" u="1"/>
+        <n v="77532" u="1"/>
+        <n v="20708" u="1"/>
+        <n v="47272" u="1"/>
+        <n v="48408" u="1"/>
+        <n v="78992" u="1"/>
+        <n v="140228" u="1"/>
+        <n v="40760" u="1"/>
+        <n v="66576" u="1"/>
+        <n v="86740" u="1"/>
+        <n v="96112" u="1"/>
+        <n v="31956" u="1"/>
+        <n v="69212" u="1"/>
+        <n v="133164" u="1"/>
         <n v="71240" u="1"/>
-        <n v="81684" u="1"/>
+        <n v="76352" u="1"/>
+        <n v="50516" u="1"/>
+        <n v="65600" u="1"/>
+        <n v="77244" u="1"/>
+        <n v="77812" u="1"/>
+        <n v="94568" u="1"/>
+        <n v="7032" u="1"/>
+        <n v="21772" u="1"/>
+        <n v="45140" u="1"/>
         <n v="49400" u="1"/>
-        <n v="2192" u="1"/>
-        <n v="69212" u="1"/>
-        <n v="25896" u="1"/>
-        <n v="15344" u="1"/>
-        <n v="30920" u="1"/>
-        <n v="41008" u="1"/>
-        <n v="6648" u="1"/>
-        <n v="84436" u="1"/>
-        <n v="41964" u="1"/>
-        <n v="48340" u="1"/>
-        <n v="65600" u="1"/>
-        <n v="23536" u="1"/>
-        <n v="57572" u="1"/>
-        <n v="51744" u="1"/>
-        <n v="33304" u="1"/>
+        <n v="80976" u="1"/>
+        <n v="89780" u="1"/>
         <n v="98868" u="1"/>
-        <n v="71336" u="1"/>
+        <n v="140220" u="1"/>
+        <n v="52544" u="1"/>
         <n v="62200" u="1"/>
-        <n v="78540" u="1"/>
-        <n v="25652" u="1"/>
-        <n v="58820" u="1"/>
-        <n v="78960" u="1"/>
-        <n v="48108" u="1"/>
-        <n v="78028" u="1"/>
-        <n v="75860" u="1"/>
-        <n v="23216" u="1"/>
-        <n v="76000" u="1"/>
-        <n v="77492" u="1"/>
-        <n v="133248" u="1"/>
-        <n v="28712" u="1"/>
-        <n v="59520" u="1"/>
-        <n v="90804" u="1"/>
-        <n v="80640" u="1"/>
-        <n v="32652" u="1"/>
-        <n v="92856" u="1"/>
-        <n v="35660" u="1"/>
-        <n v="80664" u="1"/>
-        <n v="18280" u="1"/>
-        <n v="44892" u="1"/>
-        <n v="68332" u="1"/>
-        <n v="7100" u="1"/>
-        <n v="85840" u="1"/>
-        <n v="76352" u="1"/>
-        <n v="89780" u="1"/>
-        <n v="1848" u="1"/>
-        <n v="22628" u="1"/>
-        <n v="76632" u="1"/>
-        <n v="81108" u="1"/>
-        <n v="47620" u="1"/>
-        <n v="49112" u="1"/>
-        <n v="21748" u="1"/>
-        <n v="43552" u="1"/>
-        <n v="34204" u="1"/>
-        <n v="47364" u="1"/>
-        <n v="16120" u="1"/>
         <n v="77892" u="1"/>
-        <n v="56864" u="1"/>
-        <n v="77776" u="1"/>
-        <n v="22512" u="1"/>
-        <n v="76168" u="1"/>
-        <n v="133164" u="1"/>
-        <n v="68172" u="1"/>
-        <n v="91368" u="1"/>
         <n v="24348" u="1"/>
         <n v="43192" u="1"/>
-        <n v="21772" u="1"/>
+        <n v="45748" u="1"/>
+        <n v="60516" u="1"/>
         <n v="78500" u="1"/>
-        <n v="47540" u="1"/>
-        <n v="47272" u="1"/>
-        <n v="15080" u="1"/>
-        <n v="119624" u="1"/>
-        <n v="46736" u="1"/>
-        <n v="90740" u="1"/>
-        <n v="98200" u="1"/>
-        <n v="30736" u="1"/>
+        <n v="83896" u="1"/>
+        <n v="93268" u="1"/>
+        <n v="22512" u="1"/>
         <n v="69736" u="1"/>
+        <n v="78540" u="1"/>
+        <n v="2800" u="1"/>
+        <n v="56864" u="1"/>
+        <n v="87384" u="1"/>
         <n v="134008" u="1"/>
-        <n v="78152" u="1"/>
-        <n v="59232" u="1"/>
-        <n v="87384" u="1"/>
-        <n v="97828" u="1"/>
-        <n v="5400" u="1"/>
-        <n v="1372" u="1"/>
-        <n v="78992" u="1"/>
-        <n v="120768" u="1"/>
+        <n v="48080" u="1"/>
+        <n v="76632" u="1"/>
+        <n v="2412" u="1"/>
+        <n v="23536" u="1"/>
+        <n v="30920" u="1"/>
+        <n v="39864" u="1"/>
+        <n v="11232" u="1"/>
+        <n v="34204" u="1"/>
         <n v="42156" u="1"/>
-        <n v="45140" u="1"/>
-        <n v="77244" u="1"/>
-        <n v="35652" u="1"/>
-        <n v="96524" u="1"/>
-        <n v="17192" u="1"/>
-        <n v="84052" u="1"/>
-        <n v="13364" u="1"/>
-        <n v="43124" u="1"/>
-        <n v="87852" u="1"/>
-        <n v="2800" u="1"/>
-        <n v="59944" u="1"/>
-        <n v="42856" u="1"/>
-        <n v="62252" u="1"/>
-        <n v="48148" u="1"/>
-        <n v="7032" u="1"/>
-        <n v="48964" u="1"/>
-        <n v="2792" u="1"/>
-        <n v="84076" u="1"/>
-        <n v="83400" u="1"/>
-        <n v="33240" u="1"/>
-        <n v="80976" u="1"/>
-        <n v="120584" u="1"/>
-        <n v="73656" u="1"/>
-        <n v="52916" u="1"/>
-        <n v="20328" u="1"/>
-        <n v="60516" u="1"/>
-        <n v="50480" u="1"/>
-        <n v="53196" u="1"/>
-        <n v="94568" u="1"/>
-        <n v="77480" u="1"/>
-        <n v="54012" u="1"/>
-        <n v="79928" u="1"/>
-        <n v="133364" u="1"/>
-        <n v="39232" u="1"/>
-        <n v="42216" u="1"/>
-        <n v="22100" u="1"/>
-        <n v="45748" u="1"/>
+        <n v="75860" u="1"/>
+        <n v="46436" u="1"/>
         <n v="66244" u="1"/>
-        <n v="82796" u="1"/>
-        <n v="24204" u="1"/>
-        <n v="58908" u="1"/>
-        <n v="204" u="1"/>
-        <n v="46436" u="1"/>
-        <n v="59188" u="1"/>
-        <n v="140220" u="1"/>
-        <n v="1540" u="1"/>
-        <n v="52544" u="1"/>
-        <n v="80792" u="1"/>
-        <n v="22992" u="1"/>
-        <n v="50516" u="1"/>
-        <n v="78088" u="1"/>
-        <n v="48080" u="1"/>
-        <n v="6888" u="1"/>
-        <n v="40760" u="1"/>
-        <n v="39408" u="1"/>
-        <n v="96972" u="1"/>
-        <n v="123828" u="1"/>
-        <n v="61520" u="1"/>
-        <n v="45516" u="1"/>
-        <n v="31956" u="1"/>
-        <n v="36028" u="1"/>
-        <n v="76784" u="1"/>
-        <n v="80584" u="1"/>
-        <n v="44444" u="1"/>
-        <n v="69744" u="1"/>
-        <n v="20708" u="1"/>
-        <n v="43512" u="1"/>
-        <n v="47720" u="1"/>
-        <n v="86740" u="1"/>
-        <n v="54912" u="1"/>
-        <n v="83896" u="1"/>
-        <n v="1932" u="1"/>
-        <n v="32516" u="1"/>
-        <n v="96112" u="1"/>
-        <n v="140228" u="1"/>
-        <n v="48408" u="1"/>
-        <n v="77532" u="1"/>
-        <n v="39864" u="1"/>
-        <n v="75364" u="1"/>
-        <n v="93268" u="1"/>
-        <n v="77672" u="1"/>
-        <n v="77812" u="1"/>
-        <n v="5692" u="1"/>
-        <n v="134028" u="1"/>
-        <n v="48420" u="1"/>
-        <n v="66576" u="1"/>
-        <n v="133516" u="1"/>
-        <n v="20184" u="1"/>
-        <n v="11232" u="1"/>
-        <n v="75272" u="1"/>
-        <n v="81520" u="1"/>
-        <n v="6288" u="1"/>
-        <n v="133844" u="1"/>
-        <n v="76648" u="1"/>
+        <n v="85840" u="1"/>
+        <n v="59520" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="18">
-        <n v="4312"/>
-        <n v="11948"/>
-        <n v="2856"/>
-        <n v="2932"/>
-        <n v="196"/>
-        <n v="17600"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="23">
+        <n v="91720"/>
+        <n v="49124"/>
+        <n v="73488"/>
+        <n v="76992"/>
+        <n v="58020"/>
         <n v="78776" u="1"/>
+        <n v="17600" u="1"/>
+        <n v="196" u="1"/>
         <n v="78648" u="1"/>
         <n v="137012" u="1"/>
         <n v="77828" u="1"/>
         <n v="139356" u="1"/>
+        <n v="4312" u="1"/>
         <n v="78428" u="1"/>
         <n v="76884" u="1"/>
+        <n v="2856" u="1"/>
+        <n v="11948" u="1"/>
+        <n v="2932" u="1"/>
         <n v="76312" u="1"/>
         <n v="135232" u="1"/>
         <n v="78540" u="1"/>
@@ -5190,7 +6175,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="MSE_T" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.1526857502758499E-2" maxValue="3.7795584648847601E-2"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.1596270855516201E-4" maxValue="0.11448063701391201"/>
     </cacheField>
     <cacheField name="MSE_V" numFmtId="0" sqlType="6">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="1">
@@ -5207,17 +6192,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Giacomo Caglioni" refreshedDate="43160.596121875002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="12800">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="gcaglion" refreshedDate="43161.933791898147" createdVersion="6" refreshedVersion="5" minRefreshableVersion="3" recordCount="605600">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="15">
     <cacheField name="PROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="198">
-        <n v="584"/>
-        <n v="2992"/>
-        <n v="3236"/>
-        <n v="10108"/>
-        <n v="13468"/>
-        <n v="18724"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="204" maxValue="140228" count="203">
+        <n v="42336"/>
+        <n v="47036"/>
+        <n v="61028"/>
+        <n v="73624"/>
+        <n v="89824"/>
         <n v="36100" u="1"/>
         <n v="78280" u="1"/>
         <n v="137388" u="1"/>
@@ -5239,6 +6223,7 @@
         <n v="30920" u="1"/>
         <n v="6648" u="1"/>
         <n v="84436" u="1"/>
+        <n v="3236" u="1"/>
         <n v="41964" u="1"/>
         <n v="48340" u="1"/>
         <n v="65600" u="1"/>
@@ -5250,6 +6235,7 @@
         <n v="133384" u="1"/>
         <n v="33304" u="1"/>
         <n v="62200" u="1"/>
+        <n v="2992" u="1"/>
         <n v="78540" u="1"/>
         <n v="25652" u="1"/>
         <n v="58820" u="1"/>
@@ -5266,6 +6252,7 @@
         <n v="32652" u="1"/>
         <n v="92856" u="1"/>
         <n v="35660" u="1"/>
+        <n v="10108" u="1"/>
         <n v="50312" u="1"/>
         <n v="80664" u="1"/>
         <n v="137680" u="1"/>
@@ -5274,7 +6261,9 @@
         <n v="44892" u="1"/>
         <n v="68332" u="1"/>
         <n v="7100" u="1"/>
+        <n v="13468" u="1"/>
         <n v="139220" u="1"/>
+        <n v="584" u="1"/>
         <n v="76352" u="1"/>
         <n v="89780" u="1"/>
         <n v="1848" u="1"/>
@@ -5296,6 +6285,7 @@
         <n v="78500" u="1"/>
         <n v="47540" u="1"/>
         <n v="133912" u="1"/>
+        <n v="18724" u="1"/>
         <n v="47272" u="1"/>
         <n v="15080" u="1"/>
         <n v="134752" u="1"/>
@@ -5413,74 +6403,82 @@
       </sharedItems>
     </cacheField>
     <cacheField name="THREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="18">
-        <n v="4312"/>
-        <n v="11948"/>
-        <n v="2856"/>
-        <n v="2932"/>
-        <n v="196"/>
-        <n v="17600"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="196" maxValue="139356" count="23">
+        <n v="91720"/>
+        <n v="49124"/>
+        <n v="73488"/>
+        <n v="76992"/>
+        <n v="58020"/>
+        <n v="78776" u="1"/>
+        <n v="17600" u="1"/>
+        <n v="196" u="1"/>
+        <n v="78648" u="1"/>
+        <n v="137012" u="1"/>
+        <n v="77828" u="1"/>
+        <n v="139356" u="1"/>
+        <n v="4312" u="1"/>
+        <n v="78428" u="1"/>
+        <n v="76884" u="1"/>
+        <n v="2856" u="1"/>
+        <n v="11948" u="1"/>
+        <n v="78464" u="1"/>
+        <n v="2932" u="1"/>
         <n v="76312" u="1"/>
-        <n v="78776" u="1"/>
-        <n v="137012" u="1"/>
-        <n v="139356" u="1"/>
+        <n v="135232" u="1"/>
+        <n v="78540" u="1"/>
         <n v="59804" u="1"/>
-        <n v="76884" u="1"/>
-        <n v="78464" u="1"/>
-        <n v="135232" u="1"/>
-        <n v="78428" u="1"/>
-        <n v="78648" u="1"/>
-        <n v="77828" u="1"/>
-        <n v="78540" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="RUNSET" numFmtId="0" sqlType="12">
       <sharedItems count="2">
+        <s v="IN-SAMPLE"/>
         <s v="OUT-OF-SAMPLE"/>
-        <s v="IN-SAMPLE"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETPROCESSID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="140228" count="17">
-        <n v="0"/>
-        <n v="584"/>
-        <n v="2992"/>
-        <n v="3236"/>
-        <n v="10108"/>
-        <n v="13468"/>
-        <n v="18724"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="140228" count="22">
+        <n v="42336"/>
+        <n v="47036"/>
+        <n v="61028"/>
+        <n v="73624"/>
+        <n v="89824"/>
+        <n v="0" u="1"/>
+        <n v="3236" u="1"/>
+        <n v="77480" u="1"/>
+        <n v="13468" u="1"/>
+        <n v="43024" u="1"/>
         <n v="20328" u="1"/>
         <n v="77672" u="1"/>
-        <n v="77480" u="1"/>
-        <n v="78500" u="1"/>
-        <n v="43024" u="1"/>
         <n v="51744" u="1"/>
+        <n v="18724" u="1"/>
         <n v="76168" u="1"/>
+        <n v="2992" u="1"/>
+        <n v="584" u="1"/>
+        <n v="10108" u="1"/>
         <n v="140228" u="1"/>
         <n v="77812" u="1"/>
         <n v="140220" u="1"/>
+        <n v="78500" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NETTHREADID" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="17600" count="7">
-        <n v="0"/>
-        <n v="4312"/>
-        <n v="11948"/>
-        <n v="2856"/>
-        <n v="2932"/>
-        <n v="196"/>
-        <n v="17600"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="49124" maxValue="91720" count="5">
+        <n v="91720"/>
+        <n v="49124"/>
+        <n v="73488"/>
+        <n v="76992"/>
+        <n v="58020"/>
       </sharedItems>
     </cacheField>
     <cacheField name="POS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="399"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="49899"/>
     </cacheField>
     <cacheField name="FEATURE" numFmtId="0" sqlType="12">
       <sharedItems count="4">
         <s v="OPEN"/>
-        <s v="CLOSE"/>
         <s v="HIGH"/>
         <s v="LOW"/>
+        <s v="CLOSE"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ACTUAL" numFmtId="0" sqlType="6">
@@ -5502,10 +6500,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1.00000011920929" maxValue="1"/>
     </cacheField>
     <cacheField name="PREDICTEDTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.82484936714172397" maxValue="0.831606864929199"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-1" maxValue="0.81000483036041304"/>
     </cacheField>
     <cacheField name="ERRORTRS" numFmtId="0" sqlType="6">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5001506805419896E-6" maxValue="1.2067182064056401"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="2"/>
     </cacheField>
     <cacheField name="BARWIDTH" numFmtId="0" sqlType="6">
       <sharedItems containsString="0" containsBlank="1" count="1">
@@ -5527,229 +6525,239 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A1:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:B252" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0">
-      <items count="196">
+      <items count="201">
+        <item h="1" m="1" x="50"/>
+        <item h="1" m="1" x="108"/>
+        <item h="1" m="1" x="76"/>
+        <item h="1" m="1" x="73"/>
+        <item h="1" m="1" x="109"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="90"/>
+        <item h="1" m="1" x="188"/>
+        <item h="1" m="1" x="46"/>
+        <item h="1" m="1" x="182"/>
+        <item h="1" m="1" x="95"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="91"/>
+        <item h="1" m="1" x="59"/>
+        <item h="1" m="1" x="52"/>
+        <item h="1" m="1" x="57"/>
+        <item h="1" m="1" x="132"/>
+        <item h="1" m="1" x="161"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" m="1" x="122"/>
+        <item h="1" m="1" x="192"/>
+        <item h="1" m="1" x="117"/>
+        <item h="1" m="1" x="16"/>
+        <item h="1" m="1" x="44"/>
+        <item h="1" m="1" x="28"/>
+        <item h="1" m="1" x="27"/>
+        <item h="1" m="1" x="77"/>
+        <item h="1" m="1" x="29"/>
+        <item h="1" m="1" x="70"/>
+        <item h="1" m="1" x="79"/>
+        <item h="1" m="1" x="47"/>
         <item h="1" m="1" x="142"/>
+        <item h="1" m="1" x="48"/>
+        <item h="1" m="1" x="162"/>
+        <item h="1" m="1" x="105"/>
+        <item h="1" m="1" x="179"/>
+        <item h="1" m="1" x="92"/>
+        <item h="1" m="1" x="118"/>
+        <item h="1" m="1" x="98"/>
+        <item h="1" m="1" x="189"/>
+        <item h="1" m="1" x="19"/>
+        <item h="1" m="1" x="172"/>
+        <item h="1" m="1" x="63"/>
+        <item h="1" m="1" x="53"/>
+        <item h="1" m="1" x="80"/>
+        <item h="1" m="1" x="130"/>
+        <item h="1" m="1" x="20"/>
+        <item h="1" m="1" x="190"/>
+        <item h="1" m="1" x="151"/>
+        <item h="1" m="1" x="123"/>
+        <item h="1" m="1" x="38"/>
+        <item h="1" m="1" x="96"/>
+        <item h="1" m="1" x="64"/>
+        <item h="1" m="1" x="193"/>
+        <item h="1" m="1" x="119"/>
+        <item h="1" m="1" x="39"/>
+        <item h="1" m="1" x="12"/>
+        <item h="1" m="1" x="99"/>
+        <item h="1" m="1" x="23"/>
+        <item h="1" m="1" x="81"/>
+        <item h="1" m="1" x="191"/>
+        <item h="1" m="1" x="147"/>
+        <item h="1" m="1" x="112"/>
+        <item h="1" m="1" x="82"/>
+        <item h="1" m="1" x="194"/>
+        <item h="1" m="1" x="5"/>
         <item h="1" x="0"/>
-        <item h="1" m="1" x="97"/>
-        <item h="1" m="1" x="146"/>
-        <item h="1" m="1" x="59"/>
-        <item h="1" m="1" x="172"/>
-        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="85"/>
+        <item h="1" m="1" x="34"/>
+        <item h="1" m="1" x="51"/>
+        <item h="1" m="1" x="173"/>
+        <item h="1" m="1" x="24"/>
+        <item h="1" m="1" x="30"/>
+        <item h="1" m="1" x="35"/>
+        <item h="1" m="1" x="21"/>
+        <item h="1" m="1" x="163"/>
+        <item h="1" m="1" x="65"/>
+        <item h="1" m="1" x="174"/>
+        <item h="1" m="1" x="196"/>
+        <item h="1" m="1" x="40"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="143"/>
+        <item h="1" m="1" x="49"/>
+        <item h="1" m="1" x="113"/>
+        <item h="1" m="1" x="125"/>
+        <item h="1" m="1" x="134"/>
+        <item h="1" m="1" x="186"/>
+        <item h="1" m="1" x="114"/>
+        <item h="1" m="1" x="120"/>
+        <item h="1" m="1" x="25"/>
+        <item h="1" m="1" x="144"/>
+        <item h="1" m="1" x="36"/>
+        <item h="1" m="1" x="67"/>
+        <item h="1" m="1" x="17"/>
+        <item h="1" m="1" x="164"/>
+        <item h="1" m="1" x="128"/>
+        <item h="1" m="1" x="156"/>
+        <item h="1" m="1" x="60"/>
+        <item h="1" m="1" x="169"/>
+        <item h="1" m="1" x="110"/>
+        <item h="1" m="1" x="138"/>
+        <item h="1" m="1" x="102"/>
+        <item h="1" m="1" x="31"/>
+        <item h="1" m="1" x="183"/>
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="100"/>
+        <item h="1" m="1" x="33"/>
+        <item h="1" m="1" x="68"/>
+        <item h="1" m="1" x="41"/>
+        <item h="1" m="1" x="199"/>
+        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="175"/>
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="74"/>
+        <item h="1" m="1" x="170"/>
+        <item h="1" m="1" x="61"/>
+        <item h="1" m="1" x="157"/>
+        <item h="1" m="1" x="197"/>
+        <item h="1" m="1" x="148"/>
+        <item h="1" m="1" x="86"/>
+        <item h="1" m="1" x="103"/>
+        <item h="1" m="1" x="152"/>
+        <item h="1" m="1" x="180"/>
+        <item h="1" m="1" x="136"/>
+        <item h="1" m="1" x="154"/>
+        <item h="1" m="1" x="93"/>
+        <item x="3"/>
+        <item h="1" m="1" x="55"/>
+        <item h="1" m="1" x="87"/>
+        <item h="1" m="1" x="42"/>
+        <item h="1" m="1" x="195"/>
+        <item h="1" m="1" x="104"/>
+        <item h="1" m="1" x="71"/>
+        <item h="1" m="1" x="155"/>
+        <item h="1" m="1" x="187"/>
+        <item h="1" m="1" x="111"/>
+        <item h="1" m="1" x="43"/>
+        <item h="1" m="1" x="158"/>
+        <item h="1" m="1" x="83"/>
         <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="117"/>
-        <item h="1" m="1" x="110"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="96"/>
-        <item h="1" m="1" x="183"/>
-        <item h="1" m="1" x="192"/>
-        <item h="1" m="1" x="21"/>
-        <item h="1" m="1" x="153"/>
-        <item h="1" m="1" x="115"/>
-        <item h="1" m="1" x="55"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="189"/>
-        <item h="1" m="1" x="107"/>
-        <item h="1" x="4"/>
-        <item h="1" m="1" x="84"/>
-        <item h="1" m="1" x="18"/>
-        <item h="1" m="1" x="69"/>
-        <item h="1" m="1" x="105"/>
-        <item h="1" m="1" x="52"/>
-        <item x="5"/>
-        <item h="1" m="1" x="188"/>
-        <item h="1" m="1" x="125"/>
-        <item h="1" m="1" x="166"/>
-        <item h="1" m="1" x="65"/>
-        <item h="1" m="1" x="80"/>
-        <item h="1" m="1" x="136"/>
-        <item h="1" m="1" x="73"/>
-        <item h="1" m="1" x="60"/>
-        <item h="1" m="1" x="149"/>
-        <item h="1" m="1" x="40"/>
-        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="139"/>
+        <item h="1" m="1" x="141"/>
+        <item h="1" m="1" x="58"/>
         <item h="1" m="1" x="140"/>
-        <item h="1" m="1" x="78"/>
-        <item h="1" m="1" x="34"/>
-        <item h="1" m="1" x="17"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="44"/>
-        <item h="1" m="1" x="89"/>
-        <item h="1" m="1" x="19"/>
-        <item h="1" m="1" x="160"/>
-        <item h="1" m="1" x="173"/>
-        <item h="1" m="1" x="48"/>
-        <item h="1" m="1" x="120"/>
-        <item h="1" m="1" x="29"/>
-        <item h="1" m="1" x="67"/>
-        <item h="1" m="1" x="103"/>
-        <item h="1" m="1" x="50"/>
-        <item h="1" m="1" x="161"/>
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="134"/>
-        <item h="1" m="1" x="155"/>
-        <item h="1" m="1" x="178"/>
-        <item h="1" m="1" x="154"/>
-        <item h="1" m="1" x="20"/>
-        <item h="1" m="1" x="23"/>
-        <item h="1" m="1" x="100"/>
-        <item h="1" m="1" x="135"/>
-        <item h="1" m="1" x="112"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" m="1" x="108"/>
-        <item h="1" m="1" x="79"/>
-        <item h="1" m="1" x="167"/>
-        <item h="1" m="1" x="66"/>
-        <item h="1" m="1" x="164"/>
-        <item h="1" m="1" x="53"/>
-        <item h="1" m="1" x="101"/>
         <item h="1" m="1" x="159"/>
-        <item h="1" m="1" x="137"/>
-        <item h="1" m="1" x="143"/>
-        <item h="1" m="1" x="86"/>
-        <item h="1" m="1" x="83"/>
-        <item h="1" m="1" x="68"/>
-        <item h="1" m="1" x="82"/>
-        <item h="1" m="1" x="63"/>
-        <item h="1" m="1" x="168"/>
-        <item h="1" m="1" x="152"/>
-        <item h="1" m="1" x="37"/>
-        <item h="1" m="1" x="114"/>
-        <item h="1" m="1" x="24"/>
-        <item h="1" m="1" x="176"/>
-        <item h="1" m="1" x="185"/>
-        <item h="1" m="1" x="116"/>
-        <item h="1" m="1" x="64"/>
-        <item h="1" m="1" x="14"/>
-        <item h="1" m="1" x="127"/>
-        <item h="1" m="1" x="150"/>
-        <item h="1" m="1" x="28"/>
-        <item h="1" m="1" x="147"/>
-        <item h="1" m="1" x="124"/>
-        <item h="1" m="1" x="128"/>
-        <item h="1" m="1" x="131"/>
-        <item h="1" m="1" x="170"/>
-        <item h="1" m="1" x="71"/>
-        <item h="1" m="1" x="27"/>
-        <item h="1" m="1" x="35"/>
-        <item h="1" m="1" x="141"/>
-        <item h="1" m="1" x="144"/>
-        <item h="1" m="1" x="93"/>
-        <item h="1" m="1" x="45"/>
-        <item h="1" m="1" x="111"/>
-        <item h="1" m="1" x="126"/>
-        <item h="1" m="1" x="158"/>
-        <item h="1" m="1" x="32"/>
-        <item h="1" m="1" x="113"/>
-        <item h="1" m="1" x="25"/>
-        <item h="1" m="1" x="138"/>
-        <item h="1" m="1" x="186"/>
-        <item h="1" m="1" x="76"/>
-        <item h="1" m="1" x="54"/>
-        <item h="1" m="1" x="16"/>
-        <item h="1" m="1" x="90"/>
-        <item h="1" m="1" x="165"/>
-        <item h="1" m="1" x="12"/>
-        <item h="1" m="1" x="31"/>
-        <item h="1" m="1" x="123"/>
-        <item h="1" m="1" x="190"/>
-        <item h="1" m="1" x="179"/>
-        <item h="1" m="1" x="39"/>
-        <item h="1" m="1" x="41"/>
-        <item h="1" m="1" x="74"/>
-        <item h="1" m="1" x="57"/>
-        <item h="1" m="1" x="61"/>
-        <item h="1" m="1" x="194"/>
-        <item h="1" m="1" x="162"/>
-        <item h="1" m="1" x="102"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="130"/>
-        <item h="1" m="1" x="42"/>
-        <item h="1" m="1" x="177"/>
-        <item h="1" m="1" x="181"/>
-        <item h="1" m="1" x="72"/>
-        <item h="1" m="1" x="182"/>
-        <item h="1" m="1" x="70"/>
-        <item h="1" m="1" x="38"/>
-        <item h="1" m="1" x="151"/>
-        <item h="1" m="1" x="92"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="81"/>
-        <item h="1" m="1" x="33"/>
-        <item h="1" m="1" x="36"/>
-        <item h="1" m="1" x="98"/>
-        <item h="1" m="1" x="132"/>
-        <item h="1" m="1" x="163"/>
-        <item h="1" m="1" x="47"/>
-        <item h="1" m="1" x="51"/>
-        <item h="1" m="1" x="148"/>
-        <item h="1" m="1" x="121"/>
-        <item h="1" m="1" x="62"/>
-        <item h="1" m="1" x="191"/>
-        <item h="1" m="1" x="13"/>
-        <item h="1" m="1" x="139"/>
-        <item h="1" m="1" x="119"/>
         <item h="1" m="1" x="171"/>
         <item h="1" m="1" x="106"/>
-        <item h="1" m="1" x="118"/>
-        <item h="1" m="1" x="22"/>
+        <item h="1" m="1" x="13"/>
+        <item h="1" m="1" x="94"/>
+        <item h="1" m="1" x="62"/>
+        <item h="1" m="1" x="176"/>
+        <item h="1" m="1" x="181"/>
+        <item h="1" m="1" x="115"/>
+        <item h="1" m="1" x="145"/>
+        <item h="1" m="1" x="135"/>
+        <item h="1" m="1" x="107"/>
+        <item h="1" m="1" x="32"/>
+        <item h="1" m="1" x="116"/>
+        <item h="1" m="1" x="75"/>
+        <item h="1" m="1" x="165"/>
+        <item h="1" m="1" x="126"/>
+        <item h="1" m="1" x="88"/>
+        <item h="1" m="1" x="78"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="26"/>
+        <item h="1" m="1" x="177"/>
+        <item h="1" m="1" x="14"/>
+        <item h="1" m="1" x="89"/>
+        <item h="1" m="1" x="121"/>
+        <item h="1" m="1" x="198"/>
+        <item h="1" m="1" x="149"/>
+        <item h="1" m="1" x="184"/>
+        <item h="1" m="1" x="72"/>
+        <item h="1" m="1" x="166"/>
+        <item h="1" x="4"/>
+        <item h="1" m="1" x="45"/>
+        <item h="1" m="1" x="129"/>
+        <item h="1" m="1" x="137"/>
+        <item h="1" m="1" x="15"/>
+        <item h="1" m="1" x="178"/>
+        <item h="1" m="1" x="160"/>
+        <item h="1" m="1" x="150"/>
+        <item h="1" m="1" x="131"/>
+        <item h="1" m="1" x="124"/>
+        <item h="1" m="1" x="101"/>
+        <item h="1" m="1" x="66"/>
+        <item h="1" m="1" x="167"/>
+        <item h="1" m="1" x="54"/>
+        <item h="1" m="1" x="127"/>
+        <item h="1" m="1" x="18"/>
+        <item h="1" m="1" x="133"/>
+        <item h="1" m="1" x="153"/>
         <item h="1" m="1" x="56"/>
-        <item h="1" m="1" x="169"/>
-        <item h="1" m="1" x="94"/>
-        <item h="1" m="1" x="109"/>
-        <item h="1" m="1" x="58"/>
-        <item h="1" m="1" x="87"/>
-        <item h="1" m="1" x="46"/>
-        <item h="1" m="1" x="77"/>
-        <item h="1" m="1" x="49"/>
-        <item h="1" m="1" x="180"/>
-        <item h="1" m="1" x="129"/>
-        <item h="1" m="1" x="174"/>
-        <item h="1" m="1" x="104"/>
-        <item h="1" m="1" x="156"/>
-        <item h="1" m="1" x="95"/>
-        <item h="1" m="1" x="88"/>
-        <item h="1" m="1" x="30"/>
-        <item h="1" m="1" x="85"/>
-        <item h="1" m="1" x="122"/>
-        <item h="1" m="1" x="99"/>
-        <item h="1" m="1" x="157"/>
-        <item h="1" m="1" x="75"/>
-        <item h="1" m="1" x="43"/>
-        <item h="1" m="1" x="133"/>
-        <item h="1" m="1" x="187"/>
-        <item h="1" m="1" x="193"/>
-        <item h="1" m="1" x="91"/>
-        <item h="1" m="1" x="184"/>
-        <item h="1" m="1" x="145"/>
-        <item h="1" m="1" x="175"/>
+        <item h="1" m="1" x="69"/>
+        <item h="1" m="1" x="97"/>
+        <item h="1" m="1" x="84"/>
+        <item h="1" m="1" x="185"/>
+        <item h="1" m="1" x="37"/>
+        <item h="1" m="1" x="168"/>
+        <item h="1" m="1" x="146"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="19">
+      <items count="24">
+        <item m="1" x="7"/>
+        <item m="1" x="15"/>
+        <item m="1" x="17"/>
+        <item m="1" x="12"/>
+        <item m="1" x="16"/>
+        <item m="1" x="6"/>
+        <item m="1" x="22"/>
+        <item x="1"/>
         <item x="4"/>
         <item x="2"/>
+        <item m="1" x="21"/>
+        <item m="1" x="18"/>
+        <item m="1" x="14"/>
         <item x="3"/>
+        <item m="1" x="10"/>
+        <item m="1" x="13"/>
+        <item m="1" x="20"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item m="1" x="17"/>
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="12"/>
+        <item m="1" x="19"/>
         <item m="1" x="9"/>
         <item m="1" x="11"/>
-        <item m="1" x="15"/>
-        <item m="1" x="7"/>
-        <item m="1" x="6"/>
-        <item m="1" x="14"/>
-        <item m="1" x="8"/>
-        <item m="1" x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6361,7 +7369,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="51">
+  <rowItems count="251">
     <i>
       <x/>
     </i>
@@ -6511,6 +7519,606 @@
     </i>
     <i>
       <x v="49"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="89"/>
+    </i>
+    <i>
+      <x v="90"/>
+    </i>
+    <i>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="97"/>
+    </i>
+    <i>
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="105"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="107"/>
+    </i>
+    <i>
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="109"/>
+    </i>
+    <i>
+      <x v="110"/>
+    </i>
+    <i>
+      <x v="111"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="116"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="118"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="126"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="131"/>
+    </i>
+    <i>
+      <x v="132"/>
+    </i>
+    <i>
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="136"/>
+    </i>
+    <i>
+      <x v="137"/>
+    </i>
+    <i>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="140"/>
+    </i>
+    <i>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="143"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="150"/>
+    </i>
+    <i>
+      <x v="151"/>
+    </i>
+    <i>
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="154"/>
+    </i>
+    <i>
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="158"/>
+    </i>
+    <i>
+      <x v="159"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="161"/>
+    </i>
+    <i>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="164"/>
+    </i>
+    <i>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="169"/>
+    </i>
+    <i>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="172"/>
+    </i>
+    <i>
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="181"/>
+    </i>
+    <i>
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="183"/>
+    </i>
+    <i>
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="185"/>
+    </i>
+    <i>
+      <x v="186"/>
+    </i>
+    <i>
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="188"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="190"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="194"/>
+    </i>
+    <i>
+      <x v="195"/>
+    </i>
+    <i>
+      <x v="196"/>
+    </i>
+    <i>
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="198"/>
+    </i>
+    <i>
+      <x v="199"/>
+    </i>
+    <i>
+      <x v="200"/>
+    </i>
+    <i>
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="202"/>
+    </i>
+    <i>
+      <x v="203"/>
+    </i>
+    <i>
+      <x v="204"/>
+    </i>
+    <i>
+      <x v="205"/>
+    </i>
+    <i>
+      <x v="206"/>
+    </i>
+    <i>
+      <x v="207"/>
+    </i>
+    <i>
+      <x v="208"/>
+    </i>
+    <i>
+      <x v="209"/>
+    </i>
+    <i>
+      <x v="210"/>
+    </i>
+    <i>
+      <x v="211"/>
+    </i>
+    <i>
+      <x v="212"/>
+    </i>
+    <i>
+      <x v="213"/>
+    </i>
+    <i>
+      <x v="214"/>
+    </i>
+    <i>
+      <x v="215"/>
+    </i>
+    <i>
+      <x v="216"/>
+    </i>
+    <i>
+      <x v="217"/>
+    </i>
+    <i>
+      <x v="218"/>
+    </i>
+    <i>
+      <x v="219"/>
+    </i>
+    <i>
+      <x v="220"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="222"/>
+    </i>
+    <i>
+      <x v="223"/>
+    </i>
+    <i>
+      <x v="224"/>
+    </i>
+    <i>
+      <x v="225"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i>
+      <x v="227"/>
+    </i>
+    <i>
+      <x v="228"/>
+    </i>
+    <i>
+      <x v="229"/>
+    </i>
+    <i>
+      <x v="230"/>
+    </i>
+    <i>
+      <x v="231"/>
+    </i>
+    <i>
+      <x v="232"/>
+    </i>
+    <i>
+      <x v="233"/>
+    </i>
+    <i>
+      <x v="234"/>
+    </i>
+    <i>
+      <x v="235"/>
+    </i>
+    <i>
+      <x v="236"/>
+    </i>
+    <i>
+      <x v="237"/>
+    </i>
+    <i>
+      <x v="238"/>
+    </i>
+    <i>
+      <x v="239"/>
+    </i>
+    <i>
+      <x v="240"/>
+    </i>
+    <i>
+      <x v="241"/>
+    </i>
+    <i>
+      <x v="242"/>
+    </i>
+    <i>
+      <x v="243"/>
+    </i>
+    <i>
+      <x v="244"/>
+    </i>
+    <i>
+      <x v="245"/>
+    </i>
+    <i>
+      <x v="246"/>
+    </i>
+    <i>
+      <x v="247"/>
+    </i>
+    <i>
+      <x v="248"/>
+    </i>
+    <i>
+      <x v="249"/>
     </i>
     <i t="grand">
       <x/>
@@ -6543,258 +8151,273 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
-  <location ref="A1:E44" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8" fieldListSortAscending="1">
+  <location ref="A1:E26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="198">
+      <items count="203">
+        <item m="1" x="183"/>
+        <item m="1" x="14"/>
+        <item m="1" x="9"/>
+        <item m="1" x="202"/>
+        <item m="1" x="159"/>
+        <item m="1" x="124"/>
+        <item m="1" x="110"/>
+        <item m="1" x="177"/>
+        <item m="1" x="143"/>
+        <item m="1" x="79"/>
+        <item m="1" x="70"/>
+        <item m="1" x="45"/>
+        <item m="1" x="32"/>
+        <item m="1" x="151"/>
+        <item m="1" x="105"/>
+        <item m="1" x="187"/>
+        <item m="1" x="97"/>
+        <item m="1" x="148"/>
+        <item m="1" x="101"/>
+        <item m="1" x="153"/>
+        <item m="1" x="125"/>
+        <item m="1" x="116"/>
+        <item m="1" x="194"/>
+        <item m="1" x="24"/>
+        <item m="1" x="63"/>
+        <item m="1" x="199"/>
+        <item m="1" x="113"/>
+        <item m="1" x="90"/>
+        <item m="1" x="22"/>
+        <item m="1" x="59"/>
+        <item m="1" x="198"/>
+        <item m="1" x="72"/>
+        <item m="1" x="156"/>
+        <item m="1" x="145"/>
+        <item m="1" x="82"/>
+        <item m="1" x="40"/>
+        <item m="1" x="19"/>
+        <item m="1" x="8"/>
+        <item m="1" x="48"/>
+        <item m="1" x="23"/>
+        <item m="1" x="169"/>
+        <item m="1" x="184"/>
+        <item m="1" x="52"/>
+        <item m="1" x="36"/>
+        <item m="1" x="106"/>
+        <item m="1" x="54"/>
+        <item m="1" x="172"/>
+        <item m="1" x="5"/>
+        <item m="1" x="142"/>
+        <item m="1" x="163"/>
+        <item m="1" x="189"/>
+        <item m="1" x="161"/>
+        <item m="1" x="27"/>
+        <item m="1" x="103"/>
+        <item m="1" x="118"/>
+        <item m="1" x="114"/>
+        <item m="1" x="84"/>
         <item m="1" x="178"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="197"/>
-        <item m="1" x="154"/>
-        <item m="1" x="119"/>
-        <item m="1" x="105"/>
-        <item m="1" x="172"/>
-        <item m="1" x="138"/>
-        <item m="1" x="75"/>
-        <item m="1" x="66"/>
-        <item m="1" x="44"/>
-        <item m="1" x="32"/>
-        <item m="1" x="146"/>
-        <item m="1" x="100"/>
-        <item m="1" x="182"/>
+        <item m="1" x="73"/>
+        <item m="1" x="175"/>
+        <item m="1" x="61"/>
+        <item m="1" x="104"/>
+        <item m="1" x="167"/>
+        <item m="1" x="149"/>
         <item m="1" x="92"/>
-        <item m="1" x="143"/>
-        <item m="1" x="96"/>
-        <item m="1" x="148"/>
-        <item m="1" x="120"/>
-        <item m="1" x="111"/>
-        <item m="1" x="189"/>
-        <item m="1" x="25"/>
-        <item m="1" x="61"/>
-        <item m="1" x="194"/>
-        <item m="1" x="108"/>
-        <item m="1" x="85"/>
-        <item m="1" x="23"/>
-        <item m="1" x="57"/>
-        <item m="1" x="193"/>
-        <item m="1" x="68"/>
-        <item m="1" x="151"/>
-        <item m="1" x="140"/>
-        <item m="1" x="78"/>
-        <item m="1" x="39"/>
-        <item m="1" x="20"/>
-        <item m="1" x="9"/>
-        <item m="1" x="47"/>
-        <item m="1" x="24"/>
-        <item m="1" x="164"/>
-        <item m="1" x="179"/>
-        <item m="1" x="51"/>
-        <item m="1" x="36"/>
-        <item m="1" x="101"/>
-        <item m="1" x="53"/>
-        <item m="1" x="167"/>
-        <item m="1" x="6"/>
-        <item m="1" x="137"/>
+        <item m="1" x="89"/>
+        <item m="1" x="74"/>
+        <item m="1" x="86"/>
+        <item m="1" x="71"/>
+        <item m="1" x="180"/>
         <item m="1" x="158"/>
-        <item m="1" x="184"/>
-        <item m="1" x="156"/>
-        <item m="1" x="27"/>
-        <item m="1" x="98"/>
-        <item m="1" x="113"/>
-        <item m="1" x="109"/>
-        <item m="1" x="80"/>
-        <item m="1" x="173"/>
-        <item m="1" x="69"/>
-        <item m="1" x="170"/>
-        <item m="1" x="59"/>
-        <item m="1" x="99"/>
-        <item m="1" x="162"/>
-        <item m="1" x="144"/>
-        <item m="1" x="87"/>
-        <item m="1" x="84"/>
-        <item m="1" x="70"/>
-        <item m="1" x="82"/>
-        <item m="1" x="67"/>
-        <item m="1" x="175"/>
-        <item m="1" x="153"/>
-        <item m="1" x="42"/>
-        <item m="1" x="116"/>
+        <item m="1" x="43"/>
+        <item m="1" x="121"/>
         <item m="1" x="28"/>
-        <item m="1" x="181"/>
-        <item m="1" x="191"/>
-        <item m="1" x="14"/>
-        <item m="1" x="129"/>
-        <item m="1" x="152"/>
-        <item m="1" x="124"/>
-        <item m="1" x="132"/>
-        <item m="1" x="135"/>
-        <item m="1" x="177"/>
-        <item m="1" x="74"/>
-        <item m="1" x="33"/>
-        <item m="1" x="40"/>
-        <item m="1" x="141"/>
-        <item m="1" x="93"/>
-        <item m="1" x="49"/>
-        <item m="1" x="128"/>
-        <item m="1" x="160"/>
-        <item m="1" x="37"/>
-        <item m="1" x="114"/>
-        <item m="1" x="29"/>
-        <item m="1" x="192"/>
-        <item m="1" x="77"/>
-        <item m="1" x="60"/>
-        <item m="1" x="16"/>
-        <item m="1" x="89"/>
-        <item m="1" x="171"/>
-        <item m="1" x="12"/>
-        <item m="1" x="123"/>
-        <item m="1" x="195"/>
-        <item m="1" x="43"/>
-        <item m="1" x="63"/>
-        <item m="1" x="168"/>
-        <item m="1" x="72"/>
-        <item m="1" x="7"/>
-        <item m="1" x="38"/>
-        <item m="1" x="136"/>
-        <item m="1" x="169"/>
-        <item m="1" x="50"/>
-        <item m="1" x="55"/>
+        <item m="1" x="186"/>
         <item m="1" x="196"/>
         <item m="1" x="13"/>
+        <item m="1" x="134"/>
+        <item m="1" x="157"/>
+        <item m="1" x="129"/>
+        <item m="1" x="137"/>
+        <item m="1" x="140"/>
+        <item m="1" x="182"/>
+        <item m="1" x="78"/>
+        <item m="1" x="33"/>
+        <item m="1" x="41"/>
+        <item m="1" x="146"/>
+        <item m="1" x="98"/>
+        <item m="1" x="50"/>
+        <item m="1" x="133"/>
+        <item m="1" x="165"/>
+        <item m="1" x="37"/>
+        <item m="1" x="119"/>
+        <item m="1" x="29"/>
+        <item m="1" x="197"/>
+        <item m="1" x="81"/>
+        <item m="1" x="62"/>
+        <item m="1" x="15"/>
+        <item m="1" x="94"/>
+        <item m="1" x="176"/>
+        <item m="1" x="11"/>
+        <item m="1" x="128"/>
+        <item m="1" x="200"/>
+        <item m="1" x="44"/>
+        <item m="1" x="67"/>
+        <item m="1" x="173"/>
+        <item m="1" x="76"/>
+        <item m="1" x="6"/>
+        <item m="1" x="39"/>
+        <item m="1" x="141"/>
+        <item m="1" x="174"/>
+        <item m="1" x="51"/>
+        <item m="1" x="57"/>
+        <item m="1" x="201"/>
+        <item m="1" x="12"/>
+        <item m="1" x="144"/>
+        <item m="1" x="127"/>
+        <item m="1" x="112"/>
+        <item m="1" x="126"/>
+        <item m="1" x="25"/>
+        <item m="1" x="115"/>
+        <item m="1" x="68"/>
+        <item m="1" x="53"/>
+        <item m="1" x="190"/>
+        <item m="1" x="138"/>
+        <item m="1" x="164"/>
+        <item m="1" x="108"/>
+        <item m="1" x="170"/>
+        <item m="1" x="100"/>
+        <item m="1" x="91"/>
+        <item m="1" x="31"/>
+        <item m="1" x="107"/>
+        <item m="1" x="192"/>
+        <item m="1" x="16"/>
+        <item m="1" x="35"/>
+        <item m="1" x="155"/>
+        <item m="1" x="93"/>
+        <item m="1" x="166"/>
+        <item m="1" x="120"/>
+        <item m="1" x="58"/>
+        <item m="1" x="109"/>
+        <item m="1" x="135"/>
+        <item m="1" x="162"/>
+        <item m="1" x="77"/>
+        <item m="1" x="87"/>
+        <item m="1" x="17"/>
+        <item m="1" x="47"/>
+        <item m="1" x="95"/>
+        <item m="1" x="195"/>
+        <item m="1" x="21"/>
+        <item m="1" x="60"/>
+        <item m="1" x="154"/>
+        <item m="1" x="171"/>
+        <item m="1" x="179"/>
+        <item m="1" x="20"/>
+        <item m="1" x="168"/>
+        <item m="1" x="136"/>
+        <item m="1" x="75"/>
+        <item m="1" x="123"/>
+        <item m="1" x="49"/>
+        <item m="1" x="132"/>
+        <item m="1" x="150"/>
+        <item m="1" x="122"/>
+        <item m="1" x="7"/>
+        <item m="1" x="181"/>
+        <item m="1" x="111"/>
+        <item m="1" x="188"/>
+        <item m="1" x="99"/>
+        <item m="1" x="117"/>
+        <item m="1" x="30"/>
+        <item m="1" x="83"/>
+        <item m="1" x="147"/>
+        <item m="1" x="130"/>
+        <item m="1" x="96"/>
+        <item m="1" x="102"/>
+        <item m="1" x="18"/>
+        <item m="1" x="160"/>
+        <item m="1" x="65"/>
+        <item m="1" x="10"/>
+        <item m="1" x="152"/>
+        <item m="1" x="185"/>
+        <item m="1" x="55"/>
+        <item m="1" x="64"/>
+        <item m="1" x="38"/>
+        <item m="1" x="66"/>
+        <item m="1" x="26"/>
         <item m="1" x="139"/>
-        <item m="1" x="122"/>
-        <item m="1" x="107"/>
-        <item m="1" x="121"/>
-        <item m="1" x="26"/>
-        <item m="1" x="110"/>
-        <item m="1" x="64"/>
-        <item m="1" x="52"/>
-        <item m="1" x="185"/>
-        <item m="1" x="133"/>
-        <item m="1" x="159"/>
-        <item m="1" x="103"/>
-        <item m="1" x="165"/>
-        <item m="1" x="95"/>
-        <item m="1" x="86"/>
-        <item m="1" x="31"/>
-        <item m="1" x="102"/>
-        <item m="1" x="187"/>
-        <item m="1" x="17"/>
-        <item m="1" x="35"/>
-        <item m="1" x="150"/>
+        <item m="1" x="69"/>
+        <item m="1" x="46"/>
+        <item m="1" x="85"/>
+        <item m="1" x="131"/>
+        <item m="1" x="80"/>
+        <item m="1" x="191"/>
+        <item m="1" x="193"/>
+        <item m="1" x="56"/>
+        <item m="1" x="42"/>
+        <item m="1" x="34"/>
         <item m="1" x="88"/>
-        <item m="1" x="161"/>
-        <item m="1" x="115"/>
-        <item m="1" x="56"/>
-        <item m="1" x="104"/>
-        <item m="1" x="130"/>
-        <item m="1" x="157"/>
-        <item m="1" x="73"/>
-        <item m="1" x="83"/>
-        <item m="1" x="18"/>
-        <item m="1" x="46"/>
-        <item m="1" x="90"/>
-        <item m="1" x="190"/>
-        <item m="1" x="22"/>
-        <item m="1" x="58"/>
-        <item m="1" x="149"/>
-        <item m="1" x="166"/>
-        <item m="1" x="174"/>
-        <item m="1" x="21"/>
-        <item m="1" x="163"/>
-        <item m="1" x="131"/>
-        <item m="1" x="71"/>
-        <item m="1" x="118"/>
-        <item m="1" x="48"/>
-        <item m="1" x="127"/>
-        <item m="1" x="145"/>
-        <item m="1" x="117"/>
-        <item m="1" x="8"/>
-        <item m="1" x="176"/>
-        <item m="1" x="106"/>
-        <item m="1" x="183"/>
-        <item m="1" x="94"/>
-        <item m="1" x="112"/>
-        <item m="1" x="30"/>
-        <item m="1" x="79"/>
-        <item m="1" x="142"/>
-        <item m="1" x="125"/>
-        <item m="1" x="91"/>
-        <item m="1" x="97"/>
-        <item m="1" x="19"/>
-        <item m="1" x="155"/>
-        <item m="1" x="62"/>
-        <item m="1" x="11"/>
-        <item m="1" x="147"/>
-        <item m="1" x="180"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item m="1" x="134"/>
-        <item m="1" x="65"/>
-        <item m="1" x="45"/>
-        <item m="1" x="81"/>
-        <item m="1" x="126"/>
-        <item m="1" x="76"/>
-        <item m="1" x="186"/>
-        <item m="1" x="188"/>
-        <item m="1" x="54"/>
-        <item m="1" x="41"/>
-        <item m="1" x="34"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
-      <items count="18">
-        <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item m="1" x="16"/>
-        <item m="1" x="17"/>
-        <item m="1" x="15"/>
-        <item m="1" x="7"/>
-        <item m="1" x="13"/>
-        <item m="1" x="8"/>
-        <item m="1" x="9"/>
-        <item m="1" x="10"/>
-        <item m="1" x="12"/>
-        <item m="1" x="14"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="23">
+        <item m="1" x="19"/>
+        <item m="1" x="14"/>
+        <item m="1" x="10"/>
+        <item m="1" x="21"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item m="1" x="20"/>
+        <item m="1" x="9"/>
+        <item m="1" x="11"/>
+        <item m="1" x="22"/>
+        <item m="1" x="17"/>
+        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
+        <item m="1" x="18"/>
+        <item m="1" x="7"/>
+        <item m="1" x="6"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="2">
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="18">
-        <item x="0"/>
+      <items count="23">
+        <item m="1" x="5"/>
+        <item m="1" x="10"/>
+        <item m="1" x="9"/>
+        <item m="1" x="14"/>
         <item m="1" x="7"/>
         <item m="1" x="11"/>
+        <item m="1" x="19"/>
+        <item m="1" x="21"/>
+        <item m="1" x="20"/>
+        <item m="1" x="18"/>
+        <item m="1" x="12"/>
+        <item m="1" x="16"/>
+        <item m="1" x="15"/>
+        <item m="1" x="6"/>
+        <item m="1" x="17"/>
+        <item m="1" x="8"/>
         <item m="1" x="13"/>
-        <item m="1" x="9"/>
-        <item m="1" x="8"/>
-        <item m="1" x="15"/>
-        <item m="1" x="10"/>
-        <item m="1" x="16"/>
-        <item m="1" x="14"/>
-        <item m="1" x="12"/>
+        <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -6802,9 +8425,9 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
       <items count="4">
+        <item x="3"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
         <item x="0"/>
       </items>
     </pivotField>
@@ -6823,123 +8446,69 @@
     <field x="1"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="42">
-    <i>
+  <rowItems count="24">
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="198"/>
+    </i>
+    <i r="2">
+      <x v="18"/>
+    </i>
+    <i r="3">
       <x/>
     </i>
+    <i>
+      <x v="18"/>
+    </i>
     <i r="1">
-      <x v="181"/>
+      <x v="199"/>
     </i>
     <i r="2">
-      <x v="15"/>
+      <x v="19"/>
+    </i>
+    <i r="3">
+      <x/>
     </i>
     <i r="3">
       <x v="1"/>
     </i>
+    <i>
+      <x v="19"/>
+    </i>
     <i r="1">
-      <x v="182"/>
+      <x v="200"/>
     </i>
     <i r="2">
-      <x v="16"/>
+      <x v="20"/>
+    </i>
+    <i r="3">
+      <x/>
     </i>
     <i r="3">
       <x v="1"/>
     </i>
+    <i>
+      <x v="20"/>
+    </i>
     <i r="1">
-      <x v="183"/>
+      <x v="201"/>
     </i>
     <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="184"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="185"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="3">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i r="1">
-      <x v="184"/>
-    </i>
-    <i r="2">
-      <x v="12"/>
+      <x v="21"/>
     </i>
     <i r="3">
       <x/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="21"/>
     </i>
     <i r="1">
-      <x v="183"/>
+      <x v="202"/>
     </i>
     <i r="2">
-      <x v="13"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="185"/>
-    </i>
-    <i r="2">
-      <x v="14"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i r="1">
-      <x v="181"/>
-    </i>
-    <i r="2">
-      <x v="15"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="182"/>
-    </i>
-    <i r="2">
-      <x v="16"/>
-    </i>
-    <i r="3">
-      <x/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i r="1">
-      <x v="197"/>
-    </i>
-    <i r="2">
-      <x v="17"/>
+      <x v="22"/>
     </i>
     <i r="3">
       <x/>
@@ -7064,202 +8633,207 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="195">
+      <items count="200">
         <i x="0"/>
         <i x="1"/>
         <i x="2"/>
-        <i x="3"/>
+        <i x="3" s="1"/>
         <i x="4"/>
-        <i x="5" s="1"/>
+        <i x="50" nd="1"/>
+        <i x="108" nd="1"/>
+        <i x="76" nd="1"/>
+        <i x="73" nd="1"/>
+        <i x="109" nd="1"/>
+        <i x="8" nd="1"/>
+        <i x="90" nd="1"/>
+        <i x="188" nd="1"/>
+        <i x="46" nd="1"/>
+        <i x="182" nd="1"/>
+        <i x="95" nd="1"/>
+        <i x="9" nd="1"/>
+        <i x="91" nd="1"/>
+        <i x="59" nd="1"/>
+        <i x="52" nd="1"/>
+        <i x="57" nd="1"/>
+        <i x="132" nd="1"/>
+        <i x="161" nd="1"/>
+        <i x="11" nd="1"/>
+        <i x="122" nd="1"/>
+        <i x="192" nd="1"/>
+        <i x="117" nd="1"/>
+        <i x="16" nd="1"/>
+        <i x="44" nd="1"/>
+        <i x="28" nd="1"/>
+        <i x="27" nd="1"/>
+        <i x="77" nd="1"/>
+        <i x="29" nd="1"/>
+        <i x="70" nd="1"/>
+        <i x="79" nd="1"/>
+        <i x="47" nd="1"/>
         <i x="142" nd="1"/>
-        <i x="97" nd="1"/>
-        <i x="146" nd="1"/>
-        <i x="59" nd="1"/>
+        <i x="48" nd="1"/>
+        <i x="162" nd="1"/>
+        <i x="105" nd="1"/>
+        <i x="179" nd="1"/>
+        <i x="92" nd="1"/>
+        <i x="118" nd="1"/>
+        <i x="98" nd="1"/>
+        <i x="189" nd="1"/>
+        <i x="19" nd="1"/>
         <i x="172" nd="1"/>
-        <i x="15" nd="1"/>
+        <i x="63" nd="1"/>
+        <i x="53" nd="1"/>
+        <i x="80" nd="1"/>
+        <i x="130" nd="1"/>
+        <i x="20" nd="1"/>
+        <i x="190" nd="1"/>
+        <i x="151" nd="1"/>
+        <i x="123" nd="1"/>
+        <i x="38" nd="1"/>
+        <i x="96" nd="1"/>
+        <i x="64" nd="1"/>
+        <i x="193" nd="1"/>
+        <i x="119" nd="1"/>
+        <i x="39" nd="1"/>
+        <i x="12" nd="1"/>
+        <i x="99" nd="1"/>
+        <i x="23" nd="1"/>
+        <i x="81" nd="1"/>
+        <i x="191" nd="1"/>
+        <i x="147" nd="1"/>
+        <i x="112" nd="1"/>
+        <i x="82" nd="1"/>
+        <i x="194" nd="1"/>
+        <i x="5" nd="1"/>
+        <i x="85" nd="1"/>
+        <i x="34" nd="1"/>
+        <i x="51" nd="1"/>
+        <i x="173" nd="1"/>
+        <i x="24" nd="1"/>
+        <i x="30" nd="1"/>
+        <i x="35" nd="1"/>
+        <i x="21" nd="1"/>
+        <i x="163" nd="1"/>
+        <i x="65" nd="1"/>
+        <i x="174" nd="1"/>
+        <i x="196" nd="1"/>
+        <i x="40" nd="1"/>
+        <i x="143" nd="1"/>
+        <i x="49" nd="1"/>
+        <i x="113" nd="1"/>
+        <i x="125" nd="1"/>
+        <i x="134" nd="1"/>
+        <i x="186" nd="1"/>
+        <i x="114" nd="1"/>
+        <i x="120" nd="1"/>
+        <i x="25" nd="1"/>
+        <i x="144" nd="1"/>
+        <i x="36" nd="1"/>
+        <i x="67" nd="1"/>
+        <i x="17" nd="1"/>
+        <i x="164" nd="1"/>
+        <i x="128" nd="1"/>
+        <i x="156" nd="1"/>
+        <i x="60" nd="1"/>
+        <i x="169" nd="1"/>
+        <i x="110" nd="1"/>
+        <i x="138" nd="1"/>
+        <i x="102" nd="1"/>
+        <i x="31" nd="1"/>
+        <i x="183" nd="1"/>
+        <i x="7" nd="1"/>
+        <i x="100" nd="1"/>
+        <i x="33" nd="1"/>
+        <i x="68" nd="1"/>
+        <i x="41" nd="1"/>
+        <i x="199" nd="1"/>
+        <i x="22" nd="1"/>
+        <i x="175" nd="1"/>
+        <i x="74" nd="1"/>
+        <i x="170" nd="1"/>
+        <i x="61" nd="1"/>
+        <i x="157" nd="1"/>
+        <i x="197" nd="1"/>
+        <i x="148" nd="1"/>
+        <i x="86" nd="1"/>
+        <i x="103" nd="1"/>
+        <i x="152" nd="1"/>
+        <i x="180" nd="1"/>
+        <i x="136" nd="1"/>
+        <i x="154" nd="1"/>
+        <i x="93" nd="1"/>
+        <i x="55" nd="1"/>
+        <i x="87" nd="1"/>
+        <i x="42" nd="1"/>
+        <i x="195" nd="1"/>
+        <i x="104" nd="1"/>
+        <i x="71" nd="1"/>
+        <i x="155" nd="1"/>
+        <i x="187" nd="1"/>
+        <i x="111" nd="1"/>
+        <i x="43" nd="1"/>
+        <i x="158" nd="1"/>
+        <i x="83" nd="1"/>
         <i x="10" nd="1"/>
-        <i x="117" nd="1"/>
-        <i x="110" nd="1"/>
-        <i x="96" nd="1"/>
-        <i x="183" nd="1"/>
-        <i x="192" nd="1"/>
-        <i x="21" nd="1"/>
-        <i x="153" nd="1"/>
-        <i x="115" nd="1"/>
-        <i x="55" nd="1"/>
-        <i x="189" nd="1"/>
-        <i x="107" nd="1"/>
-        <i x="84" nd="1"/>
-        <i x="18" nd="1"/>
-        <i x="69" nd="1"/>
-        <i x="105" nd="1"/>
-        <i x="52" nd="1"/>
-        <i x="188" nd="1"/>
-        <i x="125" nd="1"/>
-        <i x="166" nd="1"/>
-        <i x="65" nd="1"/>
-        <i x="80" nd="1"/>
-        <i x="136" nd="1"/>
-        <i x="73" nd="1"/>
-        <i x="60" nd="1"/>
-        <i x="149" nd="1"/>
-        <i x="40" nd="1"/>
-        <i x="26" nd="1"/>
+        <i x="139" nd="1"/>
+        <i x="141" nd="1"/>
+        <i x="58" nd="1"/>
         <i x="140" nd="1"/>
-        <i x="78" nd="1"/>
-        <i x="34" nd="1"/>
-        <i x="17" nd="1"/>
-        <i x="9" nd="1"/>
-        <i x="44" nd="1"/>
-        <i x="89" nd="1"/>
-        <i x="19" nd="1"/>
-        <i x="160" nd="1"/>
-        <i x="173" nd="1"/>
-        <i x="48" nd="1"/>
-        <i x="120" nd="1"/>
-        <i x="29" nd="1"/>
-        <i x="67" nd="1"/>
-        <i x="103" nd="1"/>
-        <i x="50" nd="1"/>
-        <i x="161" nd="1"/>
-        <i x="7" nd="1"/>
-        <i x="134" nd="1"/>
-        <i x="155" nd="1"/>
-        <i x="178" nd="1"/>
-        <i x="154" nd="1"/>
-        <i x="20" nd="1"/>
-        <i x="23" nd="1"/>
-        <i x="100" nd="1"/>
-        <i x="135" nd="1"/>
-        <i x="112" nd="1"/>
-        <i x="11" nd="1"/>
-        <i x="108" nd="1"/>
-        <i x="79" nd="1"/>
-        <i x="167" nd="1"/>
-        <i x="66" nd="1"/>
-        <i x="164" nd="1"/>
-        <i x="53" nd="1"/>
-        <i x="101" nd="1"/>
         <i x="159" nd="1"/>
-        <i x="137" nd="1"/>
-        <i x="143" nd="1"/>
-        <i x="86" nd="1"/>
-        <i x="83" nd="1"/>
-        <i x="68" nd="1"/>
-        <i x="82" nd="1"/>
-        <i x="63" nd="1"/>
-        <i x="168" nd="1"/>
-        <i x="152" nd="1"/>
-        <i x="37" nd="1"/>
-        <i x="114" nd="1"/>
-        <i x="24" nd="1"/>
-        <i x="176" nd="1"/>
-        <i x="185" nd="1"/>
-        <i x="116" nd="1"/>
-        <i x="64" nd="1"/>
-        <i x="14" nd="1"/>
-        <i x="127" nd="1"/>
-        <i x="150" nd="1"/>
-        <i x="28" nd="1"/>
-        <i x="147" nd="1"/>
-        <i x="124" nd="1"/>
-        <i x="128" nd="1"/>
-        <i x="131" nd="1"/>
-        <i x="170" nd="1"/>
-        <i x="71" nd="1"/>
-        <i x="27" nd="1"/>
-        <i x="35" nd="1"/>
-        <i x="141" nd="1"/>
-        <i x="144" nd="1"/>
-        <i x="93" nd="1"/>
-        <i x="45" nd="1"/>
-        <i x="111" nd="1"/>
-        <i x="126" nd="1"/>
-        <i x="158" nd="1"/>
-        <i x="32" nd="1"/>
-        <i x="113" nd="1"/>
-        <i x="25" nd="1"/>
-        <i x="138" nd="1"/>
-        <i x="186" nd="1"/>
-        <i x="76" nd="1"/>
-        <i x="54" nd="1"/>
-        <i x="16" nd="1"/>
-        <i x="90" nd="1"/>
-        <i x="165" nd="1"/>
-        <i x="12" nd="1"/>
-        <i x="31" nd="1"/>
-        <i x="123" nd="1"/>
-        <i x="190" nd="1"/>
-        <i x="179" nd="1"/>
-        <i x="39" nd="1"/>
-        <i x="41" nd="1"/>
-        <i x="74" nd="1"/>
-        <i x="57" nd="1"/>
-        <i x="61" nd="1"/>
-        <i x="194" nd="1"/>
-        <i x="162" nd="1"/>
-        <i x="102" nd="1"/>
-        <i x="6" nd="1"/>
-        <i x="130" nd="1"/>
-        <i x="42" nd="1"/>
-        <i x="177" nd="1"/>
-        <i x="181" nd="1"/>
-        <i x="72" nd="1"/>
-        <i x="182" nd="1"/>
-        <i x="70" nd="1"/>
-        <i x="38" nd="1"/>
-        <i x="151" nd="1"/>
-        <i x="92" nd="1"/>
-        <i x="8" nd="1"/>
-        <i x="81" nd="1"/>
-        <i x="33" nd="1"/>
-        <i x="36" nd="1"/>
-        <i x="98" nd="1"/>
-        <i x="132" nd="1"/>
-        <i x="163" nd="1"/>
-        <i x="47" nd="1"/>
-        <i x="51" nd="1"/>
-        <i x="148" nd="1"/>
-        <i x="121" nd="1"/>
-        <i x="62" nd="1"/>
-        <i x="191" nd="1"/>
-        <i x="13" nd="1"/>
-        <i x="139" nd="1"/>
-        <i x="119" nd="1"/>
         <i x="171" nd="1"/>
         <i x="106" nd="1"/>
-        <i x="118" nd="1"/>
-        <i x="22" nd="1"/>
+        <i x="13" nd="1"/>
+        <i x="94" nd="1"/>
+        <i x="62" nd="1"/>
+        <i x="176" nd="1"/>
+        <i x="181" nd="1"/>
+        <i x="115" nd="1"/>
+        <i x="145" nd="1"/>
+        <i x="135" nd="1"/>
+        <i x="107" nd="1"/>
+        <i x="32" nd="1"/>
+        <i x="116" nd="1"/>
+        <i x="75" nd="1"/>
+        <i x="165" nd="1"/>
+        <i x="126" nd="1"/>
+        <i x="88" nd="1"/>
+        <i x="78" nd="1"/>
+        <i x="6" nd="1"/>
+        <i x="26" nd="1"/>
+        <i x="177" nd="1"/>
+        <i x="14" nd="1"/>
+        <i x="89" nd="1"/>
+        <i x="121" nd="1"/>
+        <i x="198" nd="1"/>
+        <i x="149" nd="1"/>
+        <i x="184" nd="1"/>
+        <i x="72" nd="1"/>
+        <i x="166" nd="1"/>
+        <i x="45" nd="1"/>
+        <i x="129" nd="1"/>
+        <i x="137" nd="1"/>
+        <i x="15" nd="1"/>
+        <i x="178" nd="1"/>
+        <i x="160" nd="1"/>
+        <i x="150" nd="1"/>
+        <i x="131" nd="1"/>
+        <i x="124" nd="1"/>
+        <i x="101" nd="1"/>
+        <i x="66" nd="1"/>
+        <i x="167" nd="1"/>
+        <i x="54" nd="1"/>
+        <i x="127" nd="1"/>
+        <i x="18" nd="1"/>
+        <i x="133" nd="1"/>
+        <i x="153" nd="1"/>
         <i x="56" nd="1"/>
-        <i x="169" nd="1"/>
-        <i x="94" nd="1"/>
-        <i x="109" nd="1"/>
-        <i x="58" nd="1"/>
-        <i x="87" nd="1"/>
-        <i x="46" nd="1"/>
-        <i x="77" nd="1"/>
-        <i x="49" nd="1"/>
-        <i x="180" nd="1"/>
-        <i x="129" nd="1"/>
-        <i x="174" nd="1"/>
-        <i x="104" nd="1"/>
-        <i x="156" nd="1"/>
-        <i x="95" nd="1"/>
-        <i x="88" nd="1"/>
-        <i x="30" nd="1"/>
-        <i x="85" nd="1"/>
-        <i x="122" nd="1"/>
-        <i x="99" nd="1"/>
-        <i x="157" nd="1"/>
-        <i x="75" nd="1"/>
-        <i x="43" nd="1"/>
-        <i x="133" nd="1"/>
-        <i x="187" nd="1"/>
-        <i x="193" nd="1"/>
-        <i x="91" nd="1"/>
-        <i x="184" nd="1"/>
-        <i x="145" nd="1"/>
-        <i x="175" nd="1"/>
+        <i x="69" nd="1"/>
+        <i x="97" nd="1"/>
+        <i x="84" nd="1"/>
+        <i x="185" nd="1"/>
+        <i x="37" nd="1"/>
+        <i x="168" nd="1"/>
+        <i x="146" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -7273,25 +8847,30 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1">
-      <items count="18">
-        <i x="5" s="1"/>
+      <items count="23">
+        <i x="3" s="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="15" s="1" nd="1"/>
+        <i x="17" s="1" nd="1"/>
+        <i x="12" s="1" nd="1"/>
+        <i x="16" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="22" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
         <i x="4" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
+        <i x="21" s="1" nd="1"/>
+        <i x="18" s="1" nd="1"/>
+        <i x="14" s="1" nd="1"/>
+        <i x="10" s="1" nd="1"/>
+        <i x="13" s="1" nd="1"/>
+        <i x="20" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="17" s="1" nd="1"/>
-        <i x="16" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
+        <i x="19" s="1" nd="1"/>
         <i x="9" s="1" nd="1"/>
         <i x="11" s="1" nd="1"/>
-        <i x="15" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="14" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -8054,10 +9633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F252"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8079,7 +9658,7 @@
       </c>
       <c r="F1" s="4">
         <f>MIN($B:$B)</f>
-        <v>1.1526857502758499E-2</v>
+        <v>4.4736135751009001E-2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8087,14 +9666,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>2.4173477664589899E-2</v>
+        <v>0.11448063701391201</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4">
         <f>VLOOKUP(MAX($A:$A),$A:$B,2,FALSE)</f>
-        <v>1.34582994505763E-2</v>
+        <v>4.5225996524095501E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -8102,7 +9681,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1.8782664090395002E-2</v>
+        <v>0.114448986947536</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -8110,7 +9689,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1.8569238483905799E-2</v>
+        <v>0.114408418536186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -8118,7 +9697,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1.8355628475546799E-2</v>
+        <v>0.114347375929356</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -8126,7 +9705,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1.81380938738585E-2</v>
+        <v>0.114240065217018</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -8134,7 +9713,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1.79133601486683E-2</v>
+        <v>0.114011541008949</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8142,7 +9721,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1.7678784206509601E-2</v>
+        <v>0.113340176641941</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8150,7 +9729,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1.7432754859328301E-2</v>
+        <v>0.108749330043793</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -8158,7 +9737,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1.7175218090415001E-2</v>
+        <v>6.0663145035505302E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8166,7 +9745,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1.6908166930079498E-2</v>
+        <v>4.8797100782394402E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -8174,7 +9753,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1.6635760664939901E-2</v>
+        <v>4.8623703420162201E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -8182,7 +9761,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.63637306541204E-2</v>
+        <v>4.8454787582159001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -8190,7 +9769,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.6098072752356501E-2</v>
+        <v>4.8287346959114102E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -8198,7 +9777,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.5843661502003701E-2</v>
+        <v>4.8119083046913098E-2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -8206,7 +9785,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.5603618696332E-2</v>
+        <v>4.7948017716407797E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8214,7 +9793,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.53795778751373E-2</v>
+        <v>4.7772590070962899E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8222,7 +9801,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.5171991661191001E-2</v>
+        <v>4.7591559588909101E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8230,7 +9809,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.4980305917561099E-2</v>
+        <v>4.7404304146766697E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8238,7 +9817,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.48032922297716E-2</v>
+        <v>4.7211032360792202E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8246,7 +9825,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.46394912153482E-2</v>
+        <v>4.7013185918331098E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8254,7 +9833,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>1.44875030964613E-2</v>
+        <v>4.6813912689685801E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8262,7 +9841,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>1.43460929393768E-2</v>
+        <v>4.6618379652500201E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8270,7 +9849,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>1.42141133546829E-2</v>
+        <v>4.6433828771114301E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8278,7 +9857,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>1.4090212062001201E-2</v>
+        <v>4.6268373727798497E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8286,7 +9865,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>1.3972711749374899E-2</v>
+        <v>4.6129066497087499E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8294,7 +9873,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>1.3859662227332601E-2</v>
+        <v>4.6019256114959703E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8302,7 +9881,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>1.37491868808866E-2</v>
+        <v>4.5937508344650303E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8310,7 +9889,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>1.3639764860272401E-2</v>
+        <v>4.5878447592258502E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8318,7 +9897,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>1.35303810238838E-2</v>
+        <v>4.5835386961698497E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8326,7 +9905,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>1.3420577161014101E-2</v>
+        <v>4.5802488923072801E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8334,7 +9913,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>1.33104249835014E-2</v>
+        <v>4.5775700360536603E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8342,7 +9921,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>1.32004199549556E-2</v>
+        <v>4.5752611011266701E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8350,7 +9929,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>1.3091283850371799E-2</v>
+        <v>4.5731913298368503E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8358,7 +9937,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>1.2983731925487499E-2</v>
+        <v>4.5712910592556E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8366,7 +9945,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>1.28782466053963E-2</v>
+        <v>4.5695215463638299E-2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8374,7 +9953,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>1.27749713137746E-2</v>
+        <v>4.5678585767745999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8382,7 +9961,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>1.2673666700720799E-2</v>
+        <v>4.5662838965654401E-2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8390,7 +9969,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>1.25737963244319E-2</v>
+        <v>4.5647867023944903E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8398,7 +9977,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>1.24746579676867E-2</v>
+        <v>4.56335358321667E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8406,7 +9985,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>1.2375633232295499E-2</v>
+        <v>4.5619785785675E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8414,7 +9993,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>1.2276383116841301E-2</v>
+        <v>4.56065163016319E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8422,7 +10001,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>1.21769802644849E-2</v>
+        <v>4.5593671500682803E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8430,7 +10009,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>1.20778428390622E-2</v>
+        <v>4.5581188052892699E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8438,7 +10017,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>1.19796227663755E-2</v>
+        <v>4.55690585076809E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8446,7 +10025,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>1.18829701095819E-2</v>
+        <v>4.55572232604027E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8454,7 +10033,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>1.17885489016771E-2</v>
+        <v>4.5545674860477399E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8462,7 +10041,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>1.16970930248499E-2</v>
+        <v>4.5534379780292497E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8470,7 +10049,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>1.1609522625803901E-2</v>
+        <v>4.5523330569267301E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8478,7 +10057,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>1.1526857502758499E-2</v>
+        <v>4.5512497425079297E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8486,15 +10065,1615 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>1.34582994505763E-2</v>
+        <v>4.5501887798309298E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4.5491483062505701E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1">
+        <v>4.5481283217668499E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4.5471265912055997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1">
+        <v>4.5461446046829203E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4.5451812446117401E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>4.5442357659339898E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>4.5433074235916103E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>4.5423977077007301E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4.5415028929710402E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4.54062484204769E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4.5397642999887501E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4.5389182865619701E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>4.53808829188347E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4.5372746884822797E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>4.5364752411842298E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>4.5356906950473799E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>4.5349214226007503E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>4.53416630625725E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4.5334242284297901E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1">
+        <v>4.5326948165893603E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1">
+        <v>4.5319803059101098E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4.5312780886888497E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4.5305889099836301E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1">
+        <v>4.5299120247364003E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1">
+        <v>4.5292474329471602E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4.5285947620868697E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1">
+        <v>4.5279528945684398E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4.5273225754499401E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1">
+        <v>4.5267045497894301E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4.5260965824127197E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4.5254986733198201E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1">
+        <v>4.5249119400978102E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4.52433452010155E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1">
+        <v>4.5237679034471498E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1">
+        <v>4.5232094824314097E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1">
+        <v>4.5226611196994802E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4.5221216976642602E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1">
+        <v>4.5215897262096398E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1">
+        <v>4.5210685580968898E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1">
+        <v>4.5205537229776403E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1">
+        <v>4.5200496912002598E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4.5195512473583201E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1">
+        <v>4.5190617442131001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4.51858080923557E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1">
+        <v>4.5181054621934898E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4.5176375657320002E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1">
+        <v>4.5171774923801401E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1">
+        <v>4.5167237520217902E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1">
+        <v>4.5162759721279103E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1">
+        <v>4.5158356428146397E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1">
+        <v>4.5154016464948703E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4.5149736106395701E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1">
+        <v>4.51455116271973E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1">
+        <v>4.51413616538048E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4.5137248933315298E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1">
+        <v>4.5133195817470599E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1">
+        <v>4.5129202306270599E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1">
+        <v>4.5125260949134799E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1">
+        <v>4.5121368020772899E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4.5117527246475199E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1">
+        <v>4.5113734900951399E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1">
+        <v>4.5109990984201397E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1">
+        <v>4.5106295496225399E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1">
+        <v>4.5102640986442601E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1">
+        <v>4.5099023729562801E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1">
+        <v>4.5095469802617999E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1">
+        <v>4.50919345021248E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1">
+        <v>4.50884439051151E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1">
+        <v>4.50850017368793E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1">
+        <v>4.5081600546836902E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4.5078225433826398E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1">
+        <v>4.5074898749589899E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1">
+        <v>4.50715906918049E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4.5068331062793697E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1">
+        <v>4.5065101236105E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1">
+        <v>4.5061908662319197E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1">
+        <v>4.5058742165565498E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4.5055612921714797E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1">
+        <v>4.5052494853734998E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1">
+        <v>4.5049425214529003E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1">
+        <v>4.5046381652355201E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4.5043367892503697E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1">
+        <v>4.5040365308523199E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1">
+        <v>4.5037403702735901E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1">
+        <v>4.5034464448690401E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1">
+        <v>4.5031536370515803E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4.5028660446405397E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1">
+        <v>4.5025788247585297E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1">
+        <v>4.5022934675216703E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1">
+        <v>4.5020122081041301E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4.5017324388027198E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4.5014541596174198E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1">
+        <v>4.5011784881353399E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1">
+        <v>4.5009039342403398E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1">
+        <v>4.5006323605775798E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1">
+        <v>4.50036153197289E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1">
+        <v>4.5000929385423702E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1">
+        <v>4.4998265802860302E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1">
+        <v>4.4995613396167797E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1">
+        <v>4.4992975890636402E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1">
+        <v>4.4990357011556598E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1">
+        <v>4.4987745583057397E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1">
+        <v>4.49851565063E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1">
+        <v>4.4982571154832798E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1">
+        <v>4.49800193309784E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4.4977478682994801E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1">
+        <v>4.4974930584430702E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1">
+        <v>4.4972401112317997E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1">
+        <v>4.4969893991947202E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1">
+        <v>4.4967390596866601E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1">
+        <v>4.49649021029472E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1">
+        <v>4.4962413609027897E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4.4959940016269698E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1">
+        <v>4.4957481324672699E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1">
+        <v>4.4955026358365999E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1">
+        <v>4.4952578842639902E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1">
+        <v>4.4950142502784701E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4.4947713613510097E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4.4945292174816097E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1">
+        <v>4.4942885637283297E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1">
+        <v>4.4940464198589297E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1">
+        <v>4.4938061386346803E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1">
+        <v>4.4935666024684899E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1">
+        <v>4.49332743883133E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1">
+        <v>4.4930886477232E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1">
+        <v>4.4928494840860402E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1">
+        <v>4.4926114380359601E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1">
+        <v>4.49237450957298E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1">
+        <v>4.4921372085809701E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1">
+        <v>4.4919006526470198E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1">
+        <v>4.4916626065969502E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4.4914267957210499E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1">
+        <v>4.4911898672580698E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1">
+        <v>4.4909529387950897E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1">
+        <v>4.4907171279191999E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1">
+        <v>4.4904813170433003E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1">
+        <v>4.4902451336383799E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1">
+        <v>4.4900085777044303E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1">
+        <v>4.4897716492414502E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1">
+        <v>4.48953583836555E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1">
+        <v>4.4892989099025699E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1">
+        <v>4.48906309902668E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1">
+        <v>4.4888250529766097E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4.4885866343975102E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1">
+        <v>4.4883497059345197E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1">
+        <v>4.4881109148263897E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1">
+        <v>4.4878732413053499E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1">
+        <v>4.48763407766819E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1">
+        <v>4.4873949140310301E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1">
+        <v>4.48715463280678E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1">
+        <v>4.4869143515825299E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1">
+        <v>4.4866733253002201E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1">
+        <v>4.4864322990179097E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1">
+        <v>4.4861890375614201E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1">
+        <v>4.4859457761049298E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1">
+        <v>4.48570139706135E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1">
+        <v>4.4854573905468001E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1">
+        <v>4.4852111488580697E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1">
+        <v>4.4849641621112803E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1">
+        <v>4.4847168028354603E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1">
+        <v>4.48446795344353E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1">
+        <v>4.4842183589935303E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1">
+        <v>4.4839672744274098E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1">
+        <v>4.48371544480324E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1">
+        <v>4.4834636151790598E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1">
+        <v>4.4832076877355603E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1">
+        <v>4.4829525053501101E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1">
+        <v>4.48269471526146E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1">
+        <v>4.4824369251728099E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1">
+        <v>4.4821772724390002E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1">
+        <v>4.48191463947296E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
+        <v>4.4816508889198303E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1">
+        <v>4.4813860207796097E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1">
+        <v>4.48111891746521E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1">
+        <v>4.4808503240346902E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1">
+        <v>4.4805787503719302E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1">
+        <v>4.4803064316511203E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1">
+        <v>4.4800326228141799E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1">
+        <v>4.4797550886869403E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1">
+        <v>4.4794756919145598E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1">
+        <v>4.4791951775550801E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1">
+        <v>4.47891131043434E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1">
+        <v>4.4786252081394202E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1">
+        <v>4.4783364981412901E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1">
+        <v>4.4780440628528602E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1">
+        <v>4.47775050997734E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1">
+        <v>4.47745323181152E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1">
+        <v>4.4771533459425E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1">
+        <v>4.4768489897251101E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1">
+        <v>4.47654277086258E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1">
+        <v>4.4762335717678098E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1">
+        <v>4.47591990232468E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1">
+        <v>4.4756021350622198E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1">
+        <v>4.4752806425094598E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1">
+        <v>4.4749561697244603E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1">
+        <v>4.4746272265911102E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1">
+        <v>4.4742938131094E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1">
+        <v>4.4739559292793302E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1">
+        <v>4.4736135751009001E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1">
+        <v>4.5225996524095501E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="1">
-        <v>1.4575360976159574E-2</v>
+      <c r="B252" s="1">
+        <v>4.750303725898266E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8512,10 +11691,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8570,24 +11749,24 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0</v>
+        <v>42336</v>
       </c>
       <c r="B3" s="1">
-        <v>0.13116377559180062</v>
+        <v>0.12591803558170794</v>
       </c>
       <c r="C3" s="1">
-        <v>0.27885757094326741</v>
+        <v>7.7573341630632051E-2</v>
       </c>
       <c r="D3" s="1">
-        <v>0.43216724105256921</v>
+        <v>7.8333137869776692E-2</v>
       </c>
       <c r="E3" s="1">
-        <v>0.11047745489670585</v>
+        <v>4.005893656052649E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>10108</v>
+        <v>42336</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8596,7 +11775,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
-        <v>2932</v>
+        <v>91720</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -8605,29 +11784,41 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.12591803558170794</v>
+      </c>
       <c r="C6" s="1">
-        <v>0.25530025790678335</v>
+        <v>7.7573341630632051E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>0.51889725737972181</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>7.8333137869776692E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.005893656052649E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>13468</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="A7" s="3">
+        <v>47036</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.1271947807730518E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.6883355396434989E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.3340924984773632E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.5950798133673301E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>196</v>
+      <c r="A8" s="7">
+        <v>47036</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8635,56 +11826,68 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8">
+        <v>49124</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.0424441516320998E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.6572422469576038E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.2665016535886063E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.5171217609622434E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>0.1426734942290932</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.52762532267253848</v>
-      </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>2992</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>11948</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1">
+        <v>0.14699835766106845</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7.5672238022089E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.11766050398349762</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.13320346850901843</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>22</v>
+      <c r="A12" s="3">
+        <v>61028</v>
       </c>
       <c r="B12" s="1">
-        <v>0.13761009382084011</v>
+        <v>4.1237918236968707E-2</v>
       </c>
       <c r="C12" s="1">
-        <v>0.43859896069392562</v>
+        <v>3.6062077943080105E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>0.24997914310544733</v>
+        <v>3.3178974567925477E-2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.16224114974495024</v>
+        <v>3.5817176829060729E-2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>584</v>
+        <v>61028</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -8693,7 +11896,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
-        <v>4312</v>
+        <v>73488</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -8702,360 +11905,162 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.0356546505233029E-2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.5838002602314067E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3.2351496499293073E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.5011274480262776E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.12279099874198436</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <v>0.10857769584283233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>3236</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1">
+        <v>0.15118904177099465</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6.4015476703643798E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.13640686362981794</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.13635349484160542</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>2856</v>
-      </c>
-      <c r="B17" s="1"/>
+      <c r="A17" s="3">
+        <v>73624</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.15978404376655819</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.13309023421257735</v>
-      </c>
+      <c r="A18" s="7">
+        <v>73624</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <v>6.0613519102334978E-2</v>
-      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>584</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8.9747606813907602E-2</v>
-      </c>
+      <c r="A19" s="8">
+        <v>76992</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <v>0.10348443602211774</v>
-      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>584</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.15978404376655819</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>4312</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="3">
+        <v>89824</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.90164147798986605</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.83566533486482875</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.87432223449762958</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.90753879443433128</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8.9747606813907602E-2</v>
-      </c>
+      <c r="A22" s="7">
+        <v>89824</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1">
-        <v>0.10348443602211774</v>
-      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>2992</v>
-      </c>
-      <c r="B23" s="1">
-        <v>9.4523630216717697E-2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6.44884042814374E-2</v>
-      </c>
-      <c r="D23" s="1">
-        <v>7.7469987124204637E-2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>8.2980411993339664E-2</v>
-      </c>
+      <c r="A23" s="8">
+        <v>58020</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>2992</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.90231489914572072</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.83725219790945071</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.87479284423744985</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.9082315266920713</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <v>11948</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.81763218879699706</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.63770417004823687</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.81561366945505143</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.82112044528126715</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>21</v>
+      <c r="A26" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B26" s="1">
-        <v>9.4523630216717697E-2</v>
+        <v>0.32707378666234632</v>
       </c>
       <c r="C26" s="1">
-        <v>6.44884042814374E-2</v>
+        <v>0.30227462641989922</v>
       </c>
       <c r="D26" s="1">
-        <v>7.7469987124204637E-2</v>
+        <v>0.31299201981414043</v>
       </c>
       <c r="E26" s="1">
-        <v>8.2980411993339664E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>3236</v>
-      </c>
-      <c r="B27" s="1">
-        <v>9.5816573034971958E-2</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1">
-        <v>3.2228669207543144E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>3236</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
-        <v>2856</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="1">
-        <v>9.5816573034971958E-2</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>3.2228669207543144E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>10108</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1">
-        <v>6.7580254711210722E-2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>8.673132877796888E-2</v>
-      </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>10108</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>2932</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1">
-        <v>6.7580254711210722E-2</v>
-      </c>
-      <c r="D34" s="1">
-        <v>8.673132877796888E-2</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>13468</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <v>6.6199048794805981E-2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>8.7992129400372501E-2</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>13468</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>196</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1">
-        <v>6.6199048794805981E-2</v>
-      </c>
-      <c r="D38" s="1">
-        <v>8.7992129400372501E-2</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>18724</v>
-      </c>
-      <c r="B39" s="1">
-        <v>8.923767272382975E-2</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5.9212390538305043E-2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>7.0731265866197643E-2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>4.0706191915087404E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>18724</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>17600</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="1">
-        <v>8.9834346678107982E-2</v>
-      </c>
-      <c r="C42" s="1">
-        <v>5.9473988655954602E-2</v>
-      </c>
-      <c r="D42" s="1">
-        <v>7.0713040670379992E-2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4.0446828207932412E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="1">
-        <v>8.8640998769551518E-2</v>
-      </c>
-      <c r="C43" s="1">
-        <v>5.8950792420655478E-2</v>
-      </c>
-      <c r="D43" s="1">
-        <v>7.0749491062015293E-2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>4.096555562224239E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.10650681028608233</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.14415815021173331</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.21126971252408111</v>
-      </c>
-      <c r="E44" s="1">
-        <v>7.8942283217911607E-2</v>
+        <v>0.32567848033903896</v>
       </c>
     </row>
   </sheetData>
